--- a/inputXls/Students.xlsx
+++ b/inputXls/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC92711-9A6A-40A6-AD61-0D741C28F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA0481-8A46-43D2-968E-30A1CC4DF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="11295" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
+    <workbookView xWindow="9600" yWindow="3435" windowWidth="28800" windowHeight="11295" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="376">
   <si>
     <t>nisn</t>
   </si>
@@ -1160,13 +1160,16 @@
   </si>
   <si>
     <t>IRFAN RISKY</t>
+  </si>
+  <si>
+    <t>privilegeId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,19 +1181,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1208,21 +1198,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1268,95 +1253,71 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519EFFAB-D3F4-48C4-A106-51962037C05A}">
   <dimension ref="A1:H393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,16 +1668,18 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1000000000</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1731,16 +1694,18 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>1000000001</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1755,16 +1720,18 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>1000000002</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1779,16 +1746,18 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>1000000003</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1803,16 +1772,18 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1000000004</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1827,16 +1798,18 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1000000005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1851,16 +1824,18 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1000000006</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1875,16 +1850,18 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>1000000007</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1899,16 +1876,18 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1000000008</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1923,16 +1902,18 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1000000009</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1947,16 +1928,18 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>1000000010</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1971,16 +1954,18 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>1000000011</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1995,16 +1980,18 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1000000012</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2019,16 +2006,18 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>1000000013</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2043,16 +2032,18 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1000000014</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2067,16 +2058,18 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>1000000015</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2091,16 +2084,18 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1000000016</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2115,16 +2110,18 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>1000000017</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2139,16 +2136,18 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1000000018</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2163,16 +2162,18 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>1000000019</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2187,16 +2188,18 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1000000020</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2211,16 +2214,18 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>1000000021</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2235,16 +2240,18 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1000000022</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2259,16 +2266,18 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>1000000023</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2283,16 +2292,18 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1000000024</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2307,16 +2318,18 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>1000000025</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2331,15 +2344,18 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>1000000026</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2354,15 +2370,18 @@
       <c r="G28" s="2">
         <v>2</v>
       </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>1000000027</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2377,15 +2396,18 @@
       <c r="G29" s="2">
         <v>2</v>
       </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>1000000028</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2400,15 +2422,18 @@
       <c r="G30" s="2">
         <v>2</v>
       </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>1000000029</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2423,15 +2448,18 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>1000000030</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2446,15 +2474,18 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>1000000031</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2469,15 +2500,18 @@
       <c r="G33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="H33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>1000000032</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2492,15 +2526,18 @@
       <c r="G34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>1000000033</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2515,15 +2552,18 @@
       <c r="G35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="H35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>1000000034</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2538,15 +2578,18 @@
       <c r="G36" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="H36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>1000000035</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2561,15 +2604,18 @@
       <c r="G37" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>1000000036</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2584,15 +2630,18 @@
       <c r="G38" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>1000000037</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2607,15 +2656,18 @@
       <c r="G39" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="H39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>1000000038</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2630,15 +2682,18 @@
       <c r="G40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>1000000039</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2653,15 +2708,18 @@
       <c r="G41" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="H41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>1000000040</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2676,15 +2734,18 @@
       <c r="G42" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="H42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>1000000041</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2699,15 +2760,18 @@
       <c r="G43" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="H43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>1000000042</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2722,15 +2786,18 @@
       <c r="G44" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>1000000043</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2745,15 +2812,18 @@
       <c r="G45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="H45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>1000000044</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2768,15 +2838,18 @@
       <c r="G46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="H46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>1000000045</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2791,15 +2864,18 @@
       <c r="G47" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="H47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>1000000046</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2814,15 +2890,18 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="H48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>1000000047</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2837,15 +2916,18 @@
       <c r="G49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="H49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>1000000048</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2860,15 +2942,18 @@
       <c r="G50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>1000000049</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2883,15 +2968,18 @@
       <c r="G51" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>1000000050</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2906,15 +2994,18 @@
       <c r="G52" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>1000000051</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2929,15 +3020,18 @@
       <c r="G53" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>1000000052</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2952,15 +3046,18 @@
       <c r="G54" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="H54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>1000000053</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2975,15 +3072,18 @@
       <c r="G55" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
         <v>1000000054</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2998,15 +3098,18 @@
       <c r="G56" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>1000000055</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3021,15 +3124,18 @@
       <c r="G57" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>1000000056</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3044,15 +3150,18 @@
       <c r="G58" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>1000000057</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -3067,15 +3176,18 @@
       <c r="G59" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>1000000058</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3090,15 +3202,18 @@
       <c r="G60" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>1000000059</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3113,15 +3228,18 @@
       <c r="G61" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>1000000060</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3136,15 +3254,18 @@
       <c r="G62" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>1000000061</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3159,15 +3280,18 @@
       <c r="G63" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="H63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>1000000062</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3182,15 +3306,18 @@
       <c r="G64" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="H64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>1000000063</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3205,15 +3332,18 @@
       <c r="G65" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
         <v>1000000064</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3228,15 +3358,18 @@
       <c r="G66" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>1000000065</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3251,15 +3384,18 @@
       <c r="G67" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
         <v>1000000066</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3274,15 +3410,18 @@
       <c r="G68" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>1000000067</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3297,15 +3436,18 @@
       <c r="G69" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="H69" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
         <v>1000000068</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3320,15 +3462,18 @@
       <c r="G70" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
         <v>1000000069</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3343,15 +3488,18 @@
       <c r="G71" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="H71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>1000000070</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3366,15 +3514,18 @@
       <c r="G72" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="H72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>1000000071</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3389,15 +3540,18 @@
       <c r="G73" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="H73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>1000000072</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3412,15 +3566,18 @@
       <c r="G74" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="H74" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>1000000073</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3435,15 +3592,18 @@
       <c r="G75" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="H75" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>1000000074</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3458,15 +3618,18 @@
       <c r="G76" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="H76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>1000000075</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3481,15 +3644,18 @@
       <c r="G77" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="H77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>1000000076</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3504,15 +3670,18 @@
       <c r="G78" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="H78" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>1000000077</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3527,15 +3696,18 @@
       <c r="G79" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="H79" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>1000000078</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3550,15 +3722,18 @@
       <c r="G80" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="H80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>1000000079</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3573,15 +3748,18 @@
       <c r="G81" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="H81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>1000000080</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3596,15 +3774,18 @@
       <c r="G82" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="H82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
         <v>1000000081</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3619,15 +3800,18 @@
       <c r="G83" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="H83" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>1000000082</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3642,15 +3826,18 @@
       <c r="G84" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="H84" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
         <v>1000000083</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3665,15 +3852,18 @@
       <c r="G85" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="H85" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
         <v>1000000084</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3688,15 +3878,18 @@
       <c r="G86" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="H86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
         <v>1000000085</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3711,15 +3904,18 @@
       <c r="G87" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="H87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
         <v>1000000086</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -3734,15 +3930,18 @@
       <c r="G88" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="H88" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
         <v>1000000087</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -3757,15 +3956,18 @@
       <c r="G89" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="H89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
         <v>1000000088</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3780,15 +3982,18 @@
       <c r="G90" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="H90" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
         <v>1000000089</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3803,15 +4008,18 @@
       <c r="G91" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="H91" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
         <v>1000000090</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3826,15 +4034,18 @@
       <c r="G92" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="H92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
         <v>1000000091</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3849,15 +4060,18 @@
       <c r="G93" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="H93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
         <v>1000000092</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3872,15 +4086,18 @@
       <c r="G94" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="H94" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
         <v>1000000093</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -3895,15 +4112,18 @@
       <c r="G95" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="H95" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
         <v>1000000094</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3918,15 +4138,18 @@
       <c r="G96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="H96" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
         <v>1000000095</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -3941,15 +4164,18 @@
       <c r="G97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="H97" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
         <v>1000000096</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -3964,15 +4190,18 @@
       <c r="G98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="H98" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
         <v>1000000097</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -3987,15 +4216,18 @@
       <c r="G99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="H99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
         <v>1000000098</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4010,15 +4242,18 @@
       <c r="G100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="H100" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
         <v>1000000099</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4033,15 +4268,18 @@
       <c r="G101" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="H101" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
         <v>1000000100</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4056,15 +4294,18 @@
       <c r="G102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="H102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
         <v>1000000101</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4079,15 +4320,18 @@
       <c r="G103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="H103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
         <v>1000000102</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4102,15 +4346,18 @@
       <c r="G104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="H104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
         <v>1000000103</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4125,15 +4372,18 @@
       <c r="G105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="H105" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
         <v>1000000104</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4148,15 +4398,18 @@
       <c r="G106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="H106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
         <v>1000000105</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4171,15 +4424,18 @@
       <c r="G107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="H107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
         <v>1000000106</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4194,15 +4450,18 @@
       <c r="G108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="H108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
         <v>1000000107</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4217,15 +4476,18 @@
       <c r="G109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
         <v>1000000108</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4240,15 +4502,18 @@
       <c r="G110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="H110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
         <v>1000000109</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4263,15 +4528,18 @@
       <c r="G111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="H111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
         <v>1000000110</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4286,15 +4554,18 @@
       <c r="G112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="H112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
         <v>1000000111</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4309,15 +4580,18 @@
       <c r="G113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="H113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
         <v>1000000112</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -4332,15 +4606,18 @@
       <c r="G114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="H114" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
         <v>1000000113</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4355,15 +4632,18 @@
       <c r="G115" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="H115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
         <v>1000000114</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4378,15 +4658,18 @@
       <c r="G116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="H116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
         <v>1000000115</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4401,15 +4684,18 @@
       <c r="G117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="H117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
         <v>1000000116</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4424,15 +4710,18 @@
       <c r="G118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="H118" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
         <v>1000000117</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -4447,15 +4736,18 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="H119" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
         <v>1000000118</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4470,15 +4762,18 @@
       <c r="G120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="H120" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
         <v>1000000119</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4493,15 +4788,18 @@
       <c r="G121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="H121" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
         <v>1000000120</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -4516,15 +4814,18 @@
       <c r="G122" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
         <v>1000000121</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -4539,15 +4840,18 @@
       <c r="G123" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="H123" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
         <v>1000000122</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -4562,15 +4866,18 @@
       <c r="G124" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="H124" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
         <v>1000000123</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4585,15 +4892,18 @@
       <c r="G125" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="H125" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
         <v>1000000124</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -4608,15 +4918,18 @@
       <c r="G126" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="H126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
         <v>1000000125</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4631,15 +4944,18 @@
       <c r="G127" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="H127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
         <v>1000000126</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4654,15 +4970,18 @@
       <c r="G128" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="H128" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
         <v>1000000127</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4677,15 +4996,18 @@
       <c r="G129" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="H129" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
         <v>1000000128</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4700,15 +5022,18 @@
       <c r="G130" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="H130" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
         <v>1000000129</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -4723,15 +5048,18 @@
       <c r="G131" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="H131" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
         <v>1000000130</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -4746,15 +5074,18 @@
       <c r="G132" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="H132" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
         <v>1000000131</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -4769,15 +5100,18 @@
       <c r="G133" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="H133" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
         <v>1000000132</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -4792,15 +5126,18 @@
       <c r="G134" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="H134" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
         <v>1000000133</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -4815,15 +5152,18 @@
       <c r="G135" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="H135" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
         <v>1000000134</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -4838,15 +5178,18 @@
       <c r="G136" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="H136" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
         <v>1000000135</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -4861,15 +5204,18 @@
       <c r="G137" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="H137" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
         <v>1000000136</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -4884,15 +5230,18 @@
       <c r="G138" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="H138" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
         <v>1000000137</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -4907,15 +5256,18 @@
       <c r="G139" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="H139" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
         <v>1000000138</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -4930,15 +5282,18 @@
       <c r="G140" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="H140" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
         <v>1000000139</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -4953,15 +5308,18 @@
       <c r="G141" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="H141" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
         <v>1000000140</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -4976,15 +5334,18 @@
       <c r="G142" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="H142" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
         <v>1000000141</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4999,15 +5360,18 @@
       <c r="G143" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="H143" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
         <v>1000000142</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -5022,15 +5386,18 @@
       <c r="G144" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="H144" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
         <v>1000000143</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -5045,15 +5412,18 @@
       <c r="G145" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="H145" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
         <v>1000000144</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -5068,15 +5438,18 @@
       <c r="G146" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="H146" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
         <v>1000000145</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -5091,15 +5464,18 @@
       <c r="G147" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="H147" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
         <v>1000000146</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -5114,15 +5490,18 @@
       <c r="G148" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="H148" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
         <v>1000000147</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -5137,15 +5516,18 @@
       <c r="G149" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="H149" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
         <v>1000000148</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -5160,15 +5542,18 @@
       <c r="G150" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="H150" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
         <v>1000000149</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -5183,15 +5568,18 @@
       <c r="G151" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="H151" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
         <v>1000000150</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -5206,15 +5594,18 @@
       <c r="G152" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="H152" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
         <v>1000000151</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -5229,15 +5620,18 @@
       <c r="G153" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="H153" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
         <v>1000000152</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -5252,15 +5646,18 @@
       <c r="G154" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="H154" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
         <v>1000000153</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -5275,15 +5672,18 @@
       <c r="G155" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="H155" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
         <v>1000000154</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -5298,15 +5698,18 @@
       <c r="G156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="H156" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
         <v>1000000155</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -5321,15 +5724,18 @@
       <c r="G157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="H157" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
         <v>1000000156</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -5344,15 +5750,18 @@
       <c r="G158" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="H158" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
         <v>1000000157</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -5367,15 +5776,18 @@
       <c r="G159" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="H159" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
         <v>1000000158</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -5390,15 +5802,18 @@
       <c r="G160" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="H160" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
         <v>1000000159</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -5413,15 +5828,18 @@
       <c r="G161" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="H161" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
         <v>1000000160</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -5436,15 +5854,18 @@
       <c r="G162" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="H162" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
         <v>1000000161</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -5459,15 +5880,18 @@
       <c r="G163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="H163" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
         <v>1000000162</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -5482,15 +5906,18 @@
       <c r="G164" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="H164" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
         <v>1000000163</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -5505,15 +5932,18 @@
       <c r="G165" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="H165" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
         <v>1000000164</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -5528,15 +5958,18 @@
       <c r="G166" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="H166" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
         <v>1000000165</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -5551,15 +5984,18 @@
       <c r="G167" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="H167" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
         <v>1000000166</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -5574,15 +6010,18 @@
       <c r="G168" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="H168" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
         <v>1000000167</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -5597,15 +6036,18 @@
       <c r="G169" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="H169" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
         <v>1000000168</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -5620,15 +6062,18 @@
       <c r="G170" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="H170" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
         <v>1000000169</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -5643,15 +6088,18 @@
       <c r="G171" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="H171" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
         <v>1000000170</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -5666,15 +6114,18 @@
       <c r="G172" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="H172" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
         <v>1000000171</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -5689,15 +6140,18 @@
       <c r="G173" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="H173" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
         <v>1000000172</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -5712,15 +6166,18 @@
       <c r="G174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="H174" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
         <v>1000000173</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -5735,15 +6192,18 @@
       <c r="G175" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="H175" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
         <v>1000000174</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -5758,15 +6218,18 @@
       <c r="G176" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="H176" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
         <v>1000000175</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -5781,15 +6244,18 @@
       <c r="G177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="H177" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
         <v>1000000176</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -5804,15 +6270,18 @@
       <c r="G178" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="H178" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
         <v>1000000177</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -5827,15 +6296,18 @@
       <c r="G179" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="H179" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
         <v>1000000178</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -5850,15 +6322,18 @@
       <c r="G180" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="H180" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
         <v>1000000179</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -5873,15 +6348,18 @@
       <c r="G181" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="H181" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
         <v>1000000180</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -5896,15 +6374,18 @@
       <c r="G182" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="H182" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
         <v>1000000181</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -5919,15 +6400,18 @@
       <c r="G183" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="H183" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
         <v>1000000182</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -5942,15 +6426,18 @@
       <c r="G184" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="H184" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
         <v>1000000183</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -5965,15 +6452,18 @@
       <c r="G185" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="H185" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
         <v>1000000184</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -5988,15 +6478,18 @@
       <c r="G186" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="H186" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
         <v>1000000185</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -6011,15 +6504,18 @@
       <c r="G187" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="H187" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
         <v>1000000186</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -6034,15 +6530,18 @@
       <c r="G188" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="H188" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
         <v>1000000187</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -6057,15 +6556,18 @@
       <c r="G189" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="H189" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
         <v>1000000188</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -6080,15 +6582,18 @@
       <c r="G190" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="H190" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
         <v>1000000189</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -6103,15 +6608,18 @@
       <c r="G191" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="H191" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
         <v>1000000190</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -6126,15 +6634,18 @@
       <c r="G192" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="H192" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
         <v>1000000191</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -6149,15 +6660,18 @@
       <c r="G193" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="H193" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
         <v>1000000192</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -6172,15 +6686,18 @@
       <c r="G194" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="H194" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
         <v>1000000193</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -6195,15 +6712,18 @@
       <c r="G195" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="H195" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
         <v>1000000194</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -6218,15 +6738,18 @@
       <c r="G196" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="H196" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
         <v>1000000195</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -6241,15 +6764,18 @@
       <c r="G197" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="H197" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
         <v>1000000196</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -6264,15 +6790,18 @@
       <c r="G198" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="H198" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
         <v>1000000197</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -6287,15 +6816,18 @@
       <c r="G199" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="H199" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
         <v>1000000198</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -6310,15 +6842,18 @@
       <c r="G200" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="H200" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
         <v>1000000199</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -6333,15 +6868,18 @@
       <c r="G201" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="H201" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
         <v>1000000200</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -6356,15 +6894,18 @@
       <c r="G202" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="H202" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
         <v>1000000201</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -6379,15 +6920,18 @@
       <c r="G203" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="H203" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
         <v>1000000202</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -6402,15 +6946,18 @@
       <c r="G204" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="H204" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
         <v>1000000203</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -6425,15 +6972,18 @@
       <c r="G205" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="H205" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
         <v>1000000204</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -6448,15 +6998,18 @@
       <c r="G206" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="H206" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
         <v>1000000205</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -6471,15 +7024,18 @@
       <c r="G207" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="H207" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
         <v>1000000206</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -6494,15 +7050,18 @@
       <c r="G208" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="H208" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
         <v>1000000207</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -6517,15 +7076,18 @@
       <c r="G209" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="H209" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
         <v>1000000208</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -6540,15 +7102,18 @@
       <c r="G210" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="H210" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
         <v>1000000209</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -6563,15 +7128,18 @@
       <c r="G211" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="H211" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
         <v>1000000210</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -6586,15 +7154,18 @@
       <c r="G212" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="H212" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
         <v>1000000211</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -6609,15 +7180,18 @@
       <c r="G213" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="H213" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
         <v>1000000212</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -6632,15 +7206,18 @@
       <c r="G214" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="H214" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
         <v>1000000213</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -6655,15 +7232,18 @@
       <c r="G215" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="H215" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
         <v>1000000214</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -6678,15 +7258,18 @@
       <c r="G216" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="H216" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
         <v>1000000215</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -6701,15 +7284,18 @@
       <c r="G217" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="H217" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
         <v>1000000216</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B218" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -6724,15 +7310,18 @@
       <c r="G218" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="H218" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
         <v>1000000217</v>
       </c>
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -6747,15 +7336,18 @@
       <c r="G219" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="H219" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
         <v>1000000218</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -6770,15 +7362,18 @@
       <c r="G220" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="H220" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
         <v>1000000219</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -6793,15 +7388,18 @@
       <c r="G221" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="H221" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
         <v>1000000220</v>
       </c>
-      <c r="B222" s="17" t="s">
+      <c r="B222" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -6816,15 +7414,18 @@
       <c r="G222" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="H222" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
         <v>1000000221</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -6839,15 +7440,18 @@
       <c r="G223" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="H223" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
         <v>1000000222</v>
       </c>
-      <c r="B224" s="17" t="s">
+      <c r="B224" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -6862,15 +7466,18 @@
       <c r="G224" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="H224" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
         <v>1000000223</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -6885,15 +7492,18 @@
       <c r="G225" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="H225" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
         <v>1000000224</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -6908,15 +7518,18 @@
       <c r="G226" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="H226" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
         <v>1000000225</v>
       </c>
-      <c r="B227" s="16" t="s">
+      <c r="B227" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -6931,15 +7544,18 @@
       <c r="G227" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="H227" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
         <v>1000000226</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -6954,15 +7570,18 @@
       <c r="G228" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="H228" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
         <v>1000000227</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -6977,15 +7596,18 @@
       <c r="G229" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="H229" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
         <v>1000000228</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -7000,15 +7622,18 @@
       <c r="G230" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="H230" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
         <v>1000000229</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -7023,15 +7648,18 @@
       <c r="G231" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="H231" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
         <v>1000000230</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -7046,15 +7674,18 @@
       <c r="G232" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="H232" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
         <v>1000000231</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -7069,15 +7700,18 @@
       <c r="G233" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="H233" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
         <v>1000000232</v>
       </c>
-      <c r="B234" s="17" t="s">
+      <c r="B234" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -7092,15 +7726,18 @@
       <c r="G234" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="H234" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
         <v>1000000233</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -7115,15 +7752,18 @@
       <c r="G235" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="H235" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
         <v>1000000234</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -7138,15 +7778,18 @@
       <c r="G236" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="H236" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
         <v>1000000235</v>
       </c>
-      <c r="B237" s="16" t="s">
+      <c r="B237" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -7161,15 +7804,18 @@
       <c r="G237" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="H237" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
         <v>1000000236</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -7184,15 +7830,18 @@
       <c r="G238" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="H238" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
         <v>1000000237</v>
       </c>
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -7207,15 +7856,18 @@
       <c r="G239" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="H239" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
         <v>1000000238</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -7230,15 +7882,18 @@
       <c r="G240" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="H240" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
         <v>1000000239</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -7253,15 +7908,18 @@
       <c r="G241" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="H241" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
         <v>1000000240</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -7276,15 +7934,18 @@
       <c r="G242" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="H242" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
         <v>1000000241</v>
       </c>
-      <c r="B243" s="17" t="s">
+      <c r="B243" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -7299,15 +7960,18 @@
       <c r="G243" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="H243" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
         <v>1000000242</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -7322,15 +7986,18 @@
       <c r="G244" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="H244" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
         <v>1000000243</v>
       </c>
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -7345,15 +8012,18 @@
       <c r="G245" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="H245" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
         <v>1000000244</v>
       </c>
-      <c r="B246" s="17" t="s">
+      <c r="B246" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -7368,15 +8038,18 @@
       <c r="G246" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="H246" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
         <v>1000000245</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -7391,15 +8064,18 @@
       <c r="G247" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="H247" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
         <v>1000000246</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -7414,15 +8090,18 @@
       <c r="G248" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="H248" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
         <v>1000000247</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -7437,15 +8116,18 @@
       <c r="G249" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="H249" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
         <v>1000000248</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -7460,15 +8142,18 @@
       <c r="G250" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="H250" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
         <v>1000000249</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -7483,15 +8168,18 @@
       <c r="G251" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="H251" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
         <v>1000000250</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -7506,15 +8194,18 @@
       <c r="G252" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="H252" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
         <v>1000000251</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -7529,15 +8220,18 @@
       <c r="G253" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="H253" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
         <v>1000000252</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -7552,15 +8246,18 @@
       <c r="G254" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="H254" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
         <v>1000000253</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="C255" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -7575,15 +8272,18 @@
       <c r="G255" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="H255" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
         <v>1000000254</v>
       </c>
-      <c r="B256" s="19" t="s">
+      <c r="B256" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -7598,15 +8298,18 @@
       <c r="G256" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="H256" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
         <v>1000000255</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -7621,15 +8324,18 @@
       <c r="G257" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="H257" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
         <v>1000000256</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C258" s="9" t="s">
+      <c r="C258" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -7644,15 +8350,18 @@
       <c r="G258" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="H258" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
         <v>1000000257</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="C259" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -7667,15 +8376,18 @@
       <c r="G259" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="H259" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
         <v>1000000258</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -7690,15 +8402,18 @@
       <c r="G260" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="H260" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
         <v>1000000259</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="C261" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -7713,15 +8428,18 @@
       <c r="G261" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="H261" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
         <v>1000000260</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="C262" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -7736,15 +8454,18 @@
       <c r="G262" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="H262" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
         <v>1000000261</v>
       </c>
-      <c r="B263" s="20" t="s">
+      <c r="B263" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -7759,15 +8480,18 @@
       <c r="G263" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="H263" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
         <v>1000000262</v>
       </c>
-      <c r="B264" s="17" t="s">
+      <c r="B264" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C264" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
@@ -7782,15 +8506,18 @@
       <c r="G264" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="H264" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
         <v>1000000263</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="C265" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -7805,15 +8532,18 @@
       <c r="G265" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="H265" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
         <v>1000000264</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -7828,15 +8558,18 @@
       <c r="G266" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="H266" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
         <v>1000000265</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -7851,15 +8584,18 @@
       <c r="G267" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="H267" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
         <v>1000000266</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -7874,15 +8610,18 @@
       <c r="G268" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="H268" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
         <v>1000000267</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -7897,15 +8636,18 @@
       <c r="G269" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="H269" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
         <v>1000000268</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -7920,15 +8662,18 @@
       <c r="G270" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="H270" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
         <v>1000000269</v>
       </c>
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -7943,15 +8688,18 @@
       <c r="G271" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="H271" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
         <v>1000000270</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -7966,15 +8714,18 @@
       <c r="G272" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="H272" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
         <v>1000000271</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B273" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C273" s="9" t="s">
+      <c r="C273" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -7989,15 +8740,18 @@
       <c r="G273" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="H273" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
         <v>1000000272</v>
       </c>
-      <c r="B274" s="16" t="s">
+      <c r="B274" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -8012,15 +8766,18 @@
       <c r="G274" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="H274" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
         <v>1000000273</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="C275" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -8035,15 +8792,18 @@
       <c r="G275" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="H275" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
         <v>1000000274</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C276" s="9" t="s">
+      <c r="C276" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -8058,15 +8818,18 @@
       <c r="G276" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="H276" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
         <v>1000000275</v>
       </c>
-      <c r="B277" s="17" t="s">
+      <c r="B277" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C277" s="9" t="s">
+      <c r="C277" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -8081,15 +8844,18 @@
       <c r="G277" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="H277" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
         <v>1000000276</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C278" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -8104,15 +8870,18 @@
       <c r="G278" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="H278" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
         <v>1000000277</v>
       </c>
-      <c r="B279" s="21" t="s">
+      <c r="B279" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -8127,15 +8896,18 @@
       <c r="G279" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="H279" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
         <v>1000000278</v>
       </c>
-      <c r="B280" s="17" t="s">
+      <c r="B280" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C280" s="9" t="s">
+      <c r="C280" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -8150,15 +8922,18 @@
       <c r="G280" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
+      <c r="H280" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
         <v>1000000279</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C281" s="9" t="s">
+      <c r="C281" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -8173,15 +8948,18 @@
       <c r="G281" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="H281" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
         <v>1000000280</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C282" s="9" t="s">
+      <c r="C282" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -8196,15 +8974,18 @@
       <c r="G282" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
+      <c r="H282" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
         <v>1000000281</v>
       </c>
-      <c r="B283" s="17" t="s">
+      <c r="B283" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -8219,15 +9000,18 @@
       <c r="G283" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="H283" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
         <v>1000000282</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C284" s="9" t="s">
+      <c r="C284" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -8242,15 +9026,18 @@
       <c r="G284" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
+      <c r="H284" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
         <v>1000000283</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C285" s="9" t="s">
+      <c r="C285" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -8265,15 +9052,18 @@
       <c r="G285" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="H285" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
         <v>1000000284</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C286" s="9" t="s">
+      <c r="C286" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -8288,15 +9078,18 @@
       <c r="G286" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
+      <c r="H286" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
         <v>1000000285</v>
       </c>
-      <c r="B287" s="17" t="s">
+      <c r="B287" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C287" s="9" t="s">
+      <c r="C287" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -8311,15 +9104,18 @@
       <c r="G287" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="H287" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
         <v>1000000286</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C288" s="9" t="s">
+      <c r="C288" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -8334,15 +9130,18 @@
       <c r="G288" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
+      <c r="H288" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
         <v>1000000287</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C289" s="9" t="s">
+      <c r="C289" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -8357,15 +9156,18 @@
       <c r="G289" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="H289" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
         <v>1000000288</v>
       </c>
-      <c r="B290" s="17" t="s">
+      <c r="B290" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C290" s="9" t="s">
+      <c r="C290" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -8380,15 +9182,18 @@
       <c r="G290" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="H290" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
         <v>1000000289</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C291" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -8403,15 +9208,18 @@
       <c r="G291" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="H291" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
         <v>1000000290</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="C292" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -8426,15 +9234,18 @@
       <c r="G292" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
+      <c r="H292" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
         <v>1000000291</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C293" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -8449,15 +9260,18 @@
       <c r="G293" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="H293" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
         <v>1000000292</v>
       </c>
-      <c r="B294" s="22" t="s">
+      <c r="B294" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C294" s="9" t="s">
+      <c r="C294" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -8472,15 +9286,18 @@
       <c r="G294" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
+      <c r="H294" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
         <v>1000000293</v>
       </c>
-      <c r="B295" s="22" t="s">
+      <c r="B295" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C295" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -8495,15 +9312,18 @@
       <c r="G295" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="H295" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
         <v>1000000294</v>
       </c>
-      <c r="B296" s="22" t="s">
+      <c r="B296" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="9" t="s">
+      <c r="C296" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -8518,15 +9338,18 @@
       <c r="G296" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
+      <c r="H296" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
         <v>1000000295</v>
       </c>
-      <c r="B297" s="22" t="s">
+      <c r="B297" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C297" s="9" t="s">
+      <c r="C297" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -8541,15 +9364,18 @@
       <c r="G297" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="H297" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
         <v>1000000296</v>
       </c>
-      <c r="B298" s="22" t="s">
+      <c r="B298" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C298" s="9" t="s">
+      <c r="C298" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
@@ -8564,15 +9390,18 @@
       <c r="G298" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
+      <c r="H298" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
         <v>1000000297</v>
       </c>
-      <c r="B299" s="22" t="s">
+      <c r="B299" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C299" s="9" t="s">
+      <c r="C299" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -8587,15 +9416,18 @@
       <c r="G299" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="H299" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
         <v>1000000298</v>
       </c>
-      <c r="B300" s="22" t="s">
+      <c r="B300" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C300" s="9" t="s">
+      <c r="C300" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -8610,15 +9442,18 @@
       <c r="G300" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
+      <c r="H300" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
         <v>1000000299</v>
       </c>
-      <c r="B301" s="22" t="s">
+      <c r="B301" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C301" s="9" t="s">
+      <c r="C301" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -8633,15 +9468,18 @@
       <c r="G301" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="H301" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
         <v>1000000300</v>
       </c>
-      <c r="B302" s="22" t="s">
+      <c r="B302" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C302" s="9" t="s">
+      <c r="C302" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
@@ -8656,15 +9494,18 @@
       <c r="G302" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
+      <c r="H302" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A303" s="6">
         <v>1000000301</v>
       </c>
-      <c r="B303" s="22" t="s">
+      <c r="B303" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C303" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -8679,15 +9520,18 @@
       <c r="G303" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="H303" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
         <v>1000000302</v>
       </c>
-      <c r="B304" s="22" t="s">
+      <c r="B304" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C304" s="9" t="s">
+      <c r="C304" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -8702,15 +9546,18 @@
       <c r="G304" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="H304" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A305" s="6">
         <v>1000000303</v>
       </c>
-      <c r="B305" s="22" t="s">
+      <c r="B305" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C305" s="9" t="s">
+      <c r="C305" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -8725,15 +9572,18 @@
       <c r="G305" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="H305" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
         <v>1000000304</v>
       </c>
-      <c r="B306" s="23" t="s">
+      <c r="B306" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C306" s="9" t="s">
+      <c r="C306" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -8748,15 +9598,18 @@
       <c r="G306" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
+      <c r="H306" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A307" s="6">
         <v>1000000305</v>
       </c>
-      <c r="B307" s="22" t="s">
+      <c r="B307" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C307" s="9" t="s">
+      <c r="C307" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -8771,15 +9624,18 @@
       <c r="G307" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="H307" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
         <v>1000000306</v>
       </c>
-      <c r="B308" s="24" t="s">
+      <c r="B308" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C308" s="9" t="s">
+      <c r="C308" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
@@ -8794,15 +9650,18 @@
       <c r="G308" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
+      <c r="H308" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A309" s="6">
         <v>1000000307</v>
       </c>
-      <c r="B309" s="23" t="s">
+      <c r="B309" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C309" s="9" t="s">
+      <c r="C309" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -8817,15 +9676,18 @@
       <c r="G309" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="H309" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
         <v>1000000308</v>
       </c>
-      <c r="B310" s="24" t="s">
+      <c r="B310" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C310" s="9" t="s">
+      <c r="C310" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
@@ -8840,15 +9702,18 @@
       <c r="G310" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
+      <c r="H310" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A311" s="6">
         <v>1000000309</v>
       </c>
-      <c r="B311" s="25" t="s">
+      <c r="B311" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C311" s="9" t="s">
+      <c r="C311" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -8863,15 +9728,18 @@
       <c r="G311" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="H311" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
         <v>1000000310</v>
       </c>
-      <c r="B312" s="22" t="s">
+      <c r="B312" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -8886,15 +9754,18 @@
       <c r="G312" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
+      <c r="H312" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A313" s="6">
         <v>1000000311</v>
       </c>
-      <c r="B313" s="23" t="s">
+      <c r="B313" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C313" s="9" t="s">
+      <c r="C313" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -8909,15 +9780,18 @@
       <c r="G313" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="H313" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
         <v>1000000312</v>
       </c>
-      <c r="B314" s="22" t="s">
+      <c r="B314" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C314" s="9" t="s">
+      <c r="C314" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -8932,15 +9806,18 @@
       <c r="G314" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A315" s="3">
+      <c r="H314" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A315" s="6">
         <v>1000000313</v>
       </c>
-      <c r="B315" s="24" t="s">
+      <c r="B315" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -8955,15 +9832,18 @@
       <c r="G315" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="H315" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
         <v>1000000314</v>
       </c>
-      <c r="B316" s="23" t="s">
+      <c r="B316" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C316" s="9" t="s">
+      <c r="C316" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="2" t="s">
@@ -8978,15 +9858,18 @@
       <c r="G316" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A317" s="3">
+      <c r="H316" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A317" s="6">
         <v>1000000315</v>
       </c>
-      <c r="B317" s="22" t="s">
+      <c r="B317" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C317" s="9" t="s">
+      <c r="C317" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -9001,15 +9884,18 @@
       <c r="G317" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
+      <c r="H317" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
         <v>1000000316</v>
       </c>
-      <c r="B318" s="22" t="s">
+      <c r="B318" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C318" s="9" t="s">
+      <c r="C318" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
@@ -9024,15 +9910,18 @@
       <c r="G318" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A319" s="3">
+      <c r="H318" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A319" s="6">
         <v>1000000317</v>
       </c>
-      <c r="B319" s="23" t="s">
+      <c r="B319" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -9047,15 +9936,18 @@
       <c r="G319" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
+      <c r="H319" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
         <v>1000000318</v>
       </c>
-      <c r="B320" s="26" t="s">
+      <c r="B320" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="9" t="s">
+      <c r="C320" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D320" s="2" t="s">
@@ -9070,15 +9962,18 @@
       <c r="G320" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A321" s="3">
+      <c r="H320" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A321" s="6">
         <v>1000000319</v>
       </c>
-      <c r="B321" s="26" t="s">
+      <c r="B321" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C321" s="9" t="s">
+      <c r="C321" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="2" t="s">
@@ -9093,15 +9988,18 @@
       <c r="G321" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
+      <c r="H321" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
         <v>1000000320</v>
       </c>
-      <c r="B322" s="23" t="s">
+      <c r="B322" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C322" s="9" t="s">
+      <c r="C322" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
@@ -9116,15 +10014,18 @@
       <c r="G322" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
+      <c r="H322" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A323" s="6">
         <v>1000000321</v>
       </c>
-      <c r="B323" s="22" t="s">
+      <c r="B323" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C323" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D323" s="2" t="s">
@@ -9139,15 +10040,18 @@
       <c r="G323" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
+      <c r="H323" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
         <v>1000000322</v>
       </c>
-      <c r="B324" s="26" t="s">
+      <c r="B324" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
@@ -9162,15 +10066,18 @@
       <c r="G324" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A325" s="3">
+      <c r="H324" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A325" s="6">
         <v>1000000323</v>
       </c>
-      <c r="B325" s="23" t="s">
+      <c r="B325" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="C325" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
@@ -9185,15 +10092,18 @@
       <c r="G325" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A326" s="3">
+      <c r="H325" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
         <v>1000000324</v>
       </c>
-      <c r="B326" s="26" t="s">
+      <c r="B326" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C326" s="9" t="s">
+      <c r="C326" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
@@ -9208,15 +10118,18 @@
       <c r="G326" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A327" s="3">
+      <c r="H326" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A327" s="6">
         <v>1000000325</v>
       </c>
-      <c r="B327" s="27" t="s">
+      <c r="B327" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C327" s="9" t="s">
+      <c r="C327" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
@@ -9231,15 +10144,18 @@
       <c r="G327" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
+      <c r="H327" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A328" s="6">
         <v>1000000326</v>
       </c>
-      <c r="B328" s="26" t="s">
+      <c r="B328" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -9254,15 +10170,18 @@
       <c r="G328" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
+      <c r="H328" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A329" s="6">
         <v>1000000327</v>
       </c>
-      <c r="B329" s="27" t="s">
+      <c r="B329" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
@@ -9277,15 +10196,18 @@
       <c r="G329" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A330" s="3">
+      <c r="H329" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A330" s="6">
         <v>1000000328</v>
       </c>
-      <c r="B330" s="22" t="s">
+      <c r="B330" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C330" s="9" t="s">
+      <c r="C330" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
@@ -9300,15 +10222,18 @@
       <c r="G330" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A331" s="3">
+      <c r="H330" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A331" s="6">
         <v>1000000329</v>
       </c>
-      <c r="B331" s="22" t="s">
+      <c r="B331" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C331" s="9" t="s">
+      <c r="C331" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
@@ -9323,15 +10248,18 @@
       <c r="G331" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A332" s="3">
+      <c r="H331" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A332" s="6">
         <v>1000000330</v>
       </c>
-      <c r="B332" s="27" t="s">
+      <c r="B332" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C332" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
@@ -9346,15 +10274,18 @@
       <c r="G332" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
+      <c r="H332" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A333" s="6">
         <v>1000000331</v>
       </c>
-      <c r="B333" s="26" t="s">
+      <c r="B333" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C333" s="9" t="s">
+      <c r="C333" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -9369,15 +10300,18 @@
       <c r="G333" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A334" s="3">
+      <c r="H333" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A334" s="6">
         <v>1000000332</v>
       </c>
-      <c r="B334" s="22" t="s">
+      <c r="B334" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C334" s="9" t="s">
+      <c r="C334" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
@@ -9392,15 +10326,18 @@
       <c r="G334" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A335" s="3">
+      <c r="H334" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A335" s="6">
         <v>1000000333</v>
       </c>
-      <c r="B335" s="26" t="s">
+      <c r="B335" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C335" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
@@ -9415,15 +10352,18 @@
       <c r="G335" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
+      <c r="H335" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A336" s="6">
         <v>1000000334</v>
       </c>
-      <c r="B336" s="28" t="s">
+      <c r="B336" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C336" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D336" s="2" t="s">
@@ -9438,15 +10378,18 @@
       <c r="G336" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A337" s="3">
+      <c r="H336" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A337" s="6">
         <v>1000000335</v>
       </c>
-      <c r="B337" s="29" t="s">
+      <c r="B337" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="C337" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
@@ -9461,15 +10404,18 @@
       <c r="G337" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
+      <c r="H337" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A338" s="6">
         <v>1000000336</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="C338" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
@@ -9484,15 +10430,18 @@
       <c r="G338" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A339" s="3">
+      <c r="H338" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A339" s="6">
         <v>1000000337</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C339" s="9" t="s">
+      <c r="C339" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
@@ -9507,15 +10456,18 @@
       <c r="G339" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A340" s="3">
+      <c r="H339" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A340" s="6">
         <v>1000000338</v>
       </c>
-      <c r="B340" s="26" t="s">
+      <c r="B340" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D340" s="2" t="s">
@@ -9530,15 +10482,18 @@
       <c r="G340" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A341" s="3">
+      <c r="H340" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A341" s="6">
         <v>1000000339</v>
       </c>
-      <c r="B341" s="31" t="s">
+      <c r="B341" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D341" s="2" t="s">
@@ -9553,15 +10508,18 @@
       <c r="G341" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
+      <c r="H341" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A342" s="6">
         <v>1000000340</v>
       </c>
-      <c r="B342" s="31" t="s">
+      <c r="B342" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
@@ -9576,15 +10534,18 @@
       <c r="G342" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A343" s="3">
+      <c r="H342" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A343" s="6">
         <v>1000000341</v>
       </c>
-      <c r="B343" s="27" t="s">
+      <c r="B343" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C343" s="9" t="s">
+      <c r="C343" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
@@ -9599,15 +10560,18 @@
       <c r="G343" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A344" s="3">
+      <c r="H343" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A344" s="6">
         <v>1000000342</v>
       </c>
-      <c r="B344" s="24" t="s">
+      <c r="B344" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C344" s="9" t="s">
+      <c r="C344" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
@@ -9622,15 +10586,18 @@
       <c r="G344" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A345" s="3">
+      <c r="H344" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A345" s="6">
         <v>1000000343</v>
       </c>
-      <c r="B345" s="27" t="s">
+      <c r="B345" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
@@ -9645,15 +10612,18 @@
       <c r="G345" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
+      <c r="H345" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A346" s="6">
         <v>1000000344</v>
       </c>
-      <c r="B346" s="22" t="s">
+      <c r="B346" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C346" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
@@ -9668,15 +10638,18 @@
       <c r="G346" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A347" s="3">
+      <c r="H346" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A347" s="6">
         <v>1000000345</v>
       </c>
-      <c r="B347" s="26" t="s">
+      <c r="B347" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C347" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D347" s="2" t="s">
@@ -9691,15 +10664,18 @@
       <c r="G347" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A348" s="3">
+      <c r="H347" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A348" s="6">
         <v>1000000346</v>
       </c>
-      <c r="B348" s="23" t="s">
+      <c r="B348" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="C348" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
@@ -9714,15 +10690,18 @@
       <c r="G348" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A349" s="3">
+      <c r="H348" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A349" s="6">
         <v>1000000347</v>
       </c>
-      <c r="B349" s="27" t="s">
+      <c r="B349" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C349" s="9" t="s">
+      <c r="C349" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D349" s="2" t="s">
@@ -9737,15 +10716,18 @@
       <c r="G349" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A350" s="3">
+      <c r="H349" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A350" s="6">
         <v>1000000348</v>
       </c>
-      <c r="B350" s="23" t="s">
+      <c r="B350" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="C350" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
@@ -9760,15 +10742,18 @@
       <c r="G350" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A351" s="3">
+      <c r="H350" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A351" s="6">
         <v>1000000349</v>
       </c>
-      <c r="B351" s="27" t="s">
+      <c r="B351" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C351" s="9" t="s">
+      <c r="C351" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D351" s="2" t="s">
@@ -9783,15 +10768,18 @@
       <c r="G351" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A352" s="3">
+      <c r="H351" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A352" s="6">
         <v>1000000350</v>
       </c>
-      <c r="B352" s="31" t="s">
+      <c r="B352" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C352" s="9" t="s">
+      <c r="C352" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
@@ -9806,15 +10794,18 @@
       <c r="G352" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A353" s="3">
+      <c r="H352" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A353" s="6">
         <v>1000000351</v>
       </c>
-      <c r="B353" s="24" t="s">
+      <c r="B353" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="C353" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D353" s="2" t="s">
@@ -9829,15 +10820,18 @@
       <c r="G353" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A354" s="3">
+      <c r="H353" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A354" s="6">
         <v>1000000352</v>
       </c>
-      <c r="B354" s="32" t="s">
+      <c r="B354" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C354" s="9" t="s">
+      <c r="C354" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D354" s="2" t="s">
@@ -9852,15 +10846,18 @@
       <c r="G354" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A355" s="3">
+      <c r="H354" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A355" s="6">
         <v>1000000353</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C355" s="9" t="s">
+      <c r="C355" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="2" t="s">
@@ -9875,15 +10872,18 @@
       <c r="G355" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A356" s="3">
+      <c r="H355" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A356" s="6">
         <v>1000000354</v>
       </c>
-      <c r="B356" s="23" t="s">
+      <c r="B356" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
@@ -9898,15 +10898,18 @@
       <c r="G356" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A357" s="3">
+      <c r="H356" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A357" s="6">
         <v>1000000355</v>
       </c>
-      <c r="B357" s="33" t="s">
+      <c r="B357" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="C357" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D357" s="2" t="s">
@@ -9921,15 +10924,18 @@
       <c r="G357" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A358" s="3">
+      <c r="H357" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A358" s="6">
         <v>1000000356</v>
       </c>
-      <c r="B358" s="23" t="s">
+      <c r="B358" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C358" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D358" s="2" t="s">
@@ -9944,15 +10950,18 @@
       <c r="G358" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A359" s="3">
+      <c r="H358" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A359" s="6">
         <v>1000000357</v>
       </c>
-      <c r="B359" s="23" t="s">
+      <c r="B359" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="C359" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D359" s="2" t="s">
@@ -9967,15 +10976,18 @@
       <c r="G359" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
+      <c r="H359" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A360" s="6">
         <v>1000000358</v>
       </c>
-      <c r="B360" s="23" t="s">
+      <c r="B360" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C360" s="9" t="s">
+      <c r="C360" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D360" s="2" t="s">
@@ -9990,15 +11002,18 @@
       <c r="G360" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A361" s="3">
+      <c r="H360" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A361" s="6">
         <v>1000000359</v>
       </c>
-      <c r="B361" s="22" t="s">
+      <c r="B361" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C361" s="9" t="s">
+      <c r="C361" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D361" s="2" t="s">
@@ -10013,15 +11028,18 @@
       <c r="G361" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A362" s="3">
+      <c r="H361" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A362" s="6">
         <v>1000000360</v>
       </c>
-      <c r="B362" s="23" t="s">
+      <c r="B362" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D362" s="2" t="s">
@@ -10036,15 +11054,18 @@
       <c r="G362" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A363" s="3">
+      <c r="H362" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A363" s="6">
         <v>1000000361</v>
       </c>
-      <c r="B363" s="24" t="s">
+      <c r="B363" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C363" s="9" t="s">
+      <c r="C363" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="2" t="s">
@@ -10059,15 +11080,18 @@
       <c r="G363" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
+      <c r="H363" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A364" s="6">
         <v>1000000362</v>
       </c>
-      <c r="B364" s="23" t="s">
+      <c r="B364" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C364" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D364" s="2" t="s">
@@ -10082,15 +11106,18 @@
       <c r="G364" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A365" s="3">
+      <c r="H364" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A365" s="6">
         <v>1000000363</v>
       </c>
-      <c r="B365" s="24" t="s">
+      <c r="B365" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C365" s="9" t="s">
+      <c r="C365" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="2" t="s">
@@ -10105,15 +11132,18 @@
       <c r="G365" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
+      <c r="H365" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A366" s="6">
         <v>1000000364</v>
       </c>
-      <c r="B366" s="25" t="s">
+      <c r="B366" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C366" s="9" t="s">
+      <c r="C366" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
@@ -10128,15 +11158,18 @@
       <c r="G366" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A367" s="3">
+      <c r="H366" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A367" s="6">
         <v>1000000365</v>
       </c>
-      <c r="B367" s="24" t="s">
+      <c r="B367" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C367" s="9" t="s">
+      <c r="C367" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D367" s="2" t="s">
@@ -10151,15 +11184,18 @@
       <c r="G367" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
+      <c r="H367" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A368" s="6">
         <v>1000000366</v>
       </c>
-      <c r="B368" s="23" t="s">
+      <c r="B368" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C368" s="9" t="s">
+      <c r="C368" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D368" s="2" t="s">
@@ -10174,15 +11210,18 @@
       <c r="G368" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A369" s="3">
+      <c r="H368" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A369" s="6">
         <v>1000000367</v>
       </c>
-      <c r="B369" s="24" t="s">
+      <c r="B369" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C369" s="9" t="s">
+      <c r="C369" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D369" s="2" t="s">
@@ -10197,15 +11236,18 @@
       <c r="G369" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
+      <c r="H369" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A370" s="6">
         <v>1000000368</v>
       </c>
-      <c r="B370" s="24" t="s">
+      <c r="B370" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C370" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="2" t="s">
@@ -10220,15 +11262,18 @@
       <c r="G370" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A371" s="3">
+      <c r="H370" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A371" s="6">
         <v>1000000369</v>
       </c>
-      <c r="B371" s="24" t="s">
+      <c r="B371" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C371" s="9" t="s">
+      <c r="C371" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D371" s="2" t="s">
@@ -10243,15 +11288,18 @@
       <c r="G371" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
+      <c r="H371" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A372" s="6">
         <v>1000000370</v>
       </c>
-      <c r="B372" s="22" t="s">
+      <c r="B372" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C372" s="9" t="s">
+      <c r="C372" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D372" s="2" t="s">
@@ -10266,15 +11314,18 @@
       <c r="G372" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A373" s="3">
+      <c r="H372" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A373" s="6">
         <v>1000000371</v>
       </c>
-      <c r="B373" s="24" t="s">
+      <c r="B373" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C373" s="9" t="s">
+      <c r="C373" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D373" s="2" t="s">
@@ -10289,15 +11340,18 @@
       <c r="G373" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
+      <c r="H373" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A374" s="6">
         <v>1000000372</v>
       </c>
-      <c r="B374" s="23" t="s">
+      <c r="B374" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C374" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D374" s="2" t="s">
@@ -10312,15 +11366,18 @@
       <c r="G374" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A375" s="3">
+      <c r="H374" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A375" s="6">
         <v>1000000373</v>
       </c>
-      <c r="B375" s="23" t="s">
+      <c r="B375" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C375" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D375" s="2" t="s">
@@ -10335,15 +11392,18 @@
       <c r="G375" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A376" s="3">
+      <c r="H375" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A376" s="6">
         <v>1000000374</v>
       </c>
-      <c r="B376" s="24" t="s">
+      <c r="B376" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="C376" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D376" s="2" t="s">
@@ -10358,15 +11418,18 @@
       <c r="G376" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A377" s="3">
+      <c r="H376" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A377" s="6">
         <v>1000000375</v>
       </c>
-      <c r="B377" s="24" t="s">
+      <c r="B377" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C377" s="9" t="s">
+      <c r="C377" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D377" s="2" t="s">
@@ -10381,15 +11444,18 @@
       <c r="G377" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A378" s="3">
+      <c r="H377" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A378" s="6">
         <v>1000000376</v>
       </c>
-      <c r="B378" s="24" t="s">
+      <c r="B378" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C378" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D378" s="2" t="s">
@@ -10404,15 +11470,18 @@
       <c r="G378" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A379" s="3">
+      <c r="H378" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A379" s="6">
         <v>1000000377</v>
       </c>
-      <c r="B379" s="23" t="s">
+      <c r="B379" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C379" s="9" t="s">
+      <c r="C379" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D379" s="2" t="s">
@@ -10427,15 +11496,18 @@
       <c r="G379" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A380" s="3">
+      <c r="H379" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A380" s="6">
         <v>1000000378</v>
       </c>
-      <c r="B380" s="24" t="s">
+      <c r="B380" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C380" s="9" t="s">
+      <c r="C380" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D380" s="2" t="s">
@@ -10450,15 +11522,18 @@
       <c r="G380" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A381" s="3">
+      <c r="H380" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A381" s="6">
         <v>1000000379</v>
       </c>
-      <c r="B381" s="24" t="s">
+      <c r="B381" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D381" s="2" t="s">
@@ -10473,15 +11548,18 @@
       <c r="G381" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A382" s="3">
+      <c r="H381" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A382" s="6">
         <v>1000000380</v>
       </c>
-      <c r="B382" s="23" t="s">
+      <c r="B382" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C382" s="9" t="s">
+      <c r="C382" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="2" t="s">
@@ -10496,15 +11574,18 @@
       <c r="G382" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A383" s="3">
+      <c r="H382" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A383" s="6">
         <v>1000000381</v>
       </c>
-      <c r="B383" s="23" t="s">
+      <c r="B383" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C383" s="9" t="s">
+      <c r="C383" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D383" s="2" t="s">
@@ -10519,15 +11600,18 @@
       <c r="G383" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A384" s="3">
+      <c r="H383" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A384" s="6">
         <v>1000000382</v>
       </c>
-      <c r="B384" s="24" t="s">
+      <c r="B384" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D384" s="2" t="s">
@@ -10542,15 +11626,18 @@
       <c r="G384" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A385" s="3">
+      <c r="H384" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A385" s="6">
         <v>1000000383</v>
       </c>
-      <c r="B385" s="23" t="s">
+      <c r="B385" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D385" s="2" t="s">
@@ -10565,15 +11652,18 @@
       <c r="G385" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
+      <c r="H385" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A386" s="6">
         <v>1000000384</v>
       </c>
-      <c r="B386" s="24" t="s">
+      <c r="B386" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C386" s="9" t="s">
+      <c r="C386" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D386" s="2" t="s">
@@ -10588,15 +11678,18 @@
       <c r="G386" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A387" s="3">
+      <c r="H386" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A387" s="6">
         <v>1000000385</v>
       </c>
-      <c r="B387" s="34" t="s">
+      <c r="B387" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C387" s="9" t="s">
+      <c r="C387" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D387" s="2" t="s">
@@ -10611,15 +11704,18 @@
       <c r="G387" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A388" s="3">
+      <c r="H387" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A388" s="6">
         <v>1000000386</v>
       </c>
-      <c r="B388" s="24" t="s">
+      <c r="B388" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D388" s="2" t="s">
@@ -10634,15 +11730,18 @@
       <c r="G388" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A389" s="3">
+      <c r="H388" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A389" s="6">
         <v>1000000387</v>
       </c>
-      <c r="B389" s="23" t="s">
+      <c r="B389" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C389" s="9" t="s">
+      <c r="C389" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D389" s="2" t="s">
@@ -10657,15 +11756,18 @@
       <c r="G389" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A390" s="3">
+      <c r="H389" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A390" s="6">
         <v>1000000388</v>
       </c>
-      <c r="B390" s="24" t="s">
+      <c r="B390" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C390" s="9" t="s">
+      <c r="C390" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -10680,15 +11782,18 @@
       <c r="G390" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A391" s="3">
+      <c r="H390" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A391" s="6">
         <v>1000000389</v>
       </c>
-      <c r="B391" s="23" t="s">
+      <c r="B391" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C391" s="9" t="s">
+      <c r="C391" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
@@ -10703,15 +11808,18 @@
       <c r="G391" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A392" s="3">
+      <c r="H391" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A392" s="6">
         <v>1000000390</v>
       </c>
-      <c r="B392" s="24" t="s">
+      <c r="B392" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D392" s="2" t="s">
@@ -10726,15 +11834,18 @@
       <c r="G392" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A393" s="3">
+      <c r="H392" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A393" s="6">
         <v>1000000391</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C393" s="9" t="s">
+      <c r="C393" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D393" s="2" t="s">
@@ -10748,6 +11859,9 @@
       </c>
       <c r="G393" s="2">
         <v>7</v>
+      </c>
+      <c r="H393" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/inputXls/Students.xlsx
+++ b/inputXls/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC104E7-856B-49E7-982B-478A412BFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912EDCE-EC8D-4FC4-995F-ED248798E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="13710" windowHeight="11295" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2741,7 +2741,7 @@
   <dimension ref="A1:I648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A648"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f ca="1">SUBSTITUTE(LOWER(C2&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>abyanmahsanmuhan667@man.com</v>
+        <v>abyanmahsanmuhan6@man.com</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>341</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">SUBSTITUTE(LOWER(C3&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adehayati262@man.com</v>
+        <v>adehayati807@man.com</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ahmadqaismughits570@man.com</v>
+        <v>ahmadqaismughits694@man.com</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>342</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>aidilhadi982@man.com</v>
+        <v>aidilhadi232@man.com</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>chainaramadana738@man.com</v>
+        <v>chainaramadana991@man.com</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dimasoktavian734@man.com</v>
+        <v>dimasoktavian783@man.com</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>14</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>duhaindrawansyah189@man.com</v>
+        <v>duhaindrawansyah341@man.com</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>erwinmaulana709@man.com</v>
+        <v>erwinmaulana221@man.com</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>16</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fauzanalkhairi196@man.com</v>
+        <v>fauzanalkhairi58@man.com</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fihadianfitra522@man.com</v>
+        <v>fihadianfitra31@man.com</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futriyasmini651@man.com</v>
+        <v>futriyasmini91@man.com</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>19</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ikhsanzikri247@man.com</v>
+        <v>ikhsanzikri107@man.com</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>20</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iqbalaimulhusni246@man.com</v>
+        <v>iqbalaimulhusni943@man.com</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>maulandara812@man.com</v>
+        <v>maulandara421@man.com</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>22</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>miftahulrifkimy146@man.com</v>
+        <v>miftahulrifkimy228@man.com</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>muhammadraoshah493@man.com</v>
+        <v>muhammadraoshah944@man.com</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>24</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilabibesmi898@man.com</v>
+        <v>nabilabibesmi476@man.com</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>26</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalfadhil397@man.com</v>
+        <v>naufalfadhil844@man.com</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>27</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>niantahafidza107@man.com</v>
+        <v>niantahafidza873@man.com</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>28</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>relifwantona214@man.com</v>
+        <v>relifwantona624@man.com</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>29</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rendifebriandi81@man.com</v>
+        <v>rendifebriandi43@man.com</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rezkimahara266@man.com</v>
+        <v>rezkimahara201@man.com</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>31</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>shirathalfadhla772@man.com</v>
+        <v>shirathalfadhla793@man.com</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sismacantikaputri846@man.com</v>
+        <v>sismacantikaputri541@man.com</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>32</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>wenihafizah56@man.com</v>
+        <v>wenihafizah937@man.com</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>33</v>
@@ -3532,11 +3532,11 @@
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>1000000024</v>
+        <v>1000000025</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>arikasimehate124@man.com</v>
+        <v>arikasimehate631@man.com</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>62</v>
@@ -3562,11 +3562,11 @@
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>1000000024</v>
+        <v>1000000026</v>
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ariyanaamelia146@man.com</v>
+        <v>ariyanaamelia162@man.com</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>34</v>
@@ -3592,11 +3592,11 @@
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>1000000024</v>
+        <v>1000000027</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ashfiyanisa45@man.com</v>
+        <v>ashfiyanisa5@man.com</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>343</v>
@@ -3622,11 +3622,11 @@
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>1000000024</v>
+        <v>1000000028</v>
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>asnimulyani141@man.com</v>
+        <v>asnimulyani283@man.com</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>35</v>
@@ -3652,11 +3652,11 @@
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>1000000024</v>
+        <v>1000000029</v>
       </c>
       <c r="B31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bakri184@man.com</v>
+        <v>bakri900@man.com</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>36</v>
@@ -3682,11 +3682,11 @@
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>1000000024</v>
+        <v>1000000030</v>
       </c>
       <c r="B32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bilhaqqi109@man.com</v>
+        <v>bilhaqqi106@man.com</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>37</v>
@@ -3712,11 +3712,11 @@
     </row>
     <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>1000000024</v>
+        <v>1000000031</v>
       </c>
       <c r="B33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dalilakhairy602@man.com</v>
+        <v>dalilakhairy581@man.com</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>59</v>
@@ -3742,11 +3742,11 @@
     </row>
     <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>1000000024</v>
+        <v>1000000032</v>
       </c>
       <c r="B34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fatmawati950@man.com</v>
+        <v>fatmawati707@man.com</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>38</v>
@@ -3772,11 +3772,11 @@
     </row>
     <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>1000000024</v>
+        <v>1000000033</v>
       </c>
       <c r="B35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>firzairinululazmi881@man.com</v>
+        <v>firzairinululazmi442@man.com</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>39</v>
@@ -3802,11 +3802,11 @@
     </row>
     <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>1000000024</v>
+        <v>1000000034</v>
       </c>
       <c r="B36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futrimaharani629@man.com</v>
+        <v>futrimaharani242@man.com</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>40</v>
@@ -3832,11 +3832,11 @@
     </row>
     <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>1000000024</v>
+        <v>1000000035</v>
       </c>
       <c r="B37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gilanggemilang501@man.com</v>
+        <v>gilanggemilang401@man.com</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>41</v>
@@ -3862,11 +3862,11 @@
     </row>
     <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>1000000024</v>
+        <v>1000000036</v>
       </c>
       <c r="B38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>helsiherlinda610@man.com</v>
+        <v>helsiherlinda419@man.com</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>42</v>
@@ -3892,11 +3892,11 @@
     </row>
     <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>1000000024</v>
+        <v>1000000037</v>
       </c>
       <c r="B39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iftinansyifa202@man.com</v>
+        <v>iftinansyifa782@man.com</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>344</v>
@@ -3922,11 +3922,11 @@
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>1000000024</v>
+        <v>1000000038</v>
       </c>
       <c r="B40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kamisaaidafutri742@man.com</v>
+        <v>kamisaaidafutri723@man.com</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>345</v>
@@ -3952,11 +3952,11 @@
     </row>
     <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>1000000024</v>
+        <v>1000000039</v>
       </c>
       <c r="B41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mdzakihabibi77@man.com</v>
+        <v>mdzakihabibi165@man.com</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>346</v>
@@ -3982,11 +3982,11 @@
     </row>
     <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>1000000024</v>
+        <v>1000000040</v>
       </c>
       <c r="B42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>malanoviafitri352@man.com</v>
+        <v>malanoviafitri819@man.com</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>43</v>
@@ -4012,11 +4012,11 @@
     </row>
     <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>1000000024</v>
+        <v>1000000041</v>
       </c>
       <c r="B43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mhdhaikal402@man.com</v>
+        <v>mhdhaikal12@man.com</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>347</v>
@@ -4042,11 +4042,11 @@
     </row>
     <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>1000000024</v>
+        <v>1000000042</v>
       </c>
       <c r="B44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilayanti589@man.com</v>
+        <v>nabilayanti504@man.com</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>44</v>
@@ -4072,11 +4072,11 @@
     </row>
     <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>1000000024</v>
+        <v>1000000043</v>
       </c>
       <c r="B45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalhibatullah525@man.com</v>
+        <v>naufalhibatullah602@man.com</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>45</v>
@@ -4102,11 +4102,11 @@
     </row>
     <row r="46" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>1000000024</v>
+        <v>1000000044</v>
       </c>
       <c r="B46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalzahran515@man.com</v>
+        <v>naufalzahran882@man.com</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>60</v>
@@ -4132,11 +4132,11 @@
     </row>
     <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>1000000024</v>
+        <v>1000000045</v>
       </c>
       <c r="B47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>qhandiraalsagufrana51@man.com</v>
+        <v>qhandiraalsagufrana130@man.com</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>46</v>
@@ -4162,11 +4162,11 @@
     </row>
     <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>1000000024</v>
+        <v>1000000046</v>
       </c>
       <c r="B48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rauzatulzannah139@man.com</v>
+        <v>rauzatulzannah58@man.com</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>47</v>
@@ -4192,11 +4192,11 @@
     </row>
     <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>1000000024</v>
+        <v>1000000047</v>
       </c>
       <c r="B49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>residianoktesya833@man.com</v>
+        <v>residianoktesya496@man.com</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>48</v>
@@ -4222,11 +4222,11 @@
     </row>
     <row r="50" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>1000000024</v>
+        <v>1000000048</v>
       </c>
       <c r="B50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rifarahman437@man.com</v>
+        <v>rifarahman596@man.com</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>50</v>
@@ -4252,11 +4252,11 @@
     </row>
     <row r="51" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>1000000024</v>
+        <v>1000000049</v>
       </c>
       <c r="B51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rinidianti2@man.com</v>
+        <v>rinidianti231@man.com</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>51</v>
@@ -4282,11 +4282,11 @@
     </row>
     <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>1000000024</v>
+        <v>1000000050</v>
       </c>
       <c r="B52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>riyanda78@man.com</v>
+        <v>riyanda598@man.com</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>49</v>
@@ -4312,11 +4312,11 @@
     </row>
     <row r="53" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>1000000024</v>
+        <v>1000000051</v>
       </c>
       <c r="B53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rozaameliasahraini221@man.com</v>
+        <v>rozaameliasahraini815@man.com</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>52</v>
@@ -4342,11 +4342,11 @@
     </row>
     <row r="54" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>1000000024</v>
+        <v>1000000052</v>
       </c>
       <c r="B54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sinthiaatikah312@man.com</v>
+        <v>sinthiaatikah697@man.com</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>53</v>
@@ -4372,11 +4372,11 @@
     </row>
     <row r="55" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>1000000024</v>
+        <v>1000000053</v>
       </c>
       <c r="B55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>syafauqbaharrafi200@man.com</v>
+        <v>syafauqbaharrafi853@man.com</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>61</v>
@@ -4402,11 +4402,11 @@
     </row>
     <row r="56" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>1000000024</v>
+        <v>1000000054</v>
       </c>
       <c r="B56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>taufikhidayat295@man.com</v>
+        <v>taufikhidayat575@man.com</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>54</v>
@@ -4432,11 +4432,11 @@
     </row>
     <row r="57" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>1000000024</v>
+        <v>1000000055</v>
       </c>
       <c r="B57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ulfafitria771@man.com</v>
+        <v>ulfafitria155@man.com</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>55</v>
@@ -4462,11 +4462,11 @@
     </row>
     <row r="58" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>1000000024</v>
+        <v>1000000056</v>
       </c>
       <c r="B58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>uswatunnazwa154@man.com</v>
+        <v>uswatunnazwa843@man.com</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>56</v>
@@ -4492,11 +4492,11 @@
     </row>
     <row r="59" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>1000000024</v>
+        <v>1000000057</v>
       </c>
       <c r="B59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yuliarnia602@man.com</v>
+        <v>yuliarnia583@man.com</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>57</v>
@@ -4522,11 +4522,11 @@
     </row>
     <row r="60" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>1000000024</v>
+        <v>1000000058</v>
       </c>
       <c r="B60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yunidarsam324@man.com</v>
+        <v>yunidarsam935@man.com</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>348</v>
@@ -4552,11 +4552,11 @@
     </row>
     <row r="61" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>1000000024</v>
+        <v>1000000059</v>
       </c>
       <c r="B61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>zahrinaizzatis803@man.com</v>
+        <v>zahrinaizzatis687@man.com</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>58</v>
@@ -4582,11 +4582,11 @@
     </row>
     <row r="62" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>1000000024</v>
+        <v>1000000060</v>
       </c>
       <c r="B62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fahmiamdizulu127@man.com</v>
+        <v>fahmiamdizulu131@man.com</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>349</v>
@@ -4612,11 +4612,11 @@
     </row>
     <row r="63" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>1000000024</v>
+        <v>1000000061</v>
       </c>
       <c r="B63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>alpandi163@man.com</v>
+        <v>alpandi408@man.com</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>63</v>
@@ -4642,11 +4642,11 @@
     </row>
     <row r="64" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>1000000024</v>
+        <v>1000000062</v>
       </c>
       <c r="B64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>auradina743@man.com</v>
+        <v>auradina633@man.com</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>64</v>
@@ -4672,11 +4672,11 @@
     </row>
     <row r="65" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>1000000024</v>
+        <v>1000000063</v>
       </c>
       <c r="B65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bungelusiana942@man.com</v>
+        <v>bungelusiana502@man.com</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>65</v>
@@ -4702,11 +4702,11 @@
     </row>
     <row r="66" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>1000000024</v>
+        <v>1000000064</v>
       </c>
       <c r="B66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fitraariga603@man.com</v>
+        <v>fitraariga310@man.com</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>89</v>
@@ -4732,11 +4732,11 @@
     </row>
     <row r="67" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>1000000024</v>
+        <v>1000000065</v>
       </c>
       <c r="B67" s="5" t="str">
         <f t="shared" ref="B67:B130" ca="1" si="1">SUBSTITUTE(LOWER(C67&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>futrisalsabila972@man.com</v>
+        <v>futrisalsabila213@man.com</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>66</v>
@@ -4762,11 +4762,11 @@
     </row>
     <row r="68" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>1000000024</v>
+        <v>1000000066</v>
       </c>
       <c r="B68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>hamdan191@man.com</v>
+        <v>hamdan148@man.com</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>67</v>
@@ -4792,11 +4792,11 @@
     </row>
     <row r="69" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>1000000024</v>
+        <v>1000000067</v>
       </c>
       <c r="B69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>intannurhayati345@man.com</v>
+        <v>intannurhayati225@man.com</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>90</v>
@@ -4822,11 +4822,11 @@
     </row>
     <row r="70" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>1000000024</v>
+        <v>1000000068</v>
       </c>
       <c r="B70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jaharamurni209@man.com</v>
+        <v>jaharamurni259@man.com</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>350</v>
@@ -4852,11 +4852,11 @@
     </row>
     <row r="71" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>1000000024</v>
+        <v>1000000069</v>
       </c>
       <c r="B71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jurfanajwa165@man.com</v>
+        <v>jurfanajwa518@man.com</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>68</v>
@@ -4882,11 +4882,11 @@
     </row>
     <row r="72" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>1000000024</v>
+        <v>1000000070</v>
       </c>
       <c r="B72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>juspikaaradi970@man.com</v>
+        <v>juspikaaradi425@man.com</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>87</v>
@@ -4912,11 +4912,11 @@
     </row>
     <row r="73" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>1000000024</v>
+        <v>1000000071</v>
       </c>
       <c r="B73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>khairifikri297@man.com</v>
+        <v>khairifikri265@man.com</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>69</v>
@@ -4942,11 +4942,11 @@
     </row>
     <row r="74" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>1000000024</v>
+        <v>1000000072</v>
       </c>
       <c r="B74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lizanovriana799@man.com</v>
+        <v>lizanovriana221@man.com</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>70</v>
@@ -4972,11 +4972,11 @@
     </row>
     <row r="75" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>1000000024</v>
+        <v>1000000073</v>
       </c>
       <c r="B75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mauzaismiadi424@man.com</v>
+        <v>mauzaismiadi44@man.com</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>71</v>
@@ -5002,11 +5002,11 @@
     </row>
     <row r="76" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>1000000024</v>
+        <v>1000000074</v>
       </c>
       <c r="B76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melayunita992@man.com</v>
+        <v>melayunita961@man.com</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>72</v>
@@ -5032,11 +5032,11 @@
     </row>
     <row r="77" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>1000000024</v>
+        <v>1000000075</v>
       </c>
       <c r="B77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mutiararamadhani700@man.com</v>
+        <v>mutiararamadhani906@man.com</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>73</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="78" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>1000000024</v>
+        <v>1000000076</v>
       </c>
       <c r="B78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5092,11 +5092,11 @@
     </row>
     <row r="79" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>1000000024</v>
+        <v>1000000077</v>
       </c>
       <c r="B79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>naufalwaliyulhaq127@man.com</v>
+        <v>naufalwaliyulhaq376@man.com</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>75</v>
@@ -5122,11 +5122,11 @@
     </row>
     <row r="80" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>1000000024</v>
+        <v>1000000078</v>
       </c>
       <c r="B80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>novadiliza170@man.com</v>
+        <v>novadiliza712@man.com</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>88</v>
@@ -5152,11 +5152,11 @@
     </row>
     <row r="81" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>1000000024</v>
+        <v>1000000079</v>
       </c>
       <c r="B81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rendyafitrawan879@man.com</v>
+        <v>rendyafitrawan769@man.com</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>351</v>
@@ -5182,11 +5182,11 @@
     </row>
     <row r="82" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>1000000024</v>
+        <v>1000000080</v>
       </c>
       <c r="B82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhajunita387@man.com</v>
+        <v>ridhajunita439@man.com</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>76</v>
@@ -5212,11 +5212,11 @@
     </row>
     <row r="83" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>1000000024</v>
+        <v>1000000081</v>
       </c>
       <c r="B83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifdafriatin775@man.com</v>
+        <v>rifdafriatin422@man.com</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>77</v>
@@ -5242,11 +5242,11 @@
     </row>
     <row r="84" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>1000000024</v>
+        <v>1000000082</v>
       </c>
       <c r="B84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahmanhakim810@man.com</v>
+        <v>rifkirahmanhakim367@man.com</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>78</v>
@@ -5272,11 +5272,11 @@
     </row>
     <row r="85" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>1000000024</v>
+        <v>1000000083</v>
       </c>
       <c r="B85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkaanindra403@man.com</v>
+        <v>rizkaanindra999@man.com</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>79</v>
@@ -5302,11 +5302,11 @@
     </row>
     <row r="86" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>1000000024</v>
+        <v>1000000084</v>
       </c>
       <c r="B86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkisyafitri564@man.com</v>
+        <v>rizkisyafitri281@man.com</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>80</v>
@@ -5332,11 +5332,11 @@
     </row>
     <row r="87" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>1000000024</v>
+        <v>1000000085</v>
       </c>
       <c r="B87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sahraniputri950@man.com</v>
+        <v>sahraniputri976@man.com</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>81</v>
@@ -5362,11 +5362,11 @@
     </row>
     <row r="88" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>1000000024</v>
+        <v>1000000086</v>
       </c>
       <c r="B88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selviaafriani505@man.com</v>
+        <v>selviaafriani482@man.com</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>82</v>
@@ -5392,11 +5392,11 @@
     </row>
     <row r="89" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>1000000024</v>
+        <v>1000000087</v>
       </c>
       <c r="B89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sofiaramadhani705@man.com</v>
+        <v>sofiaramadhani11@man.com</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>352</v>
@@ -5422,11 +5422,11 @@
     </row>
     <row r="90" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>1000000024</v>
+        <v>1000000088</v>
       </c>
       <c r="B90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastriulandari219@man.com</v>
+        <v>sulastriulandari438@man.com</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>83</v>
@@ -5452,11 +5452,11 @@
     </row>
     <row r="91" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>1000000024</v>
+        <v>1000000089</v>
       </c>
       <c r="B91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>winteguhiwanrantoni521@man.com</v>
+        <v>winteguhiwanrantoni976@man.com</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>91</v>
@@ -5482,11 +5482,11 @@
     </row>
     <row r="92" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>1000000024</v>
+        <v>1000000090</v>
       </c>
       <c r="B92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>yogasetiawanadha463@man.com</v>
+        <v>yogasetiawanadha282@man.com</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>353</v>
@@ -5512,11 +5512,11 @@
     </row>
     <row r="93" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>1000000024</v>
+        <v>1000000091</v>
       </c>
       <c r="B93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zaharadwearianti302@man.com</v>
+        <v>zaharadwearianti963@man.com</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>84</v>
@@ -5542,11 +5542,11 @@
     </row>
     <row r="94" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>1000000024</v>
+        <v>1000000092</v>
       </c>
       <c r="B94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zahraniizzatis185@man.com</v>
+        <v>zahraniizzatis644@man.com</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>85</v>
@@ -5572,11 +5572,11 @@
     </row>
     <row r="95" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>1000000024</v>
+        <v>1000000093</v>
       </c>
       <c r="B95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zilfanakhairunnisa929@man.com</v>
+        <v>zilfanakhairunnisa641@man.com</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>86</v>
@@ -5602,11 +5602,11 @@
     </row>
     <row r="96" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>1000000024</v>
+        <v>1000000094</v>
       </c>
       <c r="B96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>endangstaurina860@man.com</v>
+        <v>endangstaurina112@man.com</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>354</v>
@@ -5632,11 +5632,11 @@
     </row>
     <row r="97" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>1000000024</v>
+        <v>1000000095</v>
       </c>
       <c r="B97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>anandaramadhan857@man.com</v>
+        <v>anandaramadhan479@man.com</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>355</v>
@@ -5662,11 +5662,11 @@
     </row>
     <row r="98" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>1000000024</v>
+        <v>1000000096</v>
       </c>
       <c r="B98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>adekarina372@man.com</v>
+        <v>adekarina151@man.com</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>356</v>
@@ -5692,11 +5692,11 @@
     </row>
     <row r="99" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>1000000024</v>
+        <v>1000000097</v>
       </c>
       <c r="B99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ainulyakin605@man.com</v>
+        <v>ainulyakin387@man.com</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>357</v>
@@ -5722,11 +5722,11 @@
     </row>
     <row r="100" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>1000000024</v>
+        <v>1000000098</v>
       </c>
       <c r="B100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>aldofandika374@man.com</v>
+        <v>aldofandika839@man.com</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>358</v>
@@ -5752,11 +5752,11 @@
     </row>
     <row r="101" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>1000000024</v>
+        <v>1000000099</v>
       </c>
       <c r="B101" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>alhadimy976@man.com</v>
+        <v>alhadimy327@man.com</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>359</v>
@@ -5782,11 +5782,11 @@
     </row>
     <row r="102" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>1000000024</v>
+        <v>1000000100</v>
       </c>
       <c r="B102" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>amanda402@man.com</v>
+        <v>amanda389@man.com</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>360</v>
@@ -5812,11 +5812,11 @@
     </row>
     <row r="103" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>1000000024</v>
+        <v>1000000101</v>
       </c>
       <c r="B103" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>armadainipionafitri171@man.com</v>
+        <v>armadainipionafitri18@man.com</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>361</v>
@@ -5842,11 +5842,11 @@
     </row>
     <row r="104" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
-        <v>1000000024</v>
+        <v>1000000102</v>
       </c>
       <c r="B104" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>deniyusnita362@man.com</v>
+        <v>deniyusnita57@man.com</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>362</v>
@@ -5872,11 +5872,11 @@
     </row>
     <row r="105" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>1000000024</v>
+        <v>1000000103</v>
       </c>
       <c r="B105" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>dinahayati32@man.com</v>
+        <v>dinahayati74@man.com</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>363</v>
@@ -5902,11 +5902,11 @@
     </row>
     <row r="106" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>1000000024</v>
+        <v>1000000104</v>
       </c>
       <c r="B106" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>faziravalameysa185@man.com</v>
+        <v>faziravalameysa871@man.com</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>364</v>
@@ -5932,11 +5932,11 @@
     </row>
     <row r="107" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>1000000024</v>
+        <v>1000000105</v>
       </c>
       <c r="B107" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gayatrihajamunte762@man.com</v>
+        <v>gayatrihajamunte213@man.com</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>365</v>
@@ -5962,11 +5962,11 @@
     </row>
     <row r="108" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
-        <v>1000000024</v>
+        <v>1000000106</v>
       </c>
       <c r="B108" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mabralsetiawan902@man.com</v>
+        <v>mabralsetiawan751@man.com</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>366</v>
@@ -5992,11 +5992,11 @@
     </row>
     <row r="109" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>1000000024</v>
+        <v>1000000107</v>
       </c>
       <c r="B109" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melina51@man.com</v>
+        <v>melina664@man.com</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>367</v>
@@ -6022,11 +6022,11 @@
     </row>
     <row r="110" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
-        <v>1000000024</v>
+        <v>1000000108</v>
       </c>
       <c r="B110" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>muhammadalfarisim177@man.com</v>
+        <v>muhammadalfarisim756@man.com</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>368</v>
@@ -6052,11 +6052,11 @@
     </row>
     <row r="111" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>1000000024</v>
+        <v>1000000109</v>
       </c>
       <c r="B111" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nazwa280@man.com</v>
+        <v>nazwa589@man.com</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>369</v>
@@ -6082,11 +6082,11 @@
     </row>
     <row r="112" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
-        <v>1000000024</v>
+        <v>1000000110</v>
       </c>
       <c r="B112" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nopiytasentiya739@man.com</v>
+        <v>nopiytasentiya889@man.com</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>370</v>
@@ -6112,11 +6112,11 @@
     </row>
     <row r="113" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
-        <v>1000000024</v>
+        <v>1000000111</v>
       </c>
       <c r="B113" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rahmadaini270@man.com</v>
+        <v>rahmadaini549@man.com</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>371</v>
@@ -6142,11 +6142,11 @@
     </row>
     <row r="114" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
-        <v>1000000024</v>
+        <v>1000000112</v>
       </c>
       <c r="B114" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhawantuahmiko554@man.com</v>
+        <v>ridhawantuahmiko265@man.com</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>372</v>
@@ -6172,11 +6172,11 @@
     </row>
     <row r="115" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
-        <v>1000000024</v>
+        <v>1000000113</v>
       </c>
       <c r="B115" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhoramadhan252@man.com</v>
+        <v>ridhoramadhan563@man.com</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>373</v>
@@ -6202,11 +6202,11 @@
     </row>
     <row r="116" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
-        <v>1000000024</v>
+        <v>1000000114</v>
       </c>
       <c r="B116" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahman776@man.com</v>
+        <v>rifkirahman558@man.com</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>374</v>
@@ -6232,11 +6232,11 @@
     </row>
     <row r="117" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
-        <v>1000000024</v>
+        <v>1000000115</v>
       </c>
       <c r="B117" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkankhalis796@man.com</v>
+        <v>rizkankhalis361@man.com</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>375</v>
@@ -6262,11 +6262,11 @@
     </row>
     <row r="118" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
-        <v>1000000024</v>
+        <v>1000000116</v>
       </c>
       <c r="B118" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkymaulana275@man.com</v>
+        <v>rizkymaulana435@man.com</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>376</v>
@@ -6292,11 +6292,11 @@
     </row>
     <row r="119" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
-        <v>1000000024</v>
+        <v>1000000117</v>
       </c>
       <c r="B119" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>saharamulyadi142@man.com</v>
+        <v>saharamulyadi357@man.com</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>377</v>
@@ -6322,11 +6322,11 @@
     </row>
     <row r="120" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
-        <v>1000000024</v>
+        <v>1000000118</v>
       </c>
       <c r="B120" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sarahafriani730@man.com</v>
+        <v>sarahafriani745@man.com</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>378</v>
@@ -6352,11 +6352,11 @@
     </row>
     <row r="121" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>1000000024</v>
+        <v>1000000119</v>
       </c>
       <c r="B121" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sawma647@man.com</v>
+        <v>sawma551@man.com</v>
       </c>
       <c r="C121" s="27" t="s">
         <v>379</v>
@@ -6382,11 +6382,11 @@
     </row>
     <row r="122" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
-        <v>1000000024</v>
+        <v>1000000120</v>
       </c>
       <c r="B122" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sayumahara169@man.com</v>
+        <v>sayumahara344@man.com</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>380</v>
@@ -6412,11 +6412,11 @@
     </row>
     <row r="123" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
-        <v>1000000024</v>
+        <v>1000000121</v>
       </c>
       <c r="B123" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selpinasintiaputri873@man.com</v>
+        <v>selpinasintiaputri747@man.com</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>381</v>
@@ -6442,11 +6442,11 @@
     </row>
     <row r="124" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
-        <v>1000000024</v>
+        <v>1000000122</v>
       </c>
       <c r="B124" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>semayang629@man.com</v>
+        <v>semayang971@man.com</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>382</v>
@@ -6472,11 +6472,11 @@
     </row>
     <row r="125" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
-        <v>1000000024</v>
+        <v>1000000123</v>
       </c>
       <c r="B125" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sintapratama394@man.com</v>
+        <v>sintapratama508@man.com</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>383</v>
@@ -6502,11 +6502,11 @@
     </row>
     <row r="126" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
-        <v>1000000024</v>
+        <v>1000000124</v>
       </c>
       <c r="B126" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastri776@man.com</v>
+        <v>sulastri609@man.com</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>384</v>
@@ -6532,11 +6532,11 @@
     </row>
     <row r="127" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
-        <v>1000000024</v>
+        <v>1000000125</v>
       </c>
       <c r="B127" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sultan649@man.com</v>
+        <v>sultan38@man.com</v>
       </c>
       <c r="C127" s="25" t="s">
         <v>385</v>
@@ -6562,11 +6562,11 @@
     </row>
     <row r="128" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
-        <v>1000000024</v>
+        <v>1000000126</v>
       </c>
       <c r="B128" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>taufiqhidayat302@man.com</v>
+        <v>taufiqhidayat619@man.com</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>386</v>
@@ -6592,11 +6592,11 @@
     </row>
     <row r="129" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
-        <v>1000000024</v>
+        <v>1000000127</v>
       </c>
       <c r="B129" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tirazahraassyifa651@man.com</v>
+        <v>tirazahraassyifa90@man.com</v>
       </c>
       <c r="C129" s="27" t="s">
         <v>387</v>
@@ -6622,11 +6622,11 @@
     </row>
     <row r="130" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
-        <v>1000000024</v>
+        <v>1000000128</v>
       </c>
       <c r="B130" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tomirizkilaoce422@man.com</v>
+        <v>tomirizkilaoce427@man.com</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>388</v>
@@ -6652,11 +6652,11 @@
     </row>
     <row r="131" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>1000000024</v>
+        <v>1000000129</v>
       </c>
       <c r="B131" s="5" t="str">
         <f t="shared" ref="B131:B194" ca="1" si="2">SUBSTITUTE(LOWER(C131&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>vadyaaknaakciella668@man.com</v>
+        <v>vadyaaknaakciella200@man.com</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>389</v>
@@ -6682,11 +6682,11 @@
     </row>
     <row r="132" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
-        <v>1000000024</v>
+        <v>1000000130</v>
       </c>
       <c r="B132" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vikkihafizulriski946@man.com</v>
+        <v>vikkihafizulriski579@man.com</v>
       </c>
       <c r="C132" s="27" t="s">
         <v>390</v>
@@ -6712,11 +6712,11 @@
     </row>
     <row r="133" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>1000000024</v>
+        <v>1000000131</v>
       </c>
       <c r="B133" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>haikalmahpenona530@man.com</v>
+        <v>haikalmahpenona185@man.com</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>391</v>
@@ -6742,11 +6742,11 @@
     </row>
     <row r="134" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
-        <v>1000000024</v>
+        <v>1000000132</v>
       </c>
       <c r="B134" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahsilaturahmi523@man.com</v>
+        <v>indahsilaturahmi155@man.com</v>
       </c>
       <c r="C134" s="25" t="s">
         <v>392</v>
@@ -6772,11 +6772,11 @@
     </row>
     <row r="135" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>1000000024</v>
+        <v>1000000133</v>
       </c>
       <c r="B135" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>adityafazri795@man.com</v>
+        <v>adityafazri342@man.com</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>393</v>
@@ -6802,11 +6802,11 @@
     </row>
     <row r="136" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
-        <v>1000000024</v>
+        <v>1000000134</v>
       </c>
       <c r="B136" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>akmalhakim887@man.com</v>
+        <v>akmalhakim414@man.com</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>394</v>
@@ -6832,11 +6832,11 @@
     </row>
     <row r="137" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
-        <v>1000000024</v>
+        <v>1000000135</v>
       </c>
       <c r="B137" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>amanapernama204@man.com</v>
+        <v>amanapernama51@man.com</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>395</v>
@@ -6862,11 +6862,11 @@
     </row>
     <row r="138" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
-        <v>1000000024</v>
+        <v>1000000136</v>
       </c>
       <c r="B138" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andiarba964@man.com</v>
+        <v>andiarba528@man.com</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>12</v>
@@ -6892,11 +6892,11 @@
     </row>
     <row r="139" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
-        <v>1000000024</v>
+        <v>1000000137</v>
       </c>
       <c r="B139" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andikaranggayo412@man.com</v>
+        <v>andikaranggayo771@man.com</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>396</v>
@@ -6922,11 +6922,11 @@
     </row>
     <row r="140" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
-        <v>1000000024</v>
+        <v>1000000138</v>
       </c>
       <c r="B140" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>citraaprisyah489@man.com</v>
+        <v>citraaprisyah858@man.com</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>397</v>
@@ -6952,11 +6952,11 @@
     </row>
     <row r="141" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
-        <v>1000000024</v>
+        <v>1000000139</v>
       </c>
       <c r="B141" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>endangagustiayu531@man.com</v>
+        <v>endangagustiayu991@man.com</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>398</v>
@@ -6982,11 +6982,11 @@
     </row>
     <row r="142" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
-        <v>1000000024</v>
+        <v>1000000140</v>
       </c>
       <c r="B142" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhlanridho306@man.com</v>
+        <v>fadhlanridho456@man.com</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>399</v>
@@ -7012,11 +7012,11 @@
     </row>
     <row r="143" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
-        <v>1000000024</v>
+        <v>1000000141</v>
       </c>
       <c r="B143" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadilhawari209@man.com</v>
+        <v>fadilhawari577@man.com</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>400</v>
@@ -7042,11 +7042,11 @@
     </row>
     <row r="144" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
-        <v>1000000024</v>
+        <v>1000000142</v>
       </c>
       <c r="B144" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>gafuriakmal487@man.com</v>
+        <v>gafuriakmal885@man.com</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>401</v>
@@ -7072,11 +7072,11 @@
     </row>
     <row r="145" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
-        <v>1000000024</v>
+        <v>1000000143</v>
       </c>
       <c r="B145" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hafidzulqiram598@man.com</v>
+        <v>hafidzulqiram557@man.com</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>402</v>
@@ -7102,11 +7102,11 @@
     </row>
     <row r="146" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
-        <v>1000000024</v>
+        <v>1000000144</v>
       </c>
       <c r="B146" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>handika326@man.com</v>
+        <v>handika683@man.com</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>403</v>
@@ -7132,11 +7132,11 @@
     </row>
     <row r="147" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
-        <v>1000000024</v>
+        <v>1000000145</v>
       </c>
       <c r="B147" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hardiramalianda25@man.com</v>
+        <v>hardiramalianda968@man.com</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>404</v>
@@ -7162,11 +7162,11 @@
     </row>
     <row r="148" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
-        <v>1000000024</v>
+        <v>1000000146</v>
       </c>
       <c r="B148" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>herisyahputra671@man.com</v>
+        <v>herisyahputra745@man.com</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>405</v>
@@ -7192,11 +7192,11 @@
     </row>
     <row r="149" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>1000000024</v>
+        <v>1000000147</v>
       </c>
       <c r="B149" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>izatunnisa916@man.com</v>
+        <v>izatunnisa961@man.com</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>406</v>
@@ -7222,11 +7222,11 @@
     </row>
     <row r="150" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
-        <v>1000000024</v>
+        <v>1000000148</v>
       </c>
       <c r="B150" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdikasakula17@man.com</v>
+        <v>mdikasakula762@man.com</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>407</v>
@@ -7252,11 +7252,11 @@
     </row>
     <row r="151" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
-        <v>1000000024</v>
+        <v>1000000149</v>
       </c>
       <c r="B151" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mahfuza382@man.com</v>
+        <v>mahfuza463@man.com</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>408</v>
@@ -7282,11 +7282,11 @@
     </row>
     <row r="152" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
-        <v>1000000024</v>
+        <v>1000000150</v>
       </c>
       <c r="B152" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muthahari833@man.com</v>
+        <v>muthahari807@man.com</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>409</v>
@@ -7312,11 +7312,11 @@
     </row>
     <row r="153" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
-        <v>1000000024</v>
+        <v>1000000151</v>
       </c>
       <c r="B153" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafis164@man.com</v>
+        <v>nafis371@man.com</v>
       </c>
       <c r="C153" s="33" t="s">
         <v>410</v>
@@ -7342,11 +7342,11 @@
     </row>
     <row r="154" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
-        <v>1000000024</v>
+        <v>1000000152</v>
       </c>
       <c r="B154" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafisah681@man.com</v>
+        <v>nafisah41@man.com</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>411</v>
@@ -7372,11 +7372,11 @@
     </row>
     <row r="155" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
-        <v>1000000024</v>
+        <v>1000000153</v>
       </c>
       <c r="B155" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>naufalzahran111@man.com</v>
+        <v>naufalzahran957@man.com</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>60</v>
@@ -7402,11 +7402,11 @@
     </row>
     <row r="156" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
-        <v>1000000024</v>
+        <v>1000000154</v>
       </c>
       <c r="B156" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nipanikmah244@man.com</v>
+        <v>nipanikmah701@man.com</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>412</v>
@@ -7432,11 +7432,11 @@
     </row>
     <row r="157" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
-        <v>1000000024</v>
+        <v>1000000155</v>
       </c>
       <c r="B157" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sahlandi623@man.com</v>
+        <v>sahlandi191@man.com</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>413</v>
@@ -7462,11 +7462,11 @@
     </row>
     <row r="158" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
-        <v>1000000024</v>
+        <v>1000000156</v>
       </c>
       <c r="B158" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>santrimauliani771@man.com</v>
+        <v>santrimauliani730@man.com</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>414</v>
@@ -7492,11 +7492,11 @@
     </row>
     <row r="159" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
-        <v>1000000024</v>
+        <v>1000000157</v>
       </c>
       <c r="B159" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>serimahara649@man.com</v>
+        <v>serimahara77@man.com</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>415</v>
@@ -7522,11 +7522,11 @@
     </row>
     <row r="160" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
-        <v>1000000024</v>
+        <v>1000000158</v>
       </c>
       <c r="B160" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>arilbahgia344@man.com</v>
+        <v>arilbahgia876@man.com</v>
       </c>
       <c r="C160" s="36" t="s">
         <v>416</v>
@@ -7552,11 +7552,11 @@
     </row>
     <row r="161" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
-        <v>1000000024</v>
+        <v>1000000159</v>
       </c>
       <c r="B161" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>auliadarmawan498@man.com</v>
+        <v>auliadarmawan582@man.com</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>417</v>
@@ -7582,11 +7582,11 @@
     </row>
     <row r="162" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
-        <v>1000000024</v>
+        <v>1000000160</v>
       </c>
       <c r="B162" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>chairulihsan371@man.com</v>
+        <v>chairulihsan121@man.com</v>
       </c>
       <c r="C162" s="36" t="s">
         <v>418</v>
@@ -7612,11 +7612,11 @@
     </row>
     <row r="163" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
-        <v>1000000024</v>
+        <v>1000000161</v>
       </c>
       <c r="B163" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhilruzika698@man.com</v>
+        <v>fadhilruzika499@man.com</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>419</v>
@@ -7642,11 +7642,11 @@
     </row>
     <row r="164" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
-        <v>1000000024</v>
+        <v>1000000162</v>
       </c>
       <c r="B164" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fathulhakiki851@man.com</v>
+        <v>fathulhakiki696@man.com</v>
       </c>
       <c r="C164" s="36" t="s">
         <v>420</v>
@@ -7672,11 +7672,11 @@
     </row>
     <row r="165" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
-        <v>1000000024</v>
+        <v>1000000163</v>
       </c>
       <c r="B165" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahmahbengi293@man.com</v>
+        <v>indahmahbengi199@man.com</v>
       </c>
       <c r="C165" s="36" t="s">
         <v>421</v>
@@ -7702,11 +7702,11 @@
     </row>
     <row r="166" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
-        <v>1000000024</v>
+        <v>1000000164</v>
       </c>
       <c r="B166" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iwanmaulana208@man.com</v>
+        <v>iwanmaulana820@man.com</v>
       </c>
       <c r="C166" s="36" t="s">
         <v>422</v>
@@ -7732,11 +7732,11 @@
     </row>
     <row r="167" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
-        <v>1000000024</v>
+        <v>1000000165</v>
       </c>
       <c r="B167" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iyusdalilla941@man.com</v>
+        <v>iyusdalilla180@man.com</v>
       </c>
       <c r="C167" s="36" t="s">
         <v>423</v>
@@ -7762,11 +7762,11 @@
     </row>
     <row r="168" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
-        <v>1000000024</v>
+        <v>1000000166</v>
       </c>
       <c r="B168" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdanieldarmawan809@man.com</v>
+        <v>mdanieldarmawan598@man.com</v>
       </c>
       <c r="C168" s="38" t="s">
         <v>424</v>
@@ -7792,11 +7792,11 @@
     </row>
     <row r="169" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>1000000024</v>
+        <v>1000000167</v>
       </c>
       <c r="B169" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mpatihadlan203@man.com</v>
+        <v>mpatihadlan344@man.com</v>
       </c>
       <c r="C169" s="36" t="s">
         <v>425</v>
@@ -7822,11 +7822,11 @@
     </row>
     <row r="170" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
-        <v>1000000024</v>
+        <v>1000000168</v>
       </c>
       <c r="B170" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muhammadfajaral-anis273@man.com</v>
+        <v>muhammadfajaral-anis54@man.com</v>
       </c>
       <c r="C170" s="36" t="s">
         <v>426</v>
@@ -7852,11 +7852,11 @@
     </row>
     <row r="171" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
-        <v>1000000024</v>
+        <v>1000000169</v>
       </c>
       <c r="B171" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muliana969@man.com</v>
+        <v>muliana971@man.com</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>427</v>
@@ -7882,11 +7882,11 @@
     </row>
     <row r="172" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
-        <v>1000000024</v>
+        <v>1000000170</v>
       </c>
       <c r="B172" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nisarahmadani375@man.com</v>
+        <v>nisarahmadani340@man.com</v>
       </c>
       <c r="C172" s="36" t="s">
         <v>428</v>
@@ -7912,11 +7912,11 @@
     </row>
     <row r="173" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
-        <v>1000000024</v>
+        <v>1000000171</v>
       </c>
       <c r="B173" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noufaldimulia311@man.com</v>
+        <v>noufaldimulia430@man.com</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>429</v>
@@ -7942,11 +7942,11 @@
     </row>
     <row r="174" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <v>1000000024</v>
+        <v>1000000172</v>
       </c>
       <c r="B174" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>rianrahmadani321@man.com</v>
+        <v>rianrahmadani519@man.com</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>430</v>
@@ -7972,11 +7972,11 @@
     </row>
     <row r="175" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
-        <v>1000000024</v>
+        <v>1000000173</v>
       </c>
       <c r="B175" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ridhobanyubening358@man.com</v>
+        <v>ridhobanyubening421@man.com</v>
       </c>
       <c r="C175" s="36" t="s">
         <v>431</v>
@@ -8002,11 +8002,11 @@
     </row>
     <row r="176" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
-        <v>1000000024</v>
+        <v>1000000174</v>
       </c>
       <c r="B176" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>susanpebriola809@man.com</v>
+        <v>susanpebriola774@man.com</v>
       </c>
       <c r="C176" s="36" t="s">
         <v>432</v>
@@ -8032,11 +8032,11 @@
     </row>
     <row r="177" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
-        <v>1000000024</v>
+        <v>1000000175</v>
       </c>
       <c r="B177" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>syahrulnizam289@man.com</v>
+        <v>syahrulnizam970@man.com</v>
       </c>
       <c r="C177" s="36" t="s">
         <v>433</v>
@@ -8062,11 +8062,11 @@
     </row>
     <row r="178" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
-        <v>1000000024</v>
+        <v>1000000176</v>
       </c>
       <c r="B178" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuahmiko555@man.com</v>
+        <v>tuahmiko371@man.com</v>
       </c>
       <c r="C178" s="36" t="s">
         <v>434</v>
@@ -8092,11 +8092,11 @@
     </row>
     <row r="179" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
-        <v>1000000024</v>
+        <v>1000000177</v>
       </c>
       <c r="B179" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vebinahani350@man.com</v>
+        <v>vebinahani542@man.com</v>
       </c>
       <c r="C179" s="36" t="s">
         <v>435</v>
@@ -8122,11 +8122,11 @@
     </row>
     <row r="180" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
-        <v>1000000024</v>
+        <v>1000000178</v>
       </c>
       <c r="B180" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>zikriadha891@man.com</v>
+        <v>zikriadha475@man.com</v>
       </c>
       <c r="C180" s="36" t="s">
         <v>436</v>
@@ -8152,11 +8152,11 @@
     </row>
     <row r="181" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>1000000024</v>
+        <v>1000000179</v>
       </c>
       <c r="B181" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ahmadmauridsinaga755@man.com</v>
+        <v>ahmadmauridsinaga320@man.com</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>437</v>
@@ -8182,11 +8182,11 @@
     </row>
     <row r="182" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <v>1000000024</v>
+        <v>1000000180</v>
       </c>
       <c r="B182" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ainunmagfirah446@man.com</v>
+        <v>ainunmagfirah571@man.com</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>438</v>
@@ -8212,11 +8212,11 @@
     </row>
     <row r="183" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>1000000024</v>
+        <v>1000000181</v>
       </c>
       <c r="B183" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bahgie381@man.com</v>
+        <v>bahgie597@man.com</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>439</v>
@@ -8242,11 +8242,11 @@
     </row>
     <row r="184" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
-        <v>1000000024</v>
+        <v>1000000182</v>
       </c>
       <c r="B184" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fakrimahtuahmiko309@man.com</v>
+        <v>fakrimahtuahmiko886@man.com</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>440</v>
@@ -8272,11 +8272,11 @@
     </row>
     <row r="185" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>1000000024</v>
+        <v>1000000183</v>
       </c>
       <c r="B185" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fitrymulyani348@man.com</v>
+        <v>fitrymulyani743@man.com</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>441</v>
@@ -8302,11 +8302,11 @@
     </row>
     <row r="186" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
-        <v>1000000024</v>
+        <v>1000000184</v>
       </c>
       <c r="B186" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hairuddahri469@man.com</v>
+        <v>hairuddahri959@man.com</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>442</v>
@@ -8332,11 +8332,11 @@
     </row>
     <row r="187" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>1000000024</v>
+        <v>1000000185</v>
       </c>
       <c r="B187" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iqram650@man.com</v>
+        <v>iqram462@man.com</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>443</v>
@@ -8362,11 +8362,11 @@
     </row>
     <row r="188" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
-        <v>1000000024</v>
+        <v>1000000186</v>
       </c>
       <c r="B188" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>kadriansyah305@man.com</v>
+        <v>kadriansyah464@man.com</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>444</v>
@@ -8392,11 +8392,11 @@
     </row>
     <row r="189" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>1000000024</v>
+        <v>1000000187</v>
       </c>
       <c r="B189" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mnurassyfah165@man.com</v>
+        <v>mnurassyfah775@man.com</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>445</v>
@@ -8422,11 +8422,11 @@
     </row>
     <row r="190" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <v>1000000024</v>
+        <v>1000000188</v>
       </c>
       <c r="B190" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mariyana200@man.com</v>
+        <v>mariyana63@man.com</v>
       </c>
       <c r="C190" s="44" t="s">
         <v>446</v>
@@ -8452,11 +8452,11 @@
     </row>
     <row r="191" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>1000000024</v>
+        <v>1000000189</v>
       </c>
       <c r="B191" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>maulana985@man.com</v>
+        <v>maulana27@man.com</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>447</v>
@@ -8482,11 +8482,11 @@
     </row>
     <row r="192" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
-        <v>1000000024</v>
+        <v>1000000190</v>
       </c>
       <c r="B192" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>munawir848@man.com</v>
+        <v>munawir854@man.com</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>448</v>
@@ -8512,11 +8512,11 @@
     </row>
     <row r="193" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>1000000024</v>
+        <v>1000000191</v>
       </c>
       <c r="B193" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muzakarah678@man.com</v>
+        <v>muzakarah575@man.com</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>449</v>
@@ -8542,11 +8542,11 @@
     </row>
     <row r="194" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
-        <v>1000000024</v>
+        <v>1000000192</v>
       </c>
       <c r="B194" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nurajabulfitriar373@man.com</v>
+        <v>nurajabulfitriar718@man.com</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>450</v>
@@ -8572,11 +8572,11 @@
     </row>
     <row r="195" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>1000000024</v>
+        <v>1000000193</v>
       </c>
       <c r="B195" s="5" t="str">
         <f t="shared" ref="B195:B258" ca="1" si="3">SUBSTITUTE(LOWER(C195&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>olaafrianda482@man.com</v>
+        <v>olaafrianda430@man.com</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>451</v>
@@ -8602,11 +8602,11 @@
     </row>
     <row r="196" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
-        <v>1000000024</v>
+        <v>1000000194</v>
       </c>
       <c r="B196" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmadtakbira737@man.com</v>
+        <v>rahmadtakbira28@man.com</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>452</v>
@@ -8632,11 +8632,11 @@
     </row>
     <row r="197" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>1000000024</v>
+        <v>1000000195</v>
       </c>
       <c r="B197" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rozatulmeria176@man.com</v>
+        <v>rozatulmeria872@man.com</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>453</v>
@@ -8662,11 +8662,11 @@
     </row>
     <row r="198" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
-        <v>1000000024</v>
+        <v>1000000196</v>
       </c>
       <c r="B198" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdiakbar578@man.com</v>
+        <v>ruhdiakbar613@man.com</v>
       </c>
       <c r="C198" s="45" t="s">
         <v>454</v>
@@ -8692,11 +8692,11 @@
     </row>
     <row r="199" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>1000000024</v>
+        <v>1000000197</v>
       </c>
       <c r="B199" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahrimaulana480@man.com</v>
+        <v>sahrimaulana993@man.com</v>
       </c>
       <c r="C199" s="44" t="s">
         <v>455</v>
@@ -8722,11 +8722,11 @@
     </row>
     <row r="200" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
-        <v>1000000024</v>
+        <v>1000000198</v>
       </c>
       <c r="B200" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yusranariga920@man.com</v>
+        <v>yusranariga683@man.com</v>
       </c>
       <c r="C200" s="44" t="s">
         <v>456</v>
@@ -8752,11 +8752,11 @@
     </row>
     <row r="201" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>1000000024</v>
+        <v>1000000199</v>
       </c>
       <c r="B201" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zuhrisimerala731@man.com</v>
+        <v>zuhrisimerala260@man.com</v>
       </c>
       <c r="C201" s="42" t="s">
         <v>457</v>
@@ -8782,11 +8782,11 @@
     </row>
     <row r="202" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
-        <v>1000000024</v>
+        <v>1000000200</v>
       </c>
       <c r="B202" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>barika121@man.com</v>
+        <v>barika231@man.com</v>
       </c>
       <c r="C202" s="42" t="s">
         <v>458</v>
@@ -8812,11 +8812,11 @@
     </row>
     <row r="203" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
-        <v>1000000024</v>
+        <v>1000000201</v>
       </c>
       <c r="B203" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aizalwafimf472@man.com</v>
+        <v>aizalwafimf363@man.com</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>459</v>
@@ -8842,11 +8842,11 @@
     </row>
     <row r="204" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
-        <v>1000000024</v>
+        <v>1000000202</v>
       </c>
       <c r="B204" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>almustaqim670@man.com</v>
+        <v>almustaqim382@man.com</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>460</v>
@@ -8872,11 +8872,11 @@
     </row>
     <row r="205" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
-        <v>1000000024</v>
+        <v>1000000203</v>
       </c>
       <c r="B205" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>assakinahsiregar252@man.com</v>
+        <v>assakinahsiregar292@man.com</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>461</v>
@@ -8902,11 +8902,11 @@
     </row>
     <row r="206" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
-        <v>1000000024</v>
+        <v>1000000204</v>
       </c>
       <c r="B206" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>dinaauliaramadhani392@man.com</v>
+        <v>dinaauliaramadhani140@man.com</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>462</v>
@@ -8932,11 +8932,11 @@
     </row>
     <row r="207" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
-        <v>1000000024</v>
+        <v>1000000205</v>
       </c>
       <c r="B207" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fadliwanzikra397@man.com</v>
+        <v>fadliwanzikra752@man.com</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>463</v>
@@ -8962,11 +8962,11 @@
     </row>
     <row r="208" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
-        <v>1000000024</v>
+        <v>1000000206</v>
       </c>
       <c r="B208" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>firanisyafriyana449@man.com</v>
+        <v>firanisyafriyana900@man.com</v>
       </c>
       <c r="C208" s="47" t="s">
         <v>464</v>
@@ -8992,11 +8992,11 @@
     </row>
     <row r="209" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
-        <v>1000000024</v>
+        <v>1000000207</v>
       </c>
       <c r="B209" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hadrinawati97@man.com</v>
+        <v>hadrinawati578@man.com</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>465</v>
@@ -9022,11 +9022,11 @@
     </row>
     <row r="210" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
-        <v>1000000024</v>
+        <v>1000000208</v>
       </c>
       <c r="B210" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>himmahadzkiya837@man.com</v>
+        <v>himmahadzkiya249@man.com</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>466</v>
@@ -9052,11 +9052,11 @@
     </row>
     <row r="211" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
-        <v>1000000024</v>
+        <v>1000000209</v>
       </c>
       <c r="B211" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>maitsanuruls676@man.com</v>
+        <v>maitsanuruls267@man.com</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>467</v>
@@ -9082,11 +9082,11 @@
     </row>
     <row r="212" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
-        <v>1000000024</v>
+        <v>1000000210</v>
       </c>
       <c r="B212" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naafilahridhaanggraini992@man.com</v>
+        <v>naafilahridhaanggraini555@man.com</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>468</v>
@@ -9112,11 +9112,11 @@
     </row>
     <row r="213" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>1000000024</v>
+        <v>1000000211</v>
       </c>
       <c r="B213" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rendyhidayatullah555@man.com</v>
+        <v>rendyhidayatullah139@man.com</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>469</v>
@@ -9142,11 +9142,11 @@
     </row>
     <row r="214" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <v>1000000024</v>
+        <v>1000000212</v>
       </c>
       <c r="B214" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilakinanti630@man.com</v>
+        <v>nabilakinanti373@man.com</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>470</v>
@@ -9172,11 +9172,11 @@
     </row>
     <row r="215" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>1000000024</v>
+        <v>1000000213</v>
       </c>
       <c r="B215" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilapermai263@man.com</v>
+        <v>nabilapermai778@man.com</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>471</v>
@@ -9202,11 +9202,11 @@
     </row>
     <row r="216" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
-        <v>1000000024</v>
+        <v>1000000214</v>
       </c>
       <c r="B216" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabila300@man.com</v>
+        <v>nabila478@man.com</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>472</v>
@@ -9232,11 +9232,11 @@
     </row>
     <row r="217" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>1000000024</v>
+        <v>1000000215</v>
       </c>
       <c r="B217" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nurmala213@man.com</v>
+        <v>nurmala121@man.com</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>473</v>
@@ -9262,11 +9262,11 @@
     </row>
     <row r="218" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
-        <v>1000000024</v>
+        <v>1000000216</v>
       </c>
       <c r="B218" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naylafarizahusna366@man.com</v>
+        <v>naylafarizahusna885@man.com</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>474</v>
@@ -9292,11 +9292,11 @@
     </row>
     <row r="219" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>1000000024</v>
+        <v>1000000217</v>
       </c>
       <c r="B219" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ririyunita820@man.com</v>
+        <v>ririyunita377@man.com</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>475</v>
@@ -9322,11 +9322,11 @@
     </row>
     <row r="220" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
-        <v>1000000024</v>
+        <v>1000000218</v>
       </c>
       <c r="B220" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sayyidatulkhusnulkhotimah961@man.com</v>
+        <v>sayyidatulkhusnulkhotimah568@man.com</v>
       </c>
       <c r="C220" s="47" t="s">
         <v>476</v>
@@ -9352,11 +9352,11 @@
     </row>
     <row r="221" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>1000000024</v>
+        <v>1000000219</v>
       </c>
       <c r="B221" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syifasalsabila123@man.com</v>
+        <v>syifasalsabila171@man.com</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>477</v>
@@ -9382,11 +9382,11 @@
     </row>
     <row r="222" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
-        <v>1000000024</v>
+        <v>1000000220</v>
       </c>
       <c r="B222" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ulfasalsabila813@man.com</v>
+        <v>ulfasalsabila249@man.com</v>
       </c>
       <c r="C222" s="47" t="s">
         <v>478</v>
@@ -9412,11 +9412,11 @@
     </row>
     <row r="223" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
-        <v>1000000024</v>
+        <v>1000000221</v>
       </c>
       <c r="B223" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>umitatamara189@man.com</v>
+        <v>umitatamara471@man.com</v>
       </c>
       <c r="C223" s="47" t="s">
         <v>479</v>
@@ -9442,11 +9442,11 @@
     </row>
     <row r="224" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
-        <v>1000000024</v>
+        <v>1000000222</v>
       </c>
       <c r="B224" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yolandarahmadani868@man.com</v>
+        <v>yolandarahmadani503@man.com</v>
       </c>
       <c r="C224" s="47" t="s">
         <v>480</v>
@@ -9472,11 +9472,11 @@
     </row>
     <row r="225" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
-        <v>1000000024</v>
+        <v>1000000223</v>
       </c>
       <c r="B225" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zahratululyas732@man.com</v>
+        <v>zahratululyas608@man.com</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>481</v>
@@ -9502,11 +9502,11 @@
     </row>
     <row r="226" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
-        <v>1000000024</v>
+        <v>1000000224</v>
       </c>
       <c r="B226" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>agihilham442@man.com</v>
+        <v>agihilham23@man.com</v>
       </c>
       <c r="C226" s="47" t="s">
         <v>92</v>
@@ -9532,11 +9532,11 @@
     </row>
     <row r="227" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
-        <v>1000000024</v>
+        <v>1000000225</v>
       </c>
       <c r="B227" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aisyfahrozi955@man.com</v>
+        <v>aisyfahrozi345@man.com</v>
       </c>
       <c r="C227" s="47" t="s">
         <v>93</v>
@@ -9562,11 +9562,11 @@
     </row>
     <row r="228" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
-        <v>1000000024</v>
+        <v>1000000226</v>
       </c>
       <c r="B228" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>angguncytrarozha583@man.com</v>
+        <v>angguncytrarozha195@man.com</v>
       </c>
       <c r="C228" s="47" t="s">
         <v>94</v>
@@ -9592,11 +9592,11 @@
     </row>
     <row r="229" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
-        <v>1000000024</v>
+        <v>1000000227</v>
       </c>
       <c r="B229" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aryana794@man.com</v>
+        <v>aryana850@man.com</v>
       </c>
       <c r="C229" s="47" t="s">
         <v>95</v>
@@ -9622,11 +9622,11 @@
     </row>
     <row r="230" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
-        <v>1000000024</v>
+        <v>1000000228</v>
       </c>
       <c r="B230" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>awalludinnovriandim329@man.com</v>
+        <v>awalludinnovriandim301@man.com</v>
       </c>
       <c r="C230" s="47" t="s">
         <v>96</v>
@@ -9652,11 +9652,11 @@
     </row>
     <row r="231" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
-        <v>1000000024</v>
+        <v>1000000229</v>
       </c>
       <c r="B231" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>diana666@man.com</v>
+        <v>diana417@man.com</v>
       </c>
       <c r="C231" s="47" t="s">
         <v>97</v>
@@ -9682,11 +9682,11 @@
     </row>
     <row r="232" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
-        <v>1000000024</v>
+        <v>1000000230</v>
       </c>
       <c r="B232" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fanilidiafutri8@man.com</v>
+        <v>fanilidiafutri227@man.com</v>
       </c>
       <c r="C232" s="47" t="s">
         <v>98</v>
@@ -9712,11 +9712,11 @@
     </row>
     <row r="233" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>1000000024</v>
+        <v>1000000231</v>
       </c>
       <c r="B233" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ghufranabal768@man.com</v>
+        <v>ghufranabal893@man.com</v>
       </c>
       <c r="C233" s="47" t="s">
         <v>99</v>
@@ -9742,11 +9742,11 @@
     </row>
     <row r="234" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
-        <v>1000000024</v>
+        <v>1000000232</v>
       </c>
       <c r="B234" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzalfarizi295@man.com</v>
+        <v>hafidzalfarizi314@man.com</v>
       </c>
       <c r="C234" s="47" t="s">
         <v>100</v>
@@ -9772,11 +9772,11 @@
     </row>
     <row r="235" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
-        <v>1000000024</v>
+        <v>1000000233</v>
       </c>
       <c r="B235" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzahafifaziz633@man.com</v>
+        <v>hafidzahafifaziz935@man.com</v>
       </c>
       <c r="C235" s="47" t="s">
         <v>101</v>
@@ -9802,11 +9802,11 @@
     </row>
     <row r="236" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
-        <v>1000000024</v>
+        <v>1000000234</v>
       </c>
       <c r="B236" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ilhamelsandi485@man.com</v>
+        <v>ilhamelsandi438@man.com</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>102</v>
@@ -9832,11 +9832,11 @@
     </row>
     <row r="237" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
-        <v>1000000024</v>
+        <v>1000000235</v>
       </c>
       <c r="B237" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>inesalvanirenggali228@man.com</v>
+        <v>inesalvanirenggali355@man.com</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>103</v>
@@ -9862,11 +9862,11 @@
     </row>
     <row r="238" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
-        <v>1000000024</v>
+        <v>1000000236</v>
       </c>
       <c r="B238" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>iwanrezeki406@man.com</v>
+        <v>iwanrezeki80@man.com</v>
       </c>
       <c r="C238" s="47" t="s">
         <v>104</v>
@@ -9892,11 +9892,11 @@
     </row>
     <row r="239" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
-        <v>1000000024</v>
+        <v>1000000237</v>
       </c>
       <c r="B239" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>junaidi990@man.com</v>
+        <v>junaidi653@man.com</v>
       </c>
       <c r="C239" s="47" t="s">
         <v>105</v>
@@ -9922,11 +9922,11 @@
     </row>
     <row r="240" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
-        <v>1000000024</v>
+        <v>1000000238</v>
       </c>
       <c r="B240" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>kamisa700@man.com</v>
+        <v>kamisa630@man.com</v>
       </c>
       <c r="C240" s="47" t="s">
         <v>106</v>
@@ -9952,11 +9952,11 @@
     </row>
     <row r="241" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
-        <v>1000000024</v>
+        <v>1000000239</v>
       </c>
       <c r="B241" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>najwasalsabilalaili81@man.com</v>
+        <v>najwasalsabilalaili523@man.com</v>
       </c>
       <c r="C241" s="47" t="s">
         <v>107</v>
@@ -9982,11 +9982,11 @@
     </row>
     <row r="242" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
-        <v>1000000024</v>
+        <v>1000000240</v>
       </c>
       <c r="B242" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>novyasalisca533@man.com</v>
+        <v>novyasalisca120@man.com</v>
       </c>
       <c r="C242" s="47" t="s">
         <v>108</v>
@@ -10012,11 +10012,11 @@
     </row>
     <row r="243" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
-        <v>1000000024</v>
+        <v>1000000241</v>
       </c>
       <c r="B243" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>radiansyah608@man.com</v>
+        <v>radiansyah214@man.com</v>
       </c>
       <c r="C243" s="47" t="s">
         <v>109</v>
@@ -10042,11 +10042,11 @@
     </row>
     <row r="244" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
-        <v>1000000024</v>
+        <v>1000000242</v>
       </c>
       <c r="B244" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmitafitri967@man.com</v>
+        <v>rahmitafitri561@man.com</v>
       </c>
       <c r="C244" s="48" t="s">
         <v>110</v>
@@ -10072,11 +10072,11 @@
     </row>
     <row r="245" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
-        <v>1000000024</v>
+        <v>1000000243</v>
       </c>
       <c r="B245" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rajagilang918@man.com</v>
+        <v>rajagilang661@man.com</v>
       </c>
       <c r="C245" s="47" t="s">
         <v>111</v>
@@ -10102,11 +10102,11 @@
     </row>
     <row r="246" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
-        <v>1000000024</v>
+        <v>1000000244</v>
       </c>
       <c r="B246" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rasikadewis305@man.com</v>
+        <v>rasikadewis531@man.com</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>112</v>
@@ -10132,11 +10132,11 @@
     </row>
     <row r="247" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
-        <v>1000000024</v>
+        <v>1000000245</v>
       </c>
       <c r="B247" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renisimahbengi603@man.com</v>
+        <v>renisimahbengi276@man.com</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>113</v>
@@ -10162,11 +10162,11 @@
     </row>
     <row r="248" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
-        <v>1000000024</v>
+        <v>1000000246</v>
       </c>
       <c r="B248" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renomihaldiko759@man.com</v>
+        <v>renomihaldiko121@man.com</v>
       </c>
       <c r="C248" s="47" t="s">
         <v>114</v>
@@ -10192,11 +10192,11 @@
     </row>
     <row r="249" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
-        <v>1000000024</v>
+        <v>1000000247</v>
       </c>
       <c r="B249" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rifkisetiawan227@man.com</v>
+        <v>rifkisetiawan709@man.com</v>
       </c>
       <c r="C249" s="47" t="s">
         <v>115</v>
@@ -10222,11 +10222,11 @@
     </row>
     <row r="250" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
-        <v>1000000024</v>
+        <v>1000000248</v>
       </c>
       <c r="B250" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rimasimehate206@man.com</v>
+        <v>rimasimehate508@man.com</v>
       </c>
       <c r="C250" s="47" t="s">
         <v>116</v>
@@ -10252,11 +10252,11 @@
     </row>
     <row r="251" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
-        <v>1000000024</v>
+        <v>1000000249</v>
       </c>
       <c r="B251" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizahidayah14@man.com</v>
+        <v>rizahidayah178@man.com</v>
       </c>
       <c r="C251" s="47" t="s">
         <v>117</v>
@@ -10282,11 +10282,11 @@
     </row>
     <row r="252" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
-        <v>1000000024</v>
+        <v>1000000250</v>
       </c>
       <c r="B252" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizqiiwanfajri882@man.com</v>
+        <v>rizqiiwanfajri789@man.com</v>
       </c>
       <c r="C252" s="47" t="s">
         <v>118</v>
@@ -10312,11 +10312,11 @@
     </row>
     <row r="253" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
-        <v>1000000024</v>
+        <v>1000000251</v>
       </c>
       <c r="B253" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdini798@man.com</v>
+        <v>ruhdini499@man.com</v>
       </c>
       <c r="C253" s="49" t="s">
         <v>119</v>
@@ -10342,11 +10342,11 @@
     </row>
     <row r="254" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
-        <v>1000000024</v>
+        <v>1000000252</v>
       </c>
       <c r="B254" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahriramadhan564@man.com</v>
+        <v>sahriramadhan738@man.com</v>
       </c>
       <c r="C254" s="50" t="s">
         <v>120</v>
@@ -10372,11 +10372,11 @@
     </row>
     <row r="255" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
-        <v>1000000024</v>
+        <v>1000000253</v>
       </c>
       <c r="B255" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>saidnibrasalhabsyi136@man.com</v>
+        <v>saidnibrasalhabsyi110@man.com</v>
       </c>
       <c r="C255" s="47" t="s">
         <v>121</v>
@@ -10402,11 +10402,11 @@
     </row>
     <row r="256" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
-        <v>1000000024</v>
+        <v>1000000254</v>
       </c>
       <c r="B256" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfaniazrimaisa676@man.com</v>
+        <v>silfaniazrimaisa700@man.com</v>
       </c>
       <c r="C256" s="47" t="s">
         <v>122</v>
@@ -10432,11 +10432,11 @@
     </row>
     <row r="257" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
-        <v>1000000024</v>
+        <v>1000000255</v>
       </c>
       <c r="B257" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfinaazrimaisa143@man.com</v>
+        <v>silfinaazrimaisa979@man.com</v>
       </c>
       <c r="C257" s="47" t="s">
         <v>123</v>
@@ -10462,11 +10462,11 @@
     </row>
     <row r="258" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
-        <v>1000000024</v>
+        <v>1000000256</v>
       </c>
       <c r="B258" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syahrawidia512@man.com</v>
+        <v>syahrawidia187@man.com</v>
       </c>
       <c r="C258" s="47" t="s">
         <v>124</v>
@@ -10492,11 +10492,11 @@
     </row>
     <row r="259" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
-        <v>1000000024</v>
+        <v>1000000257</v>
       </c>
       <c r="B259" s="5" t="str">
         <f t="shared" ref="B259:B322" ca="1" si="4">SUBSTITUTE(LOWER(C259&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>semalisyukran497@man.com</v>
+        <v>semalisyukran254@man.com</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>125</v>
@@ -10522,11 +10522,11 @@
     </row>
     <row r="260" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
-        <v>1000000024</v>
+        <v>1000000258</v>
       </c>
       <c r="B260" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rikiapriyandi422@man.com</v>
+        <v>rikiapriyandi794@man.com</v>
       </c>
       <c r="C260" s="51" t="s">
         <v>482</v>
@@ -10552,11 +10552,11 @@
     </row>
     <row r="261" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
-        <v>1000000024</v>
+        <v>1000000259</v>
       </c>
       <c r="B261" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>farhankhairi580@man.com</v>
+        <v>farhankhairi925@man.com</v>
       </c>
       <c r="C261" s="51" t="s">
         <v>483</v>
@@ -10582,11 +10582,11 @@
     </row>
     <row r="262" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
-        <v>1000000024</v>
+        <v>1000000260</v>
       </c>
       <c r="B262" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>almuttaqin591@man.com</v>
+        <v>almuttaqin796@man.com</v>
       </c>
       <c r="C262" s="51" t="s">
         <v>484</v>
@@ -10612,11 +10612,11 @@
     </row>
     <row r="263" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
-        <v>1000000024</v>
+        <v>1000000261</v>
       </c>
       <c r="B263" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>aidilfitra629@man.com</v>
+        <v>aidilfitra233@man.com</v>
       </c>
       <c r="C263" s="47" t="s">
         <v>485</v>
@@ -10642,11 +10642,11 @@
     </row>
     <row r="264" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
-        <v>1000000024</v>
+        <v>1000000262</v>
       </c>
       <c r="B264" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alyasyakira817@man.com</v>
+        <v>alyasyakira567@man.com</v>
       </c>
       <c r="C264" s="47" t="s">
         <v>486</v>
@@ -10672,11 +10672,11 @@
     </row>
     <row r="265" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
-        <v>1000000024</v>
+        <v>1000000263</v>
       </c>
       <c r="B265" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andriantawarnate684@man.com</v>
+        <v>andriantawarnate339@man.com</v>
       </c>
       <c r="C265" s="51" t="s">
         <v>487</v>
@@ -10702,11 +10702,11 @@
     </row>
     <row r="266" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
-        <v>1000000024</v>
+        <v>1000000264</v>
       </c>
       <c r="B266" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>asyrafifuadipratama189@man.com</v>
+        <v>asyrafifuadipratama349@man.com</v>
       </c>
       <c r="C266" s="47" t="s">
         <v>488</v>
@@ -10732,11 +10732,11 @@
     </row>
     <row r="267" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
-        <v>1000000024</v>
+        <v>1000000265</v>
       </c>
       <c r="B267" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>awalulzikri721@man.com</v>
+        <v>awalulzikri725@man.com</v>
       </c>
       <c r="C267" s="47" t="s">
         <v>489</v>
@@ -10762,11 +10762,11 @@
     </row>
     <row r="268" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
-        <v>1000000024</v>
+        <v>1000000266</v>
       </c>
       <c r="B268" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ayufitri387@man.com</v>
+        <v>ayufitri897@man.com</v>
       </c>
       <c r="C268" s="47" t="s">
         <v>490</v>
@@ -10792,11 +10792,11 @@
     </row>
     <row r="269" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
-        <v>1000000024</v>
+        <v>1000000267</v>
       </c>
       <c r="B269" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>bilqistinaarafah748@man.com</v>
+        <v>bilqistinaarafah597@man.com</v>
       </c>
       <c r="C269" s="47" t="s">
         <v>491</v>
@@ -10822,11 +10822,11 @@
     </row>
     <row r="270" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
-        <v>1000000024</v>
+        <v>1000000268</v>
       </c>
       <c r="B270" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>darimatulisda749@man.com</v>
+        <v>darimatulisda698@man.com</v>
       </c>
       <c r="C270" s="47" t="s">
         <v>492</v>
@@ -10852,11 +10852,11 @@
     </row>
     <row r="271" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
-        <v>1000000024</v>
+        <v>1000000269</v>
       </c>
       <c r="B271" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>diyasalsabila264@man.com</v>
+        <v>diyasalsabila749@man.com</v>
       </c>
       <c r="C271" s="47" t="s">
         <v>493</v>
@@ -10882,11 +10882,11 @@
     </row>
     <row r="272" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
-        <v>1000000024</v>
+        <v>1000000270</v>
       </c>
       <c r="B272" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>elsawahyuni491@man.com</v>
+        <v>elsawahyuni802@man.com</v>
       </c>
       <c r="C272" s="47" t="s">
         <v>494</v>
@@ -10912,11 +10912,11 @@
     </row>
     <row r="273" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
-        <v>1000000024</v>
+        <v>1000000271</v>
       </c>
       <c r="B273" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ernafebiola826@man.com</v>
+        <v>ernafebiola175@man.com</v>
       </c>
       <c r="C273" s="47" t="s">
         <v>495</v>
@@ -10942,11 +10942,11 @@
     </row>
     <row r="274" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
-        <v>1000000024</v>
+        <v>1000000272</v>
       </c>
       <c r="B274" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fariswasim621@man.com</v>
+        <v>fariswasim889@man.com</v>
       </c>
       <c r="C274" s="47" t="s">
         <v>496</v>
@@ -10972,11 +10972,11 @@
     </row>
     <row r="275" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
-        <v>1000000024</v>
+        <v>1000000273</v>
       </c>
       <c r="B275" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fatwarezeki206@man.com</v>
+        <v>fatwarezeki40@man.com</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>497</v>
@@ -11002,11 +11002,11 @@
     </row>
     <row r="276" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
-        <v>1000000024</v>
+        <v>1000000274</v>
       </c>
       <c r="B276" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hafizsariyandi368@man.com</v>
+        <v>hafizsariyandi987@man.com</v>
       </c>
       <c r="C276" s="47" t="s">
         <v>498</v>
@@ -11032,11 +11032,11 @@
     </row>
     <row r="277" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
-        <v>1000000024</v>
+        <v>1000000275</v>
       </c>
       <c r="B277" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mharitsalsyifa715@man.com</v>
+        <v>mharitsalsyifa161@man.com</v>
       </c>
       <c r="C277" s="47" t="s">
         <v>499</v>
@@ -11062,11 +11062,11 @@
     </row>
     <row r="278" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
-        <v>1000000024</v>
+        <v>1000000276</v>
       </c>
       <c r="B278" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahbengi392@man.com</v>
+        <v>mahbengi805@man.com</v>
       </c>
       <c r="C278" s="47" t="s">
         <v>500</v>
@@ -11092,11 +11092,11 @@
     </row>
     <row r="279" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
-        <v>1000000024</v>
+        <v>1000000277</v>
       </c>
       <c r="B279" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maysarahfadila157@man.com</v>
+        <v>maysarahfadila466@man.com</v>
       </c>
       <c r="C279" s="47" t="s">
         <v>501</v>
@@ -11122,11 +11122,11 @@
     </row>
     <row r="280" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
-        <v>1000000024</v>
+        <v>1000000278</v>
       </c>
       <c r="B280" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miftahulhadi339@man.com</v>
+        <v>miftahulhadi830@man.com</v>
       </c>
       <c r="C280" s="47" t="s">
         <v>502</v>
@@ -11152,11 +11152,11 @@
     </row>
     <row r="281" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
-        <v>1000000024</v>
+        <v>1000000279</v>
       </c>
       <c r="B281" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>misriadi394@man.com</v>
+        <v>misriadi336@man.com</v>
       </c>
       <c r="C281" s="47" t="s">
         <v>503</v>
@@ -11182,11 +11182,11 @@
     </row>
     <row r="282" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
-        <v>1000000024</v>
+        <v>1000000280</v>
       </c>
       <c r="B282" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najhan931@man.com</v>
+        <v>najhan510@man.com</v>
       </c>
       <c r="C282" s="47" t="s">
         <v>504</v>
@@ -11212,11 +11212,11 @@
     </row>
     <row r="283" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
-        <v>1000000024</v>
+        <v>1000000281</v>
       </c>
       <c r="B283" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nurulsinta174@man.com</v>
+        <v>nurulsinta236@man.com</v>
       </c>
       <c r="C283" s="47" t="s">
         <v>505</v>
@@ -11242,11 +11242,11 @@
     </row>
     <row r="284" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
-        <v>1000000024</v>
+        <v>1000000282</v>
       </c>
       <c r="B284" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rahmatsafriaji934@man.com</v>
+        <v>rahmatsafriaji675@man.com</v>
       </c>
       <c r="C284" s="47" t="s">
         <v>506</v>
@@ -11272,11 +11272,11 @@
     </row>
     <row r="285" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
-        <v>1000000024</v>
+        <v>1000000283</v>
       </c>
       <c r="B285" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ranggaterimejaya668@man.com</v>
+        <v>ranggaterimejaya862@man.com</v>
       </c>
       <c r="C285" s="47" t="s">
         <v>507</v>
@@ -11302,11 +11302,11 @@
     </row>
     <row r="286" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
-        <v>1000000024</v>
+        <v>1000000284</v>
       </c>
       <c r="B286" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rayyankemala370@man.com</v>
+        <v>rayyankemala28@man.com</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>508</v>
@@ -11332,11 +11332,11 @@
     </row>
     <row r="287" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
-        <v>1000000024</v>
+        <v>1000000285</v>
       </c>
       <c r="B287" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rimanafisa618@man.com</v>
+        <v>rimanafisa495@man.com</v>
       </c>
       <c r="C287" s="47" t="s">
         <v>509</v>
@@ -11362,11 +11362,11 @@
     </row>
     <row r="288" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
-        <v>1000000024</v>
+        <v>1000000286</v>
       </c>
       <c r="B288" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rizkyfakhrulrozi78@man.com</v>
+        <v>rizkyfakhrulrozi976@man.com</v>
       </c>
       <c r="C288" s="47" t="s">
         <v>510</v>
@@ -11392,11 +11392,11 @@
     </row>
     <row r="289" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
-        <v>1000000024</v>
+        <v>1000000287</v>
       </c>
       <c r="B289" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ruhmi429@man.com</v>
+        <v>ruhmi811@man.com</v>
       </c>
       <c r="C289" s="47" t="s">
         <v>511</v>
@@ -11422,11 +11422,11 @@
     </row>
     <row r="290" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
-        <v>1000000024</v>
+        <v>1000000288</v>
       </c>
       <c r="B290" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarirahmadaini66@man.com</v>
+        <v>sarirahmadaini532@man.com</v>
       </c>
       <c r="C290" s="47" t="s">
         <v>512</v>
@@ -11452,11 +11452,11 @@
     </row>
     <row r="291" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
-        <v>1000000024</v>
+        <v>1000000289</v>
       </c>
       <c r="B291" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarina441@man.com</v>
+        <v>sarina164@man.com</v>
       </c>
       <c r="C291" s="47" t="s">
         <v>513</v>
@@ -11482,11 +11482,11 @@
     </row>
     <row r="292" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
-        <v>1000000024</v>
+        <v>1000000290</v>
       </c>
       <c r="B292" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>siskaramadhani616@man.com</v>
+        <v>siskaramadhani164@man.com</v>
       </c>
       <c r="C292" s="47" t="s">
         <v>514</v>
@@ -11512,11 +11512,11 @@
     </row>
     <row r="293" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
-        <v>1000000024</v>
+        <v>1000000291</v>
       </c>
       <c r="B293" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>syafrizal173@man.com</v>
+        <v>syafrizal693@man.com</v>
       </c>
       <c r="C293" s="47" t="s">
         <v>515</v>
@@ -11542,11 +11542,11 @@
     </row>
     <row r="294" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
-        <v>1000000024</v>
+        <v>1000000292</v>
       </c>
       <c r="B294" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliya285@man.com</v>
+        <v>waliya980@man.com</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>516</v>
@@ -11572,11 +11572,11 @@
     </row>
     <row r="295" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
-        <v>1000000024</v>
+        <v>1000000293</v>
       </c>
       <c r="B295" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianaamara264@man.com</v>
+        <v>yulianaamara802@man.com</v>
       </c>
       <c r="C295" s="47" t="s">
         <v>517</v>
@@ -11602,11 +11602,11 @@
     </row>
     <row r="296" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
-        <v>1000000024</v>
+        <v>1000000294</v>
       </c>
       <c r="B296" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianasimahbengi565@man.com</v>
+        <v>yulianasimahbengi957@man.com</v>
       </c>
       <c r="C296" s="47" t="s">
         <v>518</v>
@@ -11632,11 +11632,11 @@
     </row>
     <row r="297" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
-        <v>1000000024</v>
+        <v>1000000295</v>
       </c>
       <c r="B297" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliyatunma'wa38@man.com</v>
+        <v>waliyatunma'wa683@man.com</v>
       </c>
       <c r="C297" s="51" t="s">
         <v>519</v>
@@ -11662,11 +11662,11 @@
     </row>
     <row r="298" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
-        <v>1000000024</v>
+        <v>1000000296</v>
       </c>
       <c r="B298" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najeedaemirachibro439@man.com</v>
+        <v>najeedaemirachibro539@man.com</v>
       </c>
       <c r="C298" s="51" t="s">
         <v>520</v>
@@ -11692,11 +11692,11 @@
     </row>
     <row r="299" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
-        <v>1000000024</v>
+        <v>1000000297</v>
       </c>
       <c r="B299" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>afrizalmahara865@man.com</v>
+        <v>afrizalmahara963@man.com</v>
       </c>
       <c r="C299" s="47" t="s">
         <v>521</v>
@@ -11722,11 +11722,11 @@
     </row>
     <row r="300" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
-        <v>1000000024</v>
+        <v>1000000298</v>
       </c>
       <c r="B300" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>agneswahyuningsih523@man.com</v>
+        <v>agneswahyuningsih405@man.com</v>
       </c>
       <c r="C300" s="47" t="s">
         <v>522</v>
@@ -11752,11 +11752,11 @@
     </row>
     <row r="301" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
-        <v>1000000024</v>
+        <v>1000000299</v>
       </c>
       <c r="B301" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alfitramahendra699@man.com</v>
+        <v>alfitramahendra689@man.com</v>
       </c>
       <c r="C301" s="47" t="s">
         <v>523</v>
@@ -11782,11 +11782,11 @@
     </row>
     <row r="302" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
-        <v>1000000024</v>
+        <v>1000000300</v>
       </c>
       <c r="B302" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andrekurniawan47@man.com</v>
+        <v>andrekurniawan767@man.com</v>
       </c>
       <c r="C302" s="47" t="s">
         <v>524</v>
@@ -11812,11 +11812,11 @@
     </row>
     <row r="303" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
-        <v>1000000024</v>
+        <v>1000000301</v>
       </c>
       <c r="B303" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>anggunpurnama49@man.com</v>
+        <v>anggunpurnama161@man.com</v>
       </c>
       <c r="C303" s="47" t="s">
         <v>525</v>
@@ -11842,11 +11842,11 @@
     </row>
     <row r="304" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
-        <v>1000000024</v>
+        <v>1000000302</v>
       </c>
       <c r="B304" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dheaafifah220@man.com</v>
+        <v>dheaafifah183@man.com</v>
       </c>
       <c r="C304" s="47" t="s">
         <v>526</v>
@@ -11872,11 +11872,11 @@
     </row>
     <row r="305" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
-        <v>1000000024</v>
+        <v>1000000303</v>
       </c>
       <c r="B305" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dwiauva642@man.com</v>
+        <v>dwiauva799@man.com</v>
       </c>
       <c r="C305" s="53" t="s">
         <v>527</v>
@@ -11902,11 +11902,11 @@
     </row>
     <row r="306" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
-        <v>1000000024</v>
+        <v>1000000304</v>
       </c>
       <c r="B306" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>erlina310@man.com</v>
+        <v>erlina421@man.com</v>
       </c>
       <c r="C306" s="47" t="s">
         <v>528</v>
@@ -11932,11 +11932,11 @@
     </row>
     <row r="307" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
-        <v>1000000024</v>
+        <v>1000000305</v>
       </c>
       <c r="B307" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>faizulazka452@man.com</v>
+        <v>faizulazka767@man.com</v>
       </c>
       <c r="C307" s="47" t="s">
         <v>529</v>
@@ -11962,11 +11962,11 @@
     </row>
     <row r="308" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
-        <v>1000000024</v>
+        <v>1000000306</v>
       </c>
       <c r="B308" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fathinjihan930@man.com</v>
+        <v>fathinjihan364@man.com</v>
       </c>
       <c r="C308" s="47" t="s">
         <v>530</v>
@@ -11992,11 +11992,11 @@
     </row>
     <row r="309" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
-        <v>1000000024</v>
+        <v>1000000307</v>
       </c>
       <c r="B309" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>gemasatriaperdana483@man.com</v>
+        <v>gemasatriaperdana276@man.com</v>
       </c>
       <c r="C309" s="47" t="s">
         <v>531</v>
@@ -12022,11 +12022,11 @@
     </row>
     <row r="310" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
-        <v>1000000024</v>
+        <v>1000000308</v>
       </c>
       <c r="B310" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hamaliyufatar288@man.com</v>
+        <v>hamaliyufatar919@man.com</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>532</v>
@@ -12052,11 +12052,11 @@
     </row>
     <row r="311" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
-        <v>1000000024</v>
+        <v>1000000309</v>
       </c>
       <c r="B311" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>irsaraudhatuljannah291@man.com</v>
+        <v>irsaraudhatuljannah827@man.com</v>
       </c>
       <c r="C311" s="47" t="s">
         <v>533</v>
@@ -12082,11 +12082,11 @@
     </row>
     <row r="312" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
-        <v>1000000024</v>
+        <v>1000000310</v>
       </c>
       <c r="B312" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>izasdanuprasetya721@man.com</v>
+        <v>izasdanuprasetya439@man.com</v>
       </c>
       <c r="C312" s="47" t="s">
         <v>534</v>
@@ -12112,11 +12112,11 @@
     </row>
     <row r="313" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
-        <v>1000000024</v>
+        <v>1000000311</v>
       </c>
       <c r="B313" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>khairulwahyudi205@man.com</v>
+        <v>khairulwahyudi228@man.com</v>
       </c>
       <c r="C313" s="47" t="s">
         <v>535</v>
@@ -12142,11 +12142,11 @@
     </row>
     <row r="314" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
-        <v>1000000024</v>
+        <v>1000000312</v>
       </c>
       <c r="B314" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>lisaananda987@man.com</v>
+        <v>lisaananda574@man.com</v>
       </c>
       <c r="C314" s="47" t="s">
         <v>536</v>
@@ -12172,11 +12172,11 @@
     </row>
     <row r="315" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
-        <v>1000000024</v>
+        <v>1000000313</v>
       </c>
       <c r="B315" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maharasetiansyah900@man.com</v>
+        <v>maharasetiansyah394@man.com</v>
       </c>
       <c r="C315" s="47" t="s">
         <v>537</v>
@@ -12202,11 +12202,11 @@
     </row>
     <row r="316" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
-        <v>1000000024</v>
+        <v>1000000314</v>
       </c>
       <c r="B316" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahyudi583@man.com</v>
+        <v>mahyudi775@man.com</v>
       </c>
       <c r="C316" s="47" t="s">
         <v>538</v>
@@ -12232,11 +12232,11 @@
     </row>
     <row r="317" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
-        <v>1000000024</v>
+        <v>1000000315</v>
       </c>
       <c r="B317" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miranggatuahmiko560@man.com</v>
+        <v>miranggatuahmiko683@man.com</v>
       </c>
       <c r="C317" s="47" t="s">
         <v>539</v>
@@ -12262,11 +12262,11 @@
     </row>
     <row r="318" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" s="5">
-        <v>1000000024</v>
+        <v>1000000316</v>
       </c>
       <c r="B318" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muamarcardafi533@man.com</v>
+        <v>muamarcardafi235@man.com</v>
       </c>
       <c r="C318" s="47" t="s">
         <v>540</v>
@@ -12292,11 +12292,11 @@
     </row>
     <row r="319" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
-        <v>1000000024</v>
+        <v>1000000317</v>
       </c>
       <c r="B319" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muhammadyusri698@man.com</v>
+        <v>muhammadyusri2@man.com</v>
       </c>
       <c r="C319" s="47" t="s">
         <v>541</v>
@@ -12322,11 +12322,11 @@
     </row>
     <row r="320" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" s="5">
-        <v>1000000024</v>
+        <v>1000000318</v>
       </c>
       <c r="B320" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaandiki871@man.com</v>
+        <v>muliaandiki244@man.com</v>
       </c>
       <c r="C320" s="47" t="s">
         <v>542</v>
@@ -12352,11 +12352,11 @@
     </row>
     <row r="321" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
-        <v>1000000024</v>
+        <v>1000000319</v>
       </c>
       <c r="B321" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaardi338@man.com</v>
+        <v>muliaardi942@man.com</v>
       </c>
       <c r="C321" s="47" t="s">
         <v>543</v>
@@ -12382,11 +12382,11 @@
     </row>
     <row r="322" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
-        <v>1000000024</v>
+        <v>1000000320</v>
       </c>
       <c r="B322" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nabila832@man.com</v>
+        <v>nabila397@man.com</v>
       </c>
       <c r="C322" s="47" t="s">
         <v>544</v>
@@ -12412,11 +12412,11 @@
     </row>
     <row r="323" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
-        <v>1000000024</v>
+        <v>1000000321</v>
       </c>
       <c r="B323" s="5" t="str">
         <f t="shared" ref="B323:B386" ca="1" si="5">SUBSTITUTE(LOWER(C323&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>najarudin125@man.com</v>
+        <v>najarudin527@man.com</v>
       </c>
       <c r="C323" s="47" t="s">
         <v>545</v>
@@ -12442,11 +12442,11 @@
     </row>
     <row r="324" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A324" s="5">
-        <v>1000000024</v>
+        <v>1000000322</v>
       </c>
       <c r="B324" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>nathasyadindasaura590@man.com</v>
+        <v>nathasyadindasaura25@man.com</v>
       </c>
       <c r="C324" s="47" t="s">
         <v>546</v>
@@ -12472,11 +12472,11 @@
     </row>
     <row r="325" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
-        <v>1000000024</v>
+        <v>1000000323</v>
       </c>
       <c r="B325" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>noviardana446@man.com</v>
+        <v>noviardana639@man.com</v>
       </c>
       <c r="C325" s="47" t="s">
         <v>547</v>
@@ -12502,11 +12502,11 @@
     </row>
     <row r="326" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
-        <v>1000000024</v>
+        <v>1000000324</v>
       </c>
       <c r="B326" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>piradayani665@man.com</v>
+        <v>piradayani153@man.com</v>
       </c>
       <c r="C326" s="47" t="s">
         <v>548</v>
@@ -12532,11 +12532,11 @@
     </row>
     <row r="327" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
-        <v>1000000024</v>
+        <v>1000000325</v>
       </c>
       <c r="B327" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prastio180@man.com</v>
+        <v>prastio52@man.com</v>
       </c>
       <c r="C327" s="47" t="s">
         <v>549</v>
@@ -12562,11 +12562,11 @@
     </row>
     <row r="328" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
-        <v>1000000024</v>
+        <v>1000000326</v>
       </c>
       <c r="B328" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prisnaulanagustina78@man.com</v>
+        <v>prisnaulanagustina50@man.com</v>
       </c>
       <c r="C328" s="47" t="s">
         <v>550</v>
@@ -12592,11 +12592,11 @@
     </row>
     <row r="329" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
-        <v>1000000024</v>
+        <v>1000000327</v>
       </c>
       <c r="B329" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanputri960@man.com</v>
+        <v>raihanputri87@man.com</v>
       </c>
       <c r="C329" s="47" t="s">
         <v>551</v>
@@ -12622,11 +12622,11 @@
     </row>
     <row r="330" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
-        <v>1000000024</v>
+        <v>1000000328</v>
       </c>
       <c r="B330" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ramayana835@man.com</v>
+        <v>ramayana707@man.com</v>
       </c>
       <c r="C330" s="47" t="s">
         <v>552</v>
@@ -12652,11 +12652,11 @@
     </row>
     <row r="331" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
-        <v>1000000024</v>
+        <v>1000000329</v>
       </c>
       <c r="B331" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyuni970@man.com</v>
+        <v>rayyuni445@man.com</v>
       </c>
       <c r="C331" s="47" t="s">
         <v>553</v>
@@ -12682,11 +12682,11 @@
     </row>
     <row r="332" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A332" s="5">
-        <v>1000000024</v>
+        <v>1000000330</v>
       </c>
       <c r="B332" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sinerulen120@man.com</v>
+        <v>sinerulen314@man.com</v>
       </c>
       <c r="C332" s="47" t="s">
         <v>554</v>
@@ -12712,11 +12712,11 @@
     </row>
     <row r="333" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
-        <v>1000000024</v>
+        <v>1000000331</v>
       </c>
       <c r="B333" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>tarimahara741@man.com</v>
+        <v>tarimahara49@man.com</v>
       </c>
       <c r="C333" s="47" t="s">
         <v>555</v>
@@ -12742,11 +12742,11 @@
     </row>
     <row r="334" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
-        <v>1000000024</v>
+        <v>1000000332</v>
       </c>
       <c r="B334" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>fakhrurraziq995@man.com</v>
+        <v>fakhrurraziq614@man.com</v>
       </c>
       <c r="C334" s="47" t="s">
         <v>556</v>
@@ -12772,11 +12772,11 @@
     </row>
     <row r="335" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
-        <v>1000000024</v>
+        <v>1000000333</v>
       </c>
       <c r="B335" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aqilahhilmi547@man.com</v>
+        <v>aqilahhilmi813@man.com</v>
       </c>
       <c r="C335" s="47" t="s">
         <v>557</v>
@@ -12802,11 +12802,11 @@
     </row>
     <row r="336" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A336" s="5">
-        <v>1000000024</v>
+        <v>1000000334</v>
       </c>
       <c r="B336" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>beruindah418@man.com</v>
+        <v>beruindah711@man.com</v>
       </c>
       <c r="C336" s="47" t="s">
         <v>558</v>
@@ -12832,11 +12832,11 @@
     </row>
     <row r="337" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
-        <v>1000000024</v>
+        <v>1000000335</v>
       </c>
       <c r="B337" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cindyannisaramadaninst735@man.com</v>
+        <v>cindyannisaramadaninst339@man.com</v>
       </c>
       <c r="C337" s="54" t="s">
         <v>559</v>
@@ -12862,11 +12862,11 @@
     </row>
     <row r="338" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A338" s="5">
-        <v>1000000024</v>
+        <v>1000000336</v>
       </c>
       <c r="B338" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>haspilafitri744@man.com</v>
+        <v>haspilafitri94@man.com</v>
       </c>
       <c r="C338" s="54" t="s">
         <v>560</v>
@@ -12892,11 +12892,11 @@
     </row>
     <row r="339" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
-        <v>1000000024</v>
+        <v>1000000337</v>
       </c>
       <c r="B339" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>idanurfadhilah498@man.com</v>
+        <v>idanurfadhilah465@man.com</v>
       </c>
       <c r="C339" s="47" t="s">
         <v>561</v>
@@ -12922,11 +12922,11 @@
     </row>
     <row r="340" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
-        <v>1000000024</v>
+        <v>1000000338</v>
       </c>
       <c r="B340" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>intannovitasari368@man.com</v>
+        <v>intannovitasari525@man.com</v>
       </c>
       <c r="C340" s="47" t="s">
         <v>562</v>
@@ -12952,11 +12952,11 @@
     </row>
     <row r="341" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
-        <v>1000000024</v>
+        <v>1000000339</v>
       </c>
       <c r="B341" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jarnidasulisna264@man.com</v>
+        <v>jarnidasulisna386@man.com</v>
       </c>
       <c r="C341" s="47" t="s">
         <v>563</v>
@@ -12982,11 +12982,11 @@
     </row>
     <row r="342" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
-        <v>1000000024</v>
+        <v>1000000340</v>
       </c>
       <c r="B342" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairulbasri150@man.com</v>
+        <v>khairulbasri957@man.com</v>
       </c>
       <c r="C342" s="47" t="s">
         <v>564</v>
@@ -13012,11 +13012,11 @@
     </row>
     <row r="343" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
-        <v>1000000024</v>
+        <v>1000000341</v>
       </c>
       <c r="B343" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairultaqwa851@man.com</v>
+        <v>khairultaqwa714@man.com</v>
       </c>
       <c r="C343" s="47" t="s">
         <v>565</v>
@@ -13042,11 +13042,11 @@
     </row>
     <row r="344" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A344" s="5">
-        <v>1000000024</v>
+        <v>1000000342</v>
       </c>
       <c r="B344" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lularahmadanizulda644@man.com</v>
+        <v>lularahmadanizulda682@man.com</v>
       </c>
       <c r="C344" s="47" t="s">
         <v>566</v>
@@ -13072,11 +13072,11 @@
     </row>
     <row r="345" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
-        <v>1000000024</v>
+        <v>1000000343</v>
       </c>
       <c r="B345" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>najariashaofa716@man.com</v>
+        <v>najariashaofa372@man.com</v>
       </c>
       <c r="C345" s="47" t="s">
         <v>567</v>
@@ -13102,11 +13102,11 @@
     </row>
     <row r="346" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
-        <v>1000000024</v>
+        <v>1000000344</v>
       </c>
       <c r="B346" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmatan572@man.com</v>
+        <v>rahmatan897@man.com</v>
       </c>
       <c r="C346" s="47" t="s">
         <v>568</v>
@@ -13132,11 +13132,11 @@
     </row>
     <row r="347" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
-        <v>1000000024</v>
+        <v>1000000345</v>
       </c>
       <c r="B347" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sariani937@man.com</v>
+        <v>sariani672@man.com</v>
       </c>
       <c r="C347" s="47" t="s">
         <v>569</v>
@@ -13162,11 +13162,11 @@
     </row>
     <row r="348" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A348" s="5">
-        <v>1000000024</v>
+        <v>1000000346</v>
       </c>
       <c r="B348" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syauqialfaiz511@man.com</v>
+        <v>syauqialfaiz863@man.com</v>
       </c>
       <c r="C348" s="47" t="s">
         <v>570</v>
@@ -13192,11 +13192,11 @@
     </row>
     <row r="349" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
-        <v>1000000024</v>
+        <v>1000000347</v>
       </c>
       <c r="B349" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>weinfatha583@man.com</v>
+        <v>weinfatha451@man.com</v>
       </c>
       <c r="C349" s="47" t="s">
         <v>571</v>
@@ -13222,11 +13222,11 @@
     </row>
     <row r="350" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
-        <v>1000000024</v>
+        <v>1000000348</v>
       </c>
       <c r="B350" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wulanaidafitri363@man.com</v>
+        <v>wulanaidafitri563@man.com</v>
       </c>
       <c r="C350" s="47" t="s">
         <v>572</v>
@@ -13252,11 +13252,11 @@
     </row>
     <row r="351" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
-        <v>1000000024</v>
+        <v>1000000349</v>
       </c>
       <c r="B351" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zharifahmahlida254@man.com</v>
+        <v>zharifahmahlida623@man.com</v>
       </c>
       <c r="C351" s="47" t="s">
         <v>573</v>
@@ -13282,11 +13282,11 @@
     </row>
     <row r="352" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
-        <v>1000000024</v>
+        <v>1000000350</v>
       </c>
       <c r="B352" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zidanbayakku228@man.com</v>
+        <v>zidanbayakku378@man.com</v>
       </c>
       <c r="C352" s="47" t="s">
         <v>574</v>
@@ -13312,11 +13312,11 @@
     </row>
     <row r="353" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
-        <v>1000000024</v>
+        <v>1000000351</v>
       </c>
       <c r="B353" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ahirasaqban611@man.com</v>
+        <v>ahirasaqban242@man.com</v>
       </c>
       <c r="C353" s="47" t="s">
         <v>575</v>
@@ -13342,11 +13342,11 @@
     </row>
     <row r="354" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A354" s="5">
-        <v>1000000024</v>
+        <v>1000000352</v>
       </c>
       <c r="B354" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aisyahnurulrizky908@man.com</v>
+        <v>aisyahnurulrizky931@man.com</v>
       </c>
       <c r="C354" s="54" t="s">
         <v>576</v>
@@ -13372,11 +13372,11 @@
     </row>
     <row r="355" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
-        <v>1000000024</v>
+        <v>1000000353</v>
       </c>
       <c r="B355" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alpiandiramadhan814@man.com</v>
+        <v>alpiandiramadhan732@man.com</v>
       </c>
       <c r="C355" s="54" t="s">
         <v>577</v>
@@ -13402,11 +13402,11 @@
     </row>
     <row r="356" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A356" s="5">
-        <v>1000000024</v>
+        <v>1000000354</v>
       </c>
       <c r="B356" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ariyandicibro735@man.com</v>
+        <v>ariyandicibro86@man.com</v>
       </c>
       <c r="C356" s="47" t="s">
         <v>578</v>
@@ -13432,11 +13432,11 @@
     </row>
     <row r="357" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
-        <v>1000000024</v>
+        <v>1000000355</v>
       </c>
       <c r="B357" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>dinamaulidya591@man.com</v>
+        <v>dinamaulidya193@man.com</v>
       </c>
       <c r="C357" s="54" t="s">
         <v>579</v>
@@ -13462,11 +13462,11 @@
     </row>
     <row r="358" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
-        <v>1000000024</v>
+        <v>1000000356</v>
       </c>
       <c r="B358" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hamdanfauzi987@man.com</v>
+        <v>hamdanfauzi278@man.com</v>
       </c>
       <c r="C358" s="54" t="s">
         <v>580</v>
@@ -13492,11 +13492,11 @@
     </row>
     <row r="359" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A359" s="5">
-        <v>1000000024</v>
+        <v>1000000357</v>
       </c>
       <c r="B359" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>helmifarida408@man.com</v>
+        <v>helmifarida538@man.com</v>
       </c>
       <c r="C359" s="47" t="s">
         <v>581</v>
@@ -13522,11 +13522,11 @@
     </row>
     <row r="360" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A360" s="5">
-        <v>1000000024</v>
+        <v>1000000358</v>
       </c>
       <c r="B360" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihsansimahbengi940@man.com</v>
+        <v>ihsansimahbengi533@man.com</v>
       </c>
       <c r="C360" s="47" t="s">
         <v>582</v>
@@ -13552,11 +13552,11 @@
     </row>
     <row r="361" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
-        <v>1000000024</v>
+        <v>1000000359</v>
       </c>
       <c r="B361" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihwanhafis486@man.com</v>
+        <v>ihwanhafis791@man.com</v>
       </c>
       <c r="C361" s="47" t="s">
         <v>583</v>
@@ -13582,11 +13582,11 @@
     </row>
     <row r="362" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A362" s="5">
-        <v>1000000024</v>
+        <v>1000000360</v>
       </c>
       <c r="B362" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>indahwahyuni275@man.com</v>
+        <v>indahwahyuni790@man.com</v>
       </c>
       <c r="C362" s="47" t="s">
         <v>584</v>
@@ -13612,11 +13612,11 @@
     </row>
     <row r="363" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
-        <v>1000000024</v>
+        <v>1000000361</v>
       </c>
       <c r="B363" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>iswandimabrur53@man.com</v>
+        <v>iswandimabrur640@man.com</v>
       </c>
       <c r="C363" s="47" t="s">
         <v>585</v>
@@ -13642,11 +13642,11 @@
     </row>
     <row r="364" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
-        <v>1000000024</v>
+        <v>1000000362</v>
       </c>
       <c r="B364" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairunfirdaus464@man.com</v>
+        <v>khairunfirdaus662@man.com</v>
       </c>
       <c r="C364" s="47" t="s">
         <v>586</v>
@@ -13672,11 +13672,11 @@
     </row>
     <row r="365" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A365" s="5">
-        <v>1000000024</v>
+        <v>1000000363</v>
       </c>
       <c r="B365" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>m.riskiaditia389@man.com</v>
+        <v>m.riskiaditia590@man.com</v>
       </c>
       <c r="C365" s="47" t="s">
         <v>587</v>
@@ -13702,11 +13702,11 @@
     </row>
     <row r="366" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A366" s="5">
-        <v>1000000024</v>
+        <v>1000000364</v>
       </c>
       <c r="B366" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mizamilfadli249@man.com</v>
+        <v>mizamilfadli14@man.com</v>
       </c>
       <c r="C366" s="47" t="s">
         <v>588</v>
@@ -13732,11 +13732,11 @@
     </row>
     <row r="367" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
-        <v>1000000024</v>
+        <v>1000000365</v>
       </c>
       <c r="B367" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muhammadsubki190@man.com</v>
+        <v>muhammadsubki292@man.com</v>
       </c>
       <c r="C367" s="47" t="s">
         <v>589</v>
@@ -13762,11 +13762,11 @@
     </row>
     <row r="368" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A368" s="5">
-        <v>1000000024</v>
+        <v>1000000366</v>
       </c>
       <c r="B368" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muliadibahtra834@man.com</v>
+        <v>muliadibahtra38@man.com</v>
       </c>
       <c r="C368" s="54" t="s">
         <v>590</v>
@@ -13792,11 +13792,11 @@
     </row>
     <row r="369" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A369" s="5">
-        <v>1000000024</v>
+        <v>1000000367</v>
       </c>
       <c r="B369" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>putra753@man.com</v>
+        <v>putra114@man.com</v>
       </c>
       <c r="C369" s="47" t="s">
         <v>591</v>
@@ -13822,11 +13822,11 @@
     </row>
     <row r="370" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A370" s="5">
-        <v>1000000024</v>
+        <v>1000000368</v>
       </c>
       <c r="B370" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qadrifitra753@man.com</v>
+        <v>qadrifitra158@man.com</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>592</v>
@@ -13852,11 +13852,11 @@
     </row>
     <row r="371" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A371" s="5">
-        <v>1000000024</v>
+        <v>1000000369</v>
       </c>
       <c r="B371" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmadalena526@man.com</v>
+        <v>rahmadalena341@man.com</v>
       </c>
       <c r="C371" s="54" t="s">
         <v>593</v>
@@ -13882,11 +13882,11 @@
     </row>
     <row r="372" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A372" s="5">
-        <v>1000000024</v>
+        <v>1000000370</v>
       </c>
       <c r="B372" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanaamni483@man.com</v>
+        <v>raihanaamni121@man.com</v>
       </c>
       <c r="C372" s="47" t="s">
         <v>594</v>
@@ -13912,11 +13912,11 @@
     </row>
     <row r="373" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
-        <v>1000000024</v>
+        <v>1000000371</v>
       </c>
       <c r="B373" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyanasyifayulanda286@man.com</v>
+        <v>rayyanasyifayulanda805@man.com</v>
       </c>
       <c r="C373" s="54" t="s">
         <v>595</v>
@@ -13942,11 +13942,11 @@
     </row>
     <row r="374" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
-        <v>1000000024</v>
+        <v>1000000372</v>
       </c>
       <c r="B374" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rizkyanovaldi652@man.com</v>
+        <v>rizkyanovaldi196@man.com</v>
       </c>
       <c r="C374" s="54" t="s">
         <v>596</v>
@@ -13972,11 +13972,11 @@
     </row>
     <row r="375" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
-        <v>1000000024</v>
+        <v>1000000373</v>
       </c>
       <c r="B375" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ryckyrahman684@man.com</v>
+        <v>ryckyrahman331@man.com</v>
       </c>
       <c r="C375" s="54" t="s">
         <v>597</v>
@@ -14002,11 +14002,11 @@
     </row>
     <row r="376" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A376" s="5">
-        <v>1000000024</v>
+        <v>1000000374</v>
       </c>
       <c r="B376" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sanianabila912@man.com</v>
+        <v>sanianabila188@man.com</v>
       </c>
       <c r="C376" s="47" t="s">
         <v>598</v>
@@ -14032,11 +14032,11 @@
     </row>
     <row r="377" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
-        <v>1000000024</v>
+        <v>1000000375</v>
       </c>
       <c r="B377" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sindiainasiska505@man.com</v>
+        <v>sindiainasiska522@man.com</v>
       </c>
       <c r="C377" s="47" t="s">
         <v>599</v>
@@ -14062,11 +14062,11 @@
     </row>
     <row r="378" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
-        <v>1000000024</v>
+        <v>1000000376</v>
       </c>
       <c r="B378" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syahrifitra491@man.com</v>
+        <v>syahrifitra961@man.com</v>
       </c>
       <c r="C378" s="54" t="s">
         <v>600</v>
@@ -14092,11 +14092,11 @@
     </row>
     <row r="379" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
-        <v>1000000024</v>
+        <v>1000000377</v>
       </c>
       <c r="B379" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wiwintermiko482@man.com</v>
+        <v>wiwintermiko844@man.com</v>
       </c>
       <c r="C379" s="55" t="s">
         <v>601</v>
@@ -14122,11 +14122,11 @@
     </row>
     <row r="380" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A380" s="5">
-        <v>1000000024</v>
+        <v>1000000378</v>
       </c>
       <c r="B380" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yogimarlian129@man.com</v>
+        <v>yogimarlian100@man.com</v>
       </c>
       <c r="C380" s="47" t="s">
         <v>602</v>
@@ -14152,11 +14152,11 @@
     </row>
     <row r="381" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
-        <v>1000000024</v>
+        <v>1000000379</v>
       </c>
       <c r="B381" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yusriramadhan381@man.com</v>
+        <v>yusriramadhan117@man.com</v>
       </c>
       <c r="C381" s="47" t="s">
         <v>603</v>
@@ -14182,11 +14182,11 @@
     </row>
     <row r="382" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
-        <v>1000000024</v>
+        <v>1000000380</v>
       </c>
       <c r="B382" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qiyaraazzifa258@man.com</v>
+        <v>qiyaraazzifa200@man.com</v>
       </c>
       <c r="C382" s="47" t="s">
         <v>604</v>
@@ -14212,11 +14212,11 @@
     </row>
     <row r="383" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
-        <v>1000000024</v>
+        <v>1000000381</v>
       </c>
       <c r="B383" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hafizhrizkiramadhan617@man.com</v>
+        <v>hafizhrizkiramadhan652@man.com</v>
       </c>
       <c r="C383" s="47" t="s">
         <v>605</v>
@@ -14242,11 +14242,11 @@
     </row>
     <row r="384" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A384" s="5">
-        <v>1000000024</v>
+        <v>1000000382</v>
       </c>
       <c r="B384" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mahdasyakura313@man.com</v>
+        <v>mahdasyakura426@man.com</v>
       </c>
       <c r="C384" s="47" t="s">
         <v>606</v>
@@ -14272,11 +14272,11 @@
     </row>
     <row r="385" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A385" s="5">
-        <v>1000000024</v>
+        <v>1000000383</v>
       </c>
       <c r="B385" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alhadi917@man.com</v>
+        <v>alhadi390@man.com</v>
       </c>
       <c r="C385" s="47" t="s">
         <v>607</v>
@@ -14302,11 +14302,11 @@
     </row>
     <row r="386" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A386" s="5">
-        <v>1000000024</v>
+        <v>1000000384</v>
       </c>
       <c r="B386" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alparesimaharoen144@man.com</v>
+        <v>alparesimaharoen992@man.com</v>
       </c>
       <c r="C386" s="54" t="s">
         <v>608</v>
@@ -14332,11 +14332,11 @@
     </row>
     <row r="387" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
-        <v>1000000024</v>
+        <v>1000000385</v>
       </c>
       <c r="B387" s="5" t="str">
         <f t="shared" ref="B387:B450" ca="1" si="6">SUBSTITUTE(LOWER(C387&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>andredinata538@man.com</v>
+        <v>andredinata24@man.com</v>
       </c>
       <c r="C387" s="54" t="s">
         <v>609</v>
@@ -14362,11 +14362,11 @@
     </row>
     <row r="388" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A388" s="5">
-        <v>1000000024</v>
+        <v>1000000386</v>
       </c>
       <c r="B388" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dahlina35@man.com</v>
+        <v>dahlina637@man.com</v>
       </c>
       <c r="C388" s="47" t="s">
         <v>610</v>
@@ -14392,11 +14392,11 @@
     </row>
     <row r="389" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
-        <v>1000000024</v>
+        <v>1000000387</v>
       </c>
       <c r="B389" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fahmiakbar668@man.com</v>
+        <v>fahmiakbar248@man.com</v>
       </c>
       <c r="C389" s="47" t="s">
         <v>611</v>
@@ -14422,11 +14422,11 @@
     </row>
     <row r="390" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
-        <v>1000000024</v>
+        <v>1000000388</v>
       </c>
       <c r="B390" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafizwintanoga323@man.com</v>
+        <v>hafizwintanoga279@man.com</v>
       </c>
       <c r="C390" s="54" t="s">
         <v>612</v>
@@ -14452,11 +14452,11 @@
     </row>
     <row r="391" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
-        <v>1000000024</v>
+        <v>1000000389</v>
       </c>
       <c r="B391" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>khairilhafiz106@man.com</v>
+        <v>khairilhafiz578@man.com</v>
       </c>
       <c r="C391" s="53" t="s">
         <v>613</v>
@@ -14482,11 +14482,11 @@
     </row>
     <row r="392" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A392" s="5">
-        <v>1000000024</v>
+        <v>1000000390</v>
       </c>
       <c r="B392" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahajiranirfandi686@man.com</v>
+        <v>mahajiranirfandi227@man.com</v>
       </c>
       <c r="C392" s="47" t="s">
         <v>614</v>
@@ -14512,11 +14512,11 @@
     </row>
     <row r="393" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
-        <v>1000000024</v>
+        <v>1000000391</v>
       </c>
       <c r="B393" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mudimulia473@man.com</v>
+        <v>mudimulia853@man.com</v>
       </c>
       <c r="C393" s="47" t="s">
         <v>615</v>
@@ -14542,11 +14542,11 @@
     </row>
     <row r="394" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A394" s="5">
-        <v>1000000024</v>
+        <v>1000000392</v>
       </c>
       <c r="B394" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muh.raflymelala962@man.com</v>
+        <v>muh.raflymelala348@man.com</v>
       </c>
       <c r="C394" s="55" t="s">
         <v>616</v>
@@ -14572,11 +14572,11 @@
     </row>
     <row r="395" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
-        <v>1000000024</v>
+        <v>1000000393</v>
       </c>
       <c r="B395" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliaakbarbelangi173@man.com</v>
+        <v>muliaakbarbelangi209@man.com</v>
       </c>
       <c r="C395" s="47" t="s">
         <v>617</v>
@@ -14602,11 +14602,11 @@
     </row>
     <row r="396" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
-        <v>1000000024</v>
+        <v>1000000394</v>
       </c>
       <c r="B396" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliana730@man.com</v>
+        <v>muliana892@man.com</v>
       </c>
       <c r="C396" s="47" t="s">
         <v>427</v>
@@ -14632,11 +14632,11 @@
     </row>
     <row r="397" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
-        <v>1000000024</v>
+        <v>1000000395</v>
       </c>
       <c r="B397" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mutaalimazidarrizki119@man.com</v>
+        <v>mutaalimazidarrizki409@man.com</v>
       </c>
       <c r="C397" s="54" t="s">
         <v>618</v>
@@ -14662,11 +14662,11 @@
     </row>
     <row r="398" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A398" s="5">
-        <v>1000000024</v>
+        <v>1000000396</v>
       </c>
       <c r="B398" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nadianasution868@man.com</v>
+        <v>nadianasution459@man.com</v>
       </c>
       <c r="C398" s="54" t="s">
         <v>619</v>
@@ -14692,11 +14692,11 @@
     </row>
     <row r="399" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
-        <v>1000000024</v>
+        <v>1000000397</v>
       </c>
       <c r="B399" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurula'la996@man.com</v>
+        <v>nurula'la427@man.com</v>
       </c>
       <c r="C399" s="54" t="s">
         <v>620</v>
@@ -14722,11 +14722,11 @@
     </row>
     <row r="400" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A400" s="5">
-        <v>1000000024</v>
+        <v>1000000398</v>
       </c>
       <c r="B400" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ramajitromihardja830@man.com</v>
+        <v>ramajitromihardja780@man.com</v>
       </c>
       <c r="C400" s="47" t="s">
         <v>621</v>
@@ -14752,11 +14752,11 @@
     </row>
     <row r="401" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A401" s="5">
-        <v>1000000024</v>
+        <v>1000000399</v>
       </c>
       <c r="B401" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>randyferhatin66@man.com</v>
+        <v>randyferhatin374@man.com</v>
       </c>
       <c r="C401" s="47" t="s">
         <v>622</v>
@@ -14782,11 +14782,11 @@
     </row>
     <row r="402" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
-        <v>1000000024</v>
+        <v>1000000400</v>
       </c>
       <c r="B402" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>renisahfitri266@man.com</v>
+        <v>renisahfitri127@man.com</v>
       </c>
       <c r="C402" s="47" t="s">
         <v>623</v>
@@ -14812,11 +14812,11 @@
     </row>
     <row r="403" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
-        <v>1000000024</v>
+        <v>1000000401</v>
       </c>
       <c r="B403" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rifkitawarnate179@man.com</v>
+        <v>rifkitawarnate713@man.com</v>
       </c>
       <c r="C403" s="47" t="s">
         <v>624</v>
@@ -14842,11 +14842,11 @@
     </row>
     <row r="404" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A404" s="5">
-        <v>1000000024</v>
+        <v>1000000402</v>
       </c>
       <c r="B404" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rizkahidayat992@man.com</v>
+        <v>rizkahidayat550@man.com</v>
       </c>
       <c r="C404" s="47" t="s">
         <v>625</v>
@@ -14872,11 +14872,11 @@
     </row>
     <row r="405" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
-        <v>1000000024</v>
+        <v>1000000403</v>
       </c>
       <c r="B405" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sadri775@man.com</v>
+        <v>sadri673@man.com</v>
       </c>
       <c r="C405" s="47" t="s">
         <v>626</v>
@@ -14902,11 +14902,11 @@
     </row>
     <row r="406" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A406" s="5">
-        <v>1000000024</v>
+        <v>1000000404</v>
       </c>
       <c r="B406" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>safrizal412@man.com</v>
+        <v>safrizal681@man.com</v>
       </c>
       <c r="C406" s="54" t="s">
         <v>627</v>
@@ -14932,11 +14932,11 @@
     </row>
     <row r="407" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A407" s="5">
-        <v>1000000024</v>
+        <v>1000000405</v>
       </c>
       <c r="B407" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>suharman435@man.com</v>
+        <v>suharman449@man.com</v>
       </c>
       <c r="C407" s="54" t="s">
         <v>628</v>
@@ -14962,11 +14962,11 @@
     </row>
     <row r="408" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A408" s="5">
-        <v>1000000024</v>
+        <v>1000000406</v>
       </c>
       <c r="B408" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>tiadwiauliani101@man.com</v>
+        <v>tiadwiauliani274@man.com</v>
       </c>
       <c r="C408" s="47" t="s">
         <v>629</v>
@@ -14992,11 +14992,11 @@
     </row>
     <row r="409" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A409" s="5">
-        <v>1000000024</v>
+        <v>1000000407</v>
       </c>
       <c r="B409" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wahdini381@man.com</v>
+        <v>wahdini169@man.com</v>
       </c>
       <c r="C409" s="47" t="s">
         <v>630</v>
@@ -15022,11 +15022,11 @@
     </row>
     <row r="410" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A410" s="5">
-        <v>1000000024</v>
+        <v>1000000408</v>
       </c>
       <c r="B410" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wildandika961@man.com</v>
+        <v>wildandika768@man.com</v>
       </c>
       <c r="C410" s="47" t="s">
         <v>631</v>
@@ -15052,11 +15052,11 @@
     </row>
     <row r="411" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
-        <v>1000000024</v>
+        <v>1000000409</v>
       </c>
       <c r="B411" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zahranimaura401@man.com</v>
+        <v>zahranimaura265@man.com</v>
       </c>
       <c r="C411" s="54" t="s">
         <v>632</v>
@@ -15082,11 +15082,11 @@
     </row>
     <row r="412" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A412" s="5">
-        <v>1000000024</v>
+        <v>1000000410</v>
       </c>
       <c r="B412" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>irfanrizky12@man.com</v>
+        <v>irfanrizky283@man.com</v>
       </c>
       <c r="C412" s="56" t="s">
         <v>633</v>
@@ -15112,11 +15112,11 @@
     </row>
     <row r="413" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A413" s="5">
-        <v>1000000024</v>
+        <v>1000000411</v>
       </c>
       <c r="B413" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sahidulsyahputra63@man.com</v>
+        <v>sahidulsyahputra166@man.com</v>
       </c>
       <c r="C413" s="51" t="s">
         <v>634</v>
@@ -15142,11 +15142,11 @@
     </row>
     <row r="414" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A414" s="5">
-        <v>1000000024</v>
+        <v>1000000412</v>
       </c>
       <c r="B414" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>anamaria786@man.com</v>
+        <v>anamaria222@man.com</v>
       </c>
       <c r="C414" s="57" t="s">
         <v>126</v>
@@ -15172,11 +15172,11 @@
     </row>
     <row r="415" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A415" s="5">
-        <v>1000000024</v>
+        <v>1000000413</v>
       </c>
       <c r="B415" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>annasrimulia120@man.com</v>
+        <v>annasrimulia64@man.com</v>
       </c>
       <c r="C415" s="58" t="s">
         <v>127</v>
@@ -15202,11 +15202,11 @@
     </row>
     <row r="416" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A416" s="5">
-        <v>1000000024</v>
+        <v>1000000414</v>
       </c>
       <c r="B416" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>cutamalia61@man.com</v>
+        <v>cutamalia9@man.com</v>
       </c>
       <c r="C416" s="57" t="s">
         <v>128</v>
@@ -15232,11 +15232,11 @@
     </row>
     <row r="417" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
-        <v>1000000024</v>
+        <v>1000000415</v>
       </c>
       <c r="B417" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>desisilfiyana735@man.com</v>
+        <v>desisilfiyana343@man.com</v>
       </c>
       <c r="C417" s="57" t="s">
         <v>129</v>
@@ -15262,11 +15262,11 @@
     </row>
     <row r="418" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A418" s="5">
-        <v>1000000024</v>
+        <v>1000000416</v>
       </c>
       <c r="B418" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dirgasyidratussalwa365@man.com</v>
+        <v>dirgasyidratussalwa582@man.com</v>
       </c>
       <c r="C418" s="57" t="s">
         <v>130</v>
@@ -15292,11 +15292,11 @@
     </row>
     <row r="419" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
-        <v>1000000024</v>
+        <v>1000000417</v>
       </c>
       <c r="B419" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>elizasapitri918@man.com</v>
+        <v>elizasapitri657@man.com</v>
       </c>
       <c r="C419" s="59" t="s">
         <v>131</v>
@@ -15322,11 +15322,11 @@
     </row>
     <row r="420" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
-        <v>1000000024</v>
+        <v>1000000418</v>
       </c>
       <c r="B420" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fakhriwijdan740@man.com</v>
+        <v>fakhriwijdan409@man.com</v>
       </c>
       <c r="C420" s="58" t="s">
         <v>132</v>
@@ -15352,11 +15352,11 @@
     </row>
     <row r="421" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
-        <v>1000000024</v>
+        <v>1000000419</v>
       </c>
       <c r="B421" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fanita87@man.com</v>
+        <v>fanita754@man.com</v>
       </c>
       <c r="C421" s="60" t="s">
         <v>133</v>
@@ -15382,11 +15382,11 @@
     </row>
     <row r="422" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
-        <v>1000000024</v>
+        <v>1000000420</v>
       </c>
       <c r="B422" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ihsanuddin444@man.com</v>
+        <v>ihsanuddin623@man.com</v>
       </c>
       <c r="C422" s="57" t="s">
         <v>134</v>
@@ -15412,11 +15412,11 @@
     </row>
     <row r="423" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
-        <v>1000000024</v>
+        <v>1000000421</v>
       </c>
       <c r="B423" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ilhamekafarisy569@man.com</v>
+        <v>ilhamekafarisy619@man.com</v>
       </c>
       <c r="C423" s="57" t="s">
         <v>135</v>
@@ -15442,11 +15442,11 @@
     </row>
     <row r="424" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
-        <v>1000000024</v>
+        <v>1000000422</v>
       </c>
       <c r="B424" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>jannatiakanju864@man.com</v>
+        <v>jannatiakanju990@man.com</v>
       </c>
       <c r="C424" s="60" t="s">
         <v>136</v>
@@ -15472,11 +15472,11 @@
     </row>
     <row r="425" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
-        <v>1000000024</v>
+        <v>1000000423</v>
       </c>
       <c r="B425" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>lindaamalia816@man.com</v>
+        <v>lindaamalia681@man.com</v>
       </c>
       <c r="C425" s="58" t="s">
         <v>140</v>
@@ -15502,11 +15502,11 @@
     </row>
     <row r="426" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
-        <v>1000000024</v>
+        <v>1000000424</v>
       </c>
       <c r="B426" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.rizki407@man.com</v>
+        <v>m.rizki466@man.com</v>
       </c>
       <c r="C426" s="57" t="s">
         <v>137</v>
@@ -15532,11 +15532,11 @@
     </row>
     <row r="427" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
-        <v>1000000024</v>
+        <v>1000000425</v>
       </c>
       <c r="B427" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.sejahtera218@man.com</v>
+        <v>m.sejahtera301@man.com</v>
       </c>
       <c r="C427" s="57" t="s">
         <v>138</v>
@@ -15562,11 +15562,11 @@
     </row>
     <row r="428" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
-        <v>1000000024</v>
+        <v>1000000426</v>
       </c>
       <c r="B428" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahridalativa702@man.com</v>
+        <v>mahridalativa323@man.com</v>
       </c>
       <c r="C428" s="57" t="s">
         <v>141</v>
@@ -15592,11 +15592,11 @@
     </row>
     <row r="429" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
-        <v>1000000024</v>
+        <v>1000000427</v>
       </c>
       <c r="B429" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>maulidasimahara352@man.com</v>
+        <v>maulidasimahara348@man.com</v>
       </c>
       <c r="C429" s="57" t="s">
         <v>142</v>
@@ -15622,11 +15622,11 @@
     </row>
     <row r="430" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
-        <v>1000000024</v>
+        <v>1000000428</v>
       </c>
       <c r="B430" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nabilaraudhatunnisya59@man.com</v>
+        <v>nabilaraudhatunnisya534@man.com</v>
       </c>
       <c r="C430" s="58" t="s">
         <v>143</v>
@@ -15652,11 +15652,11 @@
     </row>
     <row r="431" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
-        <v>1000000024</v>
+        <v>1000000429</v>
       </c>
       <c r="B431" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>naurahsalsabila554@man.com</v>
+        <v>naurahsalsabila27@man.com</v>
       </c>
       <c r="C431" s="57" t="s">
         <v>144</v>
@@ -15682,11 +15682,11 @@
     </row>
     <row r="432" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
-        <v>1000000024</v>
+        <v>1000000430</v>
       </c>
       <c r="B432" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nilmafatimahazzahra349@man.com</v>
+        <v>nilmafatimahazzahra250@man.com</v>
       </c>
       <c r="C432" s="59" t="s">
         <v>145</v>
@@ -15712,11 +15712,11 @@
     </row>
     <row r="433" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
-        <v>1000000024</v>
+        <v>1000000431</v>
       </c>
       <c r="B433" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurhafidzah514@man.com</v>
+        <v>nurhafidzah353@man.com</v>
       </c>
       <c r="C433" s="57" t="s">
         <v>146</v>
@@ -15742,11 +15742,11 @@
     </row>
     <row r="434" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
-        <v>1000000024</v>
+        <v>1000000432</v>
       </c>
       <c r="B434" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>pingkannapisah942@man.com</v>
+        <v>pingkannapisah505@man.com</v>
       </c>
       <c r="C434" s="61" t="s">
         <v>147</v>
@@ -15772,11 +15772,11 @@
     </row>
     <row r="435" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
-        <v>1000000024</v>
+        <v>1000000433</v>
       </c>
       <c r="B435" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rikamahyani159@man.com</v>
+        <v>rikamahyani266@man.com</v>
       </c>
       <c r="C435" s="57" t="s">
         <v>148</v>
@@ -15802,11 +15802,11 @@
     </row>
     <row r="436" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A436" s="5">
-        <v>1000000024</v>
+        <v>1000000434</v>
       </c>
       <c r="B436" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rimaputrimegaandria112@man.com</v>
+        <v>rimaputrimegaandria963@man.com</v>
       </c>
       <c r="C436" s="59" t="s">
         <v>149</v>
@@ -15832,11 +15832,11 @@
     </row>
     <row r="437" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
-        <v>1000000024</v>
+        <v>1000000435</v>
       </c>
       <c r="B437" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sarabensu339@man.com</v>
+        <v>sarabensu790@man.com</v>
       </c>
       <c r="C437" s="57" t="s">
         <v>150</v>
@@ -15862,11 +15862,11 @@
     </row>
     <row r="438" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
-        <v>1000000024</v>
+        <v>1000000436</v>
       </c>
       <c r="B438" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>syardifitrah438@man.com</v>
+        <v>syardifitrah933@man.com</v>
       </c>
       <c r="C438" s="57" t="s">
         <v>139</v>
@@ -15892,11 +15892,11 @@
     </row>
     <row r="439" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
-        <v>1000000024</v>
+        <v>1000000437</v>
       </c>
       <c r="B439" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zannatulazila91@man.com</v>
+        <v>zannatulazila170@man.com</v>
       </c>
       <c r="C439" s="57" t="s">
         <v>151</v>
@@ -15922,11 +15922,11 @@
     </row>
     <row r="440" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A440" s="5">
-        <v>1000000024</v>
+        <v>1000000438</v>
       </c>
       <c r="B440" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abdanfitramenye770@man.com</v>
+        <v>abdanfitramenye692@man.com</v>
       </c>
       <c r="C440" s="63" t="s">
         <v>635</v>
@@ -15952,11 +15952,11 @@
     </row>
     <row r="441" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
-        <v>1000000024</v>
+        <v>1000000439</v>
       </c>
       <c r="B441" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>almunadi636@man.com</v>
+        <v>almunadi333@man.com</v>
       </c>
       <c r="C441" s="63" t="s">
         <v>152</v>
@@ -15982,11 +15982,11 @@
     </row>
     <row r="442" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A442" s="5">
-        <v>1000000024</v>
+        <v>1000000440</v>
       </c>
       <c r="B442" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>andreancanhari193@man.com</v>
+        <v>andreancanhari611@man.com</v>
       </c>
       <c r="C442" s="63" t="s">
         <v>153</v>
@@ -16012,11 +16012,11 @@
     </row>
     <row r="443" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
-        <v>1000000024</v>
+        <v>1000000441</v>
       </c>
       <c r="B443" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>assyifawahiddayati939@man.com</v>
+        <v>assyifawahiddayati145@man.com</v>
       </c>
       <c r="C443" s="63" t="s">
         <v>154</v>
@@ -16042,11 +16042,11 @@
     </row>
     <row r="444" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
-        <v>1000000024</v>
+        <v>1000000442</v>
       </c>
       <c r="B444" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ayudalisma561@man.com</v>
+        <v>ayudalisma223@man.com</v>
       </c>
       <c r="C444" s="63" t="s">
         <v>155</v>
@@ -16072,11 +16072,11 @@
     </row>
     <row r="445" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
-        <v>1000000024</v>
+        <v>1000000443</v>
       </c>
       <c r="B445" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>daffaelzafadhil428@man.com</v>
+        <v>daffaelzafadhil395@man.com</v>
       </c>
       <c r="C445" s="63" t="s">
         <v>156</v>
@@ -16102,11 +16102,11 @@
     </row>
     <row r="446" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A446" s="5">
-        <v>1000000024</v>
+        <v>1000000444</v>
       </c>
       <c r="B446" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fathulannisa759@man.com</v>
+        <v>fathulannisa734@man.com</v>
       </c>
       <c r="C446" s="63" t="s">
         <v>636</v>
@@ -16132,11 +16132,11 @@
     </row>
     <row r="447" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
-        <v>1000000024</v>
+        <v>1000000445</v>
       </c>
       <c r="B447" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafnizahara617@man.com</v>
+        <v>hafnizahara882@man.com</v>
       </c>
       <c r="C447" s="63" t="s">
         <v>157</v>
@@ -16162,11 +16162,11 @@
     </row>
     <row r="448" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A448" s="5">
-        <v>1000000024</v>
+        <v>1000000446</v>
       </c>
       <c r="B448" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hendra559@man.com</v>
+        <v>hendra805@man.com</v>
       </c>
       <c r="C448" s="63" t="s">
         <v>158</v>
@@ -16192,11 +16192,11 @@
     </row>
     <row r="449" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
-        <v>1000000024</v>
+        <v>1000000447</v>
       </c>
       <c r="B449" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>heniwijayanti782@man.com</v>
+        <v>heniwijayanti366@man.com</v>
       </c>
       <c r="C449" s="63" t="s">
         <v>159</v>
@@ -16222,11 +16222,11 @@
     </row>
     <row r="450" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
-        <v>1000000024</v>
+        <v>1000000448</v>
       </c>
       <c r="B450" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hermavalentina790@man.com</v>
+        <v>hermavalentina917@man.com</v>
       </c>
       <c r="C450" s="63" t="s">
         <v>160</v>
@@ -16252,11 +16252,11 @@
     </row>
     <row r="451" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
-        <v>1000000024</v>
+        <v>1000000449</v>
       </c>
       <c r="B451" s="5" t="str">
         <f t="shared" ref="B451:B514" ca="1" si="7">SUBSTITUTE(LOWER(C451&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>hidayatunnahar357@man.com</v>
+        <v>hidayatunnahar211@man.com</v>
       </c>
       <c r="C451" s="63" t="s">
         <v>637</v>
@@ -16282,11 +16282,11 @@
     </row>
     <row r="452" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
-        <v>1000000024</v>
+        <v>1000000450</v>
       </c>
       <c r="B452" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>imamsamudra30@man.com</v>
+        <v>imamsamudra924@man.com</v>
       </c>
       <c r="C452" s="63" t="s">
         <v>161</v>
@@ -16312,11 +16312,11 @@
     </row>
     <row r="453" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
-        <v>1000000024</v>
+        <v>1000000451</v>
       </c>
       <c r="B453" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intantamara540@man.com</v>
+        <v>intantamara827@man.com</v>
       </c>
       <c r="C453" s="63" t="s">
         <v>162</v>
@@ -16342,11 +16342,11 @@
     </row>
     <row r="454" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
-        <v>1000000024</v>
+        <v>1000000452</v>
       </c>
       <c r="B454" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ismajunipratama625@man.com</v>
+        <v>ismajunipratama878@man.com</v>
       </c>
       <c r="C454" s="63" t="s">
         <v>163</v>
@@ -16372,11 +16372,11 @@
     </row>
     <row r="455" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
-        <v>1000000024</v>
+        <v>1000000453</v>
       </c>
       <c r="B455" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jonisyahwanara568@man.com</v>
+        <v>jonisyahwanara64@man.com</v>
       </c>
       <c r="C455" s="63" t="s">
         <v>638</v>
@@ -16402,11 +16402,11 @@
     </row>
     <row r="456" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
-        <v>1000000024</v>
+        <v>1000000454</v>
       </c>
       <c r="B456" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>juhriansyah36@man.com</v>
+        <v>juhriansyah350@man.com</v>
       </c>
       <c r="C456" s="63" t="s">
         <v>639</v>
@@ -16432,11 +16432,11 @@
     </row>
     <row r="457" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
-        <v>1000000024</v>
+        <v>1000000455</v>
       </c>
       <c r="B457" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jumadirahman674@man.com</v>
+        <v>jumadirahman747@man.com</v>
       </c>
       <c r="C457" s="63" t="s">
         <v>165</v>
@@ -16462,11 +16462,11 @@
     </row>
     <row r="458" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
-        <v>1000000024</v>
+        <v>1000000456</v>
       </c>
       <c r="B458" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnisa287@man.com</v>
+        <v>khairunnisa37@man.com</v>
       </c>
       <c r="C458" s="63" t="s">
         <v>164</v>
@@ -16492,11 +16492,11 @@
     </row>
     <row r="459" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
-        <v>1000000024</v>
+        <v>1000000457</v>
       </c>
       <c r="B459" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mnur178@man.com</v>
+        <v>mnur292@man.com</v>
       </c>
       <c r="C459" s="63" t="s">
         <v>640</v>
@@ -16522,11 +16522,11 @@
     </row>
     <row r="460" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A460" s="5">
-        <v>1000000024</v>
+        <v>1000000458</v>
       </c>
       <c r="B460" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mriezafahlevi484@man.com</v>
+        <v>mriezafahlevi862@man.com</v>
       </c>
       <c r="C460" s="63" t="s">
         <v>641</v>
@@ -16552,11 +16552,11 @@
     </row>
     <row r="461" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
-        <v>1000000024</v>
+        <v>1000000459</v>
       </c>
       <c r="B461" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mauzialfadila336@man.com</v>
+        <v>mauzialfadila888@man.com</v>
       </c>
       <c r="C461" s="63" t="s">
         <v>166</v>
@@ -16582,11 +16582,11 @@
     </row>
     <row r="462" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
-        <v>1000000024</v>
+        <v>1000000460</v>
       </c>
       <c r="B462" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mawaddah584@man.com</v>
+        <v>mawaddah404@man.com</v>
       </c>
       <c r="C462" s="63" t="s">
         <v>167</v>
@@ -16612,11 +16612,11 @@
     </row>
     <row r="463" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
-        <v>1000000024</v>
+        <v>1000000461</v>
       </c>
       <c r="B463" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mukhsin243@man.com</v>
+        <v>mukhsin911@man.com</v>
       </c>
       <c r="C463" s="63" t="s">
         <v>642</v>
@@ -16642,11 +16642,11 @@
     </row>
     <row r="464" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A464" s="5">
-        <v>1000000024</v>
+        <v>1000000462</v>
       </c>
       <c r="B464" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nurhayati605@man.com</v>
+        <v>nurhayati716@man.com</v>
       </c>
       <c r="C464" s="63" t="s">
         <v>168</v>
@@ -16672,11 +16672,11 @@
     </row>
     <row r="465" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
-        <v>1000000024</v>
+        <v>1000000463</v>
       </c>
       <c r="B465" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>orijagunawans586@man.com</v>
+        <v>orijagunawans932@man.com</v>
       </c>
       <c r="C465" s="63" t="s">
         <v>169</v>
@@ -16702,11 +16702,11 @@
     </row>
     <row r="466" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A466" s="5">
-        <v>1000000024</v>
+        <v>1000000464</v>
       </c>
       <c r="B466" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmisapitri89@man.com</v>
+        <v>rahmisapitri796@man.com</v>
       </c>
       <c r="C466" s="63" t="s">
         <v>170</v>
@@ -16732,11 +16732,11 @@
     </row>
     <row r="467" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A467" s="5">
-        <v>1000000024</v>
+        <v>1000000465</v>
       </c>
       <c r="B467" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rajakrafsanjani249@man.com</v>
+        <v>rajakrafsanjani863@man.com</v>
       </c>
       <c r="C467" s="63" t="s">
         <v>643</v>
@@ -16762,11 +16762,11 @@
     </row>
     <row r="468" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A468" s="5">
-        <v>1000000024</v>
+        <v>1000000466</v>
       </c>
       <c r="B468" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sabarollah104@man.com</v>
+        <v>sabarollah66@man.com</v>
       </c>
       <c r="C468" s="63" t="s">
         <v>171</v>
@@ -16792,11 +16792,11 @@
     </row>
     <row r="469" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A469" s="5">
-        <v>1000000024</v>
+        <v>1000000467</v>
       </c>
       <c r="B469" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>salmanalfarisi155@man.com</v>
+        <v>salmanalfarisi533@man.com</v>
       </c>
       <c r="C469" s="63" t="s">
         <v>644</v>
@@ -16822,11 +16822,11 @@
     </row>
     <row r="470" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A470" s="5">
-        <v>1000000024</v>
+        <v>1000000468</v>
       </c>
       <c r="B470" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sauqiqalbiihsan387@man.com</v>
+        <v>sauqiqalbiihsan555@man.com</v>
       </c>
       <c r="C470" s="63" t="s">
         <v>645</v>
@@ -16852,11 +16852,11 @@
     </row>
     <row r="471" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A471" s="5">
-        <v>1000000024</v>
+        <v>1000000469</v>
       </c>
       <c r="B471" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>seprianaputri645@man.com</v>
+        <v>seprianaputri744@man.com</v>
       </c>
       <c r="C471" s="63" t="s">
         <v>172</v>
@@ -16882,11 +16882,11 @@
     </row>
     <row r="472" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A472" s="5">
-        <v>1000000024</v>
+        <v>1000000470</v>
       </c>
       <c r="B472" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>septiajuliabreta276@man.com</v>
+        <v>septiajuliabreta81@man.com</v>
       </c>
       <c r="C472" s="63" t="s">
         <v>646</v>
@@ -16912,11 +16912,11 @@
     </row>
     <row r="473" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A473" s="5">
-        <v>1000000024</v>
+        <v>1000000471</v>
       </c>
       <c r="B473" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sujadanaufal706@man.com</v>
+        <v>sujadanaufal58@man.com</v>
       </c>
       <c r="C473" s="63" t="s">
         <v>173</v>
@@ -16942,11 +16942,11 @@
     </row>
     <row r="474" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A474" s="5">
-        <v>1000000024</v>
+        <v>1000000472</v>
       </c>
       <c r="B474" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>tiararejeki219@man.com</v>
+        <v>tiararejeki205@man.com</v>
       </c>
       <c r="C474" s="63" t="s">
         <v>647</v>
@@ -16972,11 +16972,11 @@
     </row>
     <row r="475" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A475" s="5">
-        <v>1000000024</v>
+        <v>1000000473</v>
       </c>
       <c r="B475" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>vaniaamanda196@man.com</v>
+        <v>vaniaamanda435@man.com</v>
       </c>
       <c r="C475" s="63" t="s">
         <v>174</v>
@@ -17002,11 +17002,11 @@
     </row>
     <row r="476" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A476" s="5">
-        <v>1000000024</v>
+        <v>1000000474</v>
       </c>
       <c r="B476" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wardani155@man.com</v>
+        <v>wardani440@man.com</v>
       </c>
       <c r="C476" s="63" t="s">
         <v>175</v>
@@ -17032,11 +17032,11 @@
     </row>
     <row r="477" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
-        <v>1000000024</v>
+        <v>1000000475</v>
       </c>
       <c r="B477" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wiramahendra122@man.com</v>
+        <v>wiramahendra655@man.com</v>
       </c>
       <c r="C477" s="63" t="s">
         <v>176</v>
@@ -17062,11 +17062,11 @@
     </row>
     <row r="478" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A478" s="5">
-        <v>1000000024</v>
+        <v>1000000476</v>
       </c>
       <c r="B478" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ardianokta755@man.com</v>
+        <v>ardianokta91@man.com</v>
       </c>
       <c r="C478" s="68" t="s">
         <v>177</v>
@@ -17092,11 +17092,11 @@
     </row>
     <row r="479" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
-        <v>1000000024</v>
+        <v>1000000477</v>
       </c>
       <c r="B479" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarafiqi715@man.com</v>
+        <v>auliarafiqi862@man.com</v>
       </c>
       <c r="C479" s="66" t="s">
         <v>178</v>
@@ -17122,11 +17122,11 @@
     </row>
     <row r="480" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
-        <v>1000000024</v>
+        <v>1000000478</v>
       </c>
       <c r="B480" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarahmi793@man.com</v>
+        <v>auliarahmi558@man.com</v>
       </c>
       <c r="C480" s="67" t="s">
         <v>179</v>
@@ -17152,11 +17152,11 @@
     </row>
     <row r="481" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
-        <v>1000000024</v>
+        <v>1000000479</v>
       </c>
       <c r="B481" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>azzatilakmar134@man.com</v>
+        <v>azzatilakmar480@man.com</v>
       </c>
       <c r="C481" s="68" t="s">
         <v>180</v>
@@ -17182,11 +17182,11 @@
     </row>
     <row r="482" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A482" s="5">
-        <v>1000000024</v>
+        <v>1000000480</v>
       </c>
       <c r="B482" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dhiyajinansausan518@man.com</v>
+        <v>dhiyajinansausan319@man.com</v>
       </c>
       <c r="C482" s="67" t="s">
         <v>181</v>
@@ -17212,11 +17212,11 @@
     </row>
     <row r="483" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
-        <v>1000000024</v>
+        <v>1000000481</v>
       </c>
       <c r="B483" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>elmafebriani997@man.com</v>
+        <v>elmafebriani936@man.com</v>
       </c>
       <c r="C483" s="66" t="s">
         <v>182</v>
@@ -17242,11 +17242,11 @@
     </row>
     <row r="484" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A484" s="5">
-        <v>1000000024</v>
+        <v>1000000482</v>
       </c>
       <c r="B484" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>firamaulana537@man.com</v>
+        <v>firamaulana193@man.com</v>
       </c>
       <c r="C484" s="72" t="s">
         <v>183</v>
@@ -17272,11 +17272,11 @@
     </row>
     <row r="485" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
-        <v>1000000024</v>
+        <v>1000000483</v>
       </c>
       <c r="B485" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>henderik698@man.com</v>
+        <v>henderik591@man.com</v>
       </c>
       <c r="C485" s="68" t="s">
         <v>648</v>
@@ -17302,11 +17302,11 @@
     </row>
     <row r="486" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
-        <v>1000000024</v>
+        <v>1000000484</v>
       </c>
       <c r="B486" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ifasilvia405@man.com</v>
+        <v>ifasilvia562@man.com</v>
       </c>
       <c r="C486" s="66" t="s">
         <v>184</v>
@@ -17332,11 +17332,11 @@
     </row>
     <row r="487" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
-        <v>1000000024</v>
+        <v>1000000485</v>
       </c>
       <c r="B487" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intanrindipurwati976@man.com</v>
+        <v>intanrindipurwati841@man.com</v>
       </c>
       <c r="C487" s="66" t="s">
         <v>185</v>
@@ -17362,11 +17362,11 @@
     </row>
     <row r="488" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
-        <v>1000000024</v>
+        <v>1000000486</v>
       </c>
       <c r="B488" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ilhamrizkipratama77@man.com</v>
+        <v>ilhamrizkipratama997@man.com</v>
       </c>
       <c r="C488" s="66" t="s">
         <v>649</v>
@@ -17392,11 +17392,11 @@
     </row>
     <row r="489" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
-        <v>1000000024</v>
+        <v>1000000487</v>
       </c>
       <c r="B489" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>iradah885@man.com</v>
+        <v>iradah545@man.com</v>
       </c>
       <c r="C489" s="68" t="s">
         <v>186</v>
@@ -17422,11 +17422,11 @@
     </row>
     <row r="490" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A490" s="5">
-        <v>1000000024</v>
+        <v>1000000488</v>
       </c>
       <c r="B490" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jamianqalbu638@man.com</v>
+        <v>jamianqalbu432@man.com</v>
       </c>
       <c r="C490" s="68" t="s">
         <v>221</v>
@@ -17452,11 +17452,11 @@
     </row>
     <row r="491" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
-        <v>1000000024</v>
+        <v>1000000489</v>
       </c>
       <c r="B491" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnasirin688@man.com</v>
+        <v>khairunnasirin201@man.com</v>
       </c>
       <c r="C491" s="68" t="s">
         <v>187</v>
@@ -17482,11 +17482,11 @@
     </row>
     <row r="492" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
-        <v>1000000024</v>
+        <v>1000000490</v>
       </c>
       <c r="B492" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mfahri639@man.com</v>
+        <v>mfahri417@man.com</v>
       </c>
       <c r="C492" s="68" t="s">
         <v>650</v>
@@ -17512,11 +17512,11 @@
     </row>
     <row r="493" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
-        <v>1000000024</v>
+        <v>1000000491</v>
       </c>
       <c r="B493" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mputrawansyah610@man.com</v>
+        <v>mputrawansyah358@man.com</v>
       </c>
       <c r="C493" s="67" t="s">
         <v>651</v>
@@ -17542,11 +17542,11 @@
     </row>
     <row r="494" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A494" s="5">
-        <v>1000000024</v>
+        <v>1000000492</v>
       </c>
       <c r="B494" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maharani319@man.com</v>
+        <v>maharani186@man.com</v>
       </c>
       <c r="C494" s="66" t="s">
         <v>188</v>
@@ -17572,11 +17572,11 @@
     </row>
     <row r="495" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
-        <v>1000000024</v>
+        <v>1000000493</v>
       </c>
       <c r="B495" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>marlindapuspita374@man.com</v>
+        <v>marlindapuspita720@man.com</v>
       </c>
       <c r="C495" s="67" t="s">
         <v>189</v>
@@ -17602,11 +17602,11 @@
     </row>
     <row r="496" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A496" s="5">
-        <v>1000000024</v>
+        <v>1000000494</v>
       </c>
       <c r="B496" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maulidaafriani391@man.com</v>
+        <v>maulidaafriani66@man.com</v>
       </c>
       <c r="C496" s="66" t="s">
         <v>190</v>
@@ -17632,11 +17632,11 @@
     </row>
     <row r="497" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
-        <v>1000000024</v>
+        <v>1000000495</v>
       </c>
       <c r="B497" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mutiarezeki842@man.com</v>
+        <v>mutiarezeki300@man.com</v>
       </c>
       <c r="C497" s="65" t="s">
         <v>191</v>
@@ -17662,11 +17662,11 @@
     </row>
     <row r="498" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
-        <v>1000000024</v>
+        <v>1000000496</v>
       </c>
       <c r="B498" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiamahara335@man.com</v>
+        <v>nadiamahara785@man.com</v>
       </c>
       <c r="C498" s="69" t="s">
         <v>192</v>
@@ -17692,11 +17692,11 @@
     </row>
     <row r="499" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
-        <v>1000000024</v>
+        <v>1000000497</v>
       </c>
       <c r="B499" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiasari667@man.com</v>
+        <v>nadiasari654@man.com</v>
       </c>
       <c r="C499" s="68" t="s">
         <v>193</v>
@@ -17722,11 +17722,11 @@
     </row>
     <row r="500" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A500" s="5">
-        <v>1000000024</v>
+        <v>1000000498</v>
       </c>
       <c r="B500" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadyabrudio923@man.com</v>
+        <v>nadyabrudio546@man.com</v>
       </c>
       <c r="C500" s="68" t="s">
         <v>194</v>
@@ -17752,11 +17752,11 @@
     </row>
     <row r="501" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
-        <v>1000000024</v>
+        <v>1000000499</v>
       </c>
       <c r="B501" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>najibmusapatinugraha588@man.com</v>
+        <v>najibmusapatinugraha491@man.com</v>
       </c>
       <c r="C501" s="66" t="s">
         <v>195</v>
@@ -17782,11 +17782,11 @@
     </row>
     <row r="502" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A502" s="5">
-        <v>1000000024</v>
+        <v>1000000500</v>
       </c>
       <c r="B502" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nazlaaqnia795@man.com</v>
+        <v>nazlaaqnia43@man.com</v>
       </c>
       <c r="C502" s="67" t="s">
         <v>196</v>
@@ -17812,11 +17812,11 @@
     </row>
     <row r="503" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
-        <v>1000000024</v>
+        <v>1000000501</v>
       </c>
       <c r="B503" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>niaramadani544@man.com</v>
+        <v>niaramadani574@man.com</v>
       </c>
       <c r="C503" s="66" t="s">
         <v>652</v>
@@ -17842,11 +17842,11 @@
     </row>
     <row r="504" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
-        <v>1000000024</v>
+        <v>1000000502</v>
       </c>
       <c r="B504" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nindasafitri781@man.com</v>
+        <v>nindasafitri545@man.com</v>
       </c>
       <c r="C504" s="67" t="s">
         <v>197</v>
@@ -17872,11 +17872,11 @@
     </row>
     <row r="505" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
-        <v>1000000024</v>
+        <v>1000000503</v>
       </c>
       <c r="B505" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>pujasimehate241@man.com</v>
+        <v>pujasimehate521@man.com</v>
       </c>
       <c r="C505" s="67" t="s">
         <v>198</v>
@@ -17902,11 +17902,11 @@
     </row>
     <row r="506" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A506" s="5">
-        <v>1000000024</v>
+        <v>1000000504</v>
       </c>
       <c r="B506" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmadayanti787@man.com</v>
+        <v>rahmadayanti845@man.com</v>
       </c>
       <c r="C506" s="66" t="s">
         <v>199</v>
@@ -17932,11 +17932,11 @@
     </row>
     <row r="507" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
-        <v>1000000024</v>
+        <v>1000000505</v>
       </c>
       <c r="B507" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>raihandandi79@man.com</v>
+        <v>raihandandi721@man.com</v>
       </c>
       <c r="C507" s="68" t="s">
         <v>200</v>
@@ -17962,11 +17962,11 @@
     </row>
     <row r="508" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
-        <v>1000000024</v>
+        <v>1000000506</v>
       </c>
       <c r="B508" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>refkiwiyanda101@man.com</v>
+        <v>refkiwiyanda871@man.com</v>
       </c>
       <c r="C508" s="68" t="s">
         <v>201</v>
@@ -17992,11 +17992,11 @@
     </row>
     <row r="509" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
-        <v>1000000024</v>
+        <v>1000000507</v>
       </c>
       <c r="B509" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>riswandianugrah211@man.com</v>
+        <v>riswandianugrah33@man.com</v>
       </c>
       <c r="C509" s="68" t="s">
         <v>202</v>
@@ -18022,11 +18022,11 @@
     </row>
     <row r="510" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
-        <v>1000000024</v>
+        <v>1000000508</v>
       </c>
       <c r="B510" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rizkaiwanpasaranggayo525@man.com</v>
+        <v>rizkaiwanpasaranggayo931@man.com</v>
       </c>
       <c r="C510" s="65" t="s">
         <v>203</v>
@@ -18052,11 +18052,11 @@
     </row>
     <row r="511" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A511" s="5">
-        <v>1000000024</v>
+        <v>1000000509</v>
       </c>
       <c r="B511" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yuliana716@man.com</v>
+        <v>yuliana173@man.com</v>
       </c>
       <c r="C511" s="66" t="s">
         <v>205</v>
@@ -18082,11 +18082,11 @@
     </row>
     <row r="512" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A512" s="5">
-        <v>1000000024</v>
+        <v>1000000510</v>
       </c>
       <c r="B512" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yulianda623@man.com</v>
+        <v>yulianda876@man.com</v>
       </c>
       <c r="C512" s="66" t="s">
         <v>206</v>
@@ -18112,11 +18112,11 @@
     </row>
     <row r="513" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
-        <v>1000000024</v>
+        <v>1000000511</v>
       </c>
       <c r="B513" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>zahran648@man.com</v>
+        <v>zahran23@man.com</v>
       </c>
       <c r="C513" s="70" t="s">
         <v>207</v>
@@ -18142,11 +18142,11 @@
     </row>
     <row r="514" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A514" s="5">
-        <v>1000000024</v>
+        <v>1000000512</v>
       </c>
       <c r="B514" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abrarilliyin937@man.com</v>
+        <v>abrarilliyin515@man.com</v>
       </c>
       <c r="C514" s="73" t="s">
         <v>208</v>
@@ -18172,11 +18172,11 @@
     </row>
     <row r="515" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
-        <v>1000000024</v>
+        <v>1000000513</v>
       </c>
       <c r="B515" s="5" t="str">
         <f t="shared" ref="B515:B578" ca="1" si="8">SUBSTITUTE(LOWER(C515&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adenovalkurnia681@man.com</v>
+        <v>adenovalkurnia846@man.com</v>
       </c>
       <c r="C515" s="74" t="s">
         <v>209</v>
@@ -18202,11 +18202,11 @@
     </row>
     <row r="516" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
-        <v>1000000024</v>
+        <v>1000000514</v>
       </c>
       <c r="B516" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anandasaskia622@man.com</v>
+        <v>anandasaskia996@man.com</v>
       </c>
       <c r="C516" s="76" t="s">
         <v>210</v>
@@ -18232,11 +18232,11 @@
     </row>
     <row r="517" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
-        <v>1000000024</v>
+        <v>1000000515</v>
       </c>
       <c r="B517" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>asparina235@man.com</v>
+        <v>asparina657@man.com</v>
       </c>
       <c r="C517" s="75" t="s">
         <v>211</v>
@@ -18262,11 +18262,11 @@
     </row>
     <row r="518" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A518" s="5">
-        <v>1000000024</v>
+        <v>1000000516</v>
       </c>
       <c r="B518" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>cutmeriahsyamsi907@man.com</v>
+        <v>cutmeriahsyamsi504@man.com</v>
       </c>
       <c r="C518" s="76" t="s">
         <v>212</v>
@@ -18292,11 +18292,11 @@
     </row>
     <row r="519" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
-        <v>1000000024</v>
+        <v>1000000517</v>
       </c>
       <c r="B519" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>dahriaziz903@man.com</v>
+        <v>dahriaziz501@man.com</v>
       </c>
       <c r="C519" s="74" t="s">
         <v>213</v>
@@ -18322,11 +18322,11 @@
     </row>
     <row r="520" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
-        <v>1000000024</v>
+        <v>1000000518</v>
       </c>
       <c r="B520" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>desimahbengi740@man.com</v>
+        <v>desimahbengi857@man.com</v>
       </c>
       <c r="C520" s="75" t="s">
         <v>215</v>
@@ -18352,11 +18352,11 @@
     </row>
     <row r="521" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
-        <v>1000000024</v>
+        <v>1000000519</v>
       </c>
       <c r="B521" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>diskiadlani527@man.com</v>
+        <v>diskiadlani757@man.com</v>
       </c>
       <c r="C521" s="78" t="s">
         <v>214</v>
@@ -18382,11 +18382,11 @@
     </row>
     <row r="522" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
-        <v>1000000024</v>
+        <v>1000000520</v>
       </c>
       <c r="B522" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>fahmimaisya83@man.com</v>
+        <v>fahmimaisya571@man.com</v>
       </c>
       <c r="C522" s="76" t="s">
         <v>216</v>
@@ -18412,11 +18412,11 @@
     </row>
     <row r="523" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
-        <v>1000000024</v>
+        <v>1000000521</v>
       </c>
       <c r="B523" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>humairanadila464@man.com</v>
+        <v>humairanadila761@man.com</v>
       </c>
       <c r="C523" s="73" t="s">
         <v>217</v>
@@ -18442,11 +18442,11 @@
     </row>
     <row r="524" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A524" s="5">
-        <v>1000000024</v>
+        <v>1000000522</v>
       </c>
       <c r="B524" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnimahtuah728@man.com</v>
+        <v>husnimahtuah218@man.com</v>
       </c>
       <c r="C524" s="74" t="s">
         <v>218</v>
@@ -18472,11 +18472,11 @@
     </row>
     <row r="525" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
-        <v>1000000024</v>
+        <v>1000000523</v>
       </c>
       <c r="B525" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>iqbaldarmawan6@man.com</v>
+        <v>iqbaldarmawan377@man.com</v>
       </c>
       <c r="C525" s="74" t="s">
         <v>219</v>
@@ -18502,11 +18502,11 @@
     </row>
     <row r="526" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
-        <v>1000000024</v>
+        <v>1000000524</v>
       </c>
       <c r="B526" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>israazzahra145@man.com</v>
+        <v>israazzahra509@man.com</v>
       </c>
       <c r="C526" s="74" t="s">
         <v>220</v>
@@ -18532,11 +18532,11 @@
     </row>
     <row r="527" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
-        <v>1000000024</v>
+        <v>1000000525</v>
       </c>
       <c r="B527" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>khairunisa433@man.com</v>
+        <v>khairunisa237@man.com</v>
       </c>
       <c r="C527" s="75" t="s">
         <v>222</v>
@@ -18562,11 +18562,11 @@
     </row>
     <row r="528" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
-        <v>1000000024</v>
+        <v>1000000526</v>
       </c>
       <c r="B528" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>laulasalsabila234@man.com</v>
+        <v>laulasalsabila667@man.com</v>
       </c>
       <c r="C528" s="75" t="s">
         <v>223</v>
@@ -18592,11 +18592,11 @@
     </row>
     <row r="529" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
-        <v>1000000024</v>
+        <v>1000000527</v>
       </c>
       <c r="B529" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>msubki752@man.com</v>
+        <v>msubki751@man.com</v>
       </c>
       <c r="C529" s="75" t="s">
         <v>653</v>
@@ -18622,11 +18622,11 @@
     </row>
     <row r="530" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
-        <v>1000000024</v>
+        <v>1000000528</v>
       </c>
       <c r="B530" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>magfirahyurisma499@man.com</v>
+        <v>magfirahyurisma704@man.com</v>
       </c>
       <c r="C530" s="74" t="s">
         <v>225</v>
@@ -18652,11 +18652,11 @@
     </row>
     <row r="531" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
-        <v>1000000024</v>
+        <v>1000000529</v>
       </c>
       <c r="B531" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mauliyana69@man.com</v>
+        <v>mauliyana243@man.com</v>
       </c>
       <c r="C531" s="76" t="s">
         <v>226</v>
@@ -18682,11 +18682,11 @@
     </row>
     <row r="532" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
-        <v>1000000024</v>
+        <v>1000000530</v>
       </c>
       <c r="B532" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>meethalaura516@man.com</v>
+        <v>meethalaura593@man.com</v>
       </c>
       <c r="C532" s="73" t="s">
         <v>227</v>
@@ -18712,11 +18712,11 @@
     </row>
     <row r="533" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
-        <v>1000000024</v>
+        <v>1000000531</v>
       </c>
       <c r="B533" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mislanbahana515@man.com</v>
+        <v>mislanbahana521@man.com</v>
       </c>
       <c r="C533" s="75" t="s">
         <v>228</v>
@@ -18742,11 +18742,11 @@
     </row>
     <row r="534" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
-        <v>1000000024</v>
+        <v>1000000532</v>
       </c>
       <c r="B534" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadilaraudatunnisya983@man.com</v>
+        <v>nadilaraudatunnisya393@man.com</v>
       </c>
       <c r="C534" s="76" t="s">
         <v>229</v>
@@ -18772,11 +18772,11 @@
     </row>
     <row r="535" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
-        <v>1000000024</v>
+        <v>1000000533</v>
       </c>
       <c r="B535" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadyatiaraniaprilia257@man.com</v>
+        <v>nadyatiaraniaprilia965@man.com</v>
       </c>
       <c r="C535" s="79" t="s">
         <v>230</v>
@@ -18802,11 +18802,11 @@
     </row>
     <row r="536" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
-        <v>1000000024</v>
+        <v>1000000534</v>
       </c>
       <c r="B536" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>niaramadhana735@man.com</v>
+        <v>niaramadhana896@man.com</v>
       </c>
       <c r="C536" s="75" t="s">
         <v>224</v>
@@ -18832,11 +18832,11 @@
     </row>
     <row r="537" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
-        <v>1000000024</v>
+        <v>1000000535</v>
       </c>
       <c r="B537" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>noraarifah357@man.com</v>
+        <v>noraarifah429@man.com</v>
       </c>
       <c r="C537" s="73" t="s">
         <v>231</v>
@@ -18862,11 +18862,11 @@
     </row>
     <row r="538" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
-        <v>1000000024</v>
+        <v>1000000536</v>
       </c>
       <c r="B538" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrialyasalsabila816@man.com</v>
+        <v>putrialyasalsabila707@man.com</v>
       </c>
       <c r="C538" s="76" t="s">
         <v>232</v>
@@ -18892,11 +18892,11 @@
     </row>
     <row r="539" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
-        <v>1000000024</v>
+        <v>1000000537</v>
       </c>
       <c r="B539" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrikawazula387@man.com</v>
+        <v>putrikawazula720@man.com</v>
       </c>
       <c r="C539" s="75" t="s">
         <v>233</v>
@@ -18922,11 +18922,11 @@
     </row>
     <row r="540" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
-        <v>1000000024</v>
+        <v>1000000538</v>
       </c>
       <c r="B540" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ramadhanfitra880@man.com</v>
+        <v>ramadhanfitra969@man.com</v>
       </c>
       <c r="C540" s="76" t="s">
         <v>234</v>
@@ -18952,11 +18952,11 @@
     </row>
     <row r="541" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
-        <v>1000000024</v>
+        <v>1000000539</v>
       </c>
       <c r="B541" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>randarizki707@man.com</v>
+        <v>randarizki600@man.com</v>
       </c>
       <c r="C541" s="74" t="s">
         <v>235</v>
@@ -18982,11 +18982,11 @@
     </row>
     <row r="542" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
-        <v>1000000024</v>
+        <v>1000000540</v>
       </c>
       <c r="B542" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>reladi565@man.com</v>
+        <v>reladi722@man.com</v>
       </c>
       <c r="C542" s="74" t="s">
         <v>236</v>
@@ -19012,11 +19012,11 @@
     </row>
     <row r="543" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
-        <v>1000000024</v>
+        <v>1000000541</v>
       </c>
       <c r="B543" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rezekiwananto922@man.com</v>
+        <v>rezekiwananto402@man.com</v>
       </c>
       <c r="C543" s="75" t="s">
         <v>237</v>
@@ -19042,11 +19042,11 @@
     </row>
     <row r="544" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A544" s="5">
-        <v>1000000024</v>
+        <v>1000000542</v>
       </c>
       <c r="B544" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riski688@man.com</v>
+        <v>riski950@man.com</v>
       </c>
       <c r="C544" s="74" t="s">
         <v>238</v>
@@ -19072,11 +19072,11 @@
     </row>
     <row r="545" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
-        <v>1000000024</v>
+        <v>1000000543</v>
       </c>
       <c r="B545" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riskisetiawan913@man.com</v>
+        <v>riskisetiawan62@man.com</v>
       </c>
       <c r="C545" s="76" t="s">
         <v>239</v>
@@ -19102,11 +19102,11 @@
     </row>
     <row r="546" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
-        <v>1000000024</v>
+        <v>1000000544</v>
       </c>
       <c r="B546" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rizkiiwanramadan234@man.com</v>
+        <v>rizkiiwanramadan730@man.com</v>
       </c>
       <c r="C546" s="75" t="s">
         <v>240</v>
@@ -19132,11 +19132,11 @@
     </row>
     <row r="547" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
-        <v>1000000024</v>
+        <v>1000000545</v>
       </c>
       <c r="B547" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruaida567@man.com</v>
+        <v>ruaida723@man.com</v>
       </c>
       <c r="C547" s="77" t="s">
         <v>241</v>
@@ -19162,11 +19162,11 @@
     </row>
     <row r="548" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A548" s="5">
-        <v>1000000024</v>
+        <v>1000000546</v>
       </c>
       <c r="B548" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>safrinandaputra676@man.com</v>
+        <v>safrinandaputra437@man.com</v>
       </c>
       <c r="C548" s="75" t="s">
         <v>204</v>
@@ -19192,11 +19192,11 @@
     </row>
     <row r="549" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
-        <v>1000000024</v>
+        <v>1000000547</v>
       </c>
       <c r="B549" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>selviapintenate835@man.com</v>
+        <v>selviapintenate189@man.com</v>
       </c>
       <c r="C549" s="76" t="s">
         <v>242</v>
@@ -19222,11 +19222,11 @@
     </row>
     <row r="550" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A550" s="5">
-        <v>1000000024</v>
+        <v>1000000548</v>
       </c>
       <c r="B550" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wulanmelisa708@man.com</v>
+        <v>wulanmelisa385@man.com</v>
       </c>
       <c r="C550" s="76" t="s">
         <v>243</v>
@@ -19252,11 +19252,11 @@
     </row>
     <row r="551" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
-        <v>1000000024</v>
+        <v>1000000549</v>
       </c>
       <c r="B551" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anggunkaniya220@man.com</v>
+        <v>anggunkaniya484@man.com</v>
       </c>
       <c r="C551" s="83" t="s">
         <v>244</v>
@@ -19282,11 +19282,11 @@
     </row>
     <row r="552" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
-        <v>1000000024</v>
+        <v>1000000550</v>
       </c>
       <c r="B552" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>binautami546@man.com</v>
+        <v>binautami7@man.com</v>
       </c>
       <c r="C552" s="83" t="s">
         <v>245</v>
@@ -19312,11 +19312,11 @@
     </row>
     <row r="553" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
-        <v>1000000024</v>
+        <v>1000000551</v>
       </c>
       <c r="B553" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ditaarmazayani440@man.com</v>
+        <v>ditaarmazayani856@man.com</v>
       </c>
       <c r="C553" s="83" t="s">
         <v>246</v>
@@ -19342,11 +19342,11 @@
     </row>
     <row r="554" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A554" s="5">
-        <v>1000000024</v>
+        <v>1000000552</v>
       </c>
       <c r="B554" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>helmifauziansah42@man.com</v>
+        <v>helmifauziansah129@man.com</v>
       </c>
       <c r="C554" s="84" t="s">
         <v>256</v>
@@ -19372,11 +19372,11 @@
     </row>
     <row r="555" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
-        <v>1000000024</v>
+        <v>1000000553</v>
       </c>
       <c r="B555" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnasari250@man.com</v>
+        <v>husnasari613@man.com</v>
       </c>
       <c r="C555" s="83" t="s">
         <v>247</v>
@@ -19402,11 +19402,11 @@
     </row>
     <row r="556" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A556" s="5">
-        <v>1000000024</v>
+        <v>1000000554</v>
       </c>
       <c r="B556" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ipakyana116@man.com</v>
+        <v>ipakyana254@man.com</v>
       </c>
       <c r="C556" s="83" t="s">
         <v>248</v>
@@ -19432,11 +19432,11 @@
     </row>
     <row r="557" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
-        <v>1000000024</v>
+        <v>1000000555</v>
       </c>
       <c r="B557" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>istiqomah653@man.com</v>
+        <v>istiqomah259@man.com</v>
       </c>
       <c r="C557" s="83" t="s">
         <v>249</v>
@@ -19462,11 +19462,11 @@
     </row>
     <row r="558" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
-        <v>1000000024</v>
+        <v>1000000556</v>
       </c>
       <c r="B558" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>lidyaaudina857@man.com</v>
+        <v>lidyaaudina157@man.com</v>
       </c>
       <c r="C558" s="83" t="s">
         <v>250</v>
@@ -19492,11 +19492,11 @@
     </row>
     <row r="559" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
-        <v>1000000024</v>
+        <v>1000000557</v>
       </c>
       <c r="B559" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ma'rifatinzahra546@man.com</v>
+        <v>ma'rifatinzahra967@man.com</v>
       </c>
       <c r="C559" s="83" t="s">
         <v>251</v>
@@ -19522,11 +19522,11 @@
     </row>
     <row r="560" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
-        <v>1000000024</v>
+        <v>1000000558</v>
       </c>
       <c r="B560" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>melawatiputri276@man.com</v>
+        <v>melawatiputri416@man.com</v>
       </c>
       <c r="C560" s="83" t="s">
         <v>252</v>
@@ -19552,11 +19552,11 @@
     </row>
     <row r="561" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
-        <v>1000000024</v>
+        <v>1000000559</v>
       </c>
       <c r="B561" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>milajunitaslasih723@man.com</v>
+        <v>milajunitaslasih640@man.com</v>
       </c>
       <c r="C561" s="83" t="s">
         <v>253</v>
@@ -19582,11 +19582,11 @@
     </row>
     <row r="562" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
-        <v>1000000024</v>
+        <v>1000000560</v>
       </c>
       <c r="B562" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mirnayanti803@man.com</v>
+        <v>mirnayanti917@man.com</v>
       </c>
       <c r="C562" s="83" t="s">
         <v>254</v>
@@ -19612,11 +19612,11 @@
     </row>
     <row r="563" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
-        <v>1000000024</v>
+        <v>1000000561</v>
       </c>
       <c r="B563" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nazirahusna67@man.com</v>
+        <v>nazirahusna877@man.com</v>
       </c>
       <c r="C563" s="83" t="s">
         <v>255</v>
@@ -19642,11 +19642,11 @@
     </row>
     <row r="564" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
-        <v>1000000024</v>
+        <v>1000000562</v>
       </c>
       <c r="B564" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nuraisyahborun874@man.com</v>
+        <v>nuraisyahborun772@man.com</v>
       </c>
       <c r="C564" s="83" t="s">
         <v>257</v>
@@ -19672,11 +19672,11 @@
     </row>
     <row r="565" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
-        <v>1000000024</v>
+        <v>1000000563</v>
       </c>
       <c r="B565" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>pinterezeki470@man.com</v>
+        <v>pinterezeki164@man.com</v>
       </c>
       <c r="C565" s="81" t="s">
         <v>258</v>
@@ -19702,11 +19702,11 @@
     </row>
     <row r="566" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A566" s="5">
-        <v>1000000024</v>
+        <v>1000000564</v>
       </c>
       <c r="B566" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putridamayani657@man.com</v>
+        <v>putridamayani166@man.com</v>
       </c>
       <c r="C566" s="84" t="s">
         <v>259</v>
@@ -19732,11 +19732,11 @@
     </row>
     <row r="567" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
-        <v>1000000024</v>
+        <v>1000000565</v>
       </c>
       <c r="B567" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>raniapermataputri6@man.com</v>
+        <v>raniapermataputri340@man.com</v>
       </c>
       <c r="C567" s="81" t="s">
         <v>260</v>
@@ -19762,11 +19762,11 @@
     </row>
     <row r="568" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A568" s="5">
-        <v>1000000024</v>
+        <v>1000000566</v>
       </c>
       <c r="B568" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruhda642@man.com</v>
+        <v>ruhda872@man.com</v>
       </c>
       <c r="C568" s="85" t="s">
         <v>261</v>
@@ -19792,11 +19792,11 @@
     </row>
     <row r="569" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
-        <v>1000000024</v>
+        <v>1000000567</v>
       </c>
       <c r="B569" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sarawidamelala649@man.com</v>
+        <v>sarawidamelala994@man.com</v>
       </c>
       <c r="C569" s="83" t="s">
         <v>262</v>
@@ -19822,11 +19822,11 @@
     </row>
     <row r="570" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A570" s="5">
-        <v>1000000024</v>
+        <v>1000000568</v>
       </c>
       <c r="B570" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sariramadani458@man.com</v>
+        <v>sariramadani868@man.com</v>
       </c>
       <c r="C570" s="84" t="s">
         <v>263</v>
@@ -19852,11 +19852,11 @@
     </row>
     <row r="571" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
-        <v>1000000024</v>
+        <v>1000000569</v>
       </c>
       <c r="B571" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>saufayarda298@man.com</v>
+        <v>saufayarda759@man.com</v>
       </c>
       <c r="C571" s="83" t="s">
         <v>264</v>
@@ -19882,11 +19882,11 @@
     </row>
     <row r="572" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
-        <v>1000000024</v>
+        <v>1000000570</v>
       </c>
       <c r="B572" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sitinurkhadijah449@man.com</v>
+        <v>sitinurkhadijah517@man.com</v>
       </c>
       <c r="C572" s="81" t="s">
         <v>265</v>
@@ -19912,11 +19912,11 @@
     </row>
     <row r="573" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
-        <v>1000000024</v>
+        <v>1000000571</v>
       </c>
       <c r="B573" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>winnaufalmuhammad461@man.com</v>
+        <v>winnaufalmuhammad131@man.com</v>
       </c>
       <c r="C573" s="84" t="s">
         <v>266</v>
@@ -19942,11 +19942,11 @@
     </row>
     <row r="574" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
-        <v>1000000024</v>
+        <v>1000000572</v>
       </c>
       <c r="B574" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ylmianafitri394@man.com</v>
+        <v>ylmianafitri673@man.com</v>
       </c>
       <c r="C574" s="83" t="s">
         <v>267</v>
@@ -19972,11 +19972,11 @@
     </row>
     <row r="575" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
-        <v>1000000024</v>
+        <v>1000000573</v>
       </c>
       <c r="B575" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>yowenibahgie497@man.com</v>
+        <v>yowenibahgie882@man.com</v>
       </c>
       <c r="C575" s="86" t="s">
         <v>268</v>
@@ -20002,11 +20002,11 @@
     </row>
     <row r="576" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
-        <v>1000000024</v>
+        <v>1000000574</v>
       </c>
       <c r="B576" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>aldiansyahrizki279@man.com</v>
+        <v>aldiansyahrizki320@man.com</v>
       </c>
       <c r="C576" s="92" t="s">
         <v>309</v>
@@ -20032,11 +20032,11 @@
     </row>
     <row r="577" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
-        <v>1000000024</v>
+        <v>1000000575</v>
       </c>
       <c r="B577" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>alfisahri501@man.com</v>
+        <v>alfisahri226@man.com</v>
       </c>
       <c r="C577" s="93" t="s">
         <v>270</v>
@@ -20062,11 +20062,11 @@
     </row>
     <row r="578" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A578" s="5">
-        <v>1000000024</v>
+        <v>1000000576</v>
       </c>
       <c r="B578" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>arjunaarisisara612@man.com</v>
+        <v>arjunaarisisara600@man.com</v>
       </c>
       <c r="C578" s="89" t="s">
         <v>271</v>
@@ -20092,11 +20092,11 @@
     </row>
     <row r="579" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
-        <v>1000000024</v>
+        <v>1000000577</v>
       </c>
       <c r="B579" s="5" t="str">
         <f t="shared" ref="B579:B642" ca="1" si="9">SUBSTITUTE(LOWER(C579&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>ayunisamahbengi228@man.com</v>
+        <v>ayunisamahbengi894@man.com</v>
       </c>
       <c r="C579" s="94" t="s">
         <v>269</v>
@@ -20122,11 +20122,11 @@
     </row>
     <row r="580" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A580" s="5">
-        <v>1000000024</v>
+        <v>1000000578</v>
       </c>
       <c r="B580" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>bayupitraarlo440@man.com</v>
+        <v>bayupitraarlo563@man.com</v>
       </c>
       <c r="C580" s="94" t="s">
         <v>272</v>
@@ -20152,11 +20152,11 @@
     </row>
     <row r="581" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
-        <v>1000000024</v>
+        <v>1000000579</v>
       </c>
       <c r="B581" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>budicandra28@man.com</v>
+        <v>budicandra649@man.com</v>
       </c>
       <c r="C581" s="91" t="s">
         <v>273</v>
@@ -20182,11 +20182,11 @@
     </row>
     <row r="582" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A582" s="5">
-        <v>1000000024</v>
+        <v>1000000580</v>
       </c>
       <c r="B582" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dechitaismadiyani514@man.com</v>
+        <v>dechitaismadiyani377@man.com</v>
       </c>
       <c r="C582" s="89" t="s">
         <v>654</v>
@@ -20212,11 +20212,11 @@
     </row>
     <row r="583" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
-        <v>1000000024</v>
+        <v>1000000581</v>
       </c>
       <c r="B583" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>desimahara653@man.com</v>
+        <v>desimahara31@man.com</v>
       </c>
       <c r="C583" s="92" t="s">
         <v>274</v>
@@ -20242,11 +20242,11 @@
     </row>
     <row r="584" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A584" s="5">
-        <v>1000000024</v>
+        <v>1000000582</v>
       </c>
       <c r="B584" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>devianggraini504@man.com</v>
+        <v>devianggraini189@man.com</v>
       </c>
       <c r="C584" s="89" t="s">
         <v>275</v>
@@ -20272,11 +20272,11 @@
     </row>
     <row r="585" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
-        <v>1000000024</v>
+        <v>1000000583</v>
       </c>
       <c r="B585" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>farisarahmadani608@man.com</v>
+        <v>farisarahmadani959@man.com</v>
       </c>
       <c r="C585" s="95" t="s">
         <v>276</v>
@@ -20302,11 +20302,11 @@
     </row>
     <row r="586" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
-        <v>1000000024</v>
+        <v>1000000584</v>
       </c>
       <c r="B586" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hairidami133@man.com</v>
+        <v>hairidami975@man.com</v>
       </c>
       <c r="C586" s="89" t="s">
         <v>277</v>
@@ -20332,11 +20332,11 @@
     </row>
     <row r="587" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
-        <v>1000000024</v>
+        <v>1000000585</v>
       </c>
       <c r="B587" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hajilmasturi162@man.com</v>
+        <v>hajilmasturi782@man.com</v>
       </c>
       <c r="C587" s="95" t="s">
         <v>278</v>
@@ -20362,11 +20362,11 @@
     </row>
     <row r="588" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
-        <v>1000000024</v>
+        <v>1000000586</v>
       </c>
       <c r="B588" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>husnulnisa701@man.com</v>
+        <v>husnulnisa440@man.com</v>
       </c>
       <c r="C588" s="91" t="s">
         <v>279</v>
@@ -20392,11 +20392,11 @@
     </row>
     <row r="589" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
-        <v>1000000024</v>
+        <v>1000000587</v>
       </c>
       <c r="B589" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>isnaini653@man.com</v>
+        <v>isnaini474@man.com</v>
       </c>
       <c r="C589" s="91" t="s">
         <v>280</v>
@@ -20422,11 +20422,11 @@
     </row>
     <row r="590" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
-        <v>1000000024</v>
+        <v>1000000588</v>
       </c>
       <c r="B590" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>jahrasalsabila472@man.com</v>
+        <v>jahrasalsabila913@man.com</v>
       </c>
       <c r="C590" s="95" t="s">
         <v>281</v>
@@ -20452,11 +20452,11 @@
     </row>
     <row r="591" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
-        <v>1000000024</v>
+        <v>1000000589</v>
       </c>
       <c r="B591" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>julianafitri397@man.com</v>
+        <v>julianafitri652@man.com</v>
       </c>
       <c r="C591" s="89" t="s">
         <v>282</v>
@@ -20482,11 +20482,11 @@
     </row>
     <row r="592" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A592" s="5">
-        <v>1000000024</v>
+        <v>1000000590</v>
       </c>
       <c r="B592" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kaifarizki630@man.com</v>
+        <v>kaifarizki145@man.com</v>
       </c>
       <c r="C592" s="91" t="s">
         <v>283</v>
@@ -20512,11 +20512,11 @@
     </row>
     <row r="593" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
-        <v>1000000024</v>
+        <v>1000000591</v>
       </c>
       <c r="B593" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>maisarahsimehate500@man.com</v>
+        <v>maisarahsimehate23@man.com</v>
       </c>
       <c r="C593" s="89" t="s">
         <v>284</v>
@@ -20542,11 +20542,11 @@
     </row>
     <row r="594" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A594" s="5">
-        <v>1000000024</v>
+        <v>1000000592</v>
       </c>
       <c r="B594" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mariah210@man.com</v>
+        <v>mariah311@man.com</v>
       </c>
       <c r="C594" s="89" t="s">
         <v>655</v>
@@ -20572,11 +20572,11 @@
     </row>
     <row r="595" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
-        <v>1000000024</v>
+        <v>1000000593</v>
       </c>
       <c r="B595" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fahrizalkr417@man.com</v>
+        <v>mhd.fahrizalkr757@man.com</v>
       </c>
       <c r="C595" s="88" t="s">
         <v>285</v>
@@ -20602,11 +20602,11 @@
     </row>
     <row r="596" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A596" s="5">
-        <v>1000000024</v>
+        <v>1000000594</v>
       </c>
       <c r="B596" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mulyanaks440@man.com</v>
+        <v>mulyanaks867@man.com</v>
       </c>
       <c r="C596" s="96" t="s">
         <v>286</v>
@@ -20632,11 +20632,11 @@
     </row>
     <row r="597" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
-        <v>1000000024</v>
+        <v>1000000595</v>
       </c>
       <c r="B597" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nabilatrisinteni573@man.com</v>
+        <v>nabilatrisinteni400@man.com</v>
       </c>
       <c r="C597" s="91" t="s">
         <v>287</v>
@@ -20662,11 +20662,11 @@
     </row>
     <row r="598" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
-        <v>1000000024</v>
+        <v>1000000596</v>
       </c>
       <c r="B598" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nafhahsyasyasajidah506@man.com</v>
+        <v>nafhahsyasyasajidah517@man.com</v>
       </c>
       <c r="C598" s="97" t="s">
         <v>288</v>
@@ -20692,11 +20692,11 @@
     </row>
     <row r="599" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
-        <v>1000000024</v>
+        <v>1000000597</v>
       </c>
       <c r="B599" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nauvalariskaputra655@man.com</v>
+        <v>nauvalariskaputra36@man.com</v>
       </c>
       <c r="C599" s="89" t="s">
         <v>289</v>
@@ -20722,11 +20722,11 @@
     </row>
     <row r="600" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A600" s="5">
-        <v>1000000024</v>
+        <v>1000000598</v>
       </c>
       <c r="B600" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nazaruddin63@man.com</v>
+        <v>nazaruddin994@man.com</v>
       </c>
       <c r="C600" s="98" t="s">
         <v>290</v>
@@ -20752,11 +20752,11 @@
     </row>
     <row r="601" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A601" s="5">
-        <v>1000000024</v>
+        <v>1000000599</v>
       </c>
       <c r="B601" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>niaradeswita789@man.com</v>
+        <v>niaradeswita324@man.com</v>
       </c>
       <c r="C601" s="98" t="s">
         <v>291</v>
@@ -20782,11 +20782,11 @@
     </row>
     <row r="602" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A602" s="5">
-        <v>1000000024</v>
+        <v>1000000600</v>
       </c>
       <c r="B602" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nilawati544@man.com</v>
+        <v>nilawati218@man.com</v>
       </c>
       <c r="C602" s="95" t="s">
         <v>292</v>
@@ -20812,11 +20812,11 @@
     </row>
     <row r="603" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A603" s="5">
-        <v>1000000024</v>
+        <v>1000000601</v>
       </c>
       <c r="B603" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nurwahda505@man.com</v>
+        <v>nurwahda679@man.com</v>
       </c>
       <c r="C603" s="87" t="s">
         <v>293</v>
@@ -20842,11 +20842,11 @@
     </row>
     <row r="604" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A604" s="5">
-        <v>1000000024</v>
+        <v>1000000602</v>
       </c>
       <c r="B604" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>oktaputri311@man.com</v>
+        <v>oktaputri287@man.com</v>
       </c>
       <c r="C604" s="99" t="s">
         <v>294</v>
@@ -20872,11 +20872,11 @@
     </row>
     <row r="605" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A605" s="5">
-        <v>1000000024</v>
+        <v>1000000603</v>
       </c>
       <c r="B605" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rauzatulzannah865@man.com</v>
+        <v>rauzatulzannah713@man.com</v>
       </c>
       <c r="C605" s="91" t="s">
         <v>47</v>
@@ -20902,11 +20902,11 @@
     </row>
     <row r="606" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A606" s="5">
-        <v>1000000024</v>
+        <v>1000000604</v>
       </c>
       <c r="B606" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>reynaldi372@man.com</v>
+        <v>reynaldi163@man.com</v>
       </c>
       <c r="C606" s="89" t="s">
         <v>295</v>
@@ -20932,11 +20932,11 @@
     </row>
     <row r="607" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
-        <v>1000000024</v>
+        <v>1000000605</v>
       </c>
       <c r="B607" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ridhoalsadr174@man.com</v>
+        <v>ridhoalsadr814@man.com</v>
       </c>
       <c r="C607" s="100" t="s">
         <v>333</v>
@@ -20962,11 +20962,11 @@
     </row>
     <row r="608" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
-        <v>1000000024</v>
+        <v>1000000606</v>
       </c>
       <c r="B608" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>riskinaputri305@man.com</v>
+        <v>riskinaputri879@man.com</v>
       </c>
       <c r="C608" s="92" t="s">
         <v>296</v>
@@ -20992,11 +20992,11 @@
     </row>
     <row r="609" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
-        <v>1000000024</v>
+        <v>1000000607</v>
       </c>
       <c r="B609" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sabri22@man.com</v>
+        <v>sabri285@man.com</v>
       </c>
       <c r="C609" s="95" t="s">
         <v>297</v>
@@ -21022,11 +21022,11 @@
     </row>
     <row r="610" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A610" s="5">
-        <v>1000000024</v>
+        <v>1000000608</v>
       </c>
       <c r="B610" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>salwani211@man.com</v>
+        <v>salwani111@man.com</v>
       </c>
       <c r="C610" s="92" t="s">
         <v>298</v>
@@ -21052,11 +21052,11 @@
     </row>
     <row r="611" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
-        <v>1000000024</v>
+        <v>1000000609</v>
       </c>
       <c r="B611" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sandipujaga568@man.com</v>
+        <v>sandipujaga859@man.com</v>
       </c>
       <c r="C611" s="95" t="s">
         <v>299</v>
@@ -21082,11 +21082,11 @@
     </row>
     <row r="612" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A612" s="5">
-        <v>1000000024</v>
+        <v>1000000610</v>
       </c>
       <c r="B612" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sarianjani491@man.com</v>
+        <v>sarianjani36@man.com</v>
       </c>
       <c r="C612" s="98" t="s">
         <v>300</v>
@@ -21112,11 +21112,11 @@
     </row>
     <row r="613" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A613" s="5">
-        <v>1000000024</v>
+        <v>1000000611</v>
       </c>
       <c r="B613" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>t.raflyyadyansyah264@man.com</v>
+        <v>t.raflyyadyansyah730@man.com</v>
       </c>
       <c r="C613" s="87" t="s">
         <v>301</v>
@@ -21142,11 +21142,11 @@
     </row>
     <row r="614" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A614" s="5">
-        <v>1000000024</v>
+        <v>1000000612</v>
       </c>
       <c r="B614" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>zikriwanpinte839@man.com</v>
+        <v>zikriwanpinte12@man.com</v>
       </c>
       <c r="C614" s="96" t="s">
         <v>302</v>
@@ -21172,11 +21172,11 @@
     </row>
     <row r="615" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A615" s="5">
-        <v>1000000024</v>
+        <v>1000000613</v>
       </c>
       <c r="B615" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afikahsahira373@man.com</v>
+        <v>afikahsahira23@man.com</v>
       </c>
       <c r="C615" s="105" t="s">
         <v>303</v>
@@ -21202,11 +21202,11 @@
     </row>
     <row r="616" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A616" s="5">
-        <v>1000000024</v>
+        <v>1000000614</v>
       </c>
       <c r="B616" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afriansyah608@man.com</v>
+        <v>afriansyah421@man.com</v>
       </c>
       <c r="C616" s="108" t="s">
         <v>304</v>
@@ -21232,11 +21232,11 @@
     </row>
     <row r="617" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A617" s="5">
-        <v>1000000024</v>
+        <v>1000000615</v>
       </c>
       <c r="B617" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahmadnandakuara598@man.com</v>
+        <v>ahmadnandakuara306@man.com</v>
       </c>
       <c r="C617" s="107" t="s">
         <v>305</v>
@@ -21262,11 +21262,11 @@
     </row>
     <row r="618" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A618" s="5">
-        <v>1000000024</v>
+        <v>1000000616</v>
       </c>
       <c r="B618" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyamaulana464@man.com</v>
+        <v>ahyamaulana592@man.com</v>
       </c>
       <c r="C618" s="105" t="s">
         <v>306</v>
@@ -21292,11 +21292,11 @@
     </row>
     <row r="619" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
-        <v>1000000024</v>
+        <v>1000000617</v>
       </c>
       <c r="B619" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyaradha250@man.com</v>
+        <v>ahyaradha194@man.com</v>
       </c>
       <c r="C619" s="105" t="s">
         <v>307</v>
@@ -21322,11 +21322,11 @@
     </row>
     <row r="620" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A620" s="5">
-        <v>1000000024</v>
+        <v>1000000618</v>
       </c>
       <c r="B620" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>alwansyah413@man.com</v>
+        <v>alwansyah649@man.com</v>
       </c>
       <c r="C620" s="104" t="s">
         <v>308</v>
@@ -21352,11 +21352,11 @@
     </row>
     <row r="621" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
-        <v>1000000024</v>
+        <v>1000000619</v>
       </c>
       <c r="B621" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>apindaulfa57@man.com</v>
+        <v>apindaulfa124@man.com</v>
       </c>
       <c r="C621" s="101" t="s">
         <v>310</v>
@@ -21382,11 +21382,11 @@
     </row>
     <row r="622" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A622" s="5">
-        <v>1000000024</v>
+        <v>1000000620</v>
       </c>
       <c r="B622" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>azikiatun45@man.com</v>
+        <v>azikiatun280@man.com</v>
       </c>
       <c r="C622" s="105" t="s">
         <v>311</v>
@@ -21412,11 +21412,11 @@
     </row>
     <row r="623" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
-        <v>1000000024</v>
+        <v>1000000621</v>
       </c>
       <c r="B623" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cutintannuraini876@man.com</v>
+        <v>cutintannuraini381@man.com</v>
       </c>
       <c r="C623" s="101" t="s">
         <v>312</v>
@@ -21442,11 +21442,11 @@
     </row>
     <row r="624" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
-        <v>1000000024</v>
+        <v>1000000622</v>
       </c>
       <c r="B624" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dainifitri385@man.com</v>
+        <v>dainifitri113@man.com</v>
       </c>
       <c r="C624" s="106" t="s">
         <v>313</v>
@@ -21472,11 +21472,11 @@
     </row>
     <row r="625" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
-        <v>1000000024</v>
+        <v>1000000623</v>
       </c>
       <c r="B625" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>faridiwahdi784@man.com</v>
+        <v>faridiwahdi811@man.com</v>
       </c>
       <c r="C625" s="101" t="s">
         <v>314</v>
@@ -21502,11 +21502,11 @@
     </row>
     <row r="626" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A626" s="5">
-        <v>1000000024</v>
+        <v>1000000624</v>
       </c>
       <c r="B626" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ferimardiaqimi474@man.com</v>
+        <v>ferimardiaqimi984@man.com</v>
       </c>
       <c r="C626" s="105" t="s">
         <v>315</v>
@@ -21532,11 +21532,11 @@
     </row>
     <row r="627" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A627" s="5">
-        <v>1000000024</v>
+        <v>1000000625</v>
       </c>
       <c r="B627" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>frihasupiantirini771@man.com</v>
+        <v>frihasupiantirini642@man.com</v>
       </c>
       <c r="C627" s="101" t="s">
         <v>316</v>
@@ -21562,11 +21562,11 @@
     </row>
     <row r="628" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A628" s="5">
-        <v>1000000024</v>
+        <v>1000000626</v>
       </c>
       <c r="B628" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>furqan462@man.com</v>
+        <v>furqan941@man.com</v>
       </c>
       <c r="C628" s="101" t="s">
         <v>317</v>
@@ -21592,11 +21592,11 @@
     </row>
     <row r="629" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A629" s="5">
-        <v>1000000024</v>
+        <v>1000000627</v>
       </c>
       <c r="B629" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hariansyah394@man.com</v>
+        <v>hariansyah830@man.com</v>
       </c>
       <c r="C629" s="101" t="s">
         <v>318</v>
@@ -21622,11 +21622,11 @@
     </row>
     <row r="630" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A630" s="5">
-        <v>1000000024</v>
+        <v>1000000628</v>
       </c>
       <c r="B630" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ilhamfahmi28@man.com</v>
+        <v>ilhamfahmi680@man.com</v>
       </c>
       <c r="C630" s="104" t="s">
         <v>319</v>
@@ -21652,11 +21652,11 @@
     </row>
     <row r="631" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
-        <v>1000000024</v>
+        <v>1000000629</v>
       </c>
       <c r="B631" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>itawarni416@man.com</v>
+        <v>itawarni402@man.com</v>
       </c>
       <c r="C631" s="101" t="s">
         <v>320</v>
@@ -21682,11 +21682,11 @@
     </row>
     <row r="632" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A632" s="5">
-        <v>1000000024</v>
+        <v>1000000630</v>
       </c>
       <c r="B632" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>iwanramadhan307@man.com</v>
+        <v>iwanramadhan929@man.com</v>
       </c>
       <c r="C632" s="105" t="s">
         <v>321</v>
@@ -21712,11 +21712,11 @@
     </row>
     <row r="633" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
-        <v>1000000024</v>
+        <v>1000000631</v>
       </c>
       <c r="B633" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kemalaintan961@man.com</v>
+        <v>kemalaintan597@man.com</v>
       </c>
       <c r="C633" s="107" t="s">
         <v>322</v>
@@ -21742,11 +21742,11 @@
     </row>
     <row r="634" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A634" s="5">
-        <v>1000000024</v>
+        <v>1000000632</v>
       </c>
       <c r="B634" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>khairuladha687@man.com</v>
+        <v>khairuladha33@man.com</v>
       </c>
       <c r="C634" s="101" t="s">
         <v>323</v>
@@ -21772,11 +21772,11 @@
     </row>
     <row r="635" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
-        <v>1000000024</v>
+        <v>1000000633</v>
       </c>
       <c r="B635" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>lindakarma325@man.com</v>
+        <v>lindakarma827@man.com</v>
       </c>
       <c r="C635" s="101" t="s">
         <v>324</v>
@@ -21802,11 +21802,11 @@
     </row>
     <row r="636" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A636" s="5">
-        <v>1000000024</v>
+        <v>1000000634</v>
       </c>
       <c r="B636" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fadhli270@man.com</v>
+        <v>mhd.fadhli444@man.com</v>
       </c>
       <c r="C636" s="102" t="s">
         <v>325</v>
@@ -21832,11 +21832,11 @@
     </row>
     <row r="637" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
-        <v>1000000024</v>
+        <v>1000000635</v>
       </c>
       <c r="B637" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>milwanaprilian409@man.com</v>
+        <v>milwanaprilian820@man.com</v>
       </c>
       <c r="C637" s="105" t="s">
         <v>326</v>
@@ -21862,11 +21862,11 @@
     </row>
     <row r="638" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A638" s="5">
-        <v>1000000024</v>
+        <v>1000000636</v>
       </c>
       <c r="B638" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mississaprida505@man.com</v>
+        <v>mississaprida23@man.com</v>
       </c>
       <c r="C638" s="101" t="s">
         <v>327</v>
@@ -21892,11 +21892,11 @@
     </row>
     <row r="639" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A639" s="5">
-        <v>1000000024</v>
+        <v>1000000637</v>
       </c>
       <c r="B639" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mushab104@man.com</v>
+        <v>mushab446@man.com</v>
       </c>
       <c r="C639" s="101" t="s">
         <v>328</v>
@@ -21922,11 +21922,11 @@
     </row>
     <row r="640" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A640" s="5">
-        <v>1000000024</v>
+        <v>1000000638</v>
       </c>
       <c r="B640" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nuraini346@man.com</v>
+        <v>nuraini685@man.com</v>
       </c>
       <c r="C640" s="105" t="s">
         <v>329</v>
@@ -21952,11 +21952,11 @@
     </row>
     <row r="641" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
-        <v>1000000024</v>
+        <v>1000000639</v>
       </c>
       <c r="B641" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatteniro809@man.com</v>
+        <v>rahmatteniro305@man.com</v>
       </c>
       <c r="C641" s="101" t="s">
         <v>330</v>
@@ -21982,11 +21982,11 @@
     </row>
     <row r="642" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
-        <v>1000000024</v>
+        <v>1000000640</v>
       </c>
       <c r="B642" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatsyah181@man.com</v>
+        <v>rahmatsyah847@man.com</v>
       </c>
       <c r="C642" s="105" t="s">
         <v>331</v>
@@ -22012,11 +22012,11 @@
     </row>
     <row r="643" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
-        <v>1000000024</v>
+        <v>1000000641</v>
       </c>
       <c r="B643" s="5" t="str">
         <f t="shared" ref="B643:B648" ca="1" si="10">SUBSTITUTE(LOWER(C643&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>rendi684@man.com</v>
+        <v>rendi323@man.com</v>
       </c>
       <c r="C643" s="101" t="s">
         <v>332</v>
@@ -22042,11 +22042,11 @@
     </row>
     <row r="644" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
-        <v>1000000024</v>
+        <v>1000000642</v>
       </c>
       <c r="B644" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>sahrial513@man.com</v>
+        <v>sahrial699@man.com</v>
       </c>
       <c r="C644" s="101" t="s">
         <v>334</v>
@@ -22072,11 +22072,11 @@
     </row>
     <row r="645" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A645" s="5">
-        <v>1000000024</v>
+        <v>1000000643</v>
       </c>
       <c r="B645" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>salwanditebe981@man.com</v>
+        <v>salwanditebe990@man.com</v>
       </c>
       <c r="C645" s="105" t="s">
         <v>335</v>
@@ -22102,11 +22102,11 @@
     </row>
     <row r="646" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A646" s="5">
-        <v>1000000024</v>
+        <v>1000000644</v>
       </c>
       <c r="B646" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>selfiyuliana962@man.com</v>
+        <v>selfiyuliana591@man.com</v>
       </c>
       <c r="C646" s="102" t="s">
         <v>336</v>
@@ -22132,11 +22132,11 @@
     </row>
     <row r="647" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
-        <v>1000000024</v>
+        <v>1000000645</v>
       </c>
       <c r="B647" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>supianda838@man.com</v>
+        <v>supianda388@man.com</v>
       </c>
       <c r="C647" s="105" t="s">
         <v>337</v>
@@ -22162,11 +22162,11 @@
     </row>
     <row r="648" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A648" s="5">
-        <v>1000000024</v>
+        <v>1000000646</v>
       </c>
       <c r="B648" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>yassar67@man.com</v>
+        <v>yassar281@man.com</v>
       </c>
       <c r="C648" s="101" t="s">
         <v>338</v>

--- a/inputXls/Students.xlsx
+++ b/inputXls/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912EDCE-EC8D-4FC4-995F-ED248798E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BBD41-E71A-4EC7-8009-22638E3B2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
   </bookViews>
@@ -2741,7 +2741,7 @@
   <dimension ref="A1:I648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f ca="1">SUBSTITUTE(LOWER(C2&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>abyanmahsanmuhan6@man.com</v>
+        <v>abyanmahsanmuhan828@man.com</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>341</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">SUBSTITUTE(LOWER(C3&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adehayati807@man.com</v>
+        <v>adehayati351@man.com</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ahmadqaismughits694@man.com</v>
+        <v>ahmadqaismughits799@man.com</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>342</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>aidilhadi232@man.com</v>
+        <v>aidilhadi757@man.com</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>chainaramadana991@man.com</v>
+        <v>chainaramadana490@man.com</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dimasoktavian783@man.com</v>
+        <v>dimasoktavian90@man.com</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>14</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>duhaindrawansyah341@man.com</v>
+        <v>duhaindrawansyah412@man.com</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>erwinmaulana221@man.com</v>
+        <v>erwinmaulana43@man.com</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>16</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fauzanalkhairi58@man.com</v>
+        <v>fauzanalkhairi915@man.com</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fihadianfitra31@man.com</v>
+        <v>fihadianfitra774@man.com</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futriyasmini91@man.com</v>
+        <v>futriyasmini657@man.com</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>19</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ikhsanzikri107@man.com</v>
+        <v>ikhsanzikri937@man.com</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>20</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iqbalaimulhusni943@man.com</v>
+        <v>iqbalaimulhusni827@man.com</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>maulandara421@man.com</v>
+        <v>maulandara456@man.com</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>22</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>miftahulrifkimy228@man.com</v>
+        <v>miftahulrifkimy134@man.com</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>muhammadraoshah944@man.com</v>
+        <v>muhammadraoshah570@man.com</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>24</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilabibesmi476@man.com</v>
+        <v>nabilabibesmi287@man.com</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>26</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalfadhil844@man.com</v>
+        <v>naufalfadhil237@man.com</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>27</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>niantahafidza873@man.com</v>
+        <v>niantahafidza385@man.com</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>28</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>relifwantona624@man.com</v>
+        <v>relifwantona835@man.com</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>29</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rendifebriandi43@man.com</v>
+        <v>rendifebriandi800@man.com</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rezkimahara201@man.com</v>
+        <v>rezkimahara688@man.com</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>31</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>shirathalfadhla793@man.com</v>
+        <v>shirathalfadhla451@man.com</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sismacantikaputri541@man.com</v>
+        <v>sismacantikaputri360@man.com</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>32</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>wenihafizah937@man.com</v>
+        <v>wenihafizah944@man.com</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>33</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>arikasimehate631@man.com</v>
+        <v>arikasimehate356@man.com</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>62</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ariyanaamelia162@man.com</v>
+        <v>ariyanaamelia454@man.com</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>34</v>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ashfiyanisa5@man.com</v>
+        <v>ashfiyanisa514@man.com</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>343</v>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>asnimulyani283@man.com</v>
+        <v>asnimulyani16@man.com</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>35</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bakri900@man.com</v>
+        <v>bakri11@man.com</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>36</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bilhaqqi106@man.com</v>
+        <v>bilhaqqi140@man.com</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>37</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dalilakhairy581@man.com</v>
+        <v>dalilakhairy552@man.com</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>59</v>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fatmawati707@man.com</v>
+        <v>fatmawati928@man.com</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>38</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>firzairinululazmi442@man.com</v>
+        <v>firzairinululazmi876@man.com</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>39</v>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futrimaharani242@man.com</v>
+        <v>futrimaharani297@man.com</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>40</v>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gilanggemilang401@man.com</v>
+        <v>gilanggemilang91@man.com</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>41</v>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>helsiherlinda419@man.com</v>
+        <v>helsiherlinda756@man.com</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>42</v>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iftinansyifa782@man.com</v>
+        <v>iftinansyifa816@man.com</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>344</v>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kamisaaidafutri723@man.com</v>
+        <v>kamisaaidafutri306@man.com</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>345</v>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mdzakihabibi165@man.com</v>
+        <v>mdzakihabibi661@man.com</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>346</v>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>malanoviafitri819@man.com</v>
+        <v>malanoviafitri306@man.com</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>43</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mhdhaikal12@man.com</v>
+        <v>mhdhaikal363@man.com</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>347</v>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilayanti504@man.com</v>
+        <v>nabilayanti352@man.com</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>44</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalhibatullah602@man.com</v>
+        <v>naufalhibatullah824@man.com</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>45</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalzahran882@man.com</v>
+        <v>naufalzahran301@man.com</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>60</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>qhandiraalsagufrana130@man.com</v>
+        <v>qhandiraalsagufrana539@man.com</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>46</v>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rauzatulzannah58@man.com</v>
+        <v>rauzatulzannah67@man.com</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>47</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>residianoktesya496@man.com</v>
+        <v>residianoktesya24@man.com</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>48</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rifarahman596@man.com</v>
+        <v>rifarahman265@man.com</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>50</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rinidianti231@man.com</v>
+        <v>rinidianti538@man.com</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>51</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>riyanda598@man.com</v>
+        <v>riyanda870@man.com</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>49</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rozaameliasahraini815@man.com</v>
+        <v>rozaameliasahraini613@man.com</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>52</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sinthiaatikah697@man.com</v>
+        <v>sinthiaatikah294@man.com</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>53</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>syafauqbaharrafi853@man.com</v>
+        <v>syafauqbaharrafi746@man.com</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>61</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>taufikhidayat575@man.com</v>
+        <v>taufikhidayat555@man.com</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>54</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ulfafitria155@man.com</v>
+        <v>ulfafitria295@man.com</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>55</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>uswatunnazwa843@man.com</v>
+        <v>uswatunnazwa158@man.com</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>56</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yuliarnia583@man.com</v>
+        <v>yuliarnia134@man.com</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>57</v>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yunidarsam935@man.com</v>
+        <v>yunidarsam409@man.com</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>348</v>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>zahrinaizzatis687@man.com</v>
+        <v>zahrinaizzatis983@man.com</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>58</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fahmiamdizulu131@man.com</v>
+        <v>fahmiamdizulu989@man.com</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>349</v>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>alpandi408@man.com</v>
+        <v>alpandi651@man.com</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>63</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>auradina633@man.com</v>
+        <v>auradina506@man.com</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>64</v>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bungelusiana502@man.com</v>
+        <v>bungelusiana692@man.com</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>65</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fitraariga310@man.com</v>
+        <v>fitraariga411@man.com</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>89</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B67" s="5" t="str">
         <f t="shared" ref="B67:B130" ca="1" si="1">SUBSTITUTE(LOWER(C67&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>futrisalsabila213@man.com</v>
+        <v>futrisalsabila852@man.com</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>66</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>hamdan148@man.com</v>
+        <v>hamdan150@man.com</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>67</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>intannurhayati225@man.com</v>
+        <v>intannurhayati49@man.com</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>90</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jaharamurni259@man.com</v>
+        <v>jaharamurni1@man.com</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>350</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jurfanajwa518@man.com</v>
+        <v>jurfanajwa567@man.com</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>68</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>juspikaaradi425@man.com</v>
+        <v>juspikaaradi305@man.com</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>87</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>khairifikri265@man.com</v>
+        <v>khairifikri616@man.com</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>69</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lizanovriana221@man.com</v>
+        <v>lizanovriana817@man.com</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>70</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mauzaismiadi44@man.com</v>
+        <v>mauzaismiadi85@man.com</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>71</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melayunita961@man.com</v>
+        <v>melayunita401@man.com</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>72</v>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mutiararamadhani906@man.com</v>
+        <v>mutiararamadhani566@man.com</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>73</v>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nadia998@man.com</v>
+        <v>nadia464@man.com</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>74</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>naufalwaliyulhaq376@man.com</v>
+        <v>naufalwaliyulhaq998@man.com</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>75</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>novadiliza712@man.com</v>
+        <v>novadiliza406@man.com</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>88</v>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rendyafitrawan769@man.com</v>
+        <v>rendyafitrawan937@man.com</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>351</v>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhajunita439@man.com</v>
+        <v>ridhajunita21@man.com</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>76</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifdafriatin422@man.com</v>
+        <v>rifdafriatin421@man.com</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>77</v>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahmanhakim367@man.com</v>
+        <v>rifkirahmanhakim270@man.com</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>78</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkaanindra999@man.com</v>
+        <v>rizkaanindra748@man.com</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>79</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkisyafitri281@man.com</v>
+        <v>rizkisyafitri410@man.com</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>80</v>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sahraniputri976@man.com</v>
+        <v>sahraniputri740@man.com</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>81</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selviaafriani482@man.com</v>
+        <v>selviaafriani834@man.com</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>82</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sofiaramadhani11@man.com</v>
+        <v>sofiaramadhani549@man.com</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>352</v>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastriulandari438@man.com</v>
+        <v>sulastriulandari270@man.com</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>83</v>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>winteguhiwanrantoni976@man.com</v>
+        <v>winteguhiwanrantoni153@man.com</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>91</v>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>yogasetiawanadha282@man.com</v>
+        <v>yogasetiawanadha480@man.com</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>353</v>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zaharadwearianti963@man.com</v>
+        <v>zaharadwearianti930@man.com</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>84</v>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zahraniizzatis644@man.com</v>
+        <v>zahraniizzatis240@man.com</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>85</v>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zilfanakhairunnisa641@man.com</v>
+        <v>zilfanakhairunnisa551@man.com</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>86</v>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>endangstaurina112@man.com</v>
+        <v>endangstaurina617@man.com</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>354</v>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>anandaramadhan479@man.com</v>
+        <v>anandaramadhan543@man.com</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>355</v>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="B98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>adekarina151@man.com</v>
+        <v>adekarina640@man.com</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>356</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ainulyakin387@man.com</v>
+        <v>ainulyakin171@man.com</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>357</v>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="B100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>aldofandika839@man.com</v>
+        <v>aldofandika516@man.com</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>358</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B101" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>alhadimy327@man.com</v>
+        <v>alhadimy513@man.com</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>359</v>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B102" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>amanda389@man.com</v>
+        <v>amanda321@man.com</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>360</v>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B103" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>armadainipionafitri18@man.com</v>
+        <v>armadainipionafitri424@man.com</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>361</v>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="B104" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>deniyusnita57@man.com</v>
+        <v>deniyusnita752@man.com</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>362</v>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B105" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>dinahayati74@man.com</v>
+        <v>dinahayati416@man.com</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>363</v>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B106" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>faziravalameysa871@man.com</v>
+        <v>faziravalameysa743@man.com</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>364</v>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B107" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gayatrihajamunte213@man.com</v>
+        <v>gayatrihajamunte646@man.com</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>365</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B108" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mabralsetiawan751@man.com</v>
+        <v>mabralsetiawan253@man.com</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>366</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B109" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melina664@man.com</v>
+        <v>melina817@man.com</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>367</v>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B110" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>muhammadalfarisim756@man.com</v>
+        <v>muhammadalfarisim505@man.com</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>368</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B111" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nazwa589@man.com</v>
+        <v>nazwa39@man.com</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>369</v>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B112" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nopiytasentiya889@man.com</v>
+        <v>nopiytasentiya125@man.com</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>370</v>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B113" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rahmadaini549@man.com</v>
+        <v>rahmadaini116@man.com</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>371</v>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B114" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhawantuahmiko265@man.com</v>
+        <v>ridhawantuahmiko826@man.com</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>372</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B115" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhoramadhan563@man.com</v>
+        <v>ridhoramadhan435@man.com</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>373</v>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B116" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahman558@man.com</v>
+        <v>rifkirahman554@man.com</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>374</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B117" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkankhalis361@man.com</v>
+        <v>rizkankhalis847@man.com</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>375</v>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="B118" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkymaulana435@man.com</v>
+        <v>rizkymaulana483@man.com</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>376</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B119" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>saharamulyadi357@man.com</v>
+        <v>saharamulyadi912@man.com</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>377</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B120" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sarahafriani745@man.com</v>
+        <v>sarahafriani795@man.com</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>378</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B121" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sawma551@man.com</v>
+        <v>sawma608@man.com</v>
       </c>
       <c r="C121" s="27" t="s">
         <v>379</v>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B122" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sayumahara344@man.com</v>
+        <v>sayumahara985@man.com</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>380</v>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B123" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selpinasintiaputri747@man.com</v>
+        <v>selpinasintiaputri30@man.com</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>381</v>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B124" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>semayang971@man.com</v>
+        <v>semayang9@man.com</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>382</v>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B125" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sintapratama508@man.com</v>
+        <v>sintapratama328@man.com</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>383</v>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B126" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastri609@man.com</v>
+        <v>sulastri367@man.com</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>384</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B127" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sultan38@man.com</v>
+        <v>sultan913@man.com</v>
       </c>
       <c r="C127" s="25" t="s">
         <v>385</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="B128" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>taufiqhidayat619@man.com</v>
+        <v>taufiqhidayat152@man.com</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>386</v>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B129" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tirazahraassyifa90@man.com</v>
+        <v>tirazahraassyifa130@man.com</v>
       </c>
       <c r="C129" s="27" t="s">
         <v>387</v>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B130" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tomirizkilaoce427@man.com</v>
+        <v>tomirizkilaoce370@man.com</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>388</v>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B131" s="5" t="str">
         <f t="shared" ref="B131:B194" ca="1" si="2">SUBSTITUTE(LOWER(C131&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>vadyaaknaakciella200@man.com</v>
+        <v>vadyaaknaakciella748@man.com</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>389</v>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B132" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vikkihafizulriski579@man.com</v>
+        <v>vikkihafizulriski331@man.com</v>
       </c>
       <c r="C132" s="27" t="s">
         <v>390</v>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B133" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>haikalmahpenona185@man.com</v>
+        <v>haikalmahpenona390@man.com</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>391</v>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B134" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahsilaturahmi155@man.com</v>
+        <v>indahsilaturahmi52@man.com</v>
       </c>
       <c r="C134" s="25" t="s">
         <v>392</v>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B135" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>adityafazri342@man.com</v>
+        <v>adityafazri44@man.com</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>393</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B136" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>akmalhakim414@man.com</v>
+        <v>akmalhakim866@man.com</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>394</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B137" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>amanapernama51@man.com</v>
+        <v>amanapernama266@man.com</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>395</v>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B138" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andiarba528@man.com</v>
+        <v>andiarba159@man.com</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>12</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B139" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andikaranggayo771@man.com</v>
+        <v>andikaranggayo553@man.com</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>396</v>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="B140" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>citraaprisyah858@man.com</v>
+        <v>citraaprisyah18@man.com</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>397</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="B141" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>endangagustiayu991@man.com</v>
+        <v>endangagustiayu896@man.com</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>398</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B142" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhlanridho456@man.com</v>
+        <v>fadhlanridho613@man.com</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>399</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B143" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadilhawari577@man.com</v>
+        <v>fadilhawari318@man.com</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>400</v>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B144" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>gafuriakmal885@man.com</v>
+        <v>gafuriakmal338@man.com</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>401</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B145" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hafidzulqiram557@man.com</v>
+        <v>hafidzulqiram861@man.com</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>402</v>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B146" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>handika683@man.com</v>
+        <v>handika556@man.com</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>403</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B147" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hardiramalianda968@man.com</v>
+        <v>hardiramalianda73@man.com</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>404</v>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B148" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>herisyahputra745@man.com</v>
+        <v>herisyahputra762@man.com</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>405</v>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B149" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>izatunnisa961@man.com</v>
+        <v>izatunnisa787@man.com</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>406</v>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B150" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdikasakula762@man.com</v>
+        <v>mdikasakula111@man.com</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>407</v>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B151" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mahfuza463@man.com</v>
+        <v>mahfuza262@man.com</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>408</v>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B152" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muthahari807@man.com</v>
+        <v>muthahari26@man.com</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>409</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B153" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafis371@man.com</v>
+        <v>nafis275@man.com</v>
       </c>
       <c r="C153" s="33" t="s">
         <v>410</v>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B154" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafisah41@man.com</v>
+        <v>nafisah29@man.com</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>411</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B155" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>naufalzahran957@man.com</v>
+        <v>naufalzahran353@man.com</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>60</v>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B156" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nipanikmah701@man.com</v>
+        <v>nipanikmah867@man.com</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>412</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B157" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sahlandi191@man.com</v>
+        <v>sahlandi625@man.com</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>413</v>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B158" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>santrimauliani730@man.com</v>
+        <v>santrimauliani624@man.com</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>414</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B159" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>serimahara77@man.com</v>
+        <v>serimahara546@man.com</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>415</v>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B160" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>arilbahgia876@man.com</v>
+        <v>arilbahgia751@man.com</v>
       </c>
       <c r="C160" s="36" t="s">
         <v>416</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B161" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>auliadarmawan582@man.com</v>
+        <v>auliadarmawan470@man.com</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>417</v>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="B162" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>chairulihsan121@man.com</v>
+        <v>chairulihsan162@man.com</v>
       </c>
       <c r="C162" s="36" t="s">
         <v>418</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B163" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhilruzika499@man.com</v>
+        <v>fadhilruzika958@man.com</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>419</v>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B164" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fathulhakiki696@man.com</v>
+        <v>fathulhakiki279@man.com</v>
       </c>
       <c r="C164" s="36" t="s">
         <v>420</v>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B165" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahmahbengi199@man.com</v>
+        <v>indahmahbengi956@man.com</v>
       </c>
       <c r="C165" s="36" t="s">
         <v>421</v>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="B166" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iwanmaulana820@man.com</v>
+        <v>iwanmaulana934@man.com</v>
       </c>
       <c r="C166" s="36" t="s">
         <v>422</v>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B167" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iyusdalilla180@man.com</v>
+        <v>iyusdalilla234@man.com</v>
       </c>
       <c r="C167" s="36" t="s">
         <v>423</v>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="B168" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdanieldarmawan598@man.com</v>
+        <v>mdanieldarmawan311@man.com</v>
       </c>
       <c r="C168" s="38" t="s">
         <v>424</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B169" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mpatihadlan344@man.com</v>
+        <v>mpatihadlan702@man.com</v>
       </c>
       <c r="C169" s="36" t="s">
         <v>425</v>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B170" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muhammadfajaral-anis54@man.com</v>
+        <v>muhammadfajaral-anis101@man.com</v>
       </c>
       <c r="C170" s="36" t="s">
         <v>426</v>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B171" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muliana971@man.com</v>
+        <v>muliana691@man.com</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>427</v>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B172" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nisarahmadani340@man.com</v>
+        <v>nisarahmadani362@man.com</v>
       </c>
       <c r="C172" s="36" t="s">
         <v>428</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B173" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noufaldimulia430@man.com</v>
+        <v>noufaldimulia579@man.com</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>429</v>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B174" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>rianrahmadani519@man.com</v>
+        <v>rianrahmadani447@man.com</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>430</v>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B175" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ridhobanyubening421@man.com</v>
+        <v>ridhobanyubening899@man.com</v>
       </c>
       <c r="C175" s="36" t="s">
         <v>431</v>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B176" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>susanpebriola774@man.com</v>
+        <v>susanpebriola862@man.com</v>
       </c>
       <c r="C176" s="36" t="s">
         <v>432</v>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B177" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>syahrulnizam970@man.com</v>
+        <v>syahrulnizam824@man.com</v>
       </c>
       <c r="C177" s="36" t="s">
         <v>433</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B178" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuahmiko371@man.com</v>
+        <v>tuahmiko855@man.com</v>
       </c>
       <c r="C178" s="36" t="s">
         <v>434</v>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B179" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vebinahani542@man.com</v>
+        <v>vebinahani92@man.com</v>
       </c>
       <c r="C179" s="36" t="s">
         <v>435</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B180" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>zikriadha475@man.com</v>
+        <v>zikriadha669@man.com</v>
       </c>
       <c r="C180" s="36" t="s">
         <v>436</v>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="B181" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ahmadmauridsinaga320@man.com</v>
+        <v>ahmadmauridsinaga853@man.com</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>437</v>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B182" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ainunmagfirah571@man.com</v>
+        <v>ainunmagfirah599@man.com</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>438</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="B183" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bahgie597@man.com</v>
+        <v>bahgie300@man.com</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>439</v>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="B184" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fakrimahtuahmiko886@man.com</v>
+        <v>fakrimahtuahmiko120@man.com</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>440</v>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="B185" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fitrymulyani743@man.com</v>
+        <v>fitrymulyani859@man.com</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>441</v>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B186" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hairuddahri959@man.com</v>
+        <v>hairuddahri976@man.com</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>442</v>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B187" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iqram462@man.com</v>
+        <v>iqram974@man.com</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>443</v>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="B188" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>kadriansyah464@man.com</v>
+        <v>kadriansyah611@man.com</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>444</v>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B189" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mnurassyfah775@man.com</v>
+        <v>mnurassyfah319@man.com</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>445</v>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="B190" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mariyana63@man.com</v>
+        <v>mariyana306@man.com</v>
       </c>
       <c r="C190" s="44" t="s">
         <v>446</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B191" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>maulana27@man.com</v>
+        <v>maulana324@man.com</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>447</v>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B192" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>munawir854@man.com</v>
+        <v>munawir236@man.com</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>448</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B193" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muzakarah575@man.com</v>
+        <v>muzakarah822@man.com</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>449</v>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="B194" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nurajabulfitriar718@man.com</v>
+        <v>nurajabulfitriar229@man.com</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>450</v>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B195" s="5" t="str">
         <f t="shared" ref="B195:B258" ca="1" si="3">SUBSTITUTE(LOWER(C195&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>olaafrianda430@man.com</v>
+        <v>olaafrianda429@man.com</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>451</v>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="B196" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmadtakbira28@man.com</v>
+        <v>rahmadtakbira113@man.com</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>452</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B197" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rozatulmeria872@man.com</v>
+        <v>rozatulmeria369@man.com</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>453</v>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B198" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdiakbar613@man.com</v>
+        <v>ruhdiakbar497@man.com</v>
       </c>
       <c r="C198" s="45" t="s">
         <v>454</v>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="B199" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahrimaulana993@man.com</v>
+        <v>sahrimaulana356@man.com</v>
       </c>
       <c r="C199" s="44" t="s">
         <v>455</v>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B200" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yusranariga683@man.com</v>
+        <v>yusranariga619@man.com</v>
       </c>
       <c r="C200" s="44" t="s">
         <v>456</v>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B201" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zuhrisimerala260@man.com</v>
+        <v>zuhrisimerala384@man.com</v>
       </c>
       <c r="C201" s="42" t="s">
         <v>457</v>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="B202" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>barika231@man.com</v>
+        <v>barika547@man.com</v>
       </c>
       <c r="C202" s="42" t="s">
         <v>458</v>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B203" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aizalwafimf363@man.com</v>
+        <v>aizalwafimf344@man.com</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>459</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="B204" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>almustaqim382@man.com</v>
+        <v>almustaqim432@man.com</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>460</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="B205" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>assakinahsiregar292@man.com</v>
+        <v>assakinahsiregar869@man.com</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>461</v>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="B206" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>dinaauliaramadhani140@man.com</v>
+        <v>dinaauliaramadhani310@man.com</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>462</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B207" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fadliwanzikra752@man.com</v>
+        <v>fadliwanzikra127@man.com</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>463</v>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="B208" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>firanisyafriyana900@man.com</v>
+        <v>firanisyafriyana787@man.com</v>
       </c>
       <c r="C208" s="47" t="s">
         <v>464</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B209" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hadrinawati578@man.com</v>
+        <v>hadrinawati629@man.com</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>465</v>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B210" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>himmahadzkiya249@man.com</v>
+        <v>himmahadzkiya954@man.com</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>466</v>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B211" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>maitsanuruls267@man.com</v>
+        <v>maitsanuruls87@man.com</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>467</v>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B212" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naafilahridhaanggraini555@man.com</v>
+        <v>naafilahridhaanggraini243@man.com</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>468</v>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B213" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rendyhidayatullah139@man.com</v>
+        <v>rendyhidayatullah397@man.com</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>469</v>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B214" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilakinanti373@man.com</v>
+        <v>nabilakinanti980@man.com</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>470</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B215" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilapermai778@man.com</v>
+        <v>nabilapermai980@man.com</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>471</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B216" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabila478@man.com</v>
+        <v>nabila145@man.com</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>472</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="B217" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nurmala121@man.com</v>
+        <v>nurmala816@man.com</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>473</v>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="B218" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naylafarizahusna885@man.com</v>
+        <v>naylafarizahusna120@man.com</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>474</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B219" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ririyunita377@man.com</v>
+        <v>ririyunita145@man.com</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>475</v>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B220" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sayyidatulkhusnulkhotimah568@man.com</v>
+        <v>sayyidatulkhusnulkhotimah602@man.com</v>
       </c>
       <c r="C220" s="47" t="s">
         <v>476</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B221" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syifasalsabila171@man.com</v>
+        <v>syifasalsabila428@man.com</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>477</v>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B222" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ulfasalsabila249@man.com</v>
+        <v>ulfasalsabila170@man.com</v>
       </c>
       <c r="C222" s="47" t="s">
         <v>478</v>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B223" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>umitatamara471@man.com</v>
+        <v>umitatamara579@man.com</v>
       </c>
       <c r="C223" s="47" t="s">
         <v>479</v>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="B224" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yolandarahmadani503@man.com</v>
+        <v>yolandarahmadani88@man.com</v>
       </c>
       <c r="C224" s="47" t="s">
         <v>480</v>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="B225" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zahratululyas608@man.com</v>
+        <v>zahratululyas476@man.com</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>481</v>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B226" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>agihilham23@man.com</v>
+        <v>agihilham877@man.com</v>
       </c>
       <c r="C226" s="47" t="s">
         <v>92</v>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B227" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aisyfahrozi345@man.com</v>
+        <v>aisyfahrozi454@man.com</v>
       </c>
       <c r="C227" s="47" t="s">
         <v>93</v>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B228" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>angguncytrarozha195@man.com</v>
+        <v>angguncytrarozha410@man.com</v>
       </c>
       <c r="C228" s="47" t="s">
         <v>94</v>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B229" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aryana850@man.com</v>
+        <v>aryana667@man.com</v>
       </c>
       <c r="C229" s="47" t="s">
         <v>95</v>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="B230" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>awalludinnovriandim301@man.com</v>
+        <v>awalludinnovriandim486@man.com</v>
       </c>
       <c r="C230" s="47" t="s">
         <v>96</v>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B231" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>diana417@man.com</v>
+        <v>diana832@man.com</v>
       </c>
       <c r="C231" s="47" t="s">
         <v>97</v>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B232" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fanilidiafutri227@man.com</v>
+        <v>fanilidiafutri757@man.com</v>
       </c>
       <c r="C232" s="47" t="s">
         <v>98</v>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B233" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ghufranabal893@man.com</v>
+        <v>ghufranabal662@man.com</v>
       </c>
       <c r="C233" s="47" t="s">
         <v>99</v>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="B234" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzalfarizi314@man.com</v>
+        <v>hafidzalfarizi707@man.com</v>
       </c>
       <c r="C234" s="47" t="s">
         <v>100</v>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B235" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzahafifaziz935@man.com</v>
+        <v>hafidzahafifaziz880@man.com</v>
       </c>
       <c r="C235" s="47" t="s">
         <v>101</v>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B236" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ilhamelsandi438@man.com</v>
+        <v>ilhamelsandi685@man.com</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>102</v>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="B237" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>inesalvanirenggali355@man.com</v>
+        <v>inesalvanirenggali649@man.com</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>103</v>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B238" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>iwanrezeki80@man.com</v>
+        <v>iwanrezeki386@man.com</v>
       </c>
       <c r="C238" s="47" t="s">
         <v>104</v>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="B239" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>junaidi653@man.com</v>
+        <v>junaidi765@man.com</v>
       </c>
       <c r="C239" s="47" t="s">
         <v>105</v>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="B240" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>kamisa630@man.com</v>
+        <v>kamisa53@man.com</v>
       </c>
       <c r="C240" s="47" t="s">
         <v>106</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="B241" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>najwasalsabilalaili523@man.com</v>
+        <v>najwasalsabilalaili246@man.com</v>
       </c>
       <c r="C241" s="47" t="s">
         <v>107</v>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="B242" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>novyasalisca120@man.com</v>
+        <v>novyasalisca307@man.com</v>
       </c>
       <c r="C242" s="47" t="s">
         <v>108</v>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B243" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>radiansyah214@man.com</v>
+        <v>radiansyah865@man.com</v>
       </c>
       <c r="C243" s="47" t="s">
         <v>109</v>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B244" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmitafitri561@man.com</v>
+        <v>rahmitafitri608@man.com</v>
       </c>
       <c r="C244" s="48" t="s">
         <v>110</v>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="B245" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rajagilang661@man.com</v>
+        <v>rajagilang889@man.com</v>
       </c>
       <c r="C245" s="47" t="s">
         <v>111</v>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B246" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rasikadewis531@man.com</v>
+        <v>rasikadewis145@man.com</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>112</v>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B247" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renisimahbengi276@man.com</v>
+        <v>renisimahbengi974@man.com</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>113</v>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B248" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renomihaldiko121@man.com</v>
+        <v>renomihaldiko25@man.com</v>
       </c>
       <c r="C248" s="47" t="s">
         <v>114</v>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="B249" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rifkisetiawan709@man.com</v>
+        <v>rifkisetiawan930@man.com</v>
       </c>
       <c r="C249" s="47" t="s">
         <v>115</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="B250" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rimasimehate508@man.com</v>
+        <v>rimasimehate870@man.com</v>
       </c>
       <c r="C250" s="47" t="s">
         <v>116</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B251" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizahidayah178@man.com</v>
+        <v>rizahidayah283@man.com</v>
       </c>
       <c r="C251" s="47" t="s">
         <v>117</v>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="B252" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizqiiwanfajri789@man.com</v>
+        <v>rizqiiwanfajri520@man.com</v>
       </c>
       <c r="C252" s="47" t="s">
         <v>118</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="B253" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdini499@man.com</v>
+        <v>ruhdini205@man.com</v>
       </c>
       <c r="C253" s="49" t="s">
         <v>119</v>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="B254" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahriramadhan738@man.com</v>
+        <v>sahriramadhan277@man.com</v>
       </c>
       <c r="C254" s="50" t="s">
         <v>120</v>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="B255" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>saidnibrasalhabsyi110@man.com</v>
+        <v>saidnibrasalhabsyi496@man.com</v>
       </c>
       <c r="C255" s="47" t="s">
         <v>121</v>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B256" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfaniazrimaisa700@man.com</v>
+        <v>silfaniazrimaisa452@man.com</v>
       </c>
       <c r="C256" s="47" t="s">
         <v>122</v>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="B257" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfinaazrimaisa979@man.com</v>
+        <v>silfinaazrimaisa292@man.com</v>
       </c>
       <c r="C257" s="47" t="s">
         <v>123</v>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="B258" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syahrawidia187@man.com</v>
+        <v>syahrawidia34@man.com</v>
       </c>
       <c r="C258" s="47" t="s">
         <v>124</v>
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B259" s="5" t="str">
         <f t="shared" ref="B259:B322" ca="1" si="4">SUBSTITUTE(LOWER(C259&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>semalisyukran254@man.com</v>
+        <v>semalisyukran610@man.com</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>125</v>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="B260" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rikiapriyandi794@man.com</v>
+        <v>rikiapriyandi272@man.com</v>
       </c>
       <c r="C260" s="51" t="s">
         <v>482</v>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="B261" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>farhankhairi925@man.com</v>
+        <v>farhankhairi211@man.com</v>
       </c>
       <c r="C261" s="51" t="s">
         <v>483</v>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="B262" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>almuttaqin796@man.com</v>
+        <v>almuttaqin729@man.com</v>
       </c>
       <c r="C262" s="51" t="s">
         <v>484</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B263" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>aidilfitra233@man.com</v>
+        <v>aidilfitra992@man.com</v>
       </c>
       <c r="C263" s="47" t="s">
         <v>485</v>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="B264" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alyasyakira567@man.com</v>
+        <v>alyasyakira8@man.com</v>
       </c>
       <c r="C264" s="47" t="s">
         <v>486</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B265" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andriantawarnate339@man.com</v>
+        <v>andriantawarnate992@man.com</v>
       </c>
       <c r="C265" s="51" t="s">
         <v>487</v>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="B266" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>asyrafifuadipratama349@man.com</v>
+        <v>asyrafifuadipratama678@man.com</v>
       </c>
       <c r="C266" s="47" t="s">
         <v>488</v>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B267" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>awalulzikri725@man.com</v>
+        <v>awalulzikri509@man.com</v>
       </c>
       <c r="C267" s="47" t="s">
         <v>489</v>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="B268" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ayufitri897@man.com</v>
+        <v>ayufitri952@man.com</v>
       </c>
       <c r="C268" s="47" t="s">
         <v>490</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="B269" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>bilqistinaarafah597@man.com</v>
+        <v>bilqistinaarafah99@man.com</v>
       </c>
       <c r="C269" s="47" t="s">
         <v>491</v>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="B270" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>darimatulisda698@man.com</v>
+        <v>darimatulisda79@man.com</v>
       </c>
       <c r="C270" s="47" t="s">
         <v>492</v>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B271" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>diyasalsabila749@man.com</v>
+        <v>diyasalsabila894@man.com</v>
       </c>
       <c r="C271" s="47" t="s">
         <v>493</v>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B272" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>elsawahyuni802@man.com</v>
+        <v>elsawahyuni437@man.com</v>
       </c>
       <c r="C272" s="47" t="s">
         <v>494</v>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="B273" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ernafebiola175@man.com</v>
+        <v>ernafebiola221@man.com</v>
       </c>
       <c r="C273" s="47" t="s">
         <v>495</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B274" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fariswasim889@man.com</v>
+        <v>fariswasim200@man.com</v>
       </c>
       <c r="C274" s="47" t="s">
         <v>496</v>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B275" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fatwarezeki40@man.com</v>
+        <v>fatwarezeki59@man.com</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>497</v>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="B276" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hafizsariyandi987@man.com</v>
+        <v>hafizsariyandi406@man.com</v>
       </c>
       <c r="C276" s="47" t="s">
         <v>498</v>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B277" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mharitsalsyifa161@man.com</v>
+        <v>mharitsalsyifa665@man.com</v>
       </c>
       <c r="C277" s="47" t="s">
         <v>499</v>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B278" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahbengi805@man.com</v>
+        <v>mahbengi937@man.com</v>
       </c>
       <c r="C278" s="47" t="s">
         <v>500</v>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="B279" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maysarahfadila466@man.com</v>
+        <v>maysarahfadila992@man.com</v>
       </c>
       <c r="C279" s="47" t="s">
         <v>501</v>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B280" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miftahulhadi830@man.com</v>
+        <v>miftahulhadi880@man.com</v>
       </c>
       <c r="C280" s="47" t="s">
         <v>502</v>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="B281" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>misriadi336@man.com</v>
+        <v>misriadi41@man.com</v>
       </c>
       <c r="C281" s="47" t="s">
         <v>503</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B282" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najhan510@man.com</v>
+        <v>najhan241@man.com</v>
       </c>
       <c r="C282" s="47" t="s">
         <v>504</v>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="B283" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nurulsinta236@man.com</v>
+        <v>nurulsinta315@man.com</v>
       </c>
       <c r="C283" s="47" t="s">
         <v>505</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="B284" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rahmatsafriaji675@man.com</v>
+        <v>rahmatsafriaji161@man.com</v>
       </c>
       <c r="C284" s="47" t="s">
         <v>506</v>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="B285" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ranggaterimejaya862@man.com</v>
+        <v>ranggaterimejaya950@man.com</v>
       </c>
       <c r="C285" s="47" t="s">
         <v>507</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B286" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rayyankemala28@man.com</v>
+        <v>rayyankemala566@man.com</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>508</v>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="B287" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rimanafisa495@man.com</v>
+        <v>rimanafisa902@man.com</v>
       </c>
       <c r="C287" s="47" t="s">
         <v>509</v>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="B288" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rizkyfakhrulrozi976@man.com</v>
+        <v>rizkyfakhrulrozi867@man.com</v>
       </c>
       <c r="C288" s="47" t="s">
         <v>510</v>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B289" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ruhmi811@man.com</v>
+        <v>ruhmi497@man.com</v>
       </c>
       <c r="C289" s="47" t="s">
         <v>511</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="B290" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarirahmadaini532@man.com</v>
+        <v>sarirahmadaini885@man.com</v>
       </c>
       <c r="C290" s="47" t="s">
         <v>512</v>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B291" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarina164@man.com</v>
+        <v>sarina759@man.com</v>
       </c>
       <c r="C291" s="47" t="s">
         <v>513</v>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="B292" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>siskaramadhani164@man.com</v>
+        <v>siskaramadhani538@man.com</v>
       </c>
       <c r="C292" s="47" t="s">
         <v>514</v>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="B293" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>syafrizal693@man.com</v>
+        <v>syafrizal5@man.com</v>
       </c>
       <c r="C293" s="47" t="s">
         <v>515</v>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="B294" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliya980@man.com</v>
+        <v>waliya100@man.com</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>516</v>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="B295" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianaamara802@man.com</v>
+        <v>yulianaamara9@man.com</v>
       </c>
       <c r="C295" s="47" t="s">
         <v>517</v>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="B296" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianasimahbengi957@man.com</v>
+        <v>yulianasimahbengi373@man.com</v>
       </c>
       <c r="C296" s="47" t="s">
         <v>518</v>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B297" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliyatunma'wa683@man.com</v>
+        <v>waliyatunma'wa790@man.com</v>
       </c>
       <c r="C297" s="51" t="s">
         <v>519</v>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="B298" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najeedaemirachibro539@man.com</v>
+        <v>najeedaemirachibro731@man.com</v>
       </c>
       <c r="C298" s="51" t="s">
         <v>520</v>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="B299" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>afrizalmahara963@man.com</v>
+        <v>afrizalmahara221@man.com</v>
       </c>
       <c r="C299" s="47" t="s">
         <v>521</v>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="B300" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>agneswahyuningsih405@man.com</v>
+        <v>agneswahyuningsih647@man.com</v>
       </c>
       <c r="C300" s="47" t="s">
         <v>522</v>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="B301" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alfitramahendra689@man.com</v>
+        <v>alfitramahendra203@man.com</v>
       </c>
       <c r="C301" s="47" t="s">
         <v>523</v>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B302" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andrekurniawan767@man.com</v>
+        <v>andrekurniawan108@man.com</v>
       </c>
       <c r="C302" s="47" t="s">
         <v>524</v>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B303" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>anggunpurnama161@man.com</v>
+        <v>anggunpurnama650@man.com</v>
       </c>
       <c r="C303" s="47" t="s">
         <v>525</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B304" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dheaafifah183@man.com</v>
+        <v>dheaafifah61@man.com</v>
       </c>
       <c r="C304" s="47" t="s">
         <v>526</v>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="B305" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dwiauva799@man.com</v>
+        <v>dwiauva155@man.com</v>
       </c>
       <c r="C305" s="53" t="s">
         <v>527</v>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="B306" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>erlina421@man.com</v>
+        <v>erlina154@man.com</v>
       </c>
       <c r="C306" s="47" t="s">
         <v>528</v>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="B307" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>faizulazka767@man.com</v>
+        <v>faizulazka199@man.com</v>
       </c>
       <c r="C307" s="47" t="s">
         <v>529</v>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="B308" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fathinjihan364@man.com</v>
+        <v>fathinjihan448@man.com</v>
       </c>
       <c r="C308" s="47" t="s">
         <v>530</v>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="B309" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>gemasatriaperdana276@man.com</v>
+        <v>gemasatriaperdana21@man.com</v>
       </c>
       <c r="C309" s="47" t="s">
         <v>531</v>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B310" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hamaliyufatar919@man.com</v>
+        <v>hamaliyufatar169@man.com</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>532</v>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="B311" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>irsaraudhatuljannah827@man.com</v>
+        <v>irsaraudhatuljannah983@man.com</v>
       </c>
       <c r="C311" s="47" t="s">
         <v>533</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="B312" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>izasdanuprasetya439@man.com</v>
+        <v>izasdanuprasetya567@man.com</v>
       </c>
       <c r="C312" s="47" t="s">
         <v>534</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="B313" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>khairulwahyudi228@man.com</v>
+        <v>khairulwahyudi385@man.com</v>
       </c>
       <c r="C313" s="47" t="s">
         <v>535</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B314" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>lisaananda574@man.com</v>
+        <v>lisaananda193@man.com</v>
       </c>
       <c r="C314" s="47" t="s">
         <v>536</v>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="B315" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maharasetiansyah394@man.com</v>
+        <v>maharasetiansyah108@man.com</v>
       </c>
       <c r="C315" s="47" t="s">
         <v>537</v>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B316" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahyudi775@man.com</v>
+        <v>mahyudi760@man.com</v>
       </c>
       <c r="C316" s="47" t="s">
         <v>538</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B317" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miranggatuahmiko683@man.com</v>
+        <v>miranggatuahmiko781@man.com</v>
       </c>
       <c r="C317" s="47" t="s">
         <v>539</v>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="B318" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muamarcardafi235@man.com</v>
+        <v>muamarcardafi859@man.com</v>
       </c>
       <c r="C318" s="47" t="s">
         <v>540</v>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="B319" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muhammadyusri2@man.com</v>
+        <v>muhammadyusri192@man.com</v>
       </c>
       <c r="C319" s="47" t="s">
         <v>541</v>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B320" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaandiki244@man.com</v>
+        <v>muliaandiki970@man.com</v>
       </c>
       <c r="C320" s="47" t="s">
         <v>542</v>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="B321" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaardi942@man.com</v>
+        <v>muliaardi54@man.com</v>
       </c>
       <c r="C321" s="47" t="s">
         <v>543</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B322" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nabila397@man.com</v>
+        <v>nabila553@man.com</v>
       </c>
       <c r="C322" s="47" t="s">
         <v>544</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B323" s="5" t="str">
         <f t="shared" ref="B323:B386" ca="1" si="5">SUBSTITUTE(LOWER(C323&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>najarudin527@man.com</v>
+        <v>najarudin589@man.com</v>
       </c>
       <c r="C323" s="47" t="s">
         <v>545</v>
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B324" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>nathasyadindasaura25@man.com</v>
+        <v>nathasyadindasaura910@man.com</v>
       </c>
       <c r="C324" s="47" t="s">
         <v>546</v>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="B325" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>noviardana639@man.com</v>
+        <v>noviardana40@man.com</v>
       </c>
       <c r="C325" s="47" t="s">
         <v>547</v>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="B326" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>piradayani153@man.com</v>
+        <v>piradayani228@man.com</v>
       </c>
       <c r="C326" s="47" t="s">
         <v>548</v>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="B327" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prastio52@man.com</v>
+        <v>prastio679@man.com</v>
       </c>
       <c r="C327" s="47" t="s">
         <v>549</v>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="B328" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prisnaulanagustina50@man.com</v>
+        <v>prisnaulanagustina233@man.com</v>
       </c>
       <c r="C328" s="47" t="s">
         <v>550</v>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="B329" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanputri87@man.com</v>
+        <v>raihanputri452@man.com</v>
       </c>
       <c r="C329" s="47" t="s">
         <v>551</v>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="B330" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ramayana707@man.com</v>
+        <v>ramayana533@man.com</v>
       </c>
       <c r="C330" s="47" t="s">
         <v>552</v>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B331" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyuni445@man.com</v>
+        <v>rayyuni397@man.com</v>
       </c>
       <c r="C331" s="47" t="s">
         <v>553</v>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="B332" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sinerulen314@man.com</v>
+        <v>sinerulen114@man.com</v>
       </c>
       <c r="C332" s="47" t="s">
         <v>554</v>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="B333" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>tarimahara49@man.com</v>
+        <v>tarimahara263@man.com</v>
       </c>
       <c r="C333" s="47" t="s">
         <v>555</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="B334" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>fakhrurraziq614@man.com</v>
+        <v>fakhrurraziq231@man.com</v>
       </c>
       <c r="C334" s="47" t="s">
         <v>556</v>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="B335" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aqilahhilmi813@man.com</v>
+        <v>aqilahhilmi692@man.com</v>
       </c>
       <c r="C335" s="47" t="s">
         <v>557</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="B336" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>beruindah711@man.com</v>
+        <v>beruindah428@man.com</v>
       </c>
       <c r="C336" s="47" t="s">
         <v>558</v>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="B337" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cindyannisaramadaninst339@man.com</v>
+        <v>cindyannisaramadaninst309@man.com</v>
       </c>
       <c r="C337" s="54" t="s">
         <v>559</v>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="B338" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>haspilafitri94@man.com</v>
+        <v>haspilafitri972@man.com</v>
       </c>
       <c r="C338" s="54" t="s">
         <v>560</v>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="B339" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>idanurfadhilah465@man.com</v>
+        <v>idanurfadhilah443@man.com</v>
       </c>
       <c r="C339" s="47" t="s">
         <v>561</v>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="B340" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>intannovitasari525@man.com</v>
+        <v>intannovitasari801@man.com</v>
       </c>
       <c r="C340" s="47" t="s">
         <v>562</v>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="B341" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jarnidasulisna386@man.com</v>
+        <v>jarnidasulisna439@man.com</v>
       </c>
       <c r="C341" s="47" t="s">
         <v>563</v>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="B342" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairulbasri957@man.com</v>
+        <v>khairulbasri49@man.com</v>
       </c>
       <c r="C342" s="47" t="s">
         <v>564</v>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B343" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairultaqwa714@man.com</v>
+        <v>khairultaqwa115@man.com</v>
       </c>
       <c r="C343" s="47" t="s">
         <v>565</v>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="B344" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lularahmadanizulda682@man.com</v>
+        <v>lularahmadanizulda104@man.com</v>
       </c>
       <c r="C344" s="47" t="s">
         <v>566</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B345" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>najariashaofa372@man.com</v>
+        <v>najariashaofa912@man.com</v>
       </c>
       <c r="C345" s="47" t="s">
         <v>567</v>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="B346" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmatan897@man.com</v>
+        <v>rahmatan829@man.com</v>
       </c>
       <c r="C346" s="47" t="s">
         <v>568</v>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B347" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sariani672@man.com</v>
+        <v>sariani276@man.com</v>
       </c>
       <c r="C347" s="47" t="s">
         <v>569</v>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B348" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syauqialfaiz863@man.com</v>
+        <v>syauqialfaiz134@man.com</v>
       </c>
       <c r="C348" s="47" t="s">
         <v>570</v>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="B349" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>weinfatha451@man.com</v>
+        <v>weinfatha991@man.com</v>
       </c>
       <c r="C349" s="47" t="s">
         <v>571</v>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B350" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wulanaidafitri563@man.com</v>
+        <v>wulanaidafitri326@man.com</v>
       </c>
       <c r="C350" s="47" t="s">
         <v>572</v>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="B351" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zharifahmahlida623@man.com</v>
+        <v>zharifahmahlida799@man.com</v>
       </c>
       <c r="C351" s="47" t="s">
         <v>573</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B352" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zidanbayakku378@man.com</v>
+        <v>zidanbayakku866@man.com</v>
       </c>
       <c r="C352" s="47" t="s">
         <v>574</v>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B353" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ahirasaqban242@man.com</v>
+        <v>ahirasaqban838@man.com</v>
       </c>
       <c r="C353" s="47" t="s">
         <v>575</v>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="B354" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aisyahnurulrizky931@man.com</v>
+        <v>aisyahnurulrizky606@man.com</v>
       </c>
       <c r="C354" s="54" t="s">
         <v>576</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="B355" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alpiandiramadhan732@man.com</v>
+        <v>alpiandiramadhan291@man.com</v>
       </c>
       <c r="C355" s="54" t="s">
         <v>577</v>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="B356" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ariyandicibro86@man.com</v>
+        <v>ariyandicibro762@man.com</v>
       </c>
       <c r="C356" s="47" t="s">
         <v>578</v>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="B357" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>dinamaulidya193@man.com</v>
+        <v>dinamaulidya273@man.com</v>
       </c>
       <c r="C357" s="54" t="s">
         <v>579</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="B358" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hamdanfauzi278@man.com</v>
+        <v>hamdanfauzi744@man.com</v>
       </c>
       <c r="C358" s="54" t="s">
         <v>580</v>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B359" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>helmifarida538@man.com</v>
+        <v>helmifarida147@man.com</v>
       </c>
       <c r="C359" s="47" t="s">
         <v>581</v>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="B360" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihsansimahbengi533@man.com</v>
+        <v>ihsansimahbengi736@man.com</v>
       </c>
       <c r="C360" s="47" t="s">
         <v>582</v>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B361" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihwanhafis791@man.com</v>
+        <v>ihwanhafis868@man.com</v>
       </c>
       <c r="C361" s="47" t="s">
         <v>583</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="B362" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>indahwahyuni790@man.com</v>
+        <v>indahwahyuni883@man.com</v>
       </c>
       <c r="C362" s="47" t="s">
         <v>584</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="B363" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>iswandimabrur640@man.com</v>
+        <v>iswandimabrur219@man.com</v>
       </c>
       <c r="C363" s="47" t="s">
         <v>585</v>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B364" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairunfirdaus662@man.com</v>
+        <v>khairunfirdaus878@man.com</v>
       </c>
       <c r="C364" s="47" t="s">
         <v>586</v>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B365" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>m.riskiaditia590@man.com</v>
+        <v>m.riskiaditia92@man.com</v>
       </c>
       <c r="C365" s="47" t="s">
         <v>587</v>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B366" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mizamilfadli14@man.com</v>
+        <v>mizamilfadli464@man.com</v>
       </c>
       <c r="C366" s="47" t="s">
         <v>588</v>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="B367" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muhammadsubki292@man.com</v>
+        <v>muhammadsubki218@man.com</v>
       </c>
       <c r="C367" s="47" t="s">
         <v>589</v>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="B368" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muliadibahtra38@man.com</v>
+        <v>muliadibahtra546@man.com</v>
       </c>
       <c r="C368" s="54" t="s">
         <v>590</v>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B369" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>putra114@man.com</v>
+        <v>putra192@man.com</v>
       </c>
       <c r="C369" s="47" t="s">
         <v>591</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="B370" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qadrifitra158@man.com</v>
+        <v>qadrifitra639@man.com</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>592</v>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="B371" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmadalena341@man.com</v>
+        <v>rahmadalena738@man.com</v>
       </c>
       <c r="C371" s="54" t="s">
         <v>593</v>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="B372" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanaamni121@man.com</v>
+        <v>raihanaamni216@man.com</v>
       </c>
       <c r="C372" s="47" t="s">
         <v>594</v>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="B373" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyanasyifayulanda805@man.com</v>
+        <v>rayyanasyifayulanda586@man.com</v>
       </c>
       <c r="C373" s="54" t="s">
         <v>595</v>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="B374" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rizkyanovaldi196@man.com</v>
+        <v>rizkyanovaldi448@man.com</v>
       </c>
       <c r="C374" s="54" t="s">
         <v>596</v>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="B375" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ryckyrahman331@man.com</v>
+        <v>ryckyrahman326@man.com</v>
       </c>
       <c r="C375" s="54" t="s">
         <v>597</v>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="B376" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sanianabila188@man.com</v>
+        <v>sanianabila3@man.com</v>
       </c>
       <c r="C376" s="47" t="s">
         <v>598</v>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="B377" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sindiainasiska522@man.com</v>
+        <v>sindiainasiska247@man.com</v>
       </c>
       <c r="C377" s="47" t="s">
         <v>599</v>
@@ -14066,7 +14066,7 @@
       </c>
       <c r="B378" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syahrifitra961@man.com</v>
+        <v>syahrifitra671@man.com</v>
       </c>
       <c r="C378" s="54" t="s">
         <v>600</v>
@@ -14096,7 +14096,7 @@
       </c>
       <c r="B379" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wiwintermiko844@man.com</v>
+        <v>wiwintermiko563@man.com</v>
       </c>
       <c r="C379" s="55" t="s">
         <v>601</v>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B380" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yogimarlian100@man.com</v>
+        <v>yogimarlian70@man.com</v>
       </c>
       <c r="C380" s="47" t="s">
         <v>602</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="B381" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yusriramadhan117@man.com</v>
+        <v>yusriramadhan51@man.com</v>
       </c>
       <c r="C381" s="47" t="s">
         <v>603</v>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B382" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qiyaraazzifa200@man.com</v>
+        <v>qiyaraazzifa833@man.com</v>
       </c>
       <c r="C382" s="47" t="s">
         <v>604</v>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="B383" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hafizhrizkiramadhan652@man.com</v>
+        <v>hafizhrizkiramadhan981@man.com</v>
       </c>
       <c r="C383" s="47" t="s">
         <v>605</v>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B384" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mahdasyakura426@man.com</v>
+        <v>mahdasyakura695@man.com</v>
       </c>
       <c r="C384" s="47" t="s">
         <v>606</v>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="B385" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alhadi390@man.com</v>
+        <v>alhadi751@man.com</v>
       </c>
       <c r="C385" s="47" t="s">
         <v>607</v>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="B386" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alparesimaharoen992@man.com</v>
+        <v>alparesimaharoen547@man.com</v>
       </c>
       <c r="C386" s="54" t="s">
         <v>608</v>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B387" s="5" t="str">
         <f t="shared" ref="B387:B450" ca="1" si="6">SUBSTITUTE(LOWER(C387&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>andredinata24@man.com</v>
+        <v>andredinata694@man.com</v>
       </c>
       <c r="C387" s="54" t="s">
         <v>609</v>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="B388" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dahlina637@man.com</v>
+        <v>dahlina851@man.com</v>
       </c>
       <c r="C388" s="47" t="s">
         <v>610</v>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="B389" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fahmiakbar248@man.com</v>
+        <v>fahmiakbar325@man.com</v>
       </c>
       <c r="C389" s="47" t="s">
         <v>611</v>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="B390" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafizwintanoga279@man.com</v>
+        <v>hafizwintanoga13@man.com</v>
       </c>
       <c r="C390" s="54" t="s">
         <v>612</v>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="B391" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>khairilhafiz578@man.com</v>
+        <v>khairilhafiz927@man.com</v>
       </c>
       <c r="C391" s="53" t="s">
         <v>613</v>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="B392" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahajiranirfandi227@man.com</v>
+        <v>mahajiranirfandi862@man.com</v>
       </c>
       <c r="C392" s="47" t="s">
         <v>614</v>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B393" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mudimulia853@man.com</v>
+        <v>mudimulia661@man.com</v>
       </c>
       <c r="C393" s="47" t="s">
         <v>615</v>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B394" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muh.raflymelala348@man.com</v>
+        <v>muh.raflymelala731@man.com</v>
       </c>
       <c r="C394" s="55" t="s">
         <v>616</v>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B395" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliaakbarbelangi209@man.com</v>
+        <v>muliaakbarbelangi67@man.com</v>
       </c>
       <c r="C395" s="47" t="s">
         <v>617</v>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="B396" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliana892@man.com</v>
+        <v>muliana231@man.com</v>
       </c>
       <c r="C396" s="47" t="s">
         <v>427</v>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="B397" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mutaalimazidarrizki409@man.com</v>
+        <v>mutaalimazidarrizki64@man.com</v>
       </c>
       <c r="C397" s="54" t="s">
         <v>618</v>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="B398" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nadianasution459@man.com</v>
+        <v>nadianasution442@man.com</v>
       </c>
       <c r="C398" s="54" t="s">
         <v>619</v>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B399" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurula'la427@man.com</v>
+        <v>nurula'la286@man.com</v>
       </c>
       <c r="C399" s="54" t="s">
         <v>620</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="B400" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ramajitromihardja780@man.com</v>
+        <v>ramajitromihardja175@man.com</v>
       </c>
       <c r="C400" s="47" t="s">
         <v>621</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B401" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>randyferhatin374@man.com</v>
+        <v>randyferhatin758@man.com</v>
       </c>
       <c r="C401" s="47" t="s">
         <v>622</v>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="B402" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>renisahfitri127@man.com</v>
+        <v>renisahfitri408@man.com</v>
       </c>
       <c r="C402" s="47" t="s">
         <v>623</v>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B403" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rifkitawarnate713@man.com</v>
+        <v>rifkitawarnate978@man.com</v>
       </c>
       <c r="C403" s="47" t="s">
         <v>624</v>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="B404" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rizkahidayat550@man.com</v>
+        <v>rizkahidayat262@man.com</v>
       </c>
       <c r="C404" s="47" t="s">
         <v>625</v>
@@ -14876,7 +14876,7 @@
       </c>
       <c r="B405" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sadri673@man.com</v>
+        <v>sadri650@man.com</v>
       </c>
       <c r="C405" s="47" t="s">
         <v>626</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="B406" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>safrizal681@man.com</v>
+        <v>safrizal644@man.com</v>
       </c>
       <c r="C406" s="54" t="s">
         <v>627</v>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="B407" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>suharman449@man.com</v>
+        <v>suharman541@man.com</v>
       </c>
       <c r="C407" s="54" t="s">
         <v>628</v>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B408" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>tiadwiauliani274@man.com</v>
+        <v>tiadwiauliani531@man.com</v>
       </c>
       <c r="C408" s="47" t="s">
         <v>629</v>
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B409" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wahdini169@man.com</v>
+        <v>wahdini617@man.com</v>
       </c>
       <c r="C409" s="47" t="s">
         <v>630</v>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="B410" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wildandika768@man.com</v>
+        <v>wildandika246@man.com</v>
       </c>
       <c r="C410" s="47" t="s">
         <v>631</v>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="B411" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zahranimaura265@man.com</v>
+        <v>zahranimaura618@man.com</v>
       </c>
       <c r="C411" s="54" t="s">
         <v>632</v>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="B412" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>irfanrizky283@man.com</v>
+        <v>irfanrizky554@man.com</v>
       </c>
       <c r="C412" s="56" t="s">
         <v>633</v>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="B413" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sahidulsyahputra166@man.com</v>
+        <v>sahidulsyahputra669@man.com</v>
       </c>
       <c r="C413" s="51" t="s">
         <v>634</v>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="B414" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>anamaria222@man.com</v>
+        <v>anamaria845@man.com</v>
       </c>
       <c r="C414" s="57" t="s">
         <v>126</v>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B415" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>annasrimulia64@man.com</v>
+        <v>annasrimulia387@man.com</v>
       </c>
       <c r="C415" s="58" t="s">
         <v>127</v>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B416" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>cutamalia9@man.com</v>
+        <v>cutamalia818@man.com</v>
       </c>
       <c r="C416" s="57" t="s">
         <v>128</v>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="B417" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>desisilfiyana343@man.com</v>
+        <v>desisilfiyana560@man.com</v>
       </c>
       <c r="C417" s="57" t="s">
         <v>129</v>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="B418" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dirgasyidratussalwa582@man.com</v>
+        <v>dirgasyidratussalwa411@man.com</v>
       </c>
       <c r="C418" s="57" t="s">
         <v>130</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B419" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>elizasapitri657@man.com</v>
+        <v>elizasapitri837@man.com</v>
       </c>
       <c r="C419" s="59" t="s">
         <v>131</v>
@@ -15326,7 +15326,7 @@
       </c>
       <c r="B420" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fakhriwijdan409@man.com</v>
+        <v>fakhriwijdan924@man.com</v>
       </c>
       <c r="C420" s="58" t="s">
         <v>132</v>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="B421" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fanita754@man.com</v>
+        <v>fanita915@man.com</v>
       </c>
       <c r="C421" s="60" t="s">
         <v>133</v>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B422" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ihsanuddin623@man.com</v>
+        <v>ihsanuddin993@man.com</v>
       </c>
       <c r="C422" s="57" t="s">
         <v>134</v>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="B423" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ilhamekafarisy619@man.com</v>
+        <v>ilhamekafarisy207@man.com</v>
       </c>
       <c r="C423" s="57" t="s">
         <v>135</v>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="B424" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>jannatiakanju990@man.com</v>
+        <v>jannatiakanju786@man.com</v>
       </c>
       <c r="C424" s="60" t="s">
         <v>136</v>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="B425" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>lindaamalia681@man.com</v>
+        <v>lindaamalia858@man.com</v>
       </c>
       <c r="C425" s="58" t="s">
         <v>140</v>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="B426" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.rizki466@man.com</v>
+        <v>m.rizki94@man.com</v>
       </c>
       <c r="C426" s="57" t="s">
         <v>137</v>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="B427" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.sejahtera301@man.com</v>
+        <v>m.sejahtera41@man.com</v>
       </c>
       <c r="C427" s="57" t="s">
         <v>138</v>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B428" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahridalativa323@man.com</v>
+        <v>mahridalativa944@man.com</v>
       </c>
       <c r="C428" s="57" t="s">
         <v>141</v>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B429" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>maulidasimahara348@man.com</v>
+        <v>maulidasimahara870@man.com</v>
       </c>
       <c r="C429" s="57" t="s">
         <v>142</v>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="B430" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nabilaraudhatunnisya534@man.com</v>
+        <v>nabilaraudhatunnisya391@man.com</v>
       </c>
       <c r="C430" s="58" t="s">
         <v>143</v>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="B431" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>naurahsalsabila27@man.com</v>
+        <v>naurahsalsabila546@man.com</v>
       </c>
       <c r="C431" s="57" t="s">
         <v>144</v>
@@ -15686,7 +15686,7 @@
       </c>
       <c r="B432" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nilmafatimahazzahra250@man.com</v>
+        <v>nilmafatimahazzahra742@man.com</v>
       </c>
       <c r="C432" s="59" t="s">
         <v>145</v>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B433" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurhafidzah353@man.com</v>
+        <v>nurhafidzah662@man.com</v>
       </c>
       <c r="C433" s="57" t="s">
         <v>146</v>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="B434" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>pingkannapisah505@man.com</v>
+        <v>pingkannapisah840@man.com</v>
       </c>
       <c r="C434" s="61" t="s">
         <v>147</v>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B435" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rikamahyani266@man.com</v>
+        <v>rikamahyani749@man.com</v>
       </c>
       <c r="C435" s="57" t="s">
         <v>148</v>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B436" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rimaputrimegaandria963@man.com</v>
+        <v>rimaputrimegaandria151@man.com</v>
       </c>
       <c r="C436" s="59" t="s">
         <v>149</v>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="B437" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sarabensu790@man.com</v>
+        <v>sarabensu886@man.com</v>
       </c>
       <c r="C437" s="57" t="s">
         <v>150</v>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="B438" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>syardifitrah933@man.com</v>
+        <v>syardifitrah531@man.com</v>
       </c>
       <c r="C438" s="57" t="s">
         <v>139</v>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="B439" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zannatulazila170@man.com</v>
+        <v>zannatulazila342@man.com</v>
       </c>
       <c r="C439" s="57" t="s">
         <v>151</v>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B440" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abdanfitramenye692@man.com</v>
+        <v>abdanfitramenye435@man.com</v>
       </c>
       <c r="C440" s="63" t="s">
         <v>635</v>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="B441" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>almunadi333@man.com</v>
+        <v>almunadi971@man.com</v>
       </c>
       <c r="C441" s="63" t="s">
         <v>152</v>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="B442" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>andreancanhari611@man.com</v>
+        <v>andreancanhari429@man.com</v>
       </c>
       <c r="C442" s="63" t="s">
         <v>153</v>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B443" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>assyifawahiddayati145@man.com</v>
+        <v>assyifawahiddayati624@man.com</v>
       </c>
       <c r="C443" s="63" t="s">
         <v>154</v>
@@ -16046,7 +16046,7 @@
       </c>
       <c r="B444" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ayudalisma223@man.com</v>
+        <v>ayudalisma272@man.com</v>
       </c>
       <c r="C444" s="63" t="s">
         <v>155</v>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="B445" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>daffaelzafadhil395@man.com</v>
+        <v>daffaelzafadhil505@man.com</v>
       </c>
       <c r="C445" s="63" t="s">
         <v>156</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="B446" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fathulannisa734@man.com</v>
+        <v>fathulannisa202@man.com</v>
       </c>
       <c r="C446" s="63" t="s">
         <v>636</v>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="B447" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafnizahara882@man.com</v>
+        <v>hafnizahara40@man.com</v>
       </c>
       <c r="C447" s="63" t="s">
         <v>157</v>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="B448" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hendra805@man.com</v>
+        <v>hendra28@man.com</v>
       </c>
       <c r="C448" s="63" t="s">
         <v>158</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="B449" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>heniwijayanti366@man.com</v>
+        <v>heniwijayanti757@man.com</v>
       </c>
       <c r="C449" s="63" t="s">
         <v>159</v>
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B450" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hermavalentina917@man.com</v>
+        <v>hermavalentina418@man.com</v>
       </c>
       <c r="C450" s="63" t="s">
         <v>160</v>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B451" s="5" t="str">
         <f t="shared" ref="B451:B514" ca="1" si="7">SUBSTITUTE(LOWER(C451&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>hidayatunnahar211@man.com</v>
+        <v>hidayatunnahar581@man.com</v>
       </c>
       <c r="C451" s="63" t="s">
         <v>637</v>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="B452" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>imamsamudra924@man.com</v>
+        <v>imamsamudra151@man.com</v>
       </c>
       <c r="C452" s="63" t="s">
         <v>161</v>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="B453" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intantamara827@man.com</v>
+        <v>intantamara678@man.com</v>
       </c>
       <c r="C453" s="63" t="s">
         <v>162</v>
@@ -16346,7 +16346,7 @@
       </c>
       <c r="B454" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ismajunipratama878@man.com</v>
+        <v>ismajunipratama369@man.com</v>
       </c>
       <c r="C454" s="63" t="s">
         <v>163</v>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="B455" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jonisyahwanara64@man.com</v>
+        <v>jonisyahwanara414@man.com</v>
       </c>
       <c r="C455" s="63" t="s">
         <v>638</v>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="B456" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>juhriansyah350@man.com</v>
+        <v>juhriansyah885@man.com</v>
       </c>
       <c r="C456" s="63" t="s">
         <v>639</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B457" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jumadirahman747@man.com</v>
+        <v>jumadirahman409@man.com</v>
       </c>
       <c r="C457" s="63" t="s">
         <v>165</v>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="B458" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnisa37@man.com</v>
+        <v>khairunnisa706@man.com</v>
       </c>
       <c r="C458" s="63" t="s">
         <v>164</v>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B459" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mnur292@man.com</v>
+        <v>mnur188@man.com</v>
       </c>
       <c r="C459" s="63" t="s">
         <v>640</v>
@@ -16526,7 +16526,7 @@
       </c>
       <c r="B460" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mriezafahlevi862@man.com</v>
+        <v>mriezafahlevi613@man.com</v>
       </c>
       <c r="C460" s="63" t="s">
         <v>641</v>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="B461" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mauzialfadila888@man.com</v>
+        <v>mauzialfadila600@man.com</v>
       </c>
       <c r="C461" s="63" t="s">
         <v>166</v>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="B462" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mawaddah404@man.com</v>
+        <v>mawaddah676@man.com</v>
       </c>
       <c r="C462" s="63" t="s">
         <v>167</v>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="B463" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mukhsin911@man.com</v>
+        <v>mukhsin250@man.com</v>
       </c>
       <c r="C463" s="63" t="s">
         <v>642</v>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B464" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nurhayati716@man.com</v>
+        <v>nurhayati133@man.com</v>
       </c>
       <c r="C464" s="63" t="s">
         <v>168</v>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="B465" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>orijagunawans932@man.com</v>
+        <v>orijagunawans809@man.com</v>
       </c>
       <c r="C465" s="63" t="s">
         <v>169</v>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="B466" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmisapitri796@man.com</v>
+        <v>rahmisapitri324@man.com</v>
       </c>
       <c r="C466" s="63" t="s">
         <v>170</v>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B467" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rajakrafsanjani863@man.com</v>
+        <v>rajakrafsanjani987@man.com</v>
       </c>
       <c r="C467" s="63" t="s">
         <v>643</v>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="B468" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sabarollah66@man.com</v>
+        <v>sabarollah699@man.com</v>
       </c>
       <c r="C468" s="63" t="s">
         <v>171</v>
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B469" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>salmanalfarisi533@man.com</v>
+        <v>salmanalfarisi205@man.com</v>
       </c>
       <c r="C469" s="63" t="s">
         <v>644</v>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="B470" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sauqiqalbiihsan555@man.com</v>
+        <v>sauqiqalbiihsan428@man.com</v>
       </c>
       <c r="C470" s="63" t="s">
         <v>645</v>
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B471" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>seprianaputri744@man.com</v>
+        <v>seprianaputri175@man.com</v>
       </c>
       <c r="C471" s="63" t="s">
         <v>172</v>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="B472" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>septiajuliabreta81@man.com</v>
+        <v>septiajuliabreta706@man.com</v>
       </c>
       <c r="C472" s="63" t="s">
         <v>646</v>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="B473" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sujadanaufal58@man.com</v>
+        <v>sujadanaufal238@man.com</v>
       </c>
       <c r="C473" s="63" t="s">
         <v>173</v>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="B474" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>tiararejeki205@man.com</v>
+        <v>tiararejeki650@man.com</v>
       </c>
       <c r="C474" s="63" t="s">
         <v>647</v>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="B475" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>vaniaamanda435@man.com</v>
+        <v>vaniaamanda981@man.com</v>
       </c>
       <c r="C475" s="63" t="s">
         <v>174</v>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="B476" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wardani440@man.com</v>
+        <v>wardani267@man.com</v>
       </c>
       <c r="C476" s="63" t="s">
         <v>175</v>
@@ -17036,7 +17036,7 @@
       </c>
       <c r="B477" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wiramahendra655@man.com</v>
+        <v>wiramahendra910@man.com</v>
       </c>
       <c r="C477" s="63" t="s">
         <v>176</v>
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B478" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ardianokta91@man.com</v>
+        <v>ardianokta292@man.com</v>
       </c>
       <c r="C478" s="68" t="s">
         <v>177</v>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="B479" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarafiqi862@man.com</v>
+        <v>auliarafiqi504@man.com</v>
       </c>
       <c r="C479" s="66" t="s">
         <v>178</v>
@@ -17126,7 +17126,7 @@
       </c>
       <c r="B480" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarahmi558@man.com</v>
+        <v>auliarahmi721@man.com</v>
       </c>
       <c r="C480" s="67" t="s">
         <v>179</v>
@@ -17156,7 +17156,7 @@
       </c>
       <c r="B481" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>azzatilakmar480@man.com</v>
+        <v>azzatilakmar658@man.com</v>
       </c>
       <c r="C481" s="68" t="s">
         <v>180</v>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="B482" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dhiyajinansausan319@man.com</v>
+        <v>dhiyajinansausan875@man.com</v>
       </c>
       <c r="C482" s="67" t="s">
         <v>181</v>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="B483" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>elmafebriani936@man.com</v>
+        <v>elmafebriani132@man.com</v>
       </c>
       <c r="C483" s="66" t="s">
         <v>182</v>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B484" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>firamaulana193@man.com</v>
+        <v>firamaulana756@man.com</v>
       </c>
       <c r="C484" s="72" t="s">
         <v>183</v>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B485" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>henderik591@man.com</v>
+        <v>henderik213@man.com</v>
       </c>
       <c r="C485" s="68" t="s">
         <v>648</v>
@@ -17306,7 +17306,7 @@
       </c>
       <c r="B486" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ifasilvia562@man.com</v>
+        <v>ifasilvia828@man.com</v>
       </c>
       <c r="C486" s="66" t="s">
         <v>184</v>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="B487" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intanrindipurwati841@man.com</v>
+        <v>intanrindipurwati809@man.com</v>
       </c>
       <c r="C487" s="66" t="s">
         <v>185</v>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="B488" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ilhamrizkipratama997@man.com</v>
+        <v>ilhamrizkipratama243@man.com</v>
       </c>
       <c r="C488" s="66" t="s">
         <v>649</v>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="B489" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>iradah545@man.com</v>
+        <v>iradah224@man.com</v>
       </c>
       <c r="C489" s="68" t="s">
         <v>186</v>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="B490" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jamianqalbu432@man.com</v>
+        <v>jamianqalbu955@man.com</v>
       </c>
       <c r="C490" s="68" t="s">
         <v>221</v>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="B491" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnasirin201@man.com</v>
+        <v>khairunnasirin308@man.com</v>
       </c>
       <c r="C491" s="68" t="s">
         <v>187</v>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="B492" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mfahri417@man.com</v>
+        <v>mfahri973@man.com</v>
       </c>
       <c r="C492" s="68" t="s">
         <v>650</v>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="B493" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mputrawansyah358@man.com</v>
+        <v>mputrawansyah535@man.com</v>
       </c>
       <c r="C493" s="67" t="s">
         <v>651</v>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="B494" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maharani186@man.com</v>
+        <v>maharani227@man.com</v>
       </c>
       <c r="C494" s="66" t="s">
         <v>188</v>
@@ -17576,7 +17576,7 @@
       </c>
       <c r="B495" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>marlindapuspita720@man.com</v>
+        <v>marlindapuspita273@man.com</v>
       </c>
       <c r="C495" s="67" t="s">
         <v>189</v>
@@ -17606,7 +17606,7 @@
       </c>
       <c r="B496" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maulidaafriani66@man.com</v>
+        <v>maulidaafriani776@man.com</v>
       </c>
       <c r="C496" s="66" t="s">
         <v>190</v>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="B497" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mutiarezeki300@man.com</v>
+        <v>mutiarezeki226@man.com</v>
       </c>
       <c r="C497" s="65" t="s">
         <v>191</v>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="B498" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiamahara785@man.com</v>
+        <v>nadiamahara278@man.com</v>
       </c>
       <c r="C498" s="69" t="s">
         <v>192</v>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B499" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiasari654@man.com</v>
+        <v>nadiasari63@man.com</v>
       </c>
       <c r="C499" s="68" t="s">
         <v>193</v>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="B500" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadyabrudio546@man.com</v>
+        <v>nadyabrudio959@man.com</v>
       </c>
       <c r="C500" s="68" t="s">
         <v>194</v>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B501" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>najibmusapatinugraha491@man.com</v>
+        <v>najibmusapatinugraha985@man.com</v>
       </c>
       <c r="C501" s="66" t="s">
         <v>195</v>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="B502" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nazlaaqnia43@man.com</v>
+        <v>nazlaaqnia349@man.com</v>
       </c>
       <c r="C502" s="67" t="s">
         <v>196</v>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="B503" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>niaramadani574@man.com</v>
+        <v>niaramadani158@man.com</v>
       </c>
       <c r="C503" s="66" t="s">
         <v>652</v>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="B504" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nindasafitri545@man.com</v>
+        <v>nindasafitri242@man.com</v>
       </c>
       <c r="C504" s="67" t="s">
         <v>197</v>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="B505" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>pujasimehate521@man.com</v>
+        <v>pujasimehate834@man.com</v>
       </c>
       <c r="C505" s="67" t="s">
         <v>198</v>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B506" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmadayanti845@man.com</v>
+        <v>rahmadayanti541@man.com</v>
       </c>
       <c r="C506" s="66" t="s">
         <v>199</v>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="B507" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>raihandandi721@man.com</v>
+        <v>raihandandi874@man.com</v>
       </c>
       <c r="C507" s="68" t="s">
         <v>200</v>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="B508" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>refkiwiyanda871@man.com</v>
+        <v>refkiwiyanda349@man.com</v>
       </c>
       <c r="C508" s="68" t="s">
         <v>201</v>
@@ -17996,7 +17996,7 @@
       </c>
       <c r="B509" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>riswandianugrah33@man.com</v>
+        <v>riswandianugrah942@man.com</v>
       </c>
       <c r="C509" s="68" t="s">
         <v>202</v>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="B510" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rizkaiwanpasaranggayo931@man.com</v>
+        <v>rizkaiwanpasaranggayo639@man.com</v>
       </c>
       <c r="C510" s="65" t="s">
         <v>203</v>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="B511" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yuliana173@man.com</v>
+        <v>yuliana494@man.com</v>
       </c>
       <c r="C511" s="66" t="s">
         <v>205</v>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="B512" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yulianda876@man.com</v>
+        <v>yulianda589@man.com</v>
       </c>
       <c r="C512" s="66" t="s">
         <v>206</v>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B513" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>zahran23@man.com</v>
+        <v>zahran717@man.com</v>
       </c>
       <c r="C513" s="70" t="s">
         <v>207</v>
@@ -18146,7 +18146,7 @@
       </c>
       <c r="B514" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abrarilliyin515@man.com</v>
+        <v>abrarilliyin920@man.com</v>
       </c>
       <c r="C514" s="73" t="s">
         <v>208</v>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B515" s="5" t="str">
         <f t="shared" ref="B515:B578" ca="1" si="8">SUBSTITUTE(LOWER(C515&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adenovalkurnia846@man.com</v>
+        <v>adenovalkurnia697@man.com</v>
       </c>
       <c r="C515" s="74" t="s">
         <v>209</v>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="B516" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anandasaskia996@man.com</v>
+        <v>anandasaskia181@man.com</v>
       </c>
       <c r="C516" s="76" t="s">
         <v>210</v>
@@ -18236,7 +18236,7 @@
       </c>
       <c r="B517" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>asparina657@man.com</v>
+        <v>asparina523@man.com</v>
       </c>
       <c r="C517" s="75" t="s">
         <v>211</v>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B518" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>cutmeriahsyamsi504@man.com</v>
+        <v>cutmeriahsyamsi798@man.com</v>
       </c>
       <c r="C518" s="76" t="s">
         <v>212</v>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B519" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>dahriaziz501@man.com</v>
+        <v>dahriaziz115@man.com</v>
       </c>
       <c r="C519" s="74" t="s">
         <v>213</v>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B520" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>desimahbengi857@man.com</v>
+        <v>desimahbengi115@man.com</v>
       </c>
       <c r="C520" s="75" t="s">
         <v>215</v>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="B521" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>diskiadlani757@man.com</v>
+        <v>diskiadlani907@man.com</v>
       </c>
       <c r="C521" s="78" t="s">
         <v>214</v>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="B522" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>fahmimaisya571@man.com</v>
+        <v>fahmimaisya495@man.com</v>
       </c>
       <c r="C522" s="76" t="s">
         <v>216</v>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B523" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>humairanadila761@man.com</v>
+        <v>humairanadila896@man.com</v>
       </c>
       <c r="C523" s="73" t="s">
         <v>217</v>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="B524" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnimahtuah218@man.com</v>
+        <v>husnimahtuah639@man.com</v>
       </c>
       <c r="C524" s="74" t="s">
         <v>218</v>
@@ -18476,7 +18476,7 @@
       </c>
       <c r="B525" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>iqbaldarmawan377@man.com</v>
+        <v>iqbaldarmawan740@man.com</v>
       </c>
       <c r="C525" s="74" t="s">
         <v>219</v>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="B526" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>israazzahra509@man.com</v>
+        <v>israazzahra828@man.com</v>
       </c>
       <c r="C526" s="74" t="s">
         <v>220</v>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B527" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>khairunisa237@man.com</v>
+        <v>khairunisa894@man.com</v>
       </c>
       <c r="C527" s="75" t="s">
         <v>222</v>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="B528" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>laulasalsabila667@man.com</v>
+        <v>laulasalsabila942@man.com</v>
       </c>
       <c r="C528" s="75" t="s">
         <v>223</v>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B529" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>msubki751@man.com</v>
+        <v>msubki277@man.com</v>
       </c>
       <c r="C529" s="75" t="s">
         <v>653</v>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="B530" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>magfirahyurisma704@man.com</v>
+        <v>magfirahyurisma366@man.com</v>
       </c>
       <c r="C530" s="74" t="s">
         <v>225</v>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B531" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mauliyana243@man.com</v>
+        <v>mauliyana350@man.com</v>
       </c>
       <c r="C531" s="76" t="s">
         <v>226</v>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="B532" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>meethalaura593@man.com</v>
+        <v>meethalaura172@man.com</v>
       </c>
       <c r="C532" s="73" t="s">
         <v>227</v>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="B533" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mislanbahana521@man.com</v>
+        <v>mislanbahana980@man.com</v>
       </c>
       <c r="C533" s="75" t="s">
         <v>228</v>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B534" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadilaraudatunnisya393@man.com</v>
+        <v>nadilaraudatunnisya244@man.com</v>
       </c>
       <c r="C534" s="76" t="s">
         <v>229</v>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B535" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadyatiaraniaprilia965@man.com</v>
+        <v>nadyatiaraniaprilia603@man.com</v>
       </c>
       <c r="C535" s="79" t="s">
         <v>230</v>
@@ -18806,7 +18806,7 @@
       </c>
       <c r="B536" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>niaramadhana896@man.com</v>
+        <v>niaramadhana26@man.com</v>
       </c>
       <c r="C536" s="75" t="s">
         <v>224</v>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="B537" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>noraarifah429@man.com</v>
+        <v>noraarifah517@man.com</v>
       </c>
       <c r="C537" s="73" t="s">
         <v>231</v>
@@ -18866,7 +18866,7 @@
       </c>
       <c r="B538" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrialyasalsabila707@man.com</v>
+        <v>putrialyasalsabila930@man.com</v>
       </c>
       <c r="C538" s="76" t="s">
         <v>232</v>
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B539" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrikawazula720@man.com</v>
+        <v>putrikawazula367@man.com</v>
       </c>
       <c r="C539" s="75" t="s">
         <v>233</v>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="B540" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ramadhanfitra969@man.com</v>
+        <v>ramadhanfitra635@man.com</v>
       </c>
       <c r="C540" s="76" t="s">
         <v>234</v>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B541" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>randarizki600@man.com</v>
+        <v>randarizki13@man.com</v>
       </c>
       <c r="C541" s="74" t="s">
         <v>235</v>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B542" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>reladi722@man.com</v>
+        <v>reladi865@man.com</v>
       </c>
       <c r="C542" s="74" t="s">
         <v>236</v>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="B543" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rezekiwananto402@man.com</v>
+        <v>rezekiwananto570@man.com</v>
       </c>
       <c r="C543" s="75" t="s">
         <v>237</v>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="B544" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riski950@man.com</v>
+        <v>riski405@man.com</v>
       </c>
       <c r="C544" s="74" t="s">
         <v>238</v>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="B545" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riskisetiawan62@man.com</v>
+        <v>riskisetiawan429@man.com</v>
       </c>
       <c r="C545" s="76" t="s">
         <v>239</v>
@@ -19106,7 +19106,7 @@
       </c>
       <c r="B546" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rizkiiwanramadan730@man.com</v>
+        <v>rizkiiwanramadan596@man.com</v>
       </c>
       <c r="C546" s="75" t="s">
         <v>240</v>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B547" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruaida723@man.com</v>
+        <v>ruaida807@man.com</v>
       </c>
       <c r="C547" s="77" t="s">
         <v>241</v>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B548" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>safrinandaputra437@man.com</v>
+        <v>safrinandaputra389@man.com</v>
       </c>
       <c r="C548" s="75" t="s">
         <v>204</v>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="B549" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>selviapintenate189@man.com</v>
+        <v>selviapintenate527@man.com</v>
       </c>
       <c r="C549" s="76" t="s">
         <v>242</v>
@@ -19226,7 +19226,7 @@
       </c>
       <c r="B550" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wulanmelisa385@man.com</v>
+        <v>wulanmelisa528@man.com</v>
       </c>
       <c r="C550" s="76" t="s">
         <v>243</v>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="B551" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anggunkaniya484@man.com</v>
+        <v>anggunkaniya645@man.com</v>
       </c>
       <c r="C551" s="83" t="s">
         <v>244</v>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B552" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>binautami7@man.com</v>
+        <v>binautami931@man.com</v>
       </c>
       <c r="C552" s="83" t="s">
         <v>245</v>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B553" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ditaarmazayani856@man.com</v>
+        <v>ditaarmazayani219@man.com</v>
       </c>
       <c r="C553" s="83" t="s">
         <v>246</v>
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B554" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>helmifauziansah129@man.com</v>
+        <v>helmifauziansah19@man.com</v>
       </c>
       <c r="C554" s="84" t="s">
         <v>256</v>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B555" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnasari613@man.com</v>
+        <v>husnasari692@man.com</v>
       </c>
       <c r="C555" s="83" t="s">
         <v>247</v>
@@ -19406,7 +19406,7 @@
       </c>
       <c r="B556" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ipakyana254@man.com</v>
+        <v>ipakyana476@man.com</v>
       </c>
       <c r="C556" s="83" t="s">
         <v>248</v>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="B557" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>istiqomah259@man.com</v>
+        <v>istiqomah808@man.com</v>
       </c>
       <c r="C557" s="83" t="s">
         <v>249</v>
@@ -19466,7 +19466,7 @@
       </c>
       <c r="B558" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>lidyaaudina157@man.com</v>
+        <v>lidyaaudina498@man.com</v>
       </c>
       <c r="C558" s="83" t="s">
         <v>250</v>
@@ -19496,7 +19496,7 @@
       </c>
       <c r="B559" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ma'rifatinzahra967@man.com</v>
+        <v>ma'rifatinzahra596@man.com</v>
       </c>
       <c r="C559" s="83" t="s">
         <v>251</v>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="B560" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>melawatiputri416@man.com</v>
+        <v>melawatiputri881@man.com</v>
       </c>
       <c r="C560" s="83" t="s">
         <v>252</v>
@@ -19556,7 +19556,7 @@
       </c>
       <c r="B561" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>milajunitaslasih640@man.com</v>
+        <v>milajunitaslasih684@man.com</v>
       </c>
       <c r="C561" s="83" t="s">
         <v>253</v>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B562" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mirnayanti917@man.com</v>
+        <v>mirnayanti922@man.com</v>
       </c>
       <c r="C562" s="83" t="s">
         <v>254</v>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="B563" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nazirahusna877@man.com</v>
+        <v>nazirahusna198@man.com</v>
       </c>
       <c r="C563" s="83" t="s">
         <v>255</v>
@@ -19646,7 +19646,7 @@
       </c>
       <c r="B564" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nuraisyahborun772@man.com</v>
+        <v>nuraisyahborun255@man.com</v>
       </c>
       <c r="C564" s="83" t="s">
         <v>257</v>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="B565" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>pinterezeki164@man.com</v>
+        <v>pinterezeki51@man.com</v>
       </c>
       <c r="C565" s="81" t="s">
         <v>258</v>
@@ -19706,7 +19706,7 @@
       </c>
       <c r="B566" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putridamayani166@man.com</v>
+        <v>putridamayani276@man.com</v>
       </c>
       <c r="C566" s="84" t="s">
         <v>259</v>
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B567" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>raniapermataputri340@man.com</v>
+        <v>raniapermataputri217@man.com</v>
       </c>
       <c r="C567" s="81" t="s">
         <v>260</v>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="B568" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruhda872@man.com</v>
+        <v>ruhda722@man.com</v>
       </c>
       <c r="C568" s="85" t="s">
         <v>261</v>
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B569" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sarawidamelala994@man.com</v>
+        <v>sarawidamelala299@man.com</v>
       </c>
       <c r="C569" s="83" t="s">
         <v>262</v>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B570" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sariramadani868@man.com</v>
+        <v>sariramadani303@man.com</v>
       </c>
       <c r="C570" s="84" t="s">
         <v>263</v>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="B571" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>saufayarda759@man.com</v>
+        <v>saufayarda913@man.com</v>
       </c>
       <c r="C571" s="83" t="s">
         <v>264</v>
@@ -19886,7 +19886,7 @@
       </c>
       <c r="B572" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sitinurkhadijah517@man.com</v>
+        <v>sitinurkhadijah418@man.com</v>
       </c>
       <c r="C572" s="81" t="s">
         <v>265</v>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="B573" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>winnaufalmuhammad131@man.com</v>
+        <v>winnaufalmuhammad715@man.com</v>
       </c>
       <c r="C573" s="84" t="s">
         <v>266</v>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="B574" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ylmianafitri673@man.com</v>
+        <v>ylmianafitri813@man.com</v>
       </c>
       <c r="C574" s="83" t="s">
         <v>267</v>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="B575" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>yowenibahgie882@man.com</v>
+        <v>yowenibahgie688@man.com</v>
       </c>
       <c r="C575" s="86" t="s">
         <v>268</v>
@@ -20006,7 +20006,7 @@
       </c>
       <c r="B576" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>aldiansyahrizki320@man.com</v>
+        <v>aldiansyahrizki299@man.com</v>
       </c>
       <c r="C576" s="92" t="s">
         <v>309</v>
@@ -20036,7 +20036,7 @@
       </c>
       <c r="B577" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>alfisahri226@man.com</v>
+        <v>alfisahri76@man.com</v>
       </c>
       <c r="C577" s="93" t="s">
         <v>270</v>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="B578" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>arjunaarisisara600@man.com</v>
+        <v>arjunaarisisara472@man.com</v>
       </c>
       <c r="C578" s="89" t="s">
         <v>271</v>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B579" s="5" t="str">
         <f t="shared" ref="B579:B642" ca="1" si="9">SUBSTITUTE(LOWER(C579&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>ayunisamahbengi894@man.com</v>
+        <v>ayunisamahbengi534@man.com</v>
       </c>
       <c r="C579" s="94" t="s">
         <v>269</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="B580" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>bayupitraarlo563@man.com</v>
+        <v>bayupitraarlo993@man.com</v>
       </c>
       <c r="C580" s="94" t="s">
         <v>272</v>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B581" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>budicandra649@man.com</v>
+        <v>budicandra510@man.com</v>
       </c>
       <c r="C581" s="91" t="s">
         <v>273</v>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="B582" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dechitaismadiyani377@man.com</v>
+        <v>dechitaismadiyani358@man.com</v>
       </c>
       <c r="C582" s="89" t="s">
         <v>654</v>
@@ -20216,7 +20216,7 @@
       </c>
       <c r="B583" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>desimahara31@man.com</v>
+        <v>desimahara378@man.com</v>
       </c>
       <c r="C583" s="92" t="s">
         <v>274</v>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="B584" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>devianggraini189@man.com</v>
+        <v>devianggraini516@man.com</v>
       </c>
       <c r="C584" s="89" t="s">
         <v>275</v>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="B585" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>farisarahmadani959@man.com</v>
+        <v>farisarahmadani713@man.com</v>
       </c>
       <c r="C585" s="95" t="s">
         <v>276</v>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B586" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hairidami975@man.com</v>
+        <v>hairidami76@man.com</v>
       </c>
       <c r="C586" s="89" t="s">
         <v>277</v>
@@ -20336,7 +20336,7 @@
       </c>
       <c r="B587" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hajilmasturi782@man.com</v>
+        <v>hajilmasturi307@man.com</v>
       </c>
       <c r="C587" s="95" t="s">
         <v>278</v>
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B588" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>husnulnisa440@man.com</v>
+        <v>husnulnisa540@man.com</v>
       </c>
       <c r="C588" s="91" t="s">
         <v>279</v>
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B589" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>isnaini474@man.com</v>
+        <v>isnaini347@man.com</v>
       </c>
       <c r="C589" s="91" t="s">
         <v>280</v>
@@ -20426,7 +20426,7 @@
       </c>
       <c r="B590" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>jahrasalsabila913@man.com</v>
+        <v>jahrasalsabila685@man.com</v>
       </c>
       <c r="C590" s="95" t="s">
         <v>281</v>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="B591" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>julianafitri652@man.com</v>
+        <v>julianafitri860@man.com</v>
       </c>
       <c r="C591" s="89" t="s">
         <v>282</v>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="B592" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kaifarizki145@man.com</v>
+        <v>kaifarizki52@man.com</v>
       </c>
       <c r="C592" s="91" t="s">
         <v>283</v>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="B593" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>maisarahsimehate23@man.com</v>
+        <v>maisarahsimehate505@man.com</v>
       </c>
       <c r="C593" s="89" t="s">
         <v>284</v>
@@ -20546,7 +20546,7 @@
       </c>
       <c r="B594" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mariah311@man.com</v>
+        <v>mariah173@man.com</v>
       </c>
       <c r="C594" s="89" t="s">
         <v>655</v>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B595" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fahrizalkr757@man.com</v>
+        <v>mhd.fahrizalkr718@man.com</v>
       </c>
       <c r="C595" s="88" t="s">
         <v>285</v>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="B596" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mulyanaks867@man.com</v>
+        <v>mulyanaks660@man.com</v>
       </c>
       <c r="C596" s="96" t="s">
         <v>286</v>
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B597" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nabilatrisinteni400@man.com</v>
+        <v>nabilatrisinteni549@man.com</v>
       </c>
       <c r="C597" s="91" t="s">
         <v>287</v>
@@ -20666,7 +20666,7 @@
       </c>
       <c r="B598" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nafhahsyasyasajidah517@man.com</v>
+        <v>nafhahsyasyasajidah857@man.com</v>
       </c>
       <c r="C598" s="97" t="s">
         <v>288</v>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="B599" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nauvalariskaputra36@man.com</v>
+        <v>nauvalariskaputra880@man.com</v>
       </c>
       <c r="C599" s="89" t="s">
         <v>289</v>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="B600" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nazaruddin994@man.com</v>
+        <v>nazaruddin654@man.com</v>
       </c>
       <c r="C600" s="98" t="s">
         <v>290</v>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B601" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>niaradeswita324@man.com</v>
+        <v>niaradeswita198@man.com</v>
       </c>
       <c r="C601" s="98" t="s">
         <v>291</v>
@@ -20786,7 +20786,7 @@
       </c>
       <c r="B602" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nilawati218@man.com</v>
+        <v>nilawati558@man.com</v>
       </c>
       <c r="C602" s="95" t="s">
         <v>292</v>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B603" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nurwahda679@man.com</v>
+        <v>nurwahda591@man.com</v>
       </c>
       <c r="C603" s="87" t="s">
         <v>293</v>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="B604" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>oktaputri287@man.com</v>
+        <v>oktaputri92@man.com</v>
       </c>
       <c r="C604" s="99" t="s">
         <v>294</v>
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B605" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rauzatulzannah713@man.com</v>
+        <v>rauzatulzannah460@man.com</v>
       </c>
       <c r="C605" s="91" t="s">
         <v>47</v>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="B606" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>reynaldi163@man.com</v>
+        <v>reynaldi793@man.com</v>
       </c>
       <c r="C606" s="89" t="s">
         <v>295</v>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B607" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ridhoalsadr814@man.com</v>
+        <v>ridhoalsadr684@man.com</v>
       </c>
       <c r="C607" s="100" t="s">
         <v>333</v>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="B608" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>riskinaputri879@man.com</v>
+        <v>riskinaputri731@man.com</v>
       </c>
       <c r="C608" s="92" t="s">
         <v>296</v>
@@ -20996,7 +20996,7 @@
       </c>
       <c r="B609" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sabri285@man.com</v>
+        <v>sabri291@man.com</v>
       </c>
       <c r="C609" s="95" t="s">
         <v>297</v>
@@ -21026,7 +21026,7 @@
       </c>
       <c r="B610" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>salwani111@man.com</v>
+        <v>salwani326@man.com</v>
       </c>
       <c r="C610" s="92" t="s">
         <v>298</v>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B611" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sandipujaga859@man.com</v>
+        <v>sandipujaga797@man.com</v>
       </c>
       <c r="C611" s="95" t="s">
         <v>299</v>
@@ -21086,7 +21086,7 @@
       </c>
       <c r="B612" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sarianjani36@man.com</v>
+        <v>sarianjani249@man.com</v>
       </c>
       <c r="C612" s="98" t="s">
         <v>300</v>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="B613" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>t.raflyyadyansyah730@man.com</v>
+        <v>t.raflyyadyansyah538@man.com</v>
       </c>
       <c r="C613" s="87" t="s">
         <v>301</v>
@@ -21146,7 +21146,7 @@
       </c>
       <c r="B614" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>zikriwanpinte12@man.com</v>
+        <v>zikriwanpinte613@man.com</v>
       </c>
       <c r="C614" s="96" t="s">
         <v>302</v>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="B615" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afikahsahira23@man.com</v>
+        <v>afikahsahira587@man.com</v>
       </c>
       <c r="C615" s="105" t="s">
         <v>303</v>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="B616" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afriansyah421@man.com</v>
+        <v>afriansyah483@man.com</v>
       </c>
       <c r="C616" s="108" t="s">
         <v>304</v>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="B617" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahmadnandakuara306@man.com</v>
+        <v>ahmadnandakuara764@man.com</v>
       </c>
       <c r="C617" s="107" t="s">
         <v>305</v>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="B618" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyamaulana592@man.com</v>
+        <v>ahyamaulana207@man.com</v>
       </c>
       <c r="C618" s="105" t="s">
         <v>306</v>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B619" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyaradha194@man.com</v>
+        <v>ahyaradha867@man.com</v>
       </c>
       <c r="C619" s="105" t="s">
         <v>307</v>
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B620" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>alwansyah649@man.com</v>
+        <v>alwansyah239@man.com</v>
       </c>
       <c r="C620" s="104" t="s">
         <v>308</v>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="B621" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>apindaulfa124@man.com</v>
+        <v>apindaulfa144@man.com</v>
       </c>
       <c r="C621" s="101" t="s">
         <v>310</v>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="B622" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>azikiatun280@man.com</v>
+        <v>azikiatun165@man.com</v>
       </c>
       <c r="C622" s="105" t="s">
         <v>311</v>
@@ -21416,7 +21416,7 @@
       </c>
       <c r="B623" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cutintannuraini381@man.com</v>
+        <v>cutintannuraini189@man.com</v>
       </c>
       <c r="C623" s="101" t="s">
         <v>312</v>
@@ -21446,7 +21446,7 @@
       </c>
       <c r="B624" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dainifitri113@man.com</v>
+        <v>dainifitri722@man.com</v>
       </c>
       <c r="C624" s="106" t="s">
         <v>313</v>
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B625" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>faridiwahdi811@man.com</v>
+        <v>faridiwahdi250@man.com</v>
       </c>
       <c r="C625" s="101" t="s">
         <v>314</v>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="B626" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ferimardiaqimi984@man.com</v>
+        <v>ferimardiaqimi258@man.com</v>
       </c>
       <c r="C626" s="105" t="s">
         <v>315</v>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="B627" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>frihasupiantirini642@man.com</v>
+        <v>frihasupiantirini588@man.com</v>
       </c>
       <c r="C627" s="101" t="s">
         <v>316</v>
@@ -21566,7 +21566,7 @@
       </c>
       <c r="B628" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>furqan941@man.com</v>
+        <v>furqan475@man.com</v>
       </c>
       <c r="C628" s="101" t="s">
         <v>317</v>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="B629" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hariansyah830@man.com</v>
+        <v>hariansyah869@man.com</v>
       </c>
       <c r="C629" s="101" t="s">
         <v>318</v>
@@ -21626,7 +21626,7 @@
       </c>
       <c r="B630" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ilhamfahmi680@man.com</v>
+        <v>ilhamfahmi713@man.com</v>
       </c>
       <c r="C630" s="104" t="s">
         <v>319</v>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B631" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>itawarni402@man.com</v>
+        <v>itawarni141@man.com</v>
       </c>
       <c r="C631" s="101" t="s">
         <v>320</v>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="B632" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>iwanramadhan929@man.com</v>
+        <v>iwanramadhan390@man.com</v>
       </c>
       <c r="C632" s="105" t="s">
         <v>321</v>
@@ -21716,7 +21716,7 @@
       </c>
       <c r="B633" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kemalaintan597@man.com</v>
+        <v>kemalaintan370@man.com</v>
       </c>
       <c r="C633" s="107" t="s">
         <v>322</v>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="B634" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>khairuladha33@man.com</v>
+        <v>khairuladha947@man.com</v>
       </c>
       <c r="C634" s="101" t="s">
         <v>323</v>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B635" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>lindakarma827@man.com</v>
+        <v>lindakarma592@man.com</v>
       </c>
       <c r="C635" s="101" t="s">
         <v>324</v>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="B636" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fadhli444@man.com</v>
+        <v>mhd.fadhli720@man.com</v>
       </c>
       <c r="C636" s="102" t="s">
         <v>325</v>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B637" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>milwanaprilian820@man.com</v>
+        <v>milwanaprilian932@man.com</v>
       </c>
       <c r="C637" s="105" t="s">
         <v>326</v>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="B638" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mississaprida23@man.com</v>
+        <v>mississaprida944@man.com</v>
       </c>
       <c r="C638" s="101" t="s">
         <v>327</v>
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B639" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mushab446@man.com</v>
+        <v>mushab463@man.com</v>
       </c>
       <c r="C639" s="101" t="s">
         <v>328</v>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="B640" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nuraini685@man.com</v>
+        <v>nuraini279@man.com</v>
       </c>
       <c r="C640" s="105" t="s">
         <v>329</v>
@@ -21956,7 +21956,7 @@
       </c>
       <c r="B641" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatteniro305@man.com</v>
+        <v>rahmatteniro246@man.com</v>
       </c>
       <c r="C641" s="101" t="s">
         <v>330</v>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="B642" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatsyah847@man.com</v>
+        <v>rahmatsyah738@man.com</v>
       </c>
       <c r="C642" s="105" t="s">
         <v>331</v>
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B643" s="5" t="str">
         <f t="shared" ref="B643:B648" ca="1" si="10">SUBSTITUTE(LOWER(C643&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>rendi323@man.com</v>
+        <v>rendi470@man.com</v>
       </c>
       <c r="C643" s="101" t="s">
         <v>332</v>
@@ -22046,7 +22046,7 @@
       </c>
       <c r="B644" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>sahrial699@man.com</v>
+        <v>sahrial598@man.com</v>
       </c>
       <c r="C644" s="101" t="s">
         <v>334</v>
@@ -22076,7 +22076,7 @@
       </c>
       <c r="B645" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>salwanditebe990@man.com</v>
+        <v>salwanditebe445@man.com</v>
       </c>
       <c r="C645" s="105" t="s">
         <v>335</v>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="B646" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>selfiyuliana591@man.com</v>
+        <v>selfiyuliana189@man.com</v>
       </c>
       <c r="C646" s="102" t="s">
         <v>336</v>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="B647" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>supianda388@man.com</v>
+        <v>supianda774@man.com</v>
       </c>
       <c r="C647" s="105" t="s">
         <v>337</v>
@@ -22166,7 +22166,7 @@
       </c>
       <c r="B648" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>yassar281@man.com</v>
+        <v>yassar583@man.com</v>
       </c>
       <c r="C648" s="101" t="s">
         <v>338</v>

--- a/inputXls/Students.xlsx
+++ b/inputXls/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27BFD28-5725-4CE2-BF1A-F83B21225360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE935B5-4803-4253-A85C-7BF324641986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="1470" windowWidth="13710" windowHeight="13605" activeTab="1" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
+    <workbookView xWindow="-270" yWindow="870" windowWidth="13710" windowHeight="13605" activeTab="1" xr2:uid="{D773B905-7FCC-4605-8A5F-8B4B3ED85A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f ca="1">SUBSTITUTE(LOWER(C2&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>abyanmahsanmuhan391@man.com</v>
+        <v>abyanmahsanmuhan705@man.com</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>341</v>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">SUBSTITUTE(LOWER(C3&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adehayati948@man.com</v>
+        <v>adehayati913@man.com</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ahmadqaismughits498@man.com</v>
+        <v>ahmadqaismughits901@man.com</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>342</v>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>aidilhadi522@man.com</v>
+        <v>aidilhadi674@man.com</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>chainaramadana612@man.com</v>
+        <v>chainaramadana220@man.com</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dimasoktavian114@man.com</v>
+        <v>dimasoktavian30@man.com</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>14</v>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>duhaindrawansyah674@man.com</v>
+        <v>duhaindrawansyah40@man.com</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>erwinmaulana574@man.com</v>
+        <v>erwinmaulana95@man.com</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>16</v>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fauzanalkhairi307@man.com</v>
+        <v>fauzanalkhairi743@man.com</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fihadianfitra67@man.com</v>
+        <v>fihadianfitra360@man.com</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futriyasmini938@man.com</v>
+        <v>futriyasmini800@man.com</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>19</v>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ikhsanzikri719@man.com</v>
+        <v>ikhsanzikri586@man.com</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>20</v>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iqbalaimulhusni41@man.com</v>
+        <v>iqbalaimulhusni542@man.com</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>maulandara733@man.com</v>
+        <v>maulandara95@man.com</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>22</v>
@@ -17282,7 +17282,7 @@
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>miftahulrifkimy294@man.com</v>
+        <v>miftahulrifkimy612@man.com</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>muhammadraoshah204@man.com</v>
+        <v>muhammadraoshah730@man.com</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>24</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilabibesmi676@man.com</v>
+        <v>nabilabibesmi90@man.com</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>26</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalfadhil943@man.com</v>
+        <v>naufalfadhil70@man.com</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>27</v>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>niantahafidza931@man.com</v>
+        <v>niantahafidza916@man.com</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>28</v>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>relifwantona566@man.com</v>
+        <v>relifwantona981@man.com</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>29</v>
@@ -17462,7 +17462,7 @@
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rendifebriandi232@man.com</v>
+        <v>rendifebriandi363@man.com</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rezkimahara23@man.com</v>
+        <v>rezkimahara814@man.com</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>31</v>
@@ -17522,7 +17522,7 @@
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>shirathalfadhla781@man.com</v>
+        <v>shirathalfadhla938@man.com</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sismacantikaputri317@man.com</v>
+        <v>sismacantikaputri161@man.com</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>32</v>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>wenihafizah214@man.com</v>
+        <v>wenihafizah266@man.com</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>33</v>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>arikasimehate642@man.com</v>
+        <v>arikasimehate426@man.com</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>62</v>
@@ -17642,7 +17642,7 @@
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ariyanaamelia255@man.com</v>
+        <v>ariyanaamelia87@man.com</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>34</v>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ashfiyanisa1@man.com</v>
+        <v>ashfiyanisa181@man.com</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>343</v>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>asnimulyani797@man.com</v>
+        <v>asnimulyani11@man.com</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>35</v>
@@ -17732,7 +17732,7 @@
       </c>
       <c r="B31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bakri945@man.com</v>
+        <v>bakri978@man.com</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>36</v>
@@ -17762,7 +17762,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bilhaqqi797@man.com</v>
+        <v>bilhaqqi956@man.com</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>37</v>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>dalilakhairy910@man.com</v>
+        <v>dalilakhairy573@man.com</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>59</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fatmawati470@man.com</v>
+        <v>fatmawati409@man.com</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>38</v>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="B35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>firzairinululazmi941@man.com</v>
+        <v>firzairinululazmi188@man.com</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>39</v>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="B36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>futrimaharani743@man.com</v>
+        <v>futrimaharani407@man.com</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>40</v>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="B37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gilanggemilang976@man.com</v>
+        <v>gilanggemilang581@man.com</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>41</v>
@@ -17942,7 +17942,7 @@
       </c>
       <c r="B38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>helsiherlinda191@man.com</v>
+        <v>helsiherlinda586@man.com</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>42</v>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="B39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>iftinansyifa541@man.com</v>
+        <v>iftinansyifa988@man.com</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>344</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="B40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kamisaaidafutri960@man.com</v>
+        <v>kamisaaidafutri256@man.com</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>345</v>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mdzakihabibi178@man.com</v>
+        <v>mdzakihabibi120@man.com</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>346</v>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>malanoviafitri839@man.com</v>
+        <v>malanoviafitri861@man.com</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>43</v>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="B43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>mhdhaikal344@man.com</v>
+        <v>mhdhaikal504@man.com</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>347</v>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="B44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nabilayanti483@man.com</v>
+        <v>nabilayanti194@man.com</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>44</v>
@@ -18152,7 +18152,7 @@
       </c>
       <c r="B45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalhibatullah333@man.com</v>
+        <v>naufalhibatullah95@man.com</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>45</v>
@@ -18182,7 +18182,7 @@
       </c>
       <c r="B46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>naufalzahran224@man.com</v>
+        <v>naufalzahran755@man.com</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>60</v>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="B47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>qhandiraalsagufrana727@man.com</v>
+        <v>qhandiraalsagufrana388@man.com</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>46</v>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rauzatulzannah892@man.com</v>
+        <v>rauzatulzannah640@man.com</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>47</v>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>residianoktesya818@man.com</v>
+        <v>residianoktesya146@man.com</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>48</v>
@@ -18302,7 +18302,7 @@
       </c>
       <c r="B50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rifarahman975@man.com</v>
+        <v>rifarahman724@man.com</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>50</v>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="B51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rinidianti436@man.com</v>
+        <v>rinidianti847@man.com</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>51</v>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="B52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>riyanda160@man.com</v>
+        <v>riyanda309@man.com</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>49</v>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="B53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rozaameliasahraini408@man.com</v>
+        <v>rozaameliasahraini12@man.com</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>52</v>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="B54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sinthiaatikah442@man.com</v>
+        <v>sinthiaatikah402@man.com</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>53</v>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>syafauqbaharrafi62@man.com</v>
+        <v>syafauqbaharrafi603@man.com</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>61</v>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="B56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>taufikhidayat694@man.com</v>
+        <v>taufikhidayat997@man.com</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>54</v>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ulfafitria519@man.com</v>
+        <v>ulfafitria815@man.com</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>55</v>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="B58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>uswatunnazwa30@man.com</v>
+        <v>uswatunnazwa71@man.com</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>56</v>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yuliarnia409@man.com</v>
+        <v>yuliarnia129@man.com</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>57</v>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="B60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yunidarsam746@man.com</v>
+        <v>yunidarsam765@man.com</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>348</v>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="B61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>zahrinaizzatis186@man.com</v>
+        <v>zahrinaizzatis495@man.com</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>58</v>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fahmiamdizulu556@man.com</v>
+        <v>fahmiamdizulu944@man.com</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>349</v>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="B63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>alpandi969@man.com</v>
+        <v>alpandi335@man.com</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>63</v>
@@ -18722,7 +18722,7 @@
       </c>
       <c r="B64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>auradina332@man.com</v>
+        <v>auradina324@man.com</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>64</v>
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bungelusiana122@man.com</v>
+        <v>bungelusiana653@man.com</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>65</v>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="B66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fitraariga991@man.com</v>
+        <v>fitraariga263@man.com</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>89</v>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="B67" s="5" t="str">
         <f t="shared" ref="B67:B130" ca="1" si="1">SUBSTITUTE(LOWER(C67&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>futrisalsabila297@man.com</v>
+        <v>futrisalsabila417@man.com</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>66</v>
@@ -18842,7 +18842,7 @@
       </c>
       <c r="B68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>hamdan516@man.com</v>
+        <v>hamdan926@man.com</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>67</v>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>intannurhayati226@man.com</v>
+        <v>intannurhayati205@man.com</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>90</v>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="B70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jaharamurni229@man.com</v>
+        <v>jaharamurni945@man.com</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>350</v>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="B71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jurfanajwa610@man.com</v>
+        <v>jurfanajwa631@man.com</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>68</v>
@@ -18962,7 +18962,7 @@
       </c>
       <c r="B72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>juspikaaradi88@man.com</v>
+        <v>juspikaaradi491@man.com</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>87</v>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>khairifikri902@man.com</v>
+        <v>khairifikri552@man.com</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>69</v>
@@ -19022,7 +19022,7 @@
       </c>
       <c r="B74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lizanovriana666@man.com</v>
+        <v>lizanovriana654@man.com</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>70</v>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="B75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mauzaismiadi230@man.com</v>
+        <v>mauzaismiadi167@man.com</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>71</v>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melayunita220@man.com</v>
+        <v>melayunita519@man.com</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>72</v>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="B77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mutiararamadhani938@man.com</v>
+        <v>mutiararamadhani571@man.com</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>73</v>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="B78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nadia44@man.com</v>
+        <v>nadia73@man.com</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>74</v>
@@ -19172,7 +19172,7 @@
       </c>
       <c r="B79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>naufalwaliyulhaq133@man.com</v>
+        <v>naufalwaliyulhaq110@man.com</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>75</v>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="B80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>novadiliza196@man.com</v>
+        <v>novadiliza587@man.com</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>88</v>
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rendyafitrawan868@man.com</v>
+        <v>rendyafitrawan849@man.com</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>351</v>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="B82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhajunita780@man.com</v>
+        <v>ridhajunita451@man.com</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>76</v>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="B83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifdafriatin542@man.com</v>
+        <v>rifdafriatin644@man.com</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>77</v>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="B84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahmanhakim618@man.com</v>
+        <v>rifkirahmanhakim730@man.com</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>78</v>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="B85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkaanindra708@man.com</v>
+        <v>rizkaanindra239@man.com</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>79</v>
@@ -19382,7 +19382,7 @@
       </c>
       <c r="B86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkisyafitri668@man.com</v>
+        <v>rizkisyafitri535@man.com</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>80</v>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sahraniputri679@man.com</v>
+        <v>sahraniputri368@man.com</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>81</v>
@@ -19442,7 +19442,7 @@
       </c>
       <c r="B88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selviaafriani79@man.com</v>
+        <v>selviaafriani309@man.com</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>82</v>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="B89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sofiaramadhani438@man.com</v>
+        <v>sofiaramadhani365@man.com</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>352</v>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastriulandari430@man.com</v>
+        <v>sulastriulandari138@man.com</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>83</v>
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>winteguhiwanrantoni83@man.com</v>
+        <v>winteguhiwanrantoni824@man.com</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>91</v>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="B92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>yogasetiawanadha481@man.com</v>
+        <v>yogasetiawanadha322@man.com</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>353</v>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zaharadwearianti111@man.com</v>
+        <v>zaharadwearianti422@man.com</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>84</v>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="B94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zahraniizzatis689@man.com</v>
+        <v>zahraniizzatis690@man.com</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>85</v>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zilfanakhairunnisa781@man.com</v>
+        <v>zilfanakhairunnisa303@man.com</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>86</v>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>endangstaurina296@man.com</v>
+        <v>endangstaurina623@man.com</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>354</v>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>anandaramadhan148@man.com</v>
+        <v>anandaramadhan904@man.com</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>355</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>adekarina374@man.com</v>
+        <v>adekarina552@man.com</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>356</v>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ainulyakin362@man.com</v>
+        <v>ainulyakin929@man.com</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>357</v>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>aldofandika322@man.com</v>
+        <v>aldofandika135@man.com</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>358</v>
@@ -19832,7 +19832,7 @@
       </c>
       <c r="B101" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>alhadimy305@man.com</v>
+        <v>alhadimy737@man.com</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>359</v>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="B102" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>amanda983@man.com</v>
+        <v>amanda915@man.com</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>360</v>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="B103" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>armadainipionafitri829@man.com</v>
+        <v>armadainipionafitri104@man.com</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>361</v>
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B104" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>deniyusnita694@man.com</v>
+        <v>deniyusnita215@man.com</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>362</v>
@@ -19952,7 +19952,7 @@
       </c>
       <c r="B105" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>dinahayati566@man.com</v>
+        <v>dinahayati496@man.com</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>363</v>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="B106" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>faziravalameysa603@man.com</v>
+        <v>faziravalameysa133@man.com</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>364</v>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="B107" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gayatrihajamunte7@man.com</v>
+        <v>gayatrihajamunte94@man.com</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>365</v>
@@ -20042,7 +20042,7 @@
       </c>
       <c r="B108" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mabralsetiawan20@man.com</v>
+        <v>mabralsetiawan834@man.com</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>366</v>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="B109" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>melina218@man.com</v>
+        <v>melina556@man.com</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>367</v>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B110" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>muhammadalfarisim321@man.com</v>
+        <v>muhammadalfarisim852@man.com</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>368</v>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="B111" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nazwa552@man.com</v>
+        <v>nazwa488@man.com</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>369</v>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="B112" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nopiytasentiya94@man.com</v>
+        <v>nopiytasentiya150@man.com</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>370</v>
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B113" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rahmadaini23@man.com</v>
+        <v>rahmadaini638@man.com</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>371</v>
@@ -20222,7 +20222,7 @@
       </c>
       <c r="B114" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhawantuahmiko422@man.com</v>
+        <v>ridhawantuahmiko40@man.com</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>372</v>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="B115" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ridhoramadhan363@man.com</v>
+        <v>ridhoramadhan909@man.com</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>373</v>
@@ -20282,7 +20282,7 @@
       </c>
       <c r="B116" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rifkirahman126@man.com</v>
+        <v>rifkirahman778@man.com</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>374</v>
@@ -20312,7 +20312,7 @@
       </c>
       <c r="B117" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkankhalis523@man.com</v>
+        <v>rizkankhalis131@man.com</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>375</v>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B118" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rizkymaulana798@man.com</v>
+        <v>rizkymaulana765@man.com</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>376</v>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B119" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>saharamulyadi869@man.com</v>
+        <v>saharamulyadi951@man.com</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>377</v>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="B120" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sarahafriani251@man.com</v>
+        <v>sarahafriani516@man.com</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>378</v>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B121" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sawma121@man.com</v>
+        <v>sawma696@man.com</v>
       </c>
       <c r="C121" s="27" t="s">
         <v>379</v>
@@ -20462,7 +20462,7 @@
       </c>
       <c r="B122" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sayumahara667@man.com</v>
+        <v>sayumahara473@man.com</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>380</v>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="B123" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>selpinasintiaputri697@man.com</v>
+        <v>selpinasintiaputri855@man.com</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>381</v>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="B124" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>semayang280@man.com</v>
+        <v>semayang731@man.com</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>382</v>
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B125" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sintapratama683@man.com</v>
+        <v>sintapratama102@man.com</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>383</v>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="B126" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sulastri754@man.com</v>
+        <v>sulastri493@man.com</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>384</v>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B127" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sultan72@man.com</v>
+        <v>sultan853@man.com</v>
       </c>
       <c r="C127" s="25" t="s">
         <v>385</v>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="B128" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>taufiqhidayat740@man.com</v>
+        <v>taufiqhidayat271@man.com</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>386</v>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B129" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tirazahraassyifa519@man.com</v>
+        <v>tirazahraassyifa710@man.com</v>
       </c>
       <c r="C129" s="27" t="s">
         <v>387</v>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="B130" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tomirizkilaoce871@man.com</v>
+        <v>tomirizkilaoce698@man.com</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>388</v>
@@ -20732,7 +20732,7 @@
       </c>
       <c r="B131" s="5" t="str">
         <f t="shared" ref="B131:B194" ca="1" si="2">SUBSTITUTE(LOWER(C131&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>vadyaaknaakciella870@man.com</v>
+        <v>vadyaaknaakciella179@man.com</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>389</v>
@@ -20762,7 +20762,7 @@
       </c>
       <c r="B132" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vikkihafizulriski390@man.com</v>
+        <v>vikkihafizulriski245@man.com</v>
       </c>
       <c r="C132" s="27" t="s">
         <v>390</v>
@@ -20792,7 +20792,7 @@
       </c>
       <c r="B133" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>haikalmahpenona374@man.com</v>
+        <v>haikalmahpenona66@man.com</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>391</v>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B134" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahsilaturahmi319@man.com</v>
+        <v>indahsilaturahmi497@man.com</v>
       </c>
       <c r="C134" s="25" t="s">
         <v>392</v>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="B135" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>adityafazri134@man.com</v>
+        <v>adityafazri882@man.com</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>393</v>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="B136" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>akmalhakim906@man.com</v>
+        <v>akmalhakim442@man.com</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>394</v>
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B137" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>amanapernama186@man.com</v>
+        <v>amanapernama902@man.com</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>395</v>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="B138" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andiarba589@man.com</v>
+        <v>andiarba132@man.com</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>12</v>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="B139" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>andikaranggayo985@man.com</v>
+        <v>andikaranggayo609@man.com</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>396</v>
@@ -21002,7 +21002,7 @@
       </c>
       <c r="B140" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>citraaprisyah794@man.com</v>
+        <v>citraaprisyah756@man.com</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>397</v>
@@ -21032,7 +21032,7 @@
       </c>
       <c r="B141" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>endangagustiayu163@man.com</v>
+        <v>endangagustiayu675@man.com</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>398</v>
@@ -21062,7 +21062,7 @@
       </c>
       <c r="B142" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhlanridho787@man.com</v>
+        <v>fadhlanridho827@man.com</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>399</v>
@@ -21092,7 +21092,7 @@
       </c>
       <c r="B143" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadilhawari289@man.com</v>
+        <v>fadilhawari775@man.com</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>400</v>
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B144" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>gafuriakmal72@man.com</v>
+        <v>gafuriakmal431@man.com</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>401</v>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B145" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hafidzulqiram456@man.com</v>
+        <v>hafidzulqiram487@man.com</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>402</v>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B146" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>handika114@man.com</v>
+        <v>handika316@man.com</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>403</v>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="B147" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hardiramalianda781@man.com</v>
+        <v>hardiramalianda393@man.com</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>404</v>
@@ -21242,7 +21242,7 @@
       </c>
       <c r="B148" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>herisyahputra172@man.com</v>
+        <v>herisyahputra65@man.com</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>405</v>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="B149" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>izatunnisa683@man.com</v>
+        <v>izatunnisa602@man.com</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>406</v>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="B150" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdikasakula282@man.com</v>
+        <v>mdikasakula532@man.com</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>407</v>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="B151" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mahfuza144@man.com</v>
+        <v>mahfuza863@man.com</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>408</v>
@@ -21362,7 +21362,7 @@
       </c>
       <c r="B152" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muthahari705@man.com</v>
+        <v>muthahari1000@man.com</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>409</v>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="B153" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafis255@man.com</v>
+        <v>nafis168@man.com</v>
       </c>
       <c r="C153" s="33" t="s">
         <v>410</v>
@@ -21422,7 +21422,7 @@
       </c>
       <c r="B154" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nafisah259@man.com</v>
+        <v>nafisah791@man.com</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>411</v>
@@ -21452,7 +21452,7 @@
       </c>
       <c r="B155" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>naufalzahran959@man.com</v>
+        <v>naufalzahran519@man.com</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>60</v>
@@ -21482,7 +21482,7 @@
       </c>
       <c r="B156" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nipanikmah303@man.com</v>
+        <v>nipanikmah414@man.com</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>412</v>
@@ -21512,7 +21512,7 @@
       </c>
       <c r="B157" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sahlandi922@man.com</v>
+        <v>sahlandi811@man.com</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>413</v>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="B158" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>santrimauliani244@man.com</v>
+        <v>santrimauliani40@man.com</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>414</v>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="B159" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>serimahara23@man.com</v>
+        <v>serimahara430@man.com</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>415</v>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="B160" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>arilbahgia439@man.com</v>
+        <v>arilbahgia591@man.com</v>
       </c>
       <c r="C160" s="36" t="s">
         <v>416</v>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B161" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>auliadarmawan649@man.com</v>
+        <v>auliadarmawan965@man.com</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>417</v>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="B162" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>chairulihsan50@man.com</v>
+        <v>chairulihsan798@man.com</v>
       </c>
       <c r="C162" s="36" t="s">
         <v>418</v>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="B163" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fadhilruzika839@man.com</v>
+        <v>fadhilruzika341@man.com</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>419</v>
@@ -21722,7 +21722,7 @@
       </c>
       <c r="B164" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fathulhakiki890@man.com</v>
+        <v>fathulhakiki948@man.com</v>
       </c>
       <c r="C164" s="36" t="s">
         <v>420</v>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="B165" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>indahmahbengi245@man.com</v>
+        <v>indahmahbengi283@man.com</v>
       </c>
       <c r="C165" s="36" t="s">
         <v>421</v>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="B166" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iwanmaulana252@man.com</v>
+        <v>iwanmaulana940@man.com</v>
       </c>
       <c r="C166" s="36" t="s">
         <v>422</v>
@@ -21812,7 +21812,7 @@
       </c>
       <c r="B167" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iyusdalilla200@man.com</v>
+        <v>iyusdalilla413@man.com</v>
       </c>
       <c r="C167" s="36" t="s">
         <v>423</v>
@@ -21842,7 +21842,7 @@
       </c>
       <c r="B168" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mdanieldarmawan381@man.com</v>
+        <v>mdanieldarmawan693@man.com</v>
       </c>
       <c r="C168" s="38" t="s">
         <v>424</v>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B169" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mpatihadlan170@man.com</v>
+        <v>mpatihadlan424@man.com</v>
       </c>
       <c r="C169" s="36" t="s">
         <v>425</v>
@@ -21902,7 +21902,7 @@
       </c>
       <c r="B170" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muhammadfajaral-anis237@man.com</v>
+        <v>muhammadfajaral-anis73@man.com</v>
       </c>
       <c r="C170" s="36" t="s">
         <v>426</v>
@@ -21932,7 +21932,7 @@
       </c>
       <c r="B171" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muliana997@man.com</v>
+        <v>muliana840@man.com</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>427</v>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="B172" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nisarahmadani819@man.com</v>
+        <v>nisarahmadani670@man.com</v>
       </c>
       <c r="C172" s="36" t="s">
         <v>428</v>
@@ -21992,7 +21992,7 @@
       </c>
       <c r="B173" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noufaldimulia753@man.com</v>
+        <v>noufaldimulia618@man.com</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>429</v>
@@ -22022,7 +22022,7 @@
       </c>
       <c r="B174" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>rianrahmadani342@man.com</v>
+        <v>rianrahmadani763@man.com</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>430</v>
@@ -22052,7 +22052,7 @@
       </c>
       <c r="B175" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ridhobanyubening846@man.com</v>
+        <v>ridhobanyubening917@man.com</v>
       </c>
       <c r="C175" s="36" t="s">
         <v>431</v>
@@ -22082,7 +22082,7 @@
       </c>
       <c r="B176" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>susanpebriola605@man.com</v>
+        <v>susanpebriola242@man.com</v>
       </c>
       <c r="C176" s="36" t="s">
         <v>432</v>
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B177" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>syahrulnizam388@man.com</v>
+        <v>syahrulnizam302@man.com</v>
       </c>
       <c r="C177" s="36" t="s">
         <v>433</v>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B178" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuahmiko361@man.com</v>
+        <v>tuahmiko933@man.com</v>
       </c>
       <c r="C178" s="36" t="s">
         <v>434</v>
@@ -22172,7 +22172,7 @@
       </c>
       <c r="B179" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vebinahani224@man.com</v>
+        <v>vebinahani487@man.com</v>
       </c>
       <c r="C179" s="36" t="s">
         <v>435</v>
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B180" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>zikriadha773@man.com</v>
+        <v>zikriadha186@man.com</v>
       </c>
       <c r="C180" s="36" t="s">
         <v>436</v>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="B181" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ahmadmauridsinaga720@man.com</v>
+        <v>ahmadmauridsinaga367@man.com</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>437</v>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="B182" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ainunmagfirah471@man.com</v>
+        <v>ainunmagfirah772@man.com</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>438</v>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="B183" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bahgie950@man.com</v>
+        <v>bahgie991@man.com</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>439</v>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="B184" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fakrimahtuahmiko943@man.com</v>
+        <v>fakrimahtuahmiko471@man.com</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>440</v>
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B185" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fitrymulyani319@man.com</v>
+        <v>fitrymulyani200@man.com</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>441</v>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="B186" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>hairuddahri196@man.com</v>
+        <v>hairuddahri574@man.com</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>442</v>
@@ -22412,7 +22412,7 @@
       </c>
       <c r="B187" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>iqram761@man.com</v>
+        <v>iqram977@man.com</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>443</v>
@@ -22442,7 +22442,7 @@
       </c>
       <c r="B188" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>kadriansyah335@man.com</v>
+        <v>kadriansyah752@man.com</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>444</v>
@@ -22472,7 +22472,7 @@
       </c>
       <c r="B189" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mnurassyfah1000@man.com</v>
+        <v>mnurassyfah9@man.com</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>445</v>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="B190" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mariyana301@man.com</v>
+        <v>mariyana273@man.com</v>
       </c>
       <c r="C190" s="44" t="s">
         <v>446</v>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="B191" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>maulana677@man.com</v>
+        <v>maulana709@man.com</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>447</v>
@@ -22562,7 +22562,7 @@
       </c>
       <c r="B192" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>munawir858@man.com</v>
+        <v>munawir318@man.com</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>448</v>
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B193" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>muzakarah571@man.com</v>
+        <v>muzakarah646@man.com</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>449</v>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="B194" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nurajabulfitriar194@man.com</v>
+        <v>nurajabulfitriar444@man.com</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>450</v>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B195" s="5" t="str">
         <f t="shared" ref="B195:B258" ca="1" si="3">SUBSTITUTE(LOWER(C195&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>olaafrianda497@man.com</v>
+        <v>olaafrianda501@man.com</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>451</v>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="B196" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmadtakbira654@man.com</v>
+        <v>rahmadtakbira41@man.com</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>452</v>
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B197" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rozatulmeria813@man.com</v>
+        <v>rozatulmeria734@man.com</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>453</v>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="B198" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdiakbar462@man.com</v>
+        <v>ruhdiakbar884@man.com</v>
       </c>
       <c r="C198" s="45" t="s">
         <v>454</v>
@@ -22772,7 +22772,7 @@
       </c>
       <c r="B199" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahrimaulana659@man.com</v>
+        <v>sahrimaulana253@man.com</v>
       </c>
       <c r="C199" s="44" t="s">
         <v>455</v>
@@ -22802,7 +22802,7 @@
       </c>
       <c r="B200" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yusranariga592@man.com</v>
+        <v>yusranariga698@man.com</v>
       </c>
       <c r="C200" s="44" t="s">
         <v>456</v>
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B201" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zuhrisimerala341@man.com</v>
+        <v>zuhrisimerala886@man.com</v>
       </c>
       <c r="C201" s="42" t="s">
         <v>457</v>
@@ -22862,7 +22862,7 @@
       </c>
       <c r="B202" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>barika740@man.com</v>
+        <v>barika215@man.com</v>
       </c>
       <c r="C202" s="42" t="s">
         <v>458</v>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="B203" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aizalwafimf930@man.com</v>
+        <v>aizalwafimf789@man.com</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>459</v>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="B204" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>almustaqim485@man.com</v>
+        <v>almustaqim902@man.com</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>460</v>
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B205" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>assakinahsiregar778@man.com</v>
+        <v>assakinahsiregar448@man.com</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>461</v>
@@ -22982,7 +22982,7 @@
       </c>
       <c r="B206" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>dinaauliaramadhani629@man.com</v>
+        <v>dinaauliaramadhani711@man.com</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>462</v>
@@ -23012,7 +23012,7 @@
       </c>
       <c r="B207" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fadliwanzikra304@man.com</v>
+        <v>fadliwanzikra318@man.com</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>463</v>
@@ -23042,7 +23042,7 @@
       </c>
       <c r="B208" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>firanisyafriyana284@man.com</v>
+        <v>firanisyafriyana469@man.com</v>
       </c>
       <c r="C208" s="47" t="s">
         <v>464</v>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="B209" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hadrinawati630@man.com</v>
+        <v>hadrinawati183@man.com</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>465</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="B210" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>himmahadzkiya192@man.com</v>
+        <v>himmahadzkiya531@man.com</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>466</v>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="B211" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>maitsanuruls564@man.com</v>
+        <v>maitsanuruls482@man.com</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>467</v>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B212" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naafilahridhaanggraini467@man.com</v>
+        <v>naafilahridhaanggraini350@man.com</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>468</v>
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B213" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rendyhidayatullah720@man.com</v>
+        <v>rendyhidayatullah891@man.com</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>469</v>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="B214" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilakinanti280@man.com</v>
+        <v>nabilakinanti90@man.com</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>470</v>
@@ -23252,7 +23252,7 @@
       </c>
       <c r="B215" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabilapermai306@man.com</v>
+        <v>nabilapermai660@man.com</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>471</v>
@@ -23282,7 +23282,7 @@
       </c>
       <c r="B216" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nabila9@man.com</v>
+        <v>nabila536@man.com</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>472</v>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="B217" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>nurmala599@man.com</v>
+        <v>nurmala925@man.com</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>473</v>
@@ -23342,7 +23342,7 @@
       </c>
       <c r="B218" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>naylafarizahusna424@man.com</v>
+        <v>naylafarizahusna490@man.com</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>474</v>
@@ -23372,7 +23372,7 @@
       </c>
       <c r="B219" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ririyunita386@man.com</v>
+        <v>ririyunita146@man.com</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>475</v>
@@ -23402,7 +23402,7 @@
       </c>
       <c r="B220" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sayyidatulkhusnulkhotimah973@man.com</v>
+        <v>sayyidatulkhusnulkhotimah486@man.com</v>
       </c>
       <c r="C220" s="47" t="s">
         <v>476</v>
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B221" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syifasalsabila730@man.com</v>
+        <v>syifasalsabila686@man.com</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>477</v>
@@ -23462,7 +23462,7 @@
       </c>
       <c r="B222" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ulfasalsabila180@man.com</v>
+        <v>ulfasalsabila27@man.com</v>
       </c>
       <c r="C222" s="47" t="s">
         <v>478</v>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="B223" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>umitatamara301@man.com</v>
+        <v>umitatamara152@man.com</v>
       </c>
       <c r="C223" s="47" t="s">
         <v>479</v>
@@ -23522,7 +23522,7 @@
       </c>
       <c r="B224" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>yolandarahmadani408@man.com</v>
+        <v>yolandarahmadani723@man.com</v>
       </c>
       <c r="C224" s="47" t="s">
         <v>480</v>
@@ -23552,7 +23552,7 @@
       </c>
       <c r="B225" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zahratululyas794@man.com</v>
+        <v>zahratululyas212@man.com</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>481</v>
@@ -23582,7 +23582,7 @@
       </c>
       <c r="B226" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>agihilham201@man.com</v>
+        <v>agihilham426@man.com</v>
       </c>
       <c r="C226" s="47" t="s">
         <v>92</v>
@@ -23612,7 +23612,7 @@
       </c>
       <c r="B227" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aisyfahrozi807@man.com</v>
+        <v>aisyfahrozi954@man.com</v>
       </c>
       <c r="C227" s="47" t="s">
         <v>93</v>
@@ -23642,7 +23642,7 @@
       </c>
       <c r="B228" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>angguncytrarozha33@man.com</v>
+        <v>angguncytrarozha343@man.com</v>
       </c>
       <c r="C228" s="47" t="s">
         <v>94</v>
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B229" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>aryana303@man.com</v>
+        <v>aryana784@man.com</v>
       </c>
       <c r="C229" s="47" t="s">
         <v>95</v>
@@ -23702,7 +23702,7 @@
       </c>
       <c r="B230" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>awalludinnovriandim851@man.com</v>
+        <v>awalludinnovriandim449@man.com</v>
       </c>
       <c r="C230" s="47" t="s">
         <v>96</v>
@@ -23732,7 +23732,7 @@
       </c>
       <c r="B231" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>diana37@man.com</v>
+        <v>diana973@man.com</v>
       </c>
       <c r="C231" s="47" t="s">
         <v>97</v>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B232" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>fanilidiafutri9@man.com</v>
+        <v>fanilidiafutri545@man.com</v>
       </c>
       <c r="C232" s="47" t="s">
         <v>98</v>
@@ -23792,7 +23792,7 @@
       </c>
       <c r="B233" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ghufranabal183@man.com</v>
+        <v>ghufranabal832@man.com</v>
       </c>
       <c r="C233" s="47" t="s">
         <v>99</v>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="B234" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzalfarizi260@man.com</v>
+        <v>hafidzalfarizi137@man.com</v>
       </c>
       <c r="C234" s="47" t="s">
         <v>100</v>
@@ -23852,7 +23852,7 @@
       </c>
       <c r="B235" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>hafidzahafifaziz933@man.com</v>
+        <v>hafidzahafifaziz460@man.com</v>
       </c>
       <c r="C235" s="47" t="s">
         <v>101</v>
@@ -23882,7 +23882,7 @@
       </c>
       <c r="B236" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ilhamelsandi852@man.com</v>
+        <v>ilhamelsandi905@man.com</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>102</v>
@@ -23912,7 +23912,7 @@
       </c>
       <c r="B237" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>inesalvanirenggali721@man.com</v>
+        <v>inesalvanirenggali410@man.com</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>103</v>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="B238" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>iwanrezeki289@man.com</v>
+        <v>iwanrezeki192@man.com</v>
       </c>
       <c r="C238" s="47" t="s">
         <v>104</v>
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B239" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>junaidi632@man.com</v>
+        <v>junaidi165@man.com</v>
       </c>
       <c r="C239" s="47" t="s">
         <v>105</v>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="B240" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>kamisa529@man.com</v>
+        <v>kamisa936@man.com</v>
       </c>
       <c r="C240" s="47" t="s">
         <v>106</v>
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B241" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>najwasalsabilalaili211@man.com</v>
+        <v>najwasalsabilalaili787@man.com</v>
       </c>
       <c r="C241" s="47" t="s">
         <v>107</v>
@@ -24062,7 +24062,7 @@
       </c>
       <c r="B242" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>novyasalisca328@man.com</v>
+        <v>novyasalisca566@man.com</v>
       </c>
       <c r="C242" s="47" t="s">
         <v>108</v>
@@ -24092,7 +24092,7 @@
       </c>
       <c r="B243" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>radiansyah560@man.com</v>
+        <v>radiansyah392@man.com</v>
       </c>
       <c r="C243" s="47" t="s">
         <v>109</v>
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B244" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rahmitafitri23@man.com</v>
+        <v>rahmitafitri354@man.com</v>
       </c>
       <c r="C244" s="48" t="s">
         <v>110</v>
@@ -24152,7 +24152,7 @@
       </c>
       <c r="B245" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rajagilang530@man.com</v>
+        <v>rajagilang23@man.com</v>
       </c>
       <c r="C245" s="47" t="s">
         <v>111</v>
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B246" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rasikadewis35@man.com</v>
+        <v>rasikadewis584@man.com</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>112</v>
@@ -24212,7 +24212,7 @@
       </c>
       <c r="B247" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renisimahbengi836@man.com</v>
+        <v>renisimahbengi932@man.com</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>113</v>
@@ -24242,7 +24242,7 @@
       </c>
       <c r="B248" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>renomihaldiko488@man.com</v>
+        <v>renomihaldiko577@man.com</v>
       </c>
       <c r="C248" s="47" t="s">
         <v>114</v>
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B249" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rifkisetiawan243@man.com</v>
+        <v>rifkisetiawan233@man.com</v>
       </c>
       <c r="C249" s="47" t="s">
         <v>115</v>
@@ -24302,7 +24302,7 @@
       </c>
       <c r="B250" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rimasimehate72@man.com</v>
+        <v>rimasimehate261@man.com</v>
       </c>
       <c r="C250" s="47" t="s">
         <v>116</v>
@@ -24332,7 +24332,7 @@
       </c>
       <c r="B251" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizahidayah436@man.com</v>
+        <v>rizahidayah973@man.com</v>
       </c>
       <c r="C251" s="47" t="s">
         <v>117</v>
@@ -24362,7 +24362,7 @@
       </c>
       <c r="B252" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rizqiiwanfajri57@man.com</v>
+        <v>rizqiiwanfajri701@man.com</v>
       </c>
       <c r="C252" s="47" t="s">
         <v>118</v>
@@ -24392,7 +24392,7 @@
       </c>
       <c r="B253" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ruhdini547@man.com</v>
+        <v>ruhdini397@man.com</v>
       </c>
       <c r="C253" s="49" t="s">
         <v>119</v>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="B254" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>sahriramadhan459@man.com</v>
+        <v>sahriramadhan440@man.com</v>
       </c>
       <c r="C254" s="50" t="s">
         <v>120</v>
@@ -24452,7 +24452,7 @@
       </c>
       <c r="B255" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>saidnibrasalhabsyi928@man.com</v>
+        <v>saidnibrasalhabsyi74@man.com</v>
       </c>
       <c r="C255" s="47" t="s">
         <v>121</v>
@@ -24482,7 +24482,7 @@
       </c>
       <c r="B256" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfaniazrimaisa780@man.com</v>
+        <v>silfaniazrimaisa588@man.com</v>
       </c>
       <c r="C256" s="47" t="s">
         <v>122</v>
@@ -24512,7 +24512,7 @@
       </c>
       <c r="B257" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>silfinaazrimaisa201@man.com</v>
+        <v>silfinaazrimaisa519@man.com</v>
       </c>
       <c r="C257" s="47" t="s">
         <v>123</v>
@@ -24542,7 +24542,7 @@
       </c>
       <c r="B258" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>syahrawidia103@man.com</v>
+        <v>syahrawidia711@man.com</v>
       </c>
       <c r="C258" s="47" t="s">
         <v>124</v>
@@ -24572,7 +24572,7 @@
       </c>
       <c r="B259" s="5" t="str">
         <f t="shared" ref="B259:B322" ca="1" si="4">SUBSTITUTE(LOWER(C259&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>semalisyukran153@man.com</v>
+        <v>semalisyukran293@man.com</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>125</v>
@@ -24602,7 +24602,7 @@
       </c>
       <c r="B260" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rikiapriyandi173@man.com</v>
+        <v>rikiapriyandi377@man.com</v>
       </c>
       <c r="C260" s="51" t="s">
         <v>482</v>
@@ -24632,7 +24632,7 @@
       </c>
       <c r="B261" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>farhankhairi407@man.com</v>
+        <v>farhankhairi240@man.com</v>
       </c>
       <c r="C261" s="51" t="s">
         <v>483</v>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="B262" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>almuttaqin18@man.com</v>
+        <v>almuttaqin505@man.com</v>
       </c>
       <c r="C262" s="51" t="s">
         <v>484</v>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B263" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>aidilfitra757@man.com</v>
+        <v>aidilfitra940@man.com</v>
       </c>
       <c r="C263" s="47" t="s">
         <v>485</v>
@@ -24722,7 +24722,7 @@
       </c>
       <c r="B264" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alyasyakira953@man.com</v>
+        <v>alyasyakira714@man.com</v>
       </c>
       <c r="C264" s="47" t="s">
         <v>486</v>
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B265" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andriantawarnate689@man.com</v>
+        <v>andriantawarnate250@man.com</v>
       </c>
       <c r="C265" s="51" t="s">
         <v>487</v>
@@ -24782,7 +24782,7 @@
       </c>
       <c r="B266" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>asyrafifuadipratama182@man.com</v>
+        <v>asyrafifuadipratama943@man.com</v>
       </c>
       <c r="C266" s="47" t="s">
         <v>488</v>
@@ -24812,7 +24812,7 @@
       </c>
       <c r="B267" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>awalulzikri998@man.com</v>
+        <v>awalulzikri919@man.com</v>
       </c>
       <c r="C267" s="47" t="s">
         <v>489</v>
@@ -24842,7 +24842,7 @@
       </c>
       <c r="B268" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ayufitri412@man.com</v>
+        <v>ayufitri727@man.com</v>
       </c>
       <c r="C268" s="47" t="s">
         <v>490</v>
@@ -24872,7 +24872,7 @@
       </c>
       <c r="B269" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>bilqistinaarafah619@man.com</v>
+        <v>bilqistinaarafah512@man.com</v>
       </c>
       <c r="C269" s="47" t="s">
         <v>491</v>
@@ -24902,7 +24902,7 @@
       </c>
       <c r="B270" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>darimatulisda607@man.com</v>
+        <v>darimatulisda298@man.com</v>
       </c>
       <c r="C270" s="47" t="s">
         <v>492</v>
@@ -24932,7 +24932,7 @@
       </c>
       <c r="B271" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>diyasalsabila480@man.com</v>
+        <v>diyasalsabila134@man.com</v>
       </c>
       <c r="C271" s="47" t="s">
         <v>493</v>
@@ -24962,7 +24962,7 @@
       </c>
       <c r="B272" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>elsawahyuni270@man.com</v>
+        <v>elsawahyuni865@man.com</v>
       </c>
       <c r="C272" s="47" t="s">
         <v>494</v>
@@ -24992,7 +24992,7 @@
       </c>
       <c r="B273" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ernafebiola940@man.com</v>
+        <v>ernafebiola165@man.com</v>
       </c>
       <c r="C273" s="47" t="s">
         <v>495</v>
@@ -25022,7 +25022,7 @@
       </c>
       <c r="B274" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fariswasim722@man.com</v>
+        <v>fariswasim48@man.com</v>
       </c>
       <c r="C274" s="47" t="s">
         <v>496</v>
@@ -25052,7 +25052,7 @@
       </c>
       <c r="B275" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fatwarezeki191@man.com</v>
+        <v>fatwarezeki94@man.com</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>497</v>
@@ -25082,7 +25082,7 @@
       </c>
       <c r="B276" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hafizsariyandi281@man.com</v>
+        <v>hafizsariyandi21@man.com</v>
       </c>
       <c r="C276" s="47" t="s">
         <v>498</v>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="B277" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mharitsalsyifa248@man.com</v>
+        <v>mharitsalsyifa254@man.com</v>
       </c>
       <c r="C277" s="47" t="s">
         <v>499</v>
@@ -25142,7 +25142,7 @@
       </c>
       <c r="B278" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahbengi892@man.com</v>
+        <v>mahbengi991@man.com</v>
       </c>
       <c r="C278" s="47" t="s">
         <v>500</v>
@@ -25172,7 +25172,7 @@
       </c>
       <c r="B279" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maysarahfadila280@man.com</v>
+        <v>maysarahfadila644@man.com</v>
       </c>
       <c r="C279" s="47" t="s">
         <v>501</v>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B280" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miftahulhadi431@man.com</v>
+        <v>miftahulhadi390@man.com</v>
       </c>
       <c r="C280" s="47" t="s">
         <v>502</v>
@@ -25232,7 +25232,7 @@
       </c>
       <c r="B281" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>misriadi477@man.com</v>
+        <v>misriadi637@man.com</v>
       </c>
       <c r="C281" s="47" t="s">
         <v>503</v>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="B282" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najhan256@man.com</v>
+        <v>najhan984@man.com</v>
       </c>
       <c r="C282" s="47" t="s">
         <v>504</v>
@@ -25292,7 +25292,7 @@
       </c>
       <c r="B283" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nurulsinta530@man.com</v>
+        <v>nurulsinta844@man.com</v>
       </c>
       <c r="C283" s="47" t="s">
         <v>505</v>
@@ -25322,7 +25322,7 @@
       </c>
       <c r="B284" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rahmatsafriaji983@man.com</v>
+        <v>rahmatsafriaji368@man.com</v>
       </c>
       <c r="C284" s="47" t="s">
         <v>506</v>
@@ -25352,7 +25352,7 @@
       </c>
       <c r="B285" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ranggaterimejaya429@man.com</v>
+        <v>ranggaterimejaya916@man.com</v>
       </c>
       <c r="C285" s="47" t="s">
         <v>507</v>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="B286" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rayyankemala122@man.com</v>
+        <v>rayyankemala148@man.com</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>508</v>
@@ -25412,7 +25412,7 @@
       </c>
       <c r="B287" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rimanafisa934@man.com</v>
+        <v>rimanafisa146@man.com</v>
       </c>
       <c r="C287" s="47" t="s">
         <v>509</v>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="B288" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>rizkyfakhrulrozi885@man.com</v>
+        <v>rizkyfakhrulrozi64@man.com</v>
       </c>
       <c r="C288" s="47" t="s">
         <v>510</v>
@@ -25472,7 +25472,7 @@
       </c>
       <c r="B289" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ruhmi926@man.com</v>
+        <v>ruhmi912@man.com</v>
       </c>
       <c r="C289" s="47" t="s">
         <v>511</v>
@@ -25502,7 +25502,7 @@
       </c>
       <c r="B290" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarirahmadaini67@man.com</v>
+        <v>sarirahmadaini440@man.com</v>
       </c>
       <c r="C290" s="47" t="s">
         <v>512</v>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="B291" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>sarina875@man.com</v>
+        <v>sarina61@man.com</v>
       </c>
       <c r="C291" s="47" t="s">
         <v>513</v>
@@ -25562,7 +25562,7 @@
       </c>
       <c r="B292" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>siskaramadhani777@man.com</v>
+        <v>siskaramadhani627@man.com</v>
       </c>
       <c r="C292" s="47" t="s">
         <v>514</v>
@@ -25592,7 +25592,7 @@
       </c>
       <c r="B293" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>syafrizal906@man.com</v>
+        <v>syafrizal463@man.com</v>
       </c>
       <c r="C293" s="47" t="s">
         <v>515</v>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="B294" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliya518@man.com</v>
+        <v>waliya789@man.com</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>516</v>
@@ -25652,7 +25652,7 @@
       </c>
       <c r="B295" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianaamara131@man.com</v>
+        <v>yulianaamara783@man.com</v>
       </c>
       <c r="C295" s="47" t="s">
         <v>517</v>
@@ -25682,7 +25682,7 @@
       </c>
       <c r="B296" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>yulianasimahbengi403@man.com</v>
+        <v>yulianasimahbengi451@man.com</v>
       </c>
       <c r="C296" s="47" t="s">
         <v>518</v>
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B297" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>waliyatunma'wa737@man.com</v>
+        <v>waliyatunma'wa760@man.com</v>
       </c>
       <c r="C297" s="51" t="s">
         <v>519</v>
@@ -25742,7 +25742,7 @@
       </c>
       <c r="B298" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>najeedaemirachibro6@man.com</v>
+        <v>najeedaemirachibro178@man.com</v>
       </c>
       <c r="C298" s="51" t="s">
         <v>520</v>
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B299" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>afrizalmahara610@man.com</v>
+        <v>afrizalmahara385@man.com</v>
       </c>
       <c r="C299" s="47" t="s">
         <v>521</v>
@@ -25802,7 +25802,7 @@
       </c>
       <c r="B300" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>agneswahyuningsih828@man.com</v>
+        <v>agneswahyuningsih400@man.com</v>
       </c>
       <c r="C300" s="47" t="s">
         <v>522</v>
@@ -25832,7 +25832,7 @@
       </c>
       <c r="B301" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>alfitramahendra295@man.com</v>
+        <v>alfitramahendra840@man.com</v>
       </c>
       <c r="C301" s="47" t="s">
         <v>523</v>
@@ -25862,7 +25862,7 @@
       </c>
       <c r="B302" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>andrekurniawan565@man.com</v>
+        <v>andrekurniawan754@man.com</v>
       </c>
       <c r="C302" s="47" t="s">
         <v>524</v>
@@ -25892,7 +25892,7 @@
       </c>
       <c r="B303" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>anggunpurnama543@man.com</v>
+        <v>anggunpurnama138@man.com</v>
       </c>
       <c r="C303" s="47" t="s">
         <v>525</v>
@@ -25922,7 +25922,7 @@
       </c>
       <c r="B304" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dheaafifah98@man.com</v>
+        <v>dheaafifah318@man.com</v>
       </c>
       <c r="C304" s="47" t="s">
         <v>526</v>
@@ -25952,7 +25952,7 @@
       </c>
       <c r="B305" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>dwiauva43@man.com</v>
+        <v>dwiauva475@man.com</v>
       </c>
       <c r="C305" s="53" t="s">
         <v>527</v>
@@ -25982,7 +25982,7 @@
       </c>
       <c r="B306" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>erlina464@man.com</v>
+        <v>erlina262@man.com</v>
       </c>
       <c r="C306" s="47" t="s">
         <v>528</v>
@@ -26012,7 +26012,7 @@
       </c>
       <c r="B307" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>faizulazka373@man.com</v>
+        <v>faizulazka371@man.com</v>
       </c>
       <c r="C307" s="47" t="s">
         <v>529</v>
@@ -26042,7 +26042,7 @@
       </c>
       <c r="B308" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fathinjihan60@man.com</v>
+        <v>fathinjihan945@man.com</v>
       </c>
       <c r="C308" s="47" t="s">
         <v>530</v>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="B309" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>gemasatriaperdana890@man.com</v>
+        <v>gemasatriaperdana254@man.com</v>
       </c>
       <c r="C309" s="47" t="s">
         <v>531</v>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="B310" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>hamaliyufatar583@man.com</v>
+        <v>hamaliyufatar626@man.com</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>532</v>
@@ -26132,7 +26132,7 @@
       </c>
       <c r="B311" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>irsaraudhatuljannah381@man.com</v>
+        <v>irsaraudhatuljannah433@man.com</v>
       </c>
       <c r="C311" s="47" t="s">
         <v>533</v>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="B312" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>izasdanuprasetya886@man.com</v>
+        <v>izasdanuprasetya675@man.com</v>
       </c>
       <c r="C312" s="47" t="s">
         <v>534</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="B313" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>khairulwahyudi949@man.com</v>
+        <v>khairulwahyudi554@man.com</v>
       </c>
       <c r="C313" s="47" t="s">
         <v>535</v>
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B314" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>lisaananda567@man.com</v>
+        <v>lisaananda146@man.com</v>
       </c>
       <c r="C314" s="47" t="s">
         <v>536</v>
@@ -26252,7 +26252,7 @@
       </c>
       <c r="B315" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>maharasetiansyah245@man.com</v>
+        <v>maharasetiansyah591@man.com</v>
       </c>
       <c r="C315" s="47" t="s">
         <v>537</v>
@@ -26282,7 +26282,7 @@
       </c>
       <c r="B316" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>mahyudi37@man.com</v>
+        <v>mahyudi146@man.com</v>
       </c>
       <c r="C316" s="47" t="s">
         <v>538</v>
@@ -26312,7 +26312,7 @@
       </c>
       <c r="B317" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>miranggatuahmiko346@man.com</v>
+        <v>miranggatuahmiko157@man.com</v>
       </c>
       <c r="C317" s="47" t="s">
         <v>539</v>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="B318" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muamarcardafi696@man.com</v>
+        <v>muamarcardafi504@man.com</v>
       </c>
       <c r="C318" s="47" t="s">
         <v>540</v>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="B319" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muhammadyusri89@man.com</v>
+        <v>muhammadyusri762@man.com</v>
       </c>
       <c r="C319" s="47" t="s">
         <v>541</v>
@@ -26402,7 +26402,7 @@
       </c>
       <c r="B320" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaandiki122@man.com</v>
+        <v>muliaandiki372@man.com</v>
       </c>
       <c r="C320" s="47" t="s">
         <v>542</v>
@@ -26432,7 +26432,7 @@
       </c>
       <c r="B321" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>muliaardi7@man.com</v>
+        <v>muliaardi928@man.com</v>
       </c>
       <c r="C321" s="47" t="s">
         <v>543</v>
@@ -26462,7 +26462,7 @@
       </c>
       <c r="B322" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nabila743@man.com</v>
+        <v>nabila920@man.com</v>
       </c>
       <c r="C322" s="47" t="s">
         <v>544</v>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="B323" s="5" t="str">
         <f t="shared" ref="B323:B386" ca="1" si="5">SUBSTITUTE(LOWER(C323&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>najarudin842@man.com</v>
+        <v>najarudin543@man.com</v>
       </c>
       <c r="C323" s="47" t="s">
         <v>545</v>
@@ -26522,7 +26522,7 @@
       </c>
       <c r="B324" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>nathasyadindasaura975@man.com</v>
+        <v>nathasyadindasaura750@man.com</v>
       </c>
       <c r="C324" s="47" t="s">
         <v>546</v>
@@ -26552,7 +26552,7 @@
       </c>
       <c r="B325" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>noviardana2@man.com</v>
+        <v>noviardana918@man.com</v>
       </c>
       <c r="C325" s="47" t="s">
         <v>547</v>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="B326" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>piradayani315@man.com</v>
+        <v>piradayani72@man.com</v>
       </c>
       <c r="C326" s="47" t="s">
         <v>548</v>
@@ -26612,7 +26612,7 @@
       </c>
       <c r="B327" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prastio6@man.com</v>
+        <v>prastio153@man.com</v>
       </c>
       <c r="C327" s="47" t="s">
         <v>549</v>
@@ -26642,7 +26642,7 @@
       </c>
       <c r="B328" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>prisnaulanagustina162@man.com</v>
+        <v>prisnaulanagustina486@man.com</v>
       </c>
       <c r="C328" s="47" t="s">
         <v>550</v>
@@ -26672,7 +26672,7 @@
       </c>
       <c r="B329" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanputri858@man.com</v>
+        <v>raihanputri787@man.com</v>
       </c>
       <c r="C329" s="47" t="s">
         <v>551</v>
@@ -26702,7 +26702,7 @@
       </c>
       <c r="B330" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ramayana402@man.com</v>
+        <v>ramayana443@man.com</v>
       </c>
       <c r="C330" s="47" t="s">
         <v>552</v>
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B331" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyuni947@man.com</v>
+        <v>rayyuni978@man.com</v>
       </c>
       <c r="C331" s="47" t="s">
         <v>553</v>
@@ -26762,7 +26762,7 @@
       </c>
       <c r="B332" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sinerulen682@man.com</v>
+        <v>sinerulen346@man.com</v>
       </c>
       <c r="C332" s="47" t="s">
         <v>554</v>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="B333" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>tarimahara438@man.com</v>
+        <v>tarimahara517@man.com</v>
       </c>
       <c r="C333" s="47" t="s">
         <v>555</v>
@@ -26822,7 +26822,7 @@
       </c>
       <c r="B334" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>fakhrurraziq586@man.com</v>
+        <v>fakhrurraziq185@man.com</v>
       </c>
       <c r="C334" s="47" t="s">
         <v>556</v>
@@ -26852,7 +26852,7 @@
       </c>
       <c r="B335" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aqilahhilmi985@man.com</v>
+        <v>aqilahhilmi920@man.com</v>
       </c>
       <c r="C335" s="47" t="s">
         <v>557</v>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="B336" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>beruindah147@man.com</v>
+        <v>beruindah211@man.com</v>
       </c>
       <c r="C336" s="47" t="s">
         <v>558</v>
@@ -26912,7 +26912,7 @@
       </c>
       <c r="B337" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cindyannisaramadaninst641@man.com</v>
+        <v>cindyannisaramadaninst9@man.com</v>
       </c>
       <c r="C337" s="54" t="s">
         <v>559</v>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="B338" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>haspilafitri933@man.com</v>
+        <v>haspilafitri811@man.com</v>
       </c>
       <c r="C338" s="54" t="s">
         <v>560</v>
@@ -26972,7 +26972,7 @@
       </c>
       <c r="B339" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>idanurfadhilah649@man.com</v>
+        <v>idanurfadhilah163@man.com</v>
       </c>
       <c r="C339" s="47" t="s">
         <v>561</v>
@@ -27002,7 +27002,7 @@
       </c>
       <c r="B340" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>intannovitasari678@man.com</v>
+        <v>intannovitasari700@man.com</v>
       </c>
       <c r="C340" s="47" t="s">
         <v>562</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="B341" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jarnidasulisna546@man.com</v>
+        <v>jarnidasulisna741@man.com</v>
       </c>
       <c r="C341" s="47" t="s">
         <v>563</v>
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B342" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairulbasri158@man.com</v>
+        <v>khairulbasri261@man.com</v>
       </c>
       <c r="C342" s="47" t="s">
         <v>564</v>
@@ -27092,7 +27092,7 @@
       </c>
       <c r="B343" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairultaqwa409@man.com</v>
+        <v>khairultaqwa994@man.com</v>
       </c>
       <c r="C343" s="47" t="s">
         <v>565</v>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="B344" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lularahmadanizulda197@man.com</v>
+        <v>lularahmadanizulda373@man.com</v>
       </c>
       <c r="C344" s="47" t="s">
         <v>566</v>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="B345" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>najariashaofa411@man.com</v>
+        <v>najariashaofa871@man.com</v>
       </c>
       <c r="C345" s="47" t="s">
         <v>567</v>
@@ -27182,7 +27182,7 @@
       </c>
       <c r="B346" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmatan805@man.com</v>
+        <v>rahmatan679@man.com</v>
       </c>
       <c r="C346" s="47" t="s">
         <v>568</v>
@@ -27212,7 +27212,7 @@
       </c>
       <c r="B347" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sariani352@man.com</v>
+        <v>sariani180@man.com</v>
       </c>
       <c r="C347" s="47" t="s">
         <v>569</v>
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B348" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syauqialfaiz941@man.com</v>
+        <v>syauqialfaiz348@man.com</v>
       </c>
       <c r="C348" s="47" t="s">
         <v>570</v>
@@ -27272,7 +27272,7 @@
       </c>
       <c r="B349" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>weinfatha54@man.com</v>
+        <v>weinfatha279@man.com</v>
       </c>
       <c r="C349" s="47" t="s">
         <v>571</v>
@@ -27302,7 +27302,7 @@
       </c>
       <c r="B350" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wulanaidafitri285@man.com</v>
+        <v>wulanaidafitri31@man.com</v>
       </c>
       <c r="C350" s="47" t="s">
         <v>572</v>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="B351" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zharifahmahlida988@man.com</v>
+        <v>zharifahmahlida113@man.com</v>
       </c>
       <c r="C351" s="47" t="s">
         <v>573</v>
@@ -27362,7 +27362,7 @@
       </c>
       <c r="B352" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>zidanbayakku59@man.com</v>
+        <v>zidanbayakku809@man.com</v>
       </c>
       <c r="C352" s="47" t="s">
         <v>574</v>
@@ -27392,7 +27392,7 @@
       </c>
       <c r="B353" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ahirasaqban55@man.com</v>
+        <v>ahirasaqban745@man.com</v>
       </c>
       <c r="C353" s="47" t="s">
         <v>575</v>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="B354" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>aisyahnurulrizky675@man.com</v>
+        <v>aisyahnurulrizky694@man.com</v>
       </c>
       <c r="C354" s="54" t="s">
         <v>576</v>
@@ -27452,7 +27452,7 @@
       </c>
       <c r="B355" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alpiandiramadhan601@man.com</v>
+        <v>alpiandiramadhan356@man.com</v>
       </c>
       <c r="C355" s="54" t="s">
         <v>577</v>
@@ -27482,7 +27482,7 @@
       </c>
       <c r="B356" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ariyandicibro959@man.com</v>
+        <v>ariyandicibro373@man.com</v>
       </c>
       <c r="C356" s="47" t="s">
         <v>578</v>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="B357" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>dinamaulidya614@man.com</v>
+        <v>dinamaulidya605@man.com</v>
       </c>
       <c r="C357" s="54" t="s">
         <v>579</v>
@@ -27542,7 +27542,7 @@
       </c>
       <c r="B358" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hamdanfauzi526@man.com</v>
+        <v>hamdanfauzi903@man.com</v>
       </c>
       <c r="C358" s="54" t="s">
         <v>580</v>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="B359" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>helmifarida968@man.com</v>
+        <v>helmifarida774@man.com</v>
       </c>
       <c r="C359" s="47" t="s">
         <v>581</v>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="B360" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihsansimahbengi38@man.com</v>
+        <v>ihsansimahbengi139@man.com</v>
       </c>
       <c r="C360" s="47" t="s">
         <v>582</v>
@@ -27632,7 +27632,7 @@
       </c>
       <c r="B361" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ihwanhafis937@man.com</v>
+        <v>ihwanhafis13@man.com</v>
       </c>
       <c r="C361" s="47" t="s">
         <v>583</v>
@@ -27662,7 +27662,7 @@
       </c>
       <c r="B362" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>indahwahyuni708@man.com</v>
+        <v>indahwahyuni676@man.com</v>
       </c>
       <c r="C362" s="47" t="s">
         <v>584</v>
@@ -27692,7 +27692,7 @@
       </c>
       <c r="B363" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>iswandimabrur498@man.com</v>
+        <v>iswandimabrur554@man.com</v>
       </c>
       <c r="C363" s="47" t="s">
         <v>585</v>
@@ -27722,7 +27722,7 @@
       </c>
       <c r="B364" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>khairunfirdaus97@man.com</v>
+        <v>khairunfirdaus844@man.com</v>
       </c>
       <c r="C364" s="47" t="s">
         <v>586</v>
@@ -27752,7 +27752,7 @@
       </c>
       <c r="B365" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>m.riskiaditia580@man.com</v>
+        <v>m.riskiaditia701@man.com</v>
       </c>
       <c r="C365" s="47" t="s">
         <v>587</v>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="B366" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mizamilfadli575@man.com</v>
+        <v>mizamilfadli503@man.com</v>
       </c>
       <c r="C366" s="47" t="s">
         <v>588</v>
@@ -27812,7 +27812,7 @@
       </c>
       <c r="B367" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muhammadsubki445@man.com</v>
+        <v>muhammadsubki628@man.com</v>
       </c>
       <c r="C367" s="47" t="s">
         <v>589</v>
@@ -27842,7 +27842,7 @@
       </c>
       <c r="B368" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>muliadibahtra90@man.com</v>
+        <v>muliadibahtra849@man.com</v>
       </c>
       <c r="C368" s="54" t="s">
         <v>590</v>
@@ -27872,7 +27872,7 @@
       </c>
       <c r="B369" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>putra848@man.com</v>
+        <v>putra463@man.com</v>
       </c>
       <c r="C369" s="47" t="s">
         <v>591</v>
@@ -27902,7 +27902,7 @@
       </c>
       <c r="B370" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qadrifitra890@man.com</v>
+        <v>qadrifitra777@man.com</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>592</v>
@@ -27932,7 +27932,7 @@
       </c>
       <c r="B371" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rahmadalena710@man.com</v>
+        <v>rahmadalena142@man.com</v>
       </c>
       <c r="C371" s="54" t="s">
         <v>593</v>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="B372" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>raihanaamni458@man.com</v>
+        <v>raihanaamni132@man.com</v>
       </c>
       <c r="C372" s="47" t="s">
         <v>594</v>
@@ -27992,7 +27992,7 @@
       </c>
       <c r="B373" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rayyanasyifayulanda115@man.com</v>
+        <v>rayyanasyifayulanda487@man.com</v>
       </c>
       <c r="C373" s="54" t="s">
         <v>595</v>
@@ -28022,7 +28022,7 @@
       </c>
       <c r="B374" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>rizkyanovaldi374@man.com</v>
+        <v>rizkyanovaldi764@man.com</v>
       </c>
       <c r="C374" s="54" t="s">
         <v>596</v>
@@ -28052,7 +28052,7 @@
       </c>
       <c r="B375" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ryckyrahman567@man.com</v>
+        <v>ryckyrahman196@man.com</v>
       </c>
       <c r="C375" s="54" t="s">
         <v>597</v>
@@ -28082,7 +28082,7 @@
       </c>
       <c r="B376" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sanianabila933@man.com</v>
+        <v>sanianabila986@man.com</v>
       </c>
       <c r="C376" s="47" t="s">
         <v>598</v>
@@ -28112,7 +28112,7 @@
       </c>
       <c r="B377" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sindiainasiska637@man.com</v>
+        <v>sindiainasiska691@man.com</v>
       </c>
       <c r="C377" s="47" t="s">
         <v>599</v>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="B378" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>syahrifitra233@man.com</v>
+        <v>syahrifitra847@man.com</v>
       </c>
       <c r="C378" s="54" t="s">
         <v>600</v>
@@ -28172,7 +28172,7 @@
       </c>
       <c r="B379" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>wiwintermiko151@man.com</v>
+        <v>wiwintermiko942@man.com</v>
       </c>
       <c r="C379" s="55" t="s">
         <v>601</v>
@@ -28202,7 +28202,7 @@
       </c>
       <c r="B380" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yogimarlian296@man.com</v>
+        <v>yogimarlian860@man.com</v>
       </c>
       <c r="C380" s="47" t="s">
         <v>602</v>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="B381" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>yusriramadhan140@man.com</v>
+        <v>yusriramadhan496@man.com</v>
       </c>
       <c r="C381" s="47" t="s">
         <v>603</v>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B382" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>qiyaraazzifa632@man.com</v>
+        <v>qiyaraazzifa14@man.com</v>
       </c>
       <c r="C382" s="47" t="s">
         <v>604</v>
@@ -28292,7 +28292,7 @@
       </c>
       <c r="B383" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>hafizhrizkiramadhan853@man.com</v>
+        <v>hafizhrizkiramadhan691@man.com</v>
       </c>
       <c r="C383" s="47" t="s">
         <v>605</v>
@@ -28322,7 +28322,7 @@
       </c>
       <c r="B384" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>mahdasyakura272@man.com</v>
+        <v>mahdasyakura839@man.com</v>
       </c>
       <c r="C384" s="47" t="s">
         <v>606</v>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="B385" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alhadi959@man.com</v>
+        <v>alhadi434@man.com</v>
       </c>
       <c r="C385" s="47" t="s">
         <v>607</v>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="B386" s="5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>alparesimaharoen798@man.com</v>
+        <v>alparesimaharoen155@man.com</v>
       </c>
       <c r="C386" s="54" t="s">
         <v>608</v>
@@ -28412,7 +28412,7 @@
       </c>
       <c r="B387" s="5" t="str">
         <f t="shared" ref="B387:B450" ca="1" si="6">SUBSTITUTE(LOWER(C387&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>andredinata538@man.com</v>
+        <v>andredinata211@man.com</v>
       </c>
       <c r="C387" s="54" t="s">
         <v>609</v>
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B388" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dahlina464@man.com</v>
+        <v>dahlina281@man.com</v>
       </c>
       <c r="C388" s="47" t="s">
         <v>610</v>
@@ -28472,7 +28472,7 @@
       </c>
       <c r="B389" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fahmiakbar887@man.com</v>
+        <v>fahmiakbar626@man.com</v>
       </c>
       <c r="C389" s="47" t="s">
         <v>611</v>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="B390" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafizwintanoga496@man.com</v>
+        <v>hafizwintanoga970@man.com</v>
       </c>
       <c r="C390" s="54" t="s">
         <v>612</v>
@@ -28532,7 +28532,7 @@
       </c>
       <c r="B391" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>khairilhafiz130@man.com</v>
+        <v>khairilhafiz776@man.com</v>
       </c>
       <c r="C391" s="53" t="s">
         <v>613</v>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="B392" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahajiranirfandi108@man.com</v>
+        <v>mahajiranirfandi1000@man.com</v>
       </c>
       <c r="C392" s="47" t="s">
         <v>614</v>
@@ -28592,7 +28592,7 @@
       </c>
       <c r="B393" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mudimulia626@man.com</v>
+        <v>mudimulia678@man.com</v>
       </c>
       <c r="C393" s="47" t="s">
         <v>615</v>
@@ -28622,7 +28622,7 @@
       </c>
       <c r="B394" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muh.raflymelala723@man.com</v>
+        <v>muh.raflymelala706@man.com</v>
       </c>
       <c r="C394" s="55" t="s">
         <v>616</v>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="B395" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliaakbarbelangi166@man.com</v>
+        <v>muliaakbarbelangi367@man.com</v>
       </c>
       <c r="C395" s="47" t="s">
         <v>617</v>
@@ -28682,7 +28682,7 @@
       </c>
       <c r="B396" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>muliana30@man.com</v>
+        <v>muliana111@man.com</v>
       </c>
       <c r="C396" s="47" t="s">
         <v>427</v>
@@ -28712,7 +28712,7 @@
       </c>
       <c r="B397" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mutaalimazidarrizki208@man.com</v>
+        <v>mutaalimazidarrizki610@man.com</v>
       </c>
       <c r="C397" s="54" t="s">
         <v>618</v>
@@ -28742,7 +28742,7 @@
       </c>
       <c r="B398" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nadianasution262@man.com</v>
+        <v>nadianasution499@man.com</v>
       </c>
       <c r="C398" s="54" t="s">
         <v>619</v>
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B399" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurula'la851@man.com</v>
+        <v>nurula'la51@man.com</v>
       </c>
       <c r="C399" s="54" t="s">
         <v>620</v>
@@ -28802,7 +28802,7 @@
       </c>
       <c r="B400" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ramajitromihardja764@man.com</v>
+        <v>ramajitromihardja562@man.com</v>
       </c>
       <c r="C400" s="47" t="s">
         <v>621</v>
@@ -28832,7 +28832,7 @@
       </c>
       <c r="B401" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>randyferhatin290@man.com</v>
+        <v>randyferhatin830@man.com</v>
       </c>
       <c r="C401" s="47" t="s">
         <v>622</v>
@@ -28862,7 +28862,7 @@
       </c>
       <c r="B402" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>renisahfitri966@man.com</v>
+        <v>renisahfitri747@man.com</v>
       </c>
       <c r="C402" s="47" t="s">
         <v>623</v>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="B403" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rifkitawarnate785@man.com</v>
+        <v>rifkitawarnate597@man.com</v>
       </c>
       <c r="C403" s="47" t="s">
         <v>624</v>
@@ -28922,7 +28922,7 @@
       </c>
       <c r="B404" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rizkahidayat694@man.com</v>
+        <v>rizkahidayat903@man.com</v>
       </c>
       <c r="C404" s="47" t="s">
         <v>625</v>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="B405" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sadri701@man.com</v>
+        <v>sadri375@man.com</v>
       </c>
       <c r="C405" s="47" t="s">
         <v>626</v>
@@ -28982,7 +28982,7 @@
       </c>
       <c r="B406" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>safrizal99@man.com</v>
+        <v>safrizal620@man.com</v>
       </c>
       <c r="C406" s="54" t="s">
         <v>627</v>
@@ -29012,7 +29012,7 @@
       </c>
       <c r="B407" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>suharman991@man.com</v>
+        <v>suharman648@man.com</v>
       </c>
       <c r="C407" s="54" t="s">
         <v>628</v>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="B408" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>tiadwiauliani477@man.com</v>
+        <v>tiadwiauliani189@man.com</v>
       </c>
       <c r="C408" s="47" t="s">
         <v>629</v>
@@ -29072,7 +29072,7 @@
       </c>
       <c r="B409" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wahdini107@man.com</v>
+        <v>wahdini436@man.com</v>
       </c>
       <c r="C409" s="47" t="s">
         <v>630</v>
@@ -29102,7 +29102,7 @@
       </c>
       <c r="B410" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>wildandika4@man.com</v>
+        <v>wildandika798@man.com</v>
       </c>
       <c r="C410" s="47" t="s">
         <v>631</v>
@@ -29132,7 +29132,7 @@
       </c>
       <c r="B411" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zahranimaura601@man.com</v>
+        <v>zahranimaura774@man.com</v>
       </c>
       <c r="C411" s="54" t="s">
         <v>632</v>
@@ -29162,7 +29162,7 @@
       </c>
       <c r="B412" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>irfanrizky408@man.com</v>
+        <v>irfanrizky543@man.com</v>
       </c>
       <c r="C412" s="56" t="s">
         <v>633</v>
@@ -29192,7 +29192,7 @@
       </c>
       <c r="B413" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sahidulsyahputra554@man.com</v>
+        <v>sahidulsyahputra515@man.com</v>
       </c>
       <c r="C413" s="51" t="s">
         <v>634</v>
@@ -29222,7 +29222,7 @@
       </c>
       <c r="B414" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>anamaria330@man.com</v>
+        <v>anamaria128@man.com</v>
       </c>
       <c r="C414" s="57" t="s">
         <v>126</v>
@@ -29252,7 +29252,7 @@
       </c>
       <c r="B415" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>annasrimulia361@man.com</v>
+        <v>annasrimulia405@man.com</v>
       </c>
       <c r="C415" s="58" t="s">
         <v>127</v>
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B416" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>cutamalia941@man.com</v>
+        <v>cutamalia942@man.com</v>
       </c>
       <c r="C416" s="57" t="s">
         <v>128</v>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="B417" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>desisilfiyana789@man.com</v>
+        <v>desisilfiyana23@man.com</v>
       </c>
       <c r="C417" s="57" t="s">
         <v>129</v>
@@ -29342,7 +29342,7 @@
       </c>
       <c r="B418" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>dirgasyidratussalwa917@man.com</v>
+        <v>dirgasyidratussalwa16@man.com</v>
       </c>
       <c r="C418" s="57" t="s">
         <v>130</v>
@@ -29372,7 +29372,7 @@
       </c>
       <c r="B419" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>elizasapitri18@man.com</v>
+        <v>elizasapitri14@man.com</v>
       </c>
       <c r="C419" s="59" t="s">
         <v>131</v>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="B420" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fakhriwijdan924@man.com</v>
+        <v>fakhriwijdan787@man.com</v>
       </c>
       <c r="C420" s="58" t="s">
         <v>132</v>
@@ -29432,7 +29432,7 @@
       </c>
       <c r="B421" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fanita772@man.com</v>
+        <v>fanita949@man.com</v>
       </c>
       <c r="C421" s="60" t="s">
         <v>133</v>
@@ -29462,7 +29462,7 @@
       </c>
       <c r="B422" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ihsanuddin664@man.com</v>
+        <v>ihsanuddin39@man.com</v>
       </c>
       <c r="C422" s="57" t="s">
         <v>134</v>
@@ -29492,7 +29492,7 @@
       </c>
       <c r="B423" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ilhamekafarisy52@man.com</v>
+        <v>ilhamekafarisy725@man.com</v>
       </c>
       <c r="C423" s="57" t="s">
         <v>135</v>
@@ -29522,7 +29522,7 @@
       </c>
       <c r="B424" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>jannatiakanju287@man.com</v>
+        <v>jannatiakanju516@man.com</v>
       </c>
       <c r="C424" s="60" t="s">
         <v>136</v>
@@ -29552,7 +29552,7 @@
       </c>
       <c r="B425" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>lindaamalia400@man.com</v>
+        <v>lindaamalia515@man.com</v>
       </c>
       <c r="C425" s="58" t="s">
         <v>140</v>
@@ -29582,7 +29582,7 @@
       </c>
       <c r="B426" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.rizki419@man.com</v>
+        <v>m.rizki616@man.com</v>
       </c>
       <c r="C426" s="57" t="s">
         <v>137</v>
@@ -29612,7 +29612,7 @@
       </c>
       <c r="B427" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>m.sejahtera361@man.com</v>
+        <v>m.sejahtera261@man.com</v>
       </c>
       <c r="C427" s="57" t="s">
         <v>138</v>
@@ -29642,7 +29642,7 @@
       </c>
       <c r="B428" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mahridalativa301@man.com</v>
+        <v>mahridalativa851@man.com</v>
       </c>
       <c r="C428" s="57" t="s">
         <v>141</v>
@@ -29672,7 +29672,7 @@
       </c>
       <c r="B429" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>maulidasimahara959@man.com</v>
+        <v>maulidasimahara207@man.com</v>
       </c>
       <c r="C429" s="57" t="s">
         <v>142</v>
@@ -29702,7 +29702,7 @@
       </c>
       <c r="B430" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nabilaraudhatunnisya734@man.com</v>
+        <v>nabilaraudhatunnisya417@man.com</v>
       </c>
       <c r="C430" s="58" t="s">
         <v>143</v>
@@ -29732,7 +29732,7 @@
       </c>
       <c r="B431" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>naurahsalsabila438@man.com</v>
+        <v>naurahsalsabila181@man.com</v>
       </c>
       <c r="C431" s="57" t="s">
         <v>144</v>
@@ -29762,7 +29762,7 @@
       </c>
       <c r="B432" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nilmafatimahazzahra838@man.com</v>
+        <v>nilmafatimahazzahra998@man.com</v>
       </c>
       <c r="C432" s="59" t="s">
         <v>145</v>
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B433" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>nurhafidzah228@man.com</v>
+        <v>nurhafidzah89@man.com</v>
       </c>
       <c r="C433" s="57" t="s">
         <v>146</v>
@@ -29822,7 +29822,7 @@
       </c>
       <c r="B434" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>pingkannapisah611@man.com</v>
+        <v>pingkannapisah281@man.com</v>
       </c>
       <c r="C434" s="61" t="s">
         <v>147</v>
@@ -29852,7 +29852,7 @@
       </c>
       <c r="B435" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rikamahyani49@man.com</v>
+        <v>rikamahyani824@man.com</v>
       </c>
       <c r="C435" s="57" t="s">
         <v>148</v>
@@ -29882,7 +29882,7 @@
       </c>
       <c r="B436" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>rimaputrimegaandria52@man.com</v>
+        <v>rimaputrimegaandria426@man.com</v>
       </c>
       <c r="C436" s="59" t="s">
         <v>149</v>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="B437" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>sarabensu265@man.com</v>
+        <v>sarabensu610@man.com</v>
       </c>
       <c r="C437" s="57" t="s">
         <v>150</v>
@@ -29942,7 +29942,7 @@
       </c>
       <c r="B438" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>syardifitrah304@man.com</v>
+        <v>syardifitrah879@man.com</v>
       </c>
       <c r="C438" s="57" t="s">
         <v>139</v>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="B439" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>zannatulazila839@man.com</v>
+        <v>zannatulazila748@man.com</v>
       </c>
       <c r="C439" s="57" t="s">
         <v>151</v>
@@ -30002,7 +30002,7 @@
       </c>
       <c r="B440" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abdanfitramenye610@man.com</v>
+        <v>abdanfitramenye521@man.com</v>
       </c>
       <c r="C440" s="63" t="s">
         <v>635</v>
@@ -30032,7 +30032,7 @@
       </c>
       <c r="B441" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>almunadi306@man.com</v>
+        <v>almunadi748@man.com</v>
       </c>
       <c r="C441" s="63" t="s">
         <v>152</v>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="B442" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>andreancanhari381@man.com</v>
+        <v>andreancanhari831@man.com</v>
       </c>
       <c r="C442" s="63" t="s">
         <v>153</v>
@@ -30092,7 +30092,7 @@
       </c>
       <c r="B443" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>assyifawahiddayati951@man.com</v>
+        <v>assyifawahiddayati555@man.com</v>
       </c>
       <c r="C443" s="63" t="s">
         <v>154</v>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="B444" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ayudalisma247@man.com</v>
+        <v>ayudalisma77@man.com</v>
       </c>
       <c r="C444" s="63" t="s">
         <v>155</v>
@@ -30152,7 +30152,7 @@
       </c>
       <c r="B445" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>daffaelzafadhil569@man.com</v>
+        <v>daffaelzafadhil769@man.com</v>
       </c>
       <c r="C445" s="63" t="s">
         <v>156</v>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="B446" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>fathulannisa544@man.com</v>
+        <v>fathulannisa728@man.com</v>
       </c>
       <c r="C446" s="63" t="s">
         <v>636</v>
@@ -30212,7 +30212,7 @@
       </c>
       <c r="B447" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hafnizahara272@man.com</v>
+        <v>hafnizahara664@man.com</v>
       </c>
       <c r="C447" s="63" t="s">
         <v>157</v>
@@ -30242,7 +30242,7 @@
       </c>
       <c r="B448" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hendra85@man.com</v>
+        <v>hendra60@man.com</v>
       </c>
       <c r="C448" s="63" t="s">
         <v>158</v>
@@ -30272,7 +30272,7 @@
       </c>
       <c r="B449" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>heniwijayanti578@man.com</v>
+        <v>heniwijayanti110@man.com</v>
       </c>
       <c r="C449" s="63" t="s">
         <v>159</v>
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B450" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>hermavalentina522@man.com</v>
+        <v>hermavalentina913@man.com</v>
       </c>
       <c r="C450" s="63" t="s">
         <v>160</v>
@@ -30332,7 +30332,7 @@
       </c>
       <c r="B451" s="5" t="str">
         <f t="shared" ref="B451:B514" ca="1" si="7">SUBSTITUTE(LOWER(C451&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>hidayatunnahar435@man.com</v>
+        <v>hidayatunnahar645@man.com</v>
       </c>
       <c r="C451" s="63" t="s">
         <v>637</v>
@@ -30362,7 +30362,7 @@
       </c>
       <c r="B452" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>imamsamudra501@man.com</v>
+        <v>imamsamudra631@man.com</v>
       </c>
       <c r="C452" s="63" t="s">
         <v>161</v>
@@ -30392,7 +30392,7 @@
       </c>
       <c r="B453" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intantamara837@man.com</v>
+        <v>intantamara405@man.com</v>
       </c>
       <c r="C453" s="63" t="s">
         <v>162</v>
@@ -30422,7 +30422,7 @@
       </c>
       <c r="B454" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ismajunipratama688@man.com</v>
+        <v>ismajunipratama195@man.com</v>
       </c>
       <c r="C454" s="63" t="s">
         <v>163</v>
@@ -30452,7 +30452,7 @@
       </c>
       <c r="B455" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jonisyahwanara516@man.com</v>
+        <v>jonisyahwanara484@man.com</v>
       </c>
       <c r="C455" s="63" t="s">
         <v>638</v>
@@ -30482,7 +30482,7 @@
       </c>
       <c r="B456" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>juhriansyah63@man.com</v>
+        <v>juhriansyah106@man.com</v>
       </c>
       <c r="C456" s="63" t="s">
         <v>639</v>
@@ -30512,7 +30512,7 @@
       </c>
       <c r="B457" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jumadirahman19@man.com</v>
+        <v>jumadirahman113@man.com</v>
       </c>
       <c r="C457" s="63" t="s">
         <v>165</v>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="B458" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnisa101@man.com</v>
+        <v>khairunnisa898@man.com</v>
       </c>
       <c r="C458" s="63" t="s">
         <v>164</v>
@@ -30572,7 +30572,7 @@
       </c>
       <c r="B459" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mnur610@man.com</v>
+        <v>mnur277@man.com</v>
       </c>
       <c r="C459" s="63" t="s">
         <v>640</v>
@@ -30602,7 +30602,7 @@
       </c>
       <c r="B460" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mriezafahlevi332@man.com</v>
+        <v>mriezafahlevi259@man.com</v>
       </c>
       <c r="C460" s="63" t="s">
         <v>641</v>
@@ -30632,7 +30632,7 @@
       </c>
       <c r="B461" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mauzialfadila954@man.com</v>
+        <v>mauzialfadila345@man.com</v>
       </c>
       <c r="C461" s="63" t="s">
         <v>166</v>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="B462" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mawaddah472@man.com</v>
+        <v>mawaddah835@man.com</v>
       </c>
       <c r="C462" s="63" t="s">
         <v>167</v>
@@ -30692,7 +30692,7 @@
       </c>
       <c r="B463" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mukhsin701@man.com</v>
+        <v>mukhsin617@man.com</v>
       </c>
       <c r="C463" s="63" t="s">
         <v>642</v>
@@ -30722,7 +30722,7 @@
       </c>
       <c r="B464" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nurhayati943@man.com</v>
+        <v>nurhayati427@man.com</v>
       </c>
       <c r="C464" s="63" t="s">
         <v>168</v>
@@ -30752,7 +30752,7 @@
       </c>
       <c r="B465" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>orijagunawans445@man.com</v>
+        <v>orijagunawans563@man.com</v>
       </c>
       <c r="C465" s="63" t="s">
         <v>169</v>
@@ -30782,7 +30782,7 @@
       </c>
       <c r="B466" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmisapitri14@man.com</v>
+        <v>rahmisapitri490@man.com</v>
       </c>
       <c r="C466" s="63" t="s">
         <v>170</v>
@@ -30812,7 +30812,7 @@
       </c>
       <c r="B467" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rajakrafsanjani26@man.com</v>
+        <v>rajakrafsanjani936@man.com</v>
       </c>
       <c r="C467" s="63" t="s">
         <v>643</v>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="B468" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sabarollah554@man.com</v>
+        <v>sabarollah453@man.com</v>
       </c>
       <c r="C468" s="63" t="s">
         <v>171</v>
@@ -30872,7 +30872,7 @@
       </c>
       <c r="B469" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>salmanalfarisi622@man.com</v>
+        <v>salmanalfarisi376@man.com</v>
       </c>
       <c r="C469" s="63" t="s">
         <v>644</v>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="B470" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sauqiqalbiihsan559@man.com</v>
+        <v>sauqiqalbiihsan542@man.com</v>
       </c>
       <c r="C470" s="63" t="s">
         <v>645</v>
@@ -30932,7 +30932,7 @@
       </c>
       <c r="B471" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>seprianaputri477@man.com</v>
+        <v>seprianaputri689@man.com</v>
       </c>
       <c r="C471" s="63" t="s">
         <v>172</v>
@@ -30962,7 +30962,7 @@
       </c>
       <c r="B472" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>septiajuliabreta829@man.com</v>
+        <v>septiajuliabreta394@man.com</v>
       </c>
       <c r="C472" s="63" t="s">
         <v>646</v>
@@ -30992,7 +30992,7 @@
       </c>
       <c r="B473" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>sujadanaufal404@man.com</v>
+        <v>sujadanaufal363@man.com</v>
       </c>
       <c r="C473" s="63" t="s">
         <v>173</v>
@@ -31022,7 +31022,7 @@
       </c>
       <c r="B474" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>tiararejeki868@man.com</v>
+        <v>tiararejeki454@man.com</v>
       </c>
       <c r="C474" s="63" t="s">
         <v>647</v>
@@ -31052,7 +31052,7 @@
       </c>
       <c r="B475" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>vaniaamanda208@man.com</v>
+        <v>vaniaamanda224@man.com</v>
       </c>
       <c r="C475" s="63" t="s">
         <v>174</v>
@@ -31082,7 +31082,7 @@
       </c>
       <c r="B476" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wardani112@man.com</v>
+        <v>wardani780@man.com</v>
       </c>
       <c r="C476" s="63" t="s">
         <v>175</v>
@@ -31112,7 +31112,7 @@
       </c>
       <c r="B477" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wiramahendra849@man.com</v>
+        <v>wiramahendra867@man.com</v>
       </c>
       <c r="C477" s="63" t="s">
         <v>176</v>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="B478" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ardianokta84@man.com</v>
+        <v>ardianokta545@man.com</v>
       </c>
       <c r="C478" s="68" t="s">
         <v>177</v>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="B479" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarafiqi331@man.com</v>
+        <v>auliarafiqi570@man.com</v>
       </c>
       <c r="C479" s="66" t="s">
         <v>178</v>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="B480" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>auliarahmi752@man.com</v>
+        <v>auliarahmi977@man.com</v>
       </c>
       <c r="C480" s="67" t="s">
         <v>179</v>
@@ -31232,7 +31232,7 @@
       </c>
       <c r="B481" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>azzatilakmar888@man.com</v>
+        <v>azzatilakmar692@man.com</v>
       </c>
       <c r="C481" s="68" t="s">
         <v>180</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="B482" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dhiyajinansausan506@man.com</v>
+        <v>dhiyajinansausan8@man.com</v>
       </c>
       <c r="C482" s="67" t="s">
         <v>181</v>
@@ -31292,7 +31292,7 @@
       </c>
       <c r="B483" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>elmafebriani996@man.com</v>
+        <v>elmafebriani396@man.com</v>
       </c>
       <c r="C483" s="66" t="s">
         <v>182</v>
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B484" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>firamaulana961@man.com</v>
+        <v>firamaulana765@man.com</v>
       </c>
       <c r="C484" s="72" t="s">
         <v>183</v>
@@ -31352,7 +31352,7 @@
       </c>
       <c r="B485" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>henderik738@man.com</v>
+        <v>henderik593@man.com</v>
       </c>
       <c r="C485" s="68" t="s">
         <v>648</v>
@@ -31382,7 +31382,7 @@
       </c>
       <c r="B486" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ifasilvia804@man.com</v>
+        <v>ifasilvia747@man.com</v>
       </c>
       <c r="C486" s="66" t="s">
         <v>184</v>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="B487" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>intanrindipurwati497@man.com</v>
+        <v>intanrindipurwati967@man.com</v>
       </c>
       <c r="C487" s="66" t="s">
         <v>185</v>
@@ -31442,7 +31442,7 @@
       </c>
       <c r="B488" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ilhamrizkipratama648@man.com</v>
+        <v>ilhamrizkipratama288@man.com</v>
       </c>
       <c r="C488" s="66" t="s">
         <v>649</v>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="B489" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>iradah466@man.com</v>
+        <v>iradah214@man.com</v>
       </c>
       <c r="C489" s="68" t="s">
         <v>186</v>
@@ -31502,7 +31502,7 @@
       </c>
       <c r="B490" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>jamianqalbu80@man.com</v>
+        <v>jamianqalbu791@man.com</v>
       </c>
       <c r="C490" s="68" t="s">
         <v>221</v>
@@ -31532,7 +31532,7 @@
       </c>
       <c r="B491" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>khairunnasirin953@man.com</v>
+        <v>khairunnasirin240@man.com</v>
       </c>
       <c r="C491" s="68" t="s">
         <v>187</v>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="B492" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mfahri778@man.com</v>
+        <v>mfahri936@man.com</v>
       </c>
       <c r="C492" s="68" t="s">
         <v>650</v>
@@ -31592,7 +31592,7 @@
       </c>
       <c r="B493" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mputrawansyah184@man.com</v>
+        <v>mputrawansyah949@man.com</v>
       </c>
       <c r="C493" s="67" t="s">
         <v>651</v>
@@ -31622,7 +31622,7 @@
       </c>
       <c r="B494" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maharani847@man.com</v>
+        <v>maharani641@man.com</v>
       </c>
       <c r="C494" s="66" t="s">
         <v>188</v>
@@ -31652,7 +31652,7 @@
       </c>
       <c r="B495" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>marlindapuspita568@man.com</v>
+        <v>marlindapuspita361@man.com</v>
       </c>
       <c r="C495" s="67" t="s">
         <v>189</v>
@@ -31682,7 +31682,7 @@
       </c>
       <c r="B496" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>maulidaafriani335@man.com</v>
+        <v>maulidaafriani789@man.com</v>
       </c>
       <c r="C496" s="66" t="s">
         <v>190</v>
@@ -31712,7 +31712,7 @@
       </c>
       <c r="B497" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mutiarezeki618@man.com</v>
+        <v>mutiarezeki104@man.com</v>
       </c>
       <c r="C497" s="65" t="s">
         <v>191</v>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="B498" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiamahara285@man.com</v>
+        <v>nadiamahara920@man.com</v>
       </c>
       <c r="C498" s="69" t="s">
         <v>192</v>
@@ -31772,7 +31772,7 @@
       </c>
       <c r="B499" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadiasari383@man.com</v>
+        <v>nadiasari789@man.com</v>
       </c>
       <c r="C499" s="68" t="s">
         <v>193</v>
@@ -31802,7 +31802,7 @@
       </c>
       <c r="B500" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nadyabrudio645@man.com</v>
+        <v>nadyabrudio393@man.com</v>
       </c>
       <c r="C500" s="68" t="s">
         <v>194</v>
@@ -31832,7 +31832,7 @@
       </c>
       <c r="B501" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>najibmusapatinugraha927@man.com</v>
+        <v>najibmusapatinugraha248@man.com</v>
       </c>
       <c r="C501" s="66" t="s">
         <v>195</v>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="B502" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nazlaaqnia579@man.com</v>
+        <v>nazlaaqnia153@man.com</v>
       </c>
       <c r="C502" s="67" t="s">
         <v>196</v>
@@ -31892,7 +31892,7 @@
       </c>
       <c r="B503" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>niaramadani255@man.com</v>
+        <v>niaramadani116@man.com</v>
       </c>
       <c r="C503" s="66" t="s">
         <v>652</v>
@@ -31922,7 +31922,7 @@
       </c>
       <c r="B504" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>nindasafitri451@man.com</v>
+        <v>nindasafitri452@man.com</v>
       </c>
       <c r="C504" s="67" t="s">
         <v>197</v>
@@ -31952,7 +31952,7 @@
       </c>
       <c r="B505" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>pujasimehate493@man.com</v>
+        <v>pujasimehate840@man.com</v>
       </c>
       <c r="C505" s="67" t="s">
         <v>198</v>
@@ -31982,7 +31982,7 @@
       </c>
       <c r="B506" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rahmadayanti542@man.com</v>
+        <v>rahmadayanti302@man.com</v>
       </c>
       <c r="C506" s="66" t="s">
         <v>199</v>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="B507" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>raihandandi869@man.com</v>
+        <v>raihandandi948@man.com</v>
       </c>
       <c r="C507" s="68" t="s">
         <v>200</v>
@@ -32042,7 +32042,7 @@
       </c>
       <c r="B508" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>refkiwiyanda89@man.com</v>
+        <v>refkiwiyanda834@man.com</v>
       </c>
       <c r="C508" s="68" t="s">
         <v>201</v>
@@ -32072,7 +32072,7 @@
       </c>
       <c r="B509" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>riswandianugrah723@man.com</v>
+        <v>riswandianugrah241@man.com</v>
       </c>
       <c r="C509" s="68" t="s">
         <v>202</v>
@@ -32102,7 +32102,7 @@
       </c>
       <c r="B510" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>rizkaiwanpasaranggayo793@man.com</v>
+        <v>rizkaiwanpasaranggayo875@man.com</v>
       </c>
       <c r="C510" s="65" t="s">
         <v>203</v>
@@ -32132,7 +32132,7 @@
       </c>
       <c r="B511" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yuliana193@man.com</v>
+        <v>yuliana191@man.com</v>
       </c>
       <c r="C511" s="66" t="s">
         <v>205</v>
@@ -32162,7 +32162,7 @@
       </c>
       <c r="B512" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>yulianda593@man.com</v>
+        <v>yulianda578@man.com</v>
       </c>
       <c r="C512" s="66" t="s">
         <v>206</v>
@@ -32192,7 +32192,7 @@
       </c>
       <c r="B513" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>zahran786@man.com</v>
+        <v>zahran976@man.com</v>
       </c>
       <c r="C513" s="70" t="s">
         <v>207</v>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="B514" s="5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abrarilliyin179@man.com</v>
+        <v>abrarilliyin224@man.com</v>
       </c>
       <c r="C514" s="73" t="s">
         <v>208</v>
@@ -32252,7 +32252,7 @@
       </c>
       <c r="B515" s="5" t="str">
         <f t="shared" ref="B515:B578" ca="1" si="8">SUBSTITUTE(LOWER(C515&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>adenovalkurnia880@man.com</v>
+        <v>adenovalkurnia855@man.com</v>
       </c>
       <c r="C515" s="74" t="s">
         <v>209</v>
@@ -32282,7 +32282,7 @@
       </c>
       <c r="B516" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anandasaskia741@man.com</v>
+        <v>anandasaskia612@man.com</v>
       </c>
       <c r="C516" s="76" t="s">
         <v>210</v>
@@ -32312,7 +32312,7 @@
       </c>
       <c r="B517" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>asparina614@man.com</v>
+        <v>asparina622@man.com</v>
       </c>
       <c r="C517" s="75" t="s">
         <v>211</v>
@@ -32342,7 +32342,7 @@
       </c>
       <c r="B518" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>cutmeriahsyamsi727@man.com</v>
+        <v>cutmeriahsyamsi85@man.com</v>
       </c>
       <c r="C518" s="76" t="s">
         <v>212</v>
@@ -32372,7 +32372,7 @@
       </c>
       <c r="B519" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>dahriaziz644@man.com</v>
+        <v>dahriaziz387@man.com</v>
       </c>
       <c r="C519" s="74" t="s">
         <v>213</v>
@@ -32402,7 +32402,7 @@
       </c>
       <c r="B520" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>desimahbengi21@man.com</v>
+        <v>desimahbengi416@man.com</v>
       </c>
       <c r="C520" s="75" t="s">
         <v>215</v>
@@ -32432,7 +32432,7 @@
       </c>
       <c r="B521" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>diskiadlani144@man.com</v>
+        <v>diskiadlani911@man.com</v>
       </c>
       <c r="C521" s="78" t="s">
         <v>214</v>
@@ -32462,7 +32462,7 @@
       </c>
       <c r="B522" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>fahmimaisya74@man.com</v>
+        <v>fahmimaisya968@man.com</v>
       </c>
       <c r="C522" s="76" t="s">
         <v>216</v>
@@ -32492,7 +32492,7 @@
       </c>
       <c r="B523" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>humairanadila992@man.com</v>
+        <v>humairanadila802@man.com</v>
       </c>
       <c r="C523" s="73" t="s">
         <v>217</v>
@@ -32522,7 +32522,7 @@
       </c>
       <c r="B524" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnimahtuah798@man.com</v>
+        <v>husnimahtuah447@man.com</v>
       </c>
       <c r="C524" s="74" t="s">
         <v>218</v>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="B525" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>iqbaldarmawan235@man.com</v>
+        <v>iqbaldarmawan877@man.com</v>
       </c>
       <c r="C525" s="74" t="s">
         <v>219</v>
@@ -32582,7 +32582,7 @@
       </c>
       <c r="B526" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>israazzahra836@man.com</v>
+        <v>israazzahra555@man.com</v>
       </c>
       <c r="C526" s="74" t="s">
         <v>220</v>
@@ -32612,7 +32612,7 @@
       </c>
       <c r="B527" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>khairunisa137@man.com</v>
+        <v>khairunisa227@man.com</v>
       </c>
       <c r="C527" s="75" t="s">
         <v>222</v>
@@ -32642,7 +32642,7 @@
       </c>
       <c r="B528" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>laulasalsabila633@man.com</v>
+        <v>laulasalsabila117@man.com</v>
       </c>
       <c r="C528" s="75" t="s">
         <v>223</v>
@@ -32672,7 +32672,7 @@
       </c>
       <c r="B529" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>msubki627@man.com</v>
+        <v>msubki96@man.com</v>
       </c>
       <c r="C529" s="75" t="s">
         <v>653</v>
@@ -32702,7 +32702,7 @@
       </c>
       <c r="B530" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>magfirahyurisma5@man.com</v>
+        <v>magfirahyurisma798@man.com</v>
       </c>
       <c r="C530" s="74" t="s">
         <v>225</v>
@@ -32732,7 +32732,7 @@
       </c>
       <c r="B531" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mauliyana949@man.com</v>
+        <v>mauliyana448@man.com</v>
       </c>
       <c r="C531" s="76" t="s">
         <v>226</v>
@@ -32762,7 +32762,7 @@
       </c>
       <c r="B532" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>meethalaura827@man.com</v>
+        <v>meethalaura338@man.com</v>
       </c>
       <c r="C532" s="73" t="s">
         <v>227</v>
@@ -32792,7 +32792,7 @@
       </c>
       <c r="B533" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mislanbahana465@man.com</v>
+        <v>mislanbahana211@man.com</v>
       </c>
       <c r="C533" s="75" t="s">
         <v>228</v>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="B534" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadilaraudatunnisya924@man.com</v>
+        <v>nadilaraudatunnisya695@man.com</v>
       </c>
       <c r="C534" s="76" t="s">
         <v>229</v>
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B535" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nadyatiaraniaprilia180@man.com</v>
+        <v>nadyatiaraniaprilia504@man.com</v>
       </c>
       <c r="C535" s="79" t="s">
         <v>230</v>
@@ -32882,7 +32882,7 @@
       </c>
       <c r="B536" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>niaramadhana399@man.com</v>
+        <v>niaramadhana316@man.com</v>
       </c>
       <c r="C536" s="75" t="s">
         <v>224</v>
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B537" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>noraarifah678@man.com</v>
+        <v>noraarifah94@man.com</v>
       </c>
       <c r="C537" s="73" t="s">
         <v>231</v>
@@ -32942,7 +32942,7 @@
       </c>
       <c r="B538" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrialyasalsabila971@man.com</v>
+        <v>putrialyasalsabila292@man.com</v>
       </c>
       <c r="C538" s="76" t="s">
         <v>232</v>
@@ -32972,7 +32972,7 @@
       </c>
       <c r="B539" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putrikawazula469@man.com</v>
+        <v>putrikawazula762@man.com</v>
       </c>
       <c r="C539" s="75" t="s">
         <v>233</v>
@@ -33002,7 +33002,7 @@
       </c>
       <c r="B540" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ramadhanfitra462@man.com</v>
+        <v>ramadhanfitra789@man.com</v>
       </c>
       <c r="C540" s="76" t="s">
         <v>234</v>
@@ -33032,7 +33032,7 @@
       </c>
       <c r="B541" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>randarizki671@man.com</v>
+        <v>randarizki699@man.com</v>
       </c>
       <c r="C541" s="74" t="s">
         <v>235</v>
@@ -33062,7 +33062,7 @@
       </c>
       <c r="B542" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>reladi999@man.com</v>
+        <v>reladi990@man.com</v>
       </c>
       <c r="C542" s="74" t="s">
         <v>236</v>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="B543" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rezekiwananto782@man.com</v>
+        <v>rezekiwananto605@man.com</v>
       </c>
       <c r="C543" s="75" t="s">
         <v>237</v>
@@ -33122,7 +33122,7 @@
       </c>
       <c r="B544" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riski793@man.com</v>
+        <v>riski507@man.com</v>
       </c>
       <c r="C544" s="74" t="s">
         <v>238</v>
@@ -33152,7 +33152,7 @@
       </c>
       <c r="B545" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>riskisetiawan36@man.com</v>
+        <v>riskisetiawan192@man.com</v>
       </c>
       <c r="C545" s="76" t="s">
         <v>239</v>
@@ -33182,7 +33182,7 @@
       </c>
       <c r="B546" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>rizkiiwanramadan503@man.com</v>
+        <v>rizkiiwanramadan492@man.com</v>
       </c>
       <c r="C546" s="75" t="s">
         <v>240</v>
@@ -33212,7 +33212,7 @@
       </c>
       <c r="B547" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruaida436@man.com</v>
+        <v>ruaida903@man.com</v>
       </c>
       <c r="C547" s="77" t="s">
         <v>241</v>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="B548" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>safrinandaputra156@man.com</v>
+        <v>safrinandaputra660@man.com</v>
       </c>
       <c r="C548" s="75" t="s">
         <v>204</v>
@@ -33272,7 +33272,7 @@
       </c>
       <c r="B549" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>selviapintenate856@man.com</v>
+        <v>selviapintenate403@man.com</v>
       </c>
       <c r="C549" s="76" t="s">
         <v>242</v>
@@ -33302,7 +33302,7 @@
       </c>
       <c r="B550" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wulanmelisa804@man.com</v>
+        <v>wulanmelisa862@man.com</v>
       </c>
       <c r="C550" s="76" t="s">
         <v>243</v>
@@ -33332,7 +33332,7 @@
       </c>
       <c r="B551" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>anggunkaniya226@man.com</v>
+        <v>anggunkaniya343@man.com</v>
       </c>
       <c r="C551" s="83" t="s">
         <v>244</v>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="B552" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>binautami47@man.com</v>
+        <v>binautami649@man.com</v>
       </c>
       <c r="C552" s="83" t="s">
         <v>245</v>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="B553" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ditaarmazayani803@man.com</v>
+        <v>ditaarmazayani900@man.com</v>
       </c>
       <c r="C553" s="83" t="s">
         <v>246</v>
@@ -33422,7 +33422,7 @@
       </c>
       <c r="B554" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>helmifauziansah991@man.com</v>
+        <v>helmifauziansah567@man.com</v>
       </c>
       <c r="C554" s="84" t="s">
         <v>256</v>
@@ -33452,7 +33452,7 @@
       </c>
       <c r="B555" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>husnasari120@man.com</v>
+        <v>husnasari641@man.com</v>
       </c>
       <c r="C555" s="83" t="s">
         <v>247</v>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="B556" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ipakyana511@man.com</v>
+        <v>ipakyana640@man.com</v>
       </c>
       <c r="C556" s="83" t="s">
         <v>248</v>
@@ -33512,7 +33512,7 @@
       </c>
       <c r="B557" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>istiqomah174@man.com</v>
+        <v>istiqomah309@man.com</v>
       </c>
       <c r="C557" s="83" t="s">
         <v>249</v>
@@ -33542,7 +33542,7 @@
       </c>
       <c r="B558" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>lidyaaudina820@man.com</v>
+        <v>lidyaaudina70@man.com</v>
       </c>
       <c r="C558" s="83" t="s">
         <v>250</v>
@@ -33572,7 +33572,7 @@
       </c>
       <c r="B559" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ma'rifatinzahra985@man.com</v>
+        <v>ma'rifatinzahra667@man.com</v>
       </c>
       <c r="C559" s="83" t="s">
         <v>251</v>
@@ -33602,7 +33602,7 @@
       </c>
       <c r="B560" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>melawatiputri267@man.com</v>
+        <v>melawatiputri2@man.com</v>
       </c>
       <c r="C560" s="83" t="s">
         <v>252</v>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="B561" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>milajunitaslasih991@man.com</v>
+        <v>milajunitaslasih604@man.com</v>
       </c>
       <c r="C561" s="83" t="s">
         <v>253</v>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="B562" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>mirnayanti588@man.com</v>
+        <v>mirnayanti671@man.com</v>
       </c>
       <c r="C562" s="83" t="s">
         <v>254</v>
@@ -33692,7 +33692,7 @@
       </c>
       <c r="B563" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nazirahusna597@man.com</v>
+        <v>nazirahusna715@man.com</v>
       </c>
       <c r="C563" s="83" t="s">
         <v>255</v>
@@ -33722,7 +33722,7 @@
       </c>
       <c r="B564" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>nuraisyahborun915@man.com</v>
+        <v>nuraisyahborun48@man.com</v>
       </c>
       <c r="C564" s="83" t="s">
         <v>257</v>
@@ -33752,7 +33752,7 @@
       </c>
       <c r="B565" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>pinterezeki270@man.com</v>
+        <v>pinterezeki111@man.com</v>
       </c>
       <c r="C565" s="81" t="s">
         <v>258</v>
@@ -33782,7 +33782,7 @@
       </c>
       <c r="B566" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>putridamayani208@man.com</v>
+        <v>putridamayani337@man.com</v>
       </c>
       <c r="C566" s="84" t="s">
         <v>259</v>
@@ -33812,7 +33812,7 @@
       </c>
       <c r="B567" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>raniapermataputri745@man.com</v>
+        <v>raniapermataputri793@man.com</v>
       </c>
       <c r="C567" s="81" t="s">
         <v>260</v>
@@ -33842,7 +33842,7 @@
       </c>
       <c r="B568" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ruhda438@man.com</v>
+        <v>ruhda348@man.com</v>
       </c>
       <c r="C568" s="85" t="s">
         <v>261</v>
@@ -33872,7 +33872,7 @@
       </c>
       <c r="B569" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sarawidamelala510@man.com</v>
+        <v>sarawidamelala703@man.com</v>
       </c>
       <c r="C569" s="83" t="s">
         <v>262</v>
@@ -33902,7 +33902,7 @@
       </c>
       <c r="B570" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sariramadani48@man.com</v>
+        <v>sariramadani792@man.com</v>
       </c>
       <c r="C570" s="84" t="s">
         <v>263</v>
@@ -33932,7 +33932,7 @@
       </c>
       <c r="B571" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>saufayarda645@man.com</v>
+        <v>saufayarda294@man.com</v>
       </c>
       <c r="C571" s="83" t="s">
         <v>264</v>
@@ -33962,7 +33962,7 @@
       </c>
       <c r="B572" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>sitinurkhadijah520@man.com</v>
+        <v>sitinurkhadijah39@man.com</v>
       </c>
       <c r="C572" s="81" t="s">
         <v>265</v>
@@ -33992,7 +33992,7 @@
       </c>
       <c r="B573" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>winnaufalmuhammad33@man.com</v>
+        <v>winnaufalmuhammad623@man.com</v>
       </c>
       <c r="C573" s="84" t="s">
         <v>266</v>
@@ -34022,7 +34022,7 @@
       </c>
       <c r="B574" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ylmianafitri10@man.com</v>
+        <v>ylmianafitri655@man.com</v>
       </c>
       <c r="C574" s="83" t="s">
         <v>267</v>
@@ -34052,7 +34052,7 @@
       </c>
       <c r="B575" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>yowenibahgie954@man.com</v>
+        <v>yowenibahgie128@man.com</v>
       </c>
       <c r="C575" s="86" t="s">
         <v>268</v>
@@ -34082,7 +34082,7 @@
       </c>
       <c r="B576" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>aldiansyahrizki102@man.com</v>
+        <v>aldiansyahrizki833@man.com</v>
       </c>
       <c r="C576" s="92" t="s">
         <v>309</v>
@@ -34112,7 +34112,7 @@
       </c>
       <c r="B577" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>alfisahri834@man.com</v>
+        <v>alfisahri622@man.com</v>
       </c>
       <c r="C577" s="93" t="s">
         <v>270</v>
@@ -34142,7 +34142,7 @@
       </c>
       <c r="B578" s="5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>arjunaarisisara436@man.com</v>
+        <v>arjunaarisisara664@man.com</v>
       </c>
       <c r="C578" s="89" t="s">
         <v>271</v>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="B579" s="5" t="str">
         <f t="shared" ref="B579:B642" ca="1" si="9">SUBSTITUTE(LOWER(C579&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>ayunisamahbengi286@man.com</v>
+        <v>ayunisamahbengi621@man.com</v>
       </c>
       <c r="C579" s="94" t="s">
         <v>269</v>
@@ -34202,7 +34202,7 @@
       </c>
       <c r="B580" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>bayupitraarlo947@man.com</v>
+        <v>bayupitraarlo559@man.com</v>
       </c>
       <c r="C580" s="94" t="s">
         <v>272</v>
@@ -34232,7 +34232,7 @@
       </c>
       <c r="B581" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>budicandra709@man.com</v>
+        <v>budicandra646@man.com</v>
       </c>
       <c r="C581" s="91" t="s">
         <v>273</v>
@@ -34262,7 +34262,7 @@
       </c>
       <c r="B582" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dechitaismadiyani662@man.com</v>
+        <v>dechitaismadiyani200@man.com</v>
       </c>
       <c r="C582" s="89" t="s">
         <v>654</v>
@@ -34292,7 +34292,7 @@
       </c>
       <c r="B583" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>desimahara405@man.com</v>
+        <v>desimahara653@man.com</v>
       </c>
       <c r="C583" s="92" t="s">
         <v>274</v>
@@ -34322,7 +34322,7 @@
       </c>
       <c r="B584" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>devianggraini681@man.com</v>
+        <v>devianggraini114@man.com</v>
       </c>
       <c r="C584" s="89" t="s">
         <v>275</v>
@@ -34352,7 +34352,7 @@
       </c>
       <c r="B585" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>farisarahmadani837@man.com</v>
+        <v>farisarahmadani823@man.com</v>
       </c>
       <c r="C585" s="95" t="s">
         <v>276</v>
@@ -34382,7 +34382,7 @@
       </c>
       <c r="B586" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hairidami403@man.com</v>
+        <v>hairidami495@man.com</v>
       </c>
       <c r="C586" s="89" t="s">
         <v>277</v>
@@ -34412,7 +34412,7 @@
       </c>
       <c r="B587" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hajilmasturi516@man.com</v>
+        <v>hajilmasturi382@man.com</v>
       </c>
       <c r="C587" s="95" t="s">
         <v>278</v>
@@ -34442,7 +34442,7 @@
       </c>
       <c r="B588" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>husnulnisa88@man.com</v>
+        <v>husnulnisa90@man.com</v>
       </c>
       <c r="C588" s="91" t="s">
         <v>279</v>
@@ -34472,7 +34472,7 @@
       </c>
       <c r="B589" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>isnaini591@man.com</v>
+        <v>isnaini990@man.com</v>
       </c>
       <c r="C589" s="91" t="s">
         <v>280</v>
@@ -34502,7 +34502,7 @@
       </c>
       <c r="B590" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>jahrasalsabila751@man.com</v>
+        <v>jahrasalsabila762@man.com</v>
       </c>
       <c r="C590" s="95" t="s">
         <v>281</v>
@@ -34532,7 +34532,7 @@
       </c>
       <c r="B591" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>julianafitri293@man.com</v>
+        <v>julianafitri172@man.com</v>
       </c>
       <c r="C591" s="89" t="s">
         <v>282</v>
@@ -34562,7 +34562,7 @@
       </c>
       <c r="B592" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kaifarizki703@man.com</v>
+        <v>kaifarizki443@man.com</v>
       </c>
       <c r="C592" s="91" t="s">
         <v>283</v>
@@ -34592,7 +34592,7 @@
       </c>
       <c r="B593" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>maisarahsimehate2@man.com</v>
+        <v>maisarahsimehate598@man.com</v>
       </c>
       <c r="C593" s="89" t="s">
         <v>284</v>
@@ -34622,7 +34622,7 @@
       </c>
       <c r="B594" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mariah922@man.com</v>
+        <v>mariah448@man.com</v>
       </c>
       <c r="C594" s="89" t="s">
         <v>655</v>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="B595" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fahrizalkr901@man.com</v>
+        <v>mhd.fahrizalkr760@man.com</v>
       </c>
       <c r="C595" s="88" t="s">
         <v>285</v>
@@ -34682,7 +34682,7 @@
       </c>
       <c r="B596" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mulyanaks160@man.com</v>
+        <v>mulyanaks211@man.com</v>
       </c>
       <c r="C596" s="96" t="s">
         <v>286</v>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="B597" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nabilatrisinteni570@man.com</v>
+        <v>nabilatrisinteni238@man.com</v>
       </c>
       <c r="C597" s="91" t="s">
         <v>287</v>
@@ -34742,7 +34742,7 @@
       </c>
       <c r="B598" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nafhahsyasyasajidah277@man.com</v>
+        <v>nafhahsyasyasajidah635@man.com</v>
       </c>
       <c r="C598" s="97" t="s">
         <v>288</v>
@@ -34772,7 +34772,7 @@
       </c>
       <c r="B599" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nauvalariskaputra409@man.com</v>
+        <v>nauvalariskaputra789@man.com</v>
       </c>
       <c r="C599" s="89" t="s">
         <v>289</v>
@@ -34802,7 +34802,7 @@
       </c>
       <c r="B600" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nazaruddin48@man.com</v>
+        <v>nazaruddin72@man.com</v>
       </c>
       <c r="C600" s="98" t="s">
         <v>290</v>
@@ -34832,7 +34832,7 @@
       </c>
       <c r="B601" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>niaradeswita558@man.com</v>
+        <v>niaradeswita777@man.com</v>
       </c>
       <c r="C601" s="98" t="s">
         <v>291</v>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="B602" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nilawati467@man.com</v>
+        <v>nilawati602@man.com</v>
       </c>
       <c r="C602" s="95" t="s">
         <v>292</v>
@@ -34892,7 +34892,7 @@
       </c>
       <c r="B603" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nurwahda693@man.com</v>
+        <v>nurwahda921@man.com</v>
       </c>
       <c r="C603" s="87" t="s">
         <v>293</v>
@@ -34922,7 +34922,7 @@
       </c>
       <c r="B604" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>oktaputri817@man.com</v>
+        <v>oktaputri743@man.com</v>
       </c>
       <c r="C604" s="99" t="s">
         <v>294</v>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="B605" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rauzatulzannah558@man.com</v>
+        <v>rauzatulzannah345@man.com</v>
       </c>
       <c r="C605" s="91" t="s">
         <v>47</v>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="B606" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>reynaldi913@man.com</v>
+        <v>reynaldi279@man.com</v>
       </c>
       <c r="C606" s="89" t="s">
         <v>295</v>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="B607" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ridhoalsadr935@man.com</v>
+        <v>ridhoalsadr124@man.com</v>
       </c>
       <c r="C607" s="100" t="s">
         <v>333</v>
@@ -35042,7 +35042,7 @@
       </c>
       <c r="B608" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>riskinaputri430@man.com</v>
+        <v>riskinaputri800@man.com</v>
       </c>
       <c r="C608" s="92" t="s">
         <v>296</v>
@@ -35072,7 +35072,7 @@
       </c>
       <c r="B609" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sabri511@man.com</v>
+        <v>sabri597@man.com</v>
       </c>
       <c r="C609" s="95" t="s">
         <v>297</v>
@@ -35102,7 +35102,7 @@
       </c>
       <c r="B610" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>salwani345@man.com</v>
+        <v>salwani63@man.com</v>
       </c>
       <c r="C610" s="92" t="s">
         <v>298</v>
@@ -35132,7 +35132,7 @@
       </c>
       <c r="B611" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sandipujaga634@man.com</v>
+        <v>sandipujaga314@man.com</v>
       </c>
       <c r="C611" s="95" t="s">
         <v>299</v>
@@ -35162,7 +35162,7 @@
       </c>
       <c r="B612" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>sarianjani813@man.com</v>
+        <v>sarianjani536@man.com</v>
       </c>
       <c r="C612" s="98" t="s">
         <v>300</v>
@@ -35192,7 +35192,7 @@
       </c>
       <c r="B613" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>t.raflyyadyansyah921@man.com</v>
+        <v>t.raflyyadyansyah493@man.com</v>
       </c>
       <c r="C613" s="87" t="s">
         <v>301</v>
@@ -35222,7 +35222,7 @@
       </c>
       <c r="B614" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>zikriwanpinte536@man.com</v>
+        <v>zikriwanpinte881@man.com</v>
       </c>
       <c r="C614" s="96" t="s">
         <v>302</v>
@@ -35252,7 +35252,7 @@
       </c>
       <c r="B615" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afikahsahira991@man.com</v>
+        <v>afikahsahira28@man.com</v>
       </c>
       <c r="C615" s="105" t="s">
         <v>303</v>
@@ -35282,7 +35282,7 @@
       </c>
       <c r="B616" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>afriansyah526@man.com</v>
+        <v>afriansyah565@man.com</v>
       </c>
       <c r="C616" s="108" t="s">
         <v>304</v>
@@ -35312,7 +35312,7 @@
       </c>
       <c r="B617" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahmadnandakuara66@man.com</v>
+        <v>ahmadnandakuara187@man.com</v>
       </c>
       <c r="C617" s="107" t="s">
         <v>305</v>
@@ -35342,7 +35342,7 @@
       </c>
       <c r="B618" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyamaulana642@man.com</v>
+        <v>ahyamaulana290@man.com</v>
       </c>
       <c r="C618" s="105" t="s">
         <v>306</v>
@@ -35372,7 +35372,7 @@
       </c>
       <c r="B619" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ahyaradha513@man.com</v>
+        <v>ahyaradha151@man.com</v>
       </c>
       <c r="C619" s="105" t="s">
         <v>307</v>
@@ -35402,7 +35402,7 @@
       </c>
       <c r="B620" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>alwansyah207@man.com</v>
+        <v>alwansyah762@man.com</v>
       </c>
       <c r="C620" s="104" t="s">
         <v>308</v>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="B621" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>apindaulfa436@man.com</v>
+        <v>apindaulfa327@man.com</v>
       </c>
       <c r="C621" s="101" t="s">
         <v>310</v>
@@ -35462,7 +35462,7 @@
       </c>
       <c r="B622" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>azikiatun231@man.com</v>
+        <v>azikiatun633@man.com</v>
       </c>
       <c r="C622" s="105" t="s">
         <v>311</v>
@@ -35492,7 +35492,7 @@
       </c>
       <c r="B623" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cutintannuraini40@man.com</v>
+        <v>cutintannuraini920@man.com</v>
       </c>
       <c r="C623" s="101" t="s">
         <v>312</v>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="B624" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dainifitri418@man.com</v>
+        <v>dainifitri453@man.com</v>
       </c>
       <c r="C624" s="106" t="s">
         <v>313</v>
@@ -35552,7 +35552,7 @@
       </c>
       <c r="B625" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>faridiwahdi497@man.com</v>
+        <v>faridiwahdi75@man.com</v>
       </c>
       <c r="C625" s="101" t="s">
         <v>314</v>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="B626" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ferimardiaqimi799@man.com</v>
+        <v>ferimardiaqimi540@man.com</v>
       </c>
       <c r="C626" s="105" t="s">
         <v>315</v>
@@ -35612,7 +35612,7 @@
       </c>
       <c r="B627" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>frihasupiantirini903@man.com</v>
+        <v>frihasupiantirini525@man.com</v>
       </c>
       <c r="C627" s="101" t="s">
         <v>316</v>
@@ -35642,7 +35642,7 @@
       </c>
       <c r="B628" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>furqan745@man.com</v>
+        <v>furqan728@man.com</v>
       </c>
       <c r="C628" s="101" t="s">
         <v>317</v>
@@ -35672,7 +35672,7 @@
       </c>
       <c r="B629" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>hariansyah706@man.com</v>
+        <v>hariansyah472@man.com</v>
       </c>
       <c r="C629" s="101" t="s">
         <v>318</v>
@@ -35702,7 +35702,7 @@
       </c>
       <c r="B630" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>ilhamfahmi213@man.com</v>
+        <v>ilhamfahmi435@man.com</v>
       </c>
       <c r="C630" s="104" t="s">
         <v>319</v>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="B631" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>itawarni237@man.com</v>
+        <v>itawarni697@man.com</v>
       </c>
       <c r="C631" s="101" t="s">
         <v>320</v>
@@ -35762,7 +35762,7 @@
       </c>
       <c r="B632" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>iwanramadhan78@man.com</v>
+        <v>iwanramadhan37@man.com</v>
       </c>
       <c r="C632" s="105" t="s">
         <v>321</v>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="B633" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>kemalaintan830@man.com</v>
+        <v>kemalaintan944@man.com</v>
       </c>
       <c r="C633" s="107" t="s">
         <v>322</v>
@@ -35822,7 +35822,7 @@
       </c>
       <c r="B634" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>khairuladha545@man.com</v>
+        <v>khairuladha90@man.com</v>
       </c>
       <c r="C634" s="101" t="s">
         <v>323</v>
@@ -35852,7 +35852,7 @@
       </c>
       <c r="B635" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>lindakarma459@man.com</v>
+        <v>lindakarma467@man.com</v>
       </c>
       <c r="C635" s="101" t="s">
         <v>324</v>
@@ -35882,7 +35882,7 @@
       </c>
       <c r="B636" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mhd.fadhli741@man.com</v>
+        <v>mhd.fadhli7@man.com</v>
       </c>
       <c r="C636" s="102" t="s">
         <v>325</v>
@@ -35912,7 +35912,7 @@
       </c>
       <c r="B637" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>milwanaprilian427@man.com</v>
+        <v>milwanaprilian246@man.com</v>
       </c>
       <c r="C637" s="105" t="s">
         <v>326</v>
@@ -35942,7 +35942,7 @@
       </c>
       <c r="B638" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mississaprida422@man.com</v>
+        <v>mississaprida303@man.com</v>
       </c>
       <c r="C638" s="101" t="s">
         <v>327</v>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="B639" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>mushab292@man.com</v>
+        <v>mushab139@man.com</v>
       </c>
       <c r="C639" s="101" t="s">
         <v>328</v>
@@ -36002,7 +36002,7 @@
       </c>
       <c r="B640" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>nuraini299@man.com</v>
+        <v>nuraini91@man.com</v>
       </c>
       <c r="C640" s="105" t="s">
         <v>329</v>
@@ -36032,7 +36032,7 @@
       </c>
       <c r="B641" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatteniro114@man.com</v>
+        <v>rahmatteniro809@man.com</v>
       </c>
       <c r="C641" s="101" t="s">
         <v>330</v>
@@ -36062,7 +36062,7 @@
       </c>
       <c r="B642" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>rahmatsyah785@man.com</v>
+        <v>rahmatsyah67@man.com</v>
       </c>
       <c r="C642" s="105" t="s">
         <v>331</v>
@@ -36092,7 +36092,7 @@
       </c>
       <c r="B643" s="5" t="str">
         <f t="shared" ref="B643:B648" ca="1" si="10">SUBSTITUTE(LOWER(C643&amp;RANDBETWEEN(1,1000))," ","")&amp;"@man.com"</f>
-        <v>rendi472@man.com</v>
+        <v>rendi98@man.com</v>
       </c>
       <c r="C643" s="101" t="s">
         <v>332</v>
@@ -36122,7 +36122,7 @@
       </c>
       <c r="B644" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>sahrial949@man.com</v>
+        <v>sahrial278@man.com</v>
       </c>
       <c r="C644" s="101" t="s">
         <v>334</v>
@@ -36152,7 +36152,7 @@
       </c>
       <c r="B645" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>salwanditebe704@man.com</v>
+        <v>salwanditebe211@man.com</v>
       </c>
       <c r="C645" s="105" t="s">
         <v>335</v>
@@ -36182,7 +36182,7 @@
       </c>
       <c r="B646" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>selfiyuliana842@man.com</v>
+        <v>selfiyuliana297@man.com</v>
       </c>
       <c r="C646" s="102" t="s">
         <v>336</v>
@@ -36212,7 +36212,7 @@
       </c>
       <c r="B647" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>supianda417@man.com</v>
+        <v>supianda261@man.com</v>
       </c>
       <c r="C647" s="105" t="s">
         <v>337</v>
@@ -36242,7 +36242,7 @@
       </c>
       <c r="B648" s="5" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>yassar308@man.com</v>
+        <v>yassar88@man.com</v>
       </c>
       <c r="C648" s="101" t="s">
         <v>338</v>
@@ -36276,7 +36276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A4AA0F-F978-46EC-95BF-06BC610B7274}">
   <dimension ref="A1:U644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P62" workbookViewId="0">
       <selection activeCell="O212" sqref="O212"/>
     </sheetView>
   </sheetViews>
@@ -76587,7 +76587,7 @@
     </row>
     <row r="642" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A642" s="109" t="str">
-        <f t="shared" ref="A642:A705" si="10">SUBSTITUTE(LOWER(B642)," ","")&amp;H642&amp;"@man.com"</f>
+        <f t="shared" ref="A642:A644" si="10">SUBSTITUTE(LOWER(B642)," ","")&amp;H642&amp;"@man.com"</f>
         <v>selfiyuliana9170@man.com</v>
       </c>
       <c r="B642" s="73" t="s">
